--- a/Software.xlsx
+++ b/Software.xlsx
@@ -8,26 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756260E5-7513-4330-948D-A24E394C5C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49EB951-D67B-40C9-BCBF-3C76E3375BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="435" windowWidth="19200" windowHeight="15210" xr2:uid="{BF8D921A-3A39-424B-AF48-6465810DF752}"/>
+    <workbookView xWindow="9630" yWindow="435" windowWidth="19665" windowHeight="15210" xr2:uid="{BF8D921A-3A39-424B-AF48-6465810DF752}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="FX" sheetId="2" r:id="rId2"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Gaming" sheetId="4" r:id="rId2"/>
+    <sheet name="Ecommerce" sheetId="3" r:id="rId3"/>
+    <sheet name="Fintech" sheetId="5" r:id="rId4"/>
+    <sheet name="Gig" sheetId="7" r:id="rId5"/>
+    <sheet name="Private" sheetId="6" r:id="rId6"/>
+    <sheet name="FX" sheetId="2" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="HKD">FX!$C$3</definedName>
@@ -74,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -524,6 +529,18 @@
   </si>
   <si>
     <t>USDHKD</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>ZOOM</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Q222</t>
   </si>
 </sst>
 </file>
@@ -572,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -585,6 +602,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,12 +662,7 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="K5">
             <v>4301</v>
@@ -659,7 +674,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -673,12 +688,7 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="K5">
             <v>3132.9639999999999</v>
@@ -690,7 +700,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -764,16 +774,16 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="L5">
-            <v>304</v>
+            <v>1086</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>315.03500000000003</v>
+            <v>324</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -818,7 +828,7 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="G5">
             <v>21902</v>
@@ -830,7 +840,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -844,7 +854,7 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="3">
           <cell r="N3">
             <v>472.5</v>
@@ -852,12 +862,12 @@
         </row>
         <row r="5">
           <cell r="N5">
-            <v>4701</v>
+            <v>5299</v>
           </cell>
         </row>
         <row r="6">
           <cell r="N6">
-            <v>4125</v>
+            <v>4126</v>
           </cell>
         </row>
       </sheetData>
@@ -875,7 +885,7 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="M5">
             <v>18439</v>
@@ -887,7 +897,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -901,7 +911,7 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="L5">
             <v>18083</v>
@@ -913,7 +923,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1216,13 +1226,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51BEF3-80A6-4EBC-80AF-AC127A740620}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -1331,7 +1345,7 @@
         <v>18829</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G6" si="0">+E5-F5</f>
+        <f>+E5-F5</f>
         <v>1213171</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1355,11 +1369,11 @@
       </c>
       <c r="F6" s="3">
         <f>([4]Main!$L$5-[4]Main!$L$6)/HKD*1000</f>
-        <v>-1405.7682998292983</v>
+        <v>97072.536879920503</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>480653.64722668089</v>
+        <f>+E6-F6</f>
+        <v>382175.34204693109</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>9</v>
@@ -1394,67 +1408,78 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>115.9</v>
+        <v>71.02</v>
       </c>
       <c r="E8" s="3">
-        <v>310032</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>189493</v>
+      </c>
+      <c r="F8" s="3">
+        <f>[6]Main!$G$5-[6]Main!$G$6</f>
+        <v>-53957</v>
+      </c>
+      <c r="G8" s="3">
+        <f>E8-F8</f>
+        <v>243450</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>71.02</v>
+        <v>393.84</v>
       </c>
       <c r="E9" s="3">
-        <v>189493</v>
+        <f>D9*[7]Main!$N$3</f>
+        <v>186089.4</v>
       </c>
       <c r="F9" s="3">
-        <f>[6]Main!$G$5-[6]Main!$G$6</f>
-        <v>-53957</v>
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <v>1173</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9" si="1">E9-F9</f>
-        <v>243450</v>
+        <f>+E9-F9</f>
+        <v>184916.4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>393.84</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="E10" s="3">
+        <v>188055</v>
+      </c>
       <c r="F10" s="3">
-        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
-        <v>576</v>
+        <f>[8]Main!$M$5-[8]Main!$M$6</f>
+        <v>7842</v>
       </c>
       <c r="G10" s="3">
-        <f>+E10-F10</f>
-        <v>-576</v>
+        <f>E10-F10</f>
+        <v>180213</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -1463,24 +1488,24 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>189</v>
+        <v>99.86</v>
       </c>
       <c r="E11" s="3">
-        <v>188055</v>
+        <v>122050</v>
       </c>
       <c r="F11" s="3">
-        <f>[8]Main!$M$5-[8]Main!$M$6</f>
-        <v>7842</v>
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>870</v>
       </c>
       <c r="G11" s="3">
         <f>E11-F11</f>
-        <v>180213</v>
+        <v>121180</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>9</v>
@@ -1488,43 +1513,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>99.86</v>
+        <v>413.72</v>
       </c>
       <c r="E12" s="3">
-        <v>122050</v>
-      </c>
-      <c r="F12" s="3">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>870</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" ref="G12" si="2">E12-F12</f>
-        <v>121180</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>116701</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
-        <v>413.72</v>
+        <v>505.42</v>
       </c>
       <c r="E13" s="3">
-        <v>116701</v>
+        <v>103850</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1533,16 +1550,16 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
-        <v>65.180000000000007</v>
+        <v>391.47</v>
       </c>
       <c r="E14" s="3">
-        <v>101795</v>
+        <v>55690</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1551,16 +1568,16 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
-        <v>505.42</v>
+        <v>152.88</v>
       </c>
       <c r="E15" s="3">
-        <v>103850</v>
+        <v>52828</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1569,16 +1586,16 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2">
-        <v>87.2</v>
+        <v>200.8</v>
       </c>
       <c r="E16" s="3">
-        <v>100981</v>
+        <v>52670</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1587,12 +1604,16 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2">
+        <v>135.57</v>
+      </c>
       <c r="E17" s="3">
-        <v>100000</v>
+        <v>45920</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1601,16 +1622,16 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
-        <v>122.8</v>
+        <v>203.73</v>
       </c>
       <c r="E18" s="3">
-        <v>79287</v>
+        <v>45530</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1619,16 +1640,16 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
-        <v>391.47</v>
+        <v>159.93</v>
       </c>
       <c r="E19" s="3">
-        <v>55690</v>
+        <v>44900</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1637,16 +1658,16 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2">
-        <v>152.88</v>
+        <v>160.03</v>
       </c>
       <c r="E20" s="3">
-        <v>52828</v>
+        <v>40648</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1655,16 +1676,16 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>200.8</v>
+        <v>107.93</v>
       </c>
       <c r="E21" s="3">
-        <v>52670</v>
+        <v>34000</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1673,16 +1694,12 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2">
-        <v>25.83</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="3">
-        <v>51960</v>
+        <v>30000</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1691,16 +1708,16 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>135.57</v>
+        <v>54.71</v>
       </c>
       <c r="E23" s="3">
-        <v>45920</v>
+        <v>28410</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1709,16 +1726,12 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2">
-        <v>203.73</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="3">
-        <v>45530</v>
+        <v>27000</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1727,16 +1740,12 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2">
-        <v>159.93</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="3">
-        <v>44900</v>
+        <v>26000</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1745,16 +1754,16 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2">
-        <v>160.03</v>
+        <v>236.61</v>
       </c>
       <c r="E26" s="3">
-        <v>40648</v>
+        <v>23190</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1763,16 +1772,16 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2">
-        <v>107.93</v>
+        <v>90.1</v>
       </c>
       <c r="E27" s="3">
-        <v>34000</v>
+        <v>18840</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1781,12 +1790,16 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2">
+        <v>360.34</v>
+      </c>
       <c r="E28" s="3">
-        <v>31500</v>
+        <v>18140</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1795,12 +1808,16 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2">
+        <v>68.930000000000007</v>
+      </c>
       <c r="E29" s="3">
-        <v>30000</v>
+        <v>18053</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1809,16 +1826,16 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2">
-        <v>54.71</v>
+        <v>43.75</v>
       </c>
       <c r="E30" s="3">
-        <v>28410</v>
+        <v>17180</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1826,27 +1843,41 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3">
-        <v>27000</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2">
+        <v>102.23</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <v>3155</v>
+      </c>
+      <c r="G31" s="3">
+        <f>E31-F31</f>
+        <v>-3155</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2">
+        <v>40.44</v>
+      </c>
       <c r="E32" s="3">
-        <v>26000</v>
+        <v>16810</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1855,16 +1886,16 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2">
-        <v>71.66</v>
+        <v>128.05000000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>25171</v>
+        <v>16470</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1873,16 +1904,16 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2">
-        <v>236.61</v>
+        <v>63.5</v>
       </c>
       <c r="E34" s="3">
-        <v>23190</v>
+        <v>16440</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1891,12 +1922,16 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2">
+        <v>363.45</v>
+      </c>
       <c r="E35" s="3">
-        <v>22000</v>
+        <v>15250</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1905,16 +1940,16 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2">
-        <v>312</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>19090</v>
+        <v>14050</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1923,16 +1958,16 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2">
-        <v>90.1</v>
+        <v>206.61</v>
       </c>
       <c r="E37" s="3">
-        <v>18840</v>
+        <v>13880</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1941,17 +1976,13 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2">
-        <v>360.34</v>
-      </c>
-      <c r="E38" s="3">
-        <v>18140</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1959,16 +1990,16 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2">
-        <v>68.930000000000007</v>
+        <v>115.52</v>
       </c>
       <c r="E39" s="3">
-        <v>18053</v>
+        <v>13640</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1977,16 +2008,16 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D40" s="2">
-        <v>43.75</v>
+        <v>206.68</v>
       </c>
       <c r="E40" s="3">
-        <v>17180</v>
+        <v>12990</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1994,65 +2025,53 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
-        <v>76</v>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2">
-        <v>102.23</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
-        <v>3155</v>
-      </c>
-      <c r="G41" s="3">
-        <f>E41-F41</f>
-        <v>-3155</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>43.77</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12660</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>78</v>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D42" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
-        <v>2144.9299999999998</v>
-      </c>
-      <c r="G42" s="3">
-        <f>+E42-F42</f>
-        <v>-2144.9299999999998</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12580</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2">
-        <v>40.44</v>
+        <v>98.74</v>
       </c>
       <c r="E43" s="3">
-        <v>16810</v>
+        <v>12490</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2061,16 +2080,16 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2">
-        <v>128.05000000000001</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E44" s="3">
-        <v>16470</v>
+        <v>11000</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2079,16 +2098,16 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2">
-        <v>63.5</v>
+        <v>408.48</v>
       </c>
       <c r="E45" s="3">
-        <v>16440</v>
+        <v>10570</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2097,16 +2116,16 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2">
-        <v>363.45</v>
+        <v>184.44</v>
       </c>
       <c r="E46" s="3">
-        <v>15250</v>
+        <v>10400</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2115,12 +2134,16 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="2">
+        <v>80.52</v>
+      </c>
       <c r="E47" s="3">
-        <v>15000</v>
+        <v>10310</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2129,16 +2152,16 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D48" s="2">
-        <v>45.8</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E48" s="3">
-        <v>14330</v>
+        <v>10210</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2147,16 +2170,12 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="2">
-        <v>135.02000000000001</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="3">
-        <v>14050</v>
+        <v>10000</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2165,16 +2184,16 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D50" s="2">
-        <v>206.61</v>
+        <v>8.17</v>
       </c>
       <c r="E50" s="3">
-        <v>13880</v>
+        <v>9320</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2183,16 +2202,16 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2">
-        <v>115.52</v>
+        <v>14.73</v>
       </c>
       <c r="E51" s="3">
-        <v>13640</v>
+        <v>9140</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -2201,16 +2220,16 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D52" s="2">
-        <v>206.68</v>
+        <v>56.9</v>
       </c>
       <c r="E52" s="3">
-        <v>12990</v>
+        <v>9000</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2219,16 +2238,16 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2">
-        <v>43.77</v>
+        <v>203.42</v>
       </c>
       <c r="E53" s="3">
-        <v>12660</v>
+        <v>8580</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2237,16 +2256,16 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2">
-        <v>2.5099999999999998</v>
+        <v>126.81</v>
       </c>
       <c r="E54" s="3">
-        <v>12580</v>
+        <v>8200</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2255,16 +2274,16 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D55" s="2">
-        <v>98.74</v>
+        <v>50.35</v>
       </c>
       <c r="E55" s="3">
-        <v>12490</v>
+        <v>8150</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2273,16 +2292,12 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="2">
-        <v>40.369999999999997</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2291,16 +2306,16 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2">
-        <v>408.48</v>
+        <v>88.7</v>
       </c>
       <c r="E57" s="3">
-        <v>10570</v>
+        <v>7910</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2309,16 +2324,16 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2">
-        <v>184.44</v>
+        <v>78.3</v>
       </c>
       <c r="E58" s="3">
-        <v>10400</v>
+        <v>7580</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2327,16 +2342,16 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2">
-        <v>80.52</v>
+        <v>50.36</v>
       </c>
       <c r="E59" s="3">
-        <v>10310</v>
+        <v>7140</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2345,16 +2360,16 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2">
-        <v>35.200000000000003</v>
+        <v>80.58</v>
       </c>
       <c r="E60" s="3">
-        <v>10210</v>
+        <v>6930</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2363,12 +2378,16 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="2">
+        <v>32.869999999999997</v>
+      </c>
       <c r="E61" s="3">
-        <v>10000</v>
+        <v>6880</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2377,16 +2396,16 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D62" s="2">
-        <v>8.17</v>
+        <v>54.6</v>
       </c>
       <c r="E62" s="3">
-        <v>9320</v>
+        <v>6370</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2395,16 +2414,16 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D63" s="2">
-        <v>14.73</v>
+        <v>62.59</v>
       </c>
       <c r="E63" s="3">
-        <v>9140</v>
+        <v>6350</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2413,16 +2432,16 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D64" s="2">
-        <v>56.9</v>
+        <v>62.71</v>
       </c>
       <c r="E64" s="3">
-        <v>9000</v>
+        <v>3603</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2431,16 +2450,16 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2">
-        <v>203.42</v>
+        <v>21.19</v>
       </c>
       <c r="E65" s="3">
-        <v>8580</v>
+        <v>2965</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -2449,284 +2468,464 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="2">
+        <v>26.99</v>
+      </c>
       <c r="E66" s="3">
-        <v>8333</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="2">
-        <v>126.81</v>
-      </c>
-      <c r="E67" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="2">
-        <v>50.35</v>
-      </c>
-      <c r="E68" s="3">
-        <v>8150</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="2">
-        <v>88.7</v>
-      </c>
-      <c r="E70" s="3">
-        <v>7910</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="2">
-        <v>78.3</v>
-      </c>
-      <c r="E71" s="3">
-        <v>7580</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="2">
-        <v>50.36</v>
-      </c>
-      <c r="E72" s="3">
-        <v>7140</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="2">
-        <v>80.58</v>
-      </c>
-      <c r="E73" s="3">
-        <v>6930</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="2">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="E74" s="3">
-        <v>6880</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="2">
-        <v>17.63</v>
-      </c>
-      <c r="E75" s="3">
-        <v>6480</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="2">
-        <v>54.6</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6370</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="2">
-        <v>62.59</v>
-      </c>
-      <c r="E77" s="3">
-        <v>6350</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D78" s="2">
-        <v>62.71</v>
-      </c>
-      <c r="E78" s="3">
-        <v>3603</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="2">
-        <v>21.19</v>
-      </c>
-      <c r="E79" s="3">
-        <v>2965</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="2">
-        <v>26.99</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" xr:uid="{97435930-C626-477E-A356-37C8034EEA13}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{6B983B96-90EF-44CE-83F9-BAD81EABD2D5}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{97435930-C626-477E-A356-37C8034EEA13}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{6B983B96-90EF-44CE-83F9-BAD81EABD2D5}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{BD7039C2-9BDE-4B67-88B5-46FD7943C86D}"/>
-    <hyperlink ref="B42" r:id="rId4" xr:uid="{10EC8806-5E14-4E20-B83E-00A59872B756}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{7ABE68B7-B1CC-4C84-89C3-1AB7B9FBFA97}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{4F82E615-4811-4CAB-B8A9-953A3716E328}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{0A942A0C-FBA3-47F2-90EF-51E7DB588379}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{5087A32F-AFC2-4D5F-9954-CBDF3FA5F945}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{861108E1-B916-4A32-B543-BF5962C80AF3}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{855D69D5-AB64-4B5E-9B61-6AB21DACFE69}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{F7E97B2B-5B64-4CDA-BE4D-6D17356C5BA8}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{7ABE68B7-B1CC-4C84-89C3-1AB7B9FBFA97}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{4F82E615-4811-4CAB-B8A9-953A3716E328}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{0A942A0C-FBA3-47F2-90EF-51E7DB588379}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{5087A32F-AFC2-4D5F-9954-CBDF3FA5F945}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{861108E1-B916-4A32-B543-BF5962C80AF3}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{855D69D5-AB64-4B5E-9B61-6AB21DACFE69}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{F7E97B2B-5B64-4CDA-BE4D-6D17356C5BA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2323FDB-FA5E-4B3B-AF9D-A0B42B1C15D6}">
+  <dimension ref="A2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <v>2144.9299999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+E5-F5</f>
+        <v>-2144.9299999999998</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14330</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{10EC8806-5E14-4E20-B83E-00A59872B756}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48438AAB-DA34-44CA-9338-55235D0D16ED}">
+  <dimension ref="A2:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>115.9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>310032</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="E5" s="3">
+        <v>101795</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47DEF4-794E-4338-900B-30040EBA5B50}">
+  <dimension ref="A2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100981</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2">
+        <v>312</v>
+      </c>
+      <c r="E5" s="3">
+        <v>19090</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB4FD0E-0CB6-41A0-A74F-ACA34F90ACF7}">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2">
+        <v>71.66</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25171</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25.83</v>
+      </c>
+      <c r="E5" s="3">
+        <v>51960</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
+        <v>8333</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6480</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>122.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>79287</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8941A-B291-4743-8598-CC93A9617552}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3454FA-DCC7-4BA3-9C12-C651A3A409D0}">
   <dimension ref="B3:C3"/>
   <sheetViews>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49EB951-D67B-40C9-BCBF-3C76E3375BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708DA89-E1DF-480D-A496-7719BA094BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="435" windowWidth="19665" windowHeight="15210" xr2:uid="{BF8D921A-3A39-424B-AF48-6465810DF752}"/>
+    <workbookView xWindow="8160" yWindow="75" windowWidth="20745" windowHeight="15540" xr2:uid="{BF8D921A-3A39-424B-AF48-6465810DF752}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="Gaming" sheetId="4" r:id="rId2"/>
-    <sheet name="Ecommerce" sheetId="3" r:id="rId3"/>
-    <sheet name="Fintech" sheetId="5" r:id="rId4"/>
-    <sheet name="Gig" sheetId="7" r:id="rId5"/>
-    <sheet name="Private" sheetId="6" r:id="rId6"/>
-    <sheet name="FX" sheetId="2" r:id="rId7"/>
+    <sheet name="Security" sheetId="8" r:id="rId2"/>
+    <sheet name="Gaming" sheetId="4" r:id="rId3"/>
+    <sheet name="Ecommerce" sheetId="3" r:id="rId4"/>
+    <sheet name="Fintech" sheetId="5" r:id="rId5"/>
+    <sheet name="Gig" sheetId="7" r:id="rId6"/>
+    <sheet name="Private" sheetId="6" r:id="rId7"/>
+    <sheet name="FX" sheetId="2" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
@@ -33,6 +33,7 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="HKD">FX!$C$3</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -541,6 +542,33 @@
   </si>
   <si>
     <t>Q222</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Dassault</t>
+  </si>
+  <si>
+    <t>DSY FP</t>
+  </si>
+  <si>
+    <t>VMWare</t>
+  </si>
+  <si>
+    <t>VMW</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>Crowdstrike</t>
   </si>
 </sst>
 </file>
@@ -783,7 +811,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -871,7 +899,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1226,10 +1254,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51BEF3-80A6-4EBC-80AF-AC127A740620}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1550,17 +1581,13 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2">
-        <v>391.47</v>
-      </c>
-      <c r="E14" s="3">
-        <v>55690</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1568,16 +1595,16 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2">
-        <v>152.88</v>
+        <v>391.47</v>
       </c>
       <c r="E15" s="3">
-        <v>52828</v>
+        <v>55690</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1586,16 +1613,16 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2">
-        <v>200.8</v>
+        <v>152.88</v>
       </c>
       <c r="E16" s="3">
-        <v>52670</v>
+        <v>52828</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1604,16 +1631,16 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2">
-        <v>135.57</v>
+        <v>200.8</v>
       </c>
       <c r="E17" s="3">
-        <v>45920</v>
+        <v>52670</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1622,16 +1649,16 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
-        <v>203.73</v>
+        <v>135.57</v>
       </c>
       <c r="E18" s="3">
-        <v>45530</v>
+        <v>45920</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1640,16 +1667,16 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2">
-        <v>159.93</v>
+        <v>203.73</v>
       </c>
       <c r="E19" s="3">
-        <v>44900</v>
+        <v>45530</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1658,16 +1685,16 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
-        <v>160.03</v>
+        <v>159.93</v>
       </c>
       <c r="E20" s="3">
-        <v>40648</v>
+        <v>44900</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1676,16 +1703,16 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2">
-        <v>107.93</v>
+        <v>160.03</v>
       </c>
       <c r="E21" s="3">
-        <v>34000</v>
+        <v>40648</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1694,13 +1721,13 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="3">
-        <v>30000</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1708,16 +1735,16 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
-        <v>54.71</v>
+        <v>107.93</v>
       </c>
       <c r="E23" s="3">
-        <v>28410</v>
+        <v>34000</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1726,12 +1753,12 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1740,12 +1767,16 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2">
+        <v>54.71</v>
+      </c>
       <c r="E25" s="3">
-        <v>26000</v>
+        <v>28410</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1754,16 +1785,12 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="2">
-        <v>236.61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="3">
-        <v>23190</v>
+        <v>27000</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1772,16 +1799,12 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="2">
-        <v>90.1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="3">
-        <v>18840</v>
+        <v>26000</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1790,16 +1813,16 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>360.34</v>
+        <v>236.61</v>
       </c>
       <c r="E28" s="3">
-        <v>18140</v>
+        <v>23190</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1808,16 +1831,16 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2">
-        <v>68.930000000000007</v>
+        <v>90.1</v>
       </c>
       <c r="E29" s="3">
-        <v>18053</v>
+        <v>18840</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1826,16 +1849,16 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2">
-        <v>43.75</v>
+        <v>360.34</v>
       </c>
       <c r="E30" s="3">
-        <v>17180</v>
+        <v>18140</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1843,41 +1866,35 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>76</v>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2">
-        <v>102.23</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
-        <v>3155</v>
-      </c>
-      <c r="G31" s="3">
-        <f>E31-F31</f>
-        <v>-3155</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>68.930000000000007</v>
+      </c>
+      <c r="E31" s="3">
+        <v>18053</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2">
-        <v>40.44</v>
+        <v>43.75</v>
       </c>
       <c r="E32" s="3">
-        <v>16810</v>
+        <v>17180</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1885,35 +1902,41 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2">
-        <v>128.05000000000001</v>
-      </c>
-      <c r="E33" s="3">
-        <v>16470</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+        <v>102.23</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <v>3155</v>
+      </c>
+      <c r="G33" s="3">
+        <f>E33-F33</f>
+        <v>-3155</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2">
-        <v>63.5</v>
+        <v>40.44</v>
       </c>
       <c r="E34" s="3">
-        <v>16440</v>
+        <v>16810</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1922,16 +1945,16 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2">
-        <v>363.45</v>
+        <v>128.05000000000001</v>
       </c>
       <c r="E35" s="3">
-        <v>15250</v>
+        <v>16470</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1940,16 +1963,16 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2">
-        <v>135.02000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="E36" s="3">
-        <v>14050</v>
+        <v>16440</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1958,16 +1981,16 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2">
-        <v>206.61</v>
+        <v>363.45</v>
       </c>
       <c r="E37" s="3">
-        <v>13880</v>
+        <v>15250</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1976,13 +1999,17 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D38" s="2">
+        <v>135.02000000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>14050</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1990,16 +2017,16 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2">
-        <v>115.52</v>
+        <v>206.61</v>
       </c>
       <c r="E39" s="3">
-        <v>13640</v>
+        <v>13880</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2008,17 +2035,13 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="2">
-        <v>206.68</v>
-      </c>
-      <c r="E40" s="3">
-        <v>12990</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2026,16 +2049,16 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2">
-        <v>43.77</v>
+        <v>115.52</v>
       </c>
       <c r="E41" s="3">
-        <v>12660</v>
+        <v>13640</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2044,16 +2067,16 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2">
-        <v>2.5099999999999998</v>
+        <v>206.68</v>
       </c>
       <c r="E42" s="3">
-        <v>12580</v>
+        <v>12990</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2062,16 +2085,16 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2">
-        <v>98.74</v>
+        <v>43.77</v>
       </c>
       <c r="E43" s="3">
-        <v>12490</v>
+        <v>12660</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2080,16 +2103,16 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2">
-        <v>40.369999999999997</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E44" s="3">
-        <v>11000</v>
+        <v>12580</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2098,16 +2121,16 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2">
-        <v>408.48</v>
+        <v>98.74</v>
       </c>
       <c r="E45" s="3">
-        <v>10570</v>
+        <v>12490</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2116,16 +2139,16 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2">
-        <v>184.44</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E46" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2134,16 +2157,16 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2">
-        <v>80.52</v>
+        <v>408.48</v>
       </c>
       <c r="E47" s="3">
-        <v>10310</v>
+        <v>10570</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2152,16 +2175,16 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2">
-        <v>35.200000000000003</v>
+        <v>184.44</v>
       </c>
       <c r="E48" s="3">
-        <v>10210</v>
+        <v>10400</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2170,12 +2193,16 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="2">
+        <v>80.52</v>
+      </c>
       <c r="E49" s="3">
-        <v>10000</v>
+        <v>10310</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2184,16 +2211,16 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2">
-        <v>8.17</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E50" s="3">
-        <v>9320</v>
+        <v>10210</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2202,16 +2229,12 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="2">
-        <v>14.73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="3">
-        <v>9140</v>
+        <v>10000</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -2220,16 +2243,16 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D52" s="2">
-        <v>56.9</v>
+        <v>8.17</v>
       </c>
       <c r="E52" s="3">
-        <v>9000</v>
+        <v>9320</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2238,16 +2261,16 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D53" s="2">
-        <v>203.42</v>
+        <v>14.73</v>
       </c>
       <c r="E53" s="3">
-        <v>8580</v>
+        <v>9140</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2256,16 +2279,16 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D54" s="2">
-        <v>126.81</v>
+        <v>56.9</v>
       </c>
       <c r="E54" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2274,16 +2297,16 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D55" s="2">
-        <v>50.35</v>
+        <v>203.42</v>
       </c>
       <c r="E55" s="3">
-        <v>8150</v>
+        <v>8580</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2292,12 +2315,16 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="2">
+        <v>126.81</v>
+      </c>
       <c r="E56" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2306,16 +2333,16 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2">
-        <v>88.7</v>
+        <v>50.35</v>
       </c>
       <c r="E57" s="3">
-        <v>7910</v>
+        <v>8150</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2324,16 +2351,12 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="2">
-        <v>78.3</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="3">
-        <v>7580</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2342,16 +2365,16 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D59" s="2">
-        <v>50.36</v>
+        <v>88.7</v>
       </c>
       <c r="E59" s="3">
-        <v>7140</v>
+        <v>7910</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2360,16 +2383,16 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2">
-        <v>80.58</v>
+        <v>78.3</v>
       </c>
       <c r="E60" s="3">
-        <v>6930</v>
+        <v>7580</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2378,16 +2401,16 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2">
-        <v>32.869999999999997</v>
+        <v>50.36</v>
       </c>
       <c r="E61" s="3">
-        <v>6880</v>
+        <v>7140</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2396,16 +2419,16 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2">
-        <v>54.6</v>
+        <v>80.58</v>
       </c>
       <c r="E62" s="3">
-        <v>6370</v>
+        <v>6930</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2414,16 +2437,16 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D63" s="2">
-        <v>62.59</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E63" s="3">
-        <v>6350</v>
+        <v>6880</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2432,16 +2455,16 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D64" s="2">
-        <v>62.71</v>
+        <v>54.6</v>
       </c>
       <c r="E64" s="3">
-        <v>3603</v>
+        <v>6370</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2450,16 +2473,16 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D65" s="2">
-        <v>21.19</v>
+        <v>62.59</v>
       </c>
       <c r="E65" s="3">
-        <v>2965</v>
+        <v>6350</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -2468,24 +2491,68 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D66" s="2">
-        <v>26.99</v>
+        <v>62.71</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>3603</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="2">
+        <v>21.19</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2965</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="2">
+        <v>26.99</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{97435930-C626-477E-A356-37C8034EEA13}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{97435930-C626-477E-A356-37C8034EEA13}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{6B983B96-90EF-44CE-83F9-BAD81EABD2D5}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{BD7039C2-9BDE-4B67-88B5-46FD7943C86D}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{7ABE68B7-B1CC-4C84-89C3-1AB7B9FBFA97}"/>
@@ -2501,6 +2568,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1944D1A1-17CE-46E2-8476-8B81B74D84F5}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="General!A1" display="Main" xr:uid="{CFF362D0-304B-4B7A-B34B-63C5A9CBF050}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2323FDB-FA5E-4B3B-AF9D-A0B42B1C15D6}">
   <dimension ref="A2:H7"/>
   <sheetViews>
@@ -2605,7 +2724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48438AAB-DA34-44CA-9338-55235D0D16ED}">
   <dimension ref="A2:H5"/>
   <sheetViews>
@@ -2684,7 +2803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47DEF4-794E-4338-900B-30040EBA5B50}">
   <dimension ref="A2:H6"/>
   <sheetViews>
@@ -2779,7 +2898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB4FD0E-0CB6-41A0-A74F-ACA34F90ACF7}">
   <dimension ref="A2:H8"/>
   <sheetViews>
@@ -2913,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8941A-B291-4743-8598-CC93A9617552}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2925,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3454FA-DCC7-4BA3-9C12-C651A3A409D0}">
   <dimension ref="B3:C3"/>
   <sheetViews>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC91F7E-F009-43A3-99CB-DE594333C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB724CEB-4D15-4BF1-829C-3B74D2EC5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="165" windowWidth="20310" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="720" windowWidth="20745" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="FX" sheetId="3" r:id="rId2"/>
-    <sheet name="Private" sheetId="2" r:id="rId3"/>
+    <sheet name="Media-Games-Design" sheetId="8" r:id="rId2"/>
+    <sheet name="Fintech" sheetId="7" r:id="rId3"/>
+    <sheet name="Gig" sheetId="6" r:id="rId4"/>
+    <sheet name="Ecommerce" sheetId="5" r:id="rId5"/>
+    <sheet name="Security" sheetId="4" r:id="rId6"/>
+    <sheet name="FX" sheetId="3" r:id="rId7"/>
+    <sheet name="Private" sheetId="2" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
@@ -27,6 +27,11 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="HKD">FX!$C$2</definedName>
@@ -71,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -115,9 +120,6 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>FB</t>
-  </si>
-  <si>
     <t>Q122</t>
   </si>
   <si>
@@ -545,19 +547,187 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Palo Alto Networks</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>CrowdStrike</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>Fortinet</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>TWTR</t>
+  </si>
+  <si>
+    <t>Electronic Arts</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Take-Two</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>Activision</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>7794 JP</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Veeva</t>
+  </si>
+  <si>
+    <t>VEEV</t>
+  </si>
+  <si>
+    <t>Constellation</t>
+  </si>
+  <si>
+    <t>CSU CN</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Dassault</t>
+  </si>
+  <si>
+    <t>DSY FP</t>
+  </si>
+  <si>
+    <t>VMWare</t>
+  </si>
+  <si>
+    <t>VMW</t>
+  </si>
+  <si>
+    <t>Synopsys</t>
+  </si>
+  <si>
+    <t>SNPS</t>
+  </si>
+  <si>
+    <t>Zscaler</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>SPLK</t>
+  </si>
+  <si>
+    <t>Twilio</t>
+  </si>
+  <si>
+    <t>TWLO</t>
+  </si>
+  <si>
+    <t>Cloudflare</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>Okta</t>
+  </si>
+  <si>
+    <t>OKTA</t>
+  </si>
+  <si>
+    <t>Akamai</t>
+  </si>
+  <si>
+    <t>AKAM</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -631,38 +801,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -913,7 +1081,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -928,14 +1096,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>2742</v>
+          </cell>
+        </row>
         <row r="5">
-          <cell r="L5">
-            <v>304</v>
+          <cell r="M5">
+            <v>43890</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>315.03500000000003</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -954,19 +1127,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>2742</v>
-          </cell>
-        </row>
         <row r="5">
-          <cell r="M5">
-            <v>43890</v>
+          <cell r="L5">
+            <v>1086</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>324</v>
           </cell>
         </row>
       </sheetData>
@@ -1387,13 +1555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:H81"/>
+  <dimension ref="A2:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1575,7 @@
     <col min="9" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1598,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1453,10 +1624,13 @@
         <v>1836894</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1479,10 +1653,13 @@
         <v>1407841.8767300001</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1500,71 +1677,80 @@
         <v>18829</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5" si="0">+E5-F5</f>
+        <f>+E5-F5</f>
         <v>1213171</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="2">
+        <v>175.57</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+D6*[4]Main!$M$3</f>
+        <v>481412.94</v>
+      </c>
+      <c r="F6" s="3">
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
+        <v>43890</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+E6-F6</f>
+        <v>437522.94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>391.4</v>
       </c>
-      <c r="E6" s="3" cm="1">
-        <f t="array" ref="E6">3762000/HKD</f>
+      <c r="E7" s="3" cm="1">
+        <f t="array" ref="E7">3762000/HKD</f>
         <v>479247.87892685161</v>
       </c>
-      <c r="F6" s="3">
-        <f>([4]Main!$L$5-[4]Main!$L$6)/HKD*1000</f>
-        <v>-1405.7682998292983</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" ref="G6" si="1">+E6-F6</f>
-        <v>480653.64722668089</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>175.57</v>
-      </c>
-      <c r="E7" s="3">
-        <f>+D7*[5]Main!$M$3</f>
-        <v>481412.94</v>
-      </c>
       <c r="F7" s="3">
-        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
-        <v>43890</v>
+        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
+        <v>97072.536879920503</v>
       </c>
       <c r="G7" s="3">
         <f>+E7-F7</f>
-        <v>437522.94</v>
+        <v>382175.34204693109</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>71.02</v>
@@ -1577,19 +1763,22 @@
         <v>-53957</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8" si="2">E8-F8</f>
+        <f>E8-F8</f>
         <v>243450</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>115.9</v>
@@ -1607,15 +1796,18 @@
         <v>190327.55129821959</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>393.84</v>
@@ -1633,15 +1825,18 @@
         <v>185513.4</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>189</v>
@@ -1658,15 +1853,18 @@
         <v>180213</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>99.86</v>
@@ -1679,19 +1877,22 @@
         <v>870</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12" si="3">E12-F12</f>
+        <f>E12-F12</f>
         <v>121180</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>413.72</v>
@@ -1705,204 +1906,207 @@
         <v>-2851</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13" si="4">E13-F13</f>
+        <f>E13-F13</f>
         <v>121174.92000000001</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>65.180000000000007</v>
+        <v>505.42</v>
       </c>
       <c r="E14" s="3">
-        <v>101795</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+        <v>103850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>505.42</v>
-      </c>
-      <c r="E15" s="3">
-        <v>103850</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
-        <v>87.2</v>
+        <v>391.47</v>
       </c>
       <c r="E16" s="3">
-        <v>100981</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>55690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2">
+        <v>152.88</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2">
-        <v>122.8</v>
+        <v>200.8</v>
       </c>
       <c r="E18" s="3">
-        <v>79287</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+        <v>52670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>391.47</v>
+        <v>135.57</v>
       </c>
       <c r="E19" s="3">
-        <v>55690</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
-        <v>152.88</v>
+        <v>203.73</v>
       </c>
       <c r="E20" s="3">
-        <v>52828</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2">
-        <v>200.8</v>
+        <v>159.93</v>
       </c>
       <c r="E21" s="3">
-        <v>52670</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2">
-        <v>25.83</v>
-      </c>
-      <c r="E22" s="3">
-        <v>51960</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2">
-        <v>135.57</v>
+        <v>160.03</v>
       </c>
       <c r="E23" s="3">
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+        <v>40648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2">
-        <v>203.73</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2">
-        <v>159.93</v>
-      </c>
-      <c r="E25" s="3">
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2">
-        <v>160.03</v>
-      </c>
-      <c r="E26" s="3">
-        <v>40648</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="2">
         <v>107.93</v>
@@ -1911,320 +2115,284 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="3">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2">
+        <v>54.71</v>
+      </c>
       <c r="E29" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+        <v>28410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="2">
-        <v>54.71</v>
-      </c>
       <c r="E30" s="3">
-        <v>28410</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2">
+        <v>236.61</v>
       </c>
       <c r="E31" s="3">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+        <v>23190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2">
-        <v>71.66</v>
+        <v>9.35</v>
       </c>
       <c r="E33" s="3">
-        <v>25171</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2">
-        <v>236.61</v>
-      </c>
-      <c r="E34" s="3">
-        <v>23190</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="2">
-        <v>9.35</v>
-      </c>
-      <c r="E36" s="3">
-        <f>D36*[12]Main!$L$3</f>
+        <f>D33*[12]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F33" s="3">
         <f>[12]Main!$L$5-[12]Main!$L$6</f>
         <v>2585</v>
       </c>
-      <c r="G36" s="3">
-        <f>E36-F36</f>
+      <c r="G33" s="3">
+        <f>E33-F33</f>
         <v>16451.599999999999</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="2">
+        <v>312</v>
+      </c>
+      <c r="E34" s="3">
+        <v>19090</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2">
+        <v>360.34</v>
+      </c>
+      <c r="E36" s="3">
+        <v>18140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2">
-        <v>312</v>
+        <v>43.75</v>
       </c>
       <c r="E37" s="3">
-        <v>19090</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>17180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2">
-        <v>90.1</v>
+        <v>102.23</v>
       </c>
       <c r="E38" s="3">
-        <v>18840</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2">
-        <v>360.34</v>
-      </c>
-      <c r="E39" s="3">
-        <v>18140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="2">
-        <v>68.930000000000007</v>
-      </c>
-      <c r="E40" s="3">
-        <v>18053</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="2">
-        <v>43.75</v>
-      </c>
-      <c r="E41" s="3">
-        <v>17180</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="2">
-        <v>102.23</v>
-      </c>
-      <c r="E42" s="3">
-        <f>+D42*[13]Main!$K$3</f>
+        <f>+D38*[13]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F38" s="3">
         <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>3155</v>
       </c>
-      <c r="G42" s="3">
-        <f>E42-F42</f>
+      <c r="G38" s="3">
+        <f>E38-F38</f>
         <v>16992.20788088</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>78</v>
+      <c r="H38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2">
+        <v>40.44</v>
+      </c>
+      <c r="E39" s="3">
+        <v>16810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2">
+        <v>363.45</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="E43" s="3">
-        <f>+D43*[14]Main!$K$3</f>
-        <v>16302.031699999998</v>
-      </c>
-      <c r="F43" s="3">
-        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
-        <v>2144.9299999999998</v>
-      </c>
-      <c r="G43" s="3">
-        <f>+E43-F43</f>
-        <v>14157.101699999997</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="2">
-        <v>40.44</v>
-      </c>
-      <c r="E44" s="3">
-        <v>16810</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="2">
-        <v>128.05000000000001</v>
-      </c>
-      <c r="E45" s="3">
-        <v>16470</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="2">
-        <v>63.5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>16440</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="2">
-        <v>363.45</v>
-      </c>
-      <c r="E47" s="3">
-        <v>15250</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="3">
-        <v>15000</v>
+        <v>208</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45.8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>14330</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D50" s="2">
         <v>135.02000000000001</v>
@@ -2235,10 +2403,10 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D51" s="2">
         <v>206.61</v>
@@ -2249,10 +2417,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="2">
         <v>115.52</v>
@@ -2263,10 +2431,10 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2">
         <v>206.68</v>
@@ -2277,10 +2445,10 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D54" s="2">
         <v>43.77</v>
@@ -2291,387 +2459,967 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D55" s="2">
-        <v>2.5099999999999998</v>
+        <v>98.74</v>
       </c>
       <c r="E55" s="3">
-        <v>12580</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D56" s="2">
-        <v>98.74</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E56" s="3">
-        <v>12490</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D57" s="2">
-        <v>40.369999999999997</v>
+        <v>408.48</v>
       </c>
       <c r="E57" s="3">
-        <v>11000</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D58" s="2">
-        <v>408.48</v>
+        <v>80.52</v>
       </c>
       <c r="E58" s="3">
-        <v>10570</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D59" s="2">
-        <v>184.44</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E59" s="3">
-        <v>10400</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="2">
-        <v>80.52</v>
+        <v>112</v>
       </c>
       <c r="E60" s="3">
-        <v>10310</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D61" s="2">
-        <v>35.200000000000003</v>
+        <v>8.17</v>
       </c>
       <c r="E61" s="3">
-        <v>10210</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="2">
+        <v>14.73</v>
       </c>
       <c r="E62" s="3">
-        <v>10000</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D63" s="2">
-        <v>8.17</v>
+        <v>56.9</v>
       </c>
       <c r="E63" s="3">
-        <v>9320</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D64" s="2">
-        <v>14.73</v>
+        <v>203.42</v>
       </c>
       <c r="E64" s="3">
-        <v>9140</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D65" s="2">
-        <v>56.9</v>
+        <v>126.81</v>
       </c>
       <c r="E65" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D66" s="2">
-        <v>203.42</v>
+        <v>50.35</v>
       </c>
       <c r="E66" s="3">
-        <v>8580</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E67" s="3">
-        <v>8333</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2">
-        <v>126.81</v>
+        <v>88.7</v>
       </c>
       <c r="E68" s="3">
-        <v>8200</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D69" s="2">
-        <v>50.35</v>
+        <v>78.3</v>
       </c>
       <c r="E69" s="3">
-        <v>8150</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="2">
+        <v>50.36</v>
       </c>
       <c r="E70" s="3">
-        <v>8000</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D71" s="2">
-        <v>88.7</v>
+        <v>80.58</v>
       </c>
       <c r="E71" s="3">
-        <v>7910</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D72" s="2">
-        <v>78.3</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E72" s="3">
-        <v>7580</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D73" s="2">
-        <v>50.36</v>
+        <v>17.63</v>
       </c>
       <c r="E73" s="3">
-        <v>7140</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D74" s="2">
-        <v>80.58</v>
+        <v>54.6</v>
       </c>
       <c r="E74" s="3">
-        <v>6930</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D75" s="2">
-        <v>32.869999999999997</v>
+        <v>62.59</v>
       </c>
       <c r="E75" s="3">
-        <v>6880</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D76" s="2">
-        <v>17.63</v>
+        <v>62.71</v>
       </c>
       <c r="E76" s="3">
-        <v>6480</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D77" s="2">
-        <v>54.6</v>
+        <v>21.19</v>
       </c>
       <c r="E77" s="3">
-        <v>6370</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D78" s="2">
-        <v>62.59</v>
+        <v>26.99</v>
       </c>
       <c r="E78" s="3">
-        <v>6350</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="2">
-        <v>62.71</v>
-      </c>
-      <c r="E79" s="3">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="2">
-        <v>21.19</v>
-      </c>
-      <c r="E80" s="3">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="2">
-        <v>26.99</v>
-      </c>
-      <c r="E81" s="3">
         <v>1400</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
     <hyperlink ref="B10" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
-    <hyperlink ref="B43" r:id="rId4" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-    <hyperlink ref="B36" r:id="rId14" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
+    <hyperlink ref="B33" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+D6*[14]Main!$K$3</f>
+        <v>16302.031699999998</v>
+      </c>
+      <c r="F6" s="3">
+        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
+        <v>2144.9299999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+E6-F6</f>
+        <v>14157.101699999997</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14330</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2">
+        <v>184.44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40294899-E1C4-403E-8D7D-CC58F434A3F6}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2">
+        <v>71.66</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
+        <v>8333</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D9BC8D23-E3B6-418F-A0C0-7DB8B8F77238}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>121.12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>[3]Main!$K$5-[3]Main!$K$6</f>
+        <v>18829</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+E3-F3</f>
+        <v>1213171</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="E6" s="3">
+        <v>101795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>115.9</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7*[7]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F7" s="3" cm="1">
+        <f t="array" ref="F7">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G7" s="3">
+        <f>+E7-F7</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16470</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -2686,7 +3434,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8">
         <v>7.8498000000000001</v>
@@ -2694,7 +3442,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="8">
         <v>6.74</v>
@@ -2705,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2723,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2731,12 +3479,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>100000</v>
@@ -2744,7 +3492,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7">
         <v>15000</v>
@@ -2752,17 +3500,17 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB724CEB-4D15-4BF1-829C-3B74D2EC5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD0B29-1ADD-4DFA-8866-38B531992C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="720" windowWidth="20745" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12270" yWindow="3885" windowWidth="15675" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1561,7 +1561,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD0B29-1ADD-4DFA-8866-38B531992C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FDE0B-EC7A-46FF-9E5F-42885F7D834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="3885" windowWidth="15675" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1561,14 +1561,14 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="2"/>
     <col min="5" max="5" width="10.28515625" style="3" customWidth="1"/>
     <col min="6" max="8" width="9.42578125" style="4" customWidth="1"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FDE0B-EC7A-46FF-9E5F-42885F7D834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9C6ABA-2FFF-453E-904E-4653AD20418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="1875" windowWidth="18810" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="HKD">FX!$C$2</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -630,9 +631,6 @@
     <t>7794 JP</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Veeva</t>
   </si>
   <si>
@@ -709,19 +707,37 @@
   </si>
   <si>
     <t>META</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>Pinduoduo</t>
+  </si>
+  <si>
+    <t>PDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -801,35 +817,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -885,18 +902,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2036</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="L5">
-            <v>18083</v>
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>17213</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -911,23 +933,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>286</v>
+          <cell r="K3">
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4002</v>
+          <cell r="K5">
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>6853</v>
+          <cell r="K6">
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
@@ -942,23 +964,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>2036</v>
+          <cell r="K3">
+            <v>588.52099999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>2585</v>
+          <cell r="K5">
+            <v>3132.9639999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="K6">
+            <v>988.03399999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -978,22 +1000,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>200</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>5498</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>1572</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1009,22 +1031,53 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="L3">
+            <v>1180</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="L5">
+            <v>18083</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="L6">
+            <v>17213</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>18439</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>10597</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1237,18 +1290,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>286</v>
+          </cell>
+        </row>
         <row r="5">
-          <cell r="M5">
-            <v>18439</v>
+          <cell r="L5">
+            <v>4002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>10597</v>
+          <cell r="L6">
+            <v>6853</v>
           </cell>
         </row>
       </sheetData>
@@ -1555,13 +1613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="A2:H78"/>
+  <dimension ref="B2:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1575,7 +1633,7 @@
     <col min="9" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,10 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1627,10 +1682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1656,10 +1708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1684,15 +1733,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="2">
         <v>175.57</v>
@@ -1713,10 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1742,10 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1770,10 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1799,10 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1828,10 +1862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1842,10 +1873,11 @@
         <v>189</v>
       </c>
       <c r="E11" s="3">
+        <f>+D11*[15]Main!$M$3</f>
         <v>188055</v>
       </c>
       <c r="F11" s="3">
-        <f>[9]Main!$M$5-[9]Main!$M$6</f>
+        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>7842</v>
       </c>
       <c r="G11" s="3">
@@ -1856,10 +1888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1870,24 +1899,22 @@
         <v>99.86</v>
       </c>
       <c r="E12" s="3">
-        <v>122050</v>
+        <f>+D12*[14]Main!$L$3</f>
+        <v>117834.8</v>
       </c>
       <c r="F12" s="3">
-        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>870</v>
       </c>
       <c r="G12" s="3">
         <f>E12-F12</f>
-        <v>121180</v>
+        <v>116964.8</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1898,11 +1925,11 @@
         <v>413.72</v>
       </c>
       <c r="E13" s="3">
-        <f>D13*[11]Main!$L$3</f>
+        <f>D13*[9]Main!$L$3</f>
         <v>118323.92000000001</v>
       </c>
       <c r="F13" s="3">
-        <f>[11]Main!$L$5-[11]Main!$L$6</f>
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-2851</v>
       </c>
       <c r="G13" s="3">
@@ -1913,35 +1940,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>505.42</v>
+        <v>440</v>
       </c>
       <c r="E14" s="3">
-        <v>103850</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>184</v>
-      </c>
+        <f>+D14*[13]Main!$L$3</f>
+        <v>88000</v>
+      </c>
+      <c r="F14" s="3">
+        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
+        <v>3926</v>
+      </c>
+      <c r="G14" s="3">
+        <f>E14-F14</f>
+        <v>84074</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1955,7 +1988,7 @@
         <v>55690</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1969,10 +2002,7 @@
         <v>52828</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1986,10 +2016,7 @@
         <v>52670</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2003,10 +2030,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2020,10 +2044,7 @@
         <v>45530</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2037,21 +2058,15 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2065,43 +2080,31 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>28410</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>23190</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>154</v>
       </c>
@@ -2178,11 +2181,11 @@
         <v>9.35</v>
       </c>
       <c r="E33" s="3">
-        <f>D33*[12]Main!$L$3</f>
+        <f>D33*[10]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
       <c r="F33" s="3">
-        <f>[12]Main!$L$5-[12]Main!$L$6</f>
+        <f>[10]Main!$L$5-[10]Main!$L$6</f>
         <v>2585</v>
       </c>
       <c r="G33" s="3">
@@ -2193,7 +2196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>19090</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>18840</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>18140</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2260,11 +2263,11 @@
         <v>102.23</v>
       </c>
       <c r="E38" s="3">
-        <f>+D38*[13]Main!$K$3</f>
+        <f>+D38*[11]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
       <c r="F38" s="3">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>3155</v>
       </c>
       <c r="G38" s="3">
@@ -2275,10 +2278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
@@ -2292,15 +2292,15 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2314,23 +2314,23 @@
         <v>16440</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
@@ -2344,18 +2344,15 @@
         <v>15250</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>174</v>
       </c>
@@ -2363,28 +2360,28 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -2796,9 +2793,10 @@
     <hyperlink ref="B13" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
     <hyperlink ref="B9" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
     <hyperlink ref="B33" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2810,7 +2808,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2876,11 +2874,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[14]Main!$K$3</f>
+        <f>+D6*[12]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">
@@ -2957,7 +2955,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3110,7 +3108,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:E7"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3202,13 +3200,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:H3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3315,6 +3313,22 @@
       </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3407,10 +3421,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9C6ABA-2FFF-453E-904E-4653AD20418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7411379-4EDC-4DA3-8C23-C2E092503045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="1875" windowWidth="18810" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8655" yWindow="0" windowWidth="20145" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,11 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
+    <definedName name="EUR">FX!$C$4</definedName>
     <definedName name="HKD">FX!$C$2</definedName>
     <definedName name="RMB">FX!$C$3</definedName>
   </definedNames>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -719,19 +722,70 @@
   </si>
   <si>
     <t>PDD</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Global Shop Solutions</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Fintech</t>
+  </si>
+  <si>
+    <t>Supply Chain</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>S/O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0\x"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -806,7 +860,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -814,40 +868,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,23 +1068,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2036</v>
+            <v>1180</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2585</v>
+            <v>18083</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>17213</v>
           </cell>
         </row>
       </sheetData>
@@ -933,23 +1099,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>286</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>4002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>6853</v>
           </cell>
         </row>
       </sheetData>
@@ -969,18 +1135,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="L3">
+            <v>200</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="L5">
+            <v>5498</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="L6">
+            <v>1572</v>
           </cell>
         </row>
       </sheetData>
@@ -1001,21 +1167,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>200</v>
+            <v>1322.7</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>5498</v>
+            <v>3157</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>1572</v>
+            <v>3642.4</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1031,22 +1197,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1180</v>
+          <cell r="M3">
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18083</v>
+          <cell r="M5">
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>17213</v>
+          <cell r="M6">
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1057,27 +1223,89 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2036</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>2585</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>995</v>
+          <cell r="K3">
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>18439</v>
+          <cell r="K5">
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>10597</v>
+          <cell r="K6">
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>588.52099999999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3132.9639999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>988.03399999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1094,21 +1322,56 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>667.55100000000004</v>
+            <v>13239</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>169198</v>
+            <v>155662</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>14817</v>
+            <v>14734</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="25">
+          <cell r="U25">
+            <v>5.5675771651937485</v>
+          </cell>
+          <cell r="V25">
+            <v>6.4727841989453889</v>
+          </cell>
+          <cell r="W25">
+            <v>7.5894844369876644</v>
+          </cell>
+          <cell r="X25">
+            <v>8.800051286902848</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AF28">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AF29">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AF30">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AF32">
+            <v>179.60004861383993</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1123,6 +1386,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>10180</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="K5">
             <v>66385</v>
@@ -1180,6 +1448,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>9.5380000000000003</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="L5">
             <v>1086</v>
@@ -1206,6 +1479,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="G3">
+            <v>2742</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="G5">
             <v>21902</v>
@@ -1270,12 +1548,12 @@
         </row>
         <row r="5">
           <cell r="N5">
-            <v>4701</v>
+            <v>5299</v>
           </cell>
         </row>
         <row r="6">
           <cell r="N6">
-            <v>4125</v>
+            <v>4126</v>
           </cell>
         </row>
       </sheetData>
@@ -1290,23 +1568,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>286</v>
+          <cell r="M3">
+            <v>995</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4002</v>
+          <cell r="M5">
+            <v>18439</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>6853</v>
+          <cell r="M6">
+            <v>10597</v>
           </cell>
         </row>
       </sheetData>
@@ -1613,13 +1891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:H78"/>
+  <dimension ref="B2:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1629,34 +1907,83 @@
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="2"/>
     <col min="5" max="5" width="10.28515625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.5703125" style="1"/>
+    <col min="6" max="9" width="9.42578125" style="4" customWidth="1"/>
+    <col min="10" max="14" width="8.5703125" style="17"/>
+    <col min="15" max="15" width="8.5703125" style="20"/>
+    <col min="16" max="17" width="8.5703125" style="21"/>
+    <col min="18" max="18" width="8.5703125" style="22"/>
+    <col min="19" max="19" width="8.5703125" style="20"/>
+    <col min="20" max="21" width="8.5703125" style="21"/>
+    <col min="22" max="22" width="8.5703125" style="22"/>
+    <col min="23" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="26">
+        <v>2022</v>
+      </c>
+      <c r="P2" s="27">
+        <v>2023</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>2024</v>
+      </c>
+      <c r="R2" s="28">
+        <v>2025</v>
+      </c>
+      <c r="S2" s="26">
+        <v>2022</v>
+      </c>
+      <c r="T2" s="27">
+        <v>2023</v>
+      </c>
+      <c r="U2" s="27">
+        <v>2024</v>
+      </c>
+      <c r="V2" s="28">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1678,11 +2005,12 @@
         <f>+E3-F3</f>
         <v>1836894</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1690,25 +2018,81 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>2340.23</v>
+        <v>105.44</v>
       </c>
       <c r="E4" s="3">
         <f>D4*[2]Main!$L$3</f>
-        <v>1562222.8767300001</v>
+        <v>1395920.16</v>
       </c>
       <c r="F4" s="3">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
-        <v>154381</v>
+        <v>140928</v>
       </c>
       <c r="G4" s="3">
         <f>+E4-F4</f>
-        <v>1407841.8767300001</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1254992.1599999999</v>
+      </c>
+      <c r="H4" s="3">
+        <f>[2]Main!$L$3</f>
+        <v>13239</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="18">
+        <f>+[2]Model!$AF$32</f>
+        <v>179.60004861383993</v>
+      </c>
+      <c r="K4" s="19">
+        <f>J4/D4-1</f>
+        <v>0.70333885255917994</v>
+      </c>
+      <c r="L4" s="19">
+        <f>+[2]Model!$AF$29</f>
+        <v>0.08</v>
+      </c>
+      <c r="M4" s="19">
+        <f>+[2]Model!$AF$28</f>
+        <v>-0.01</v>
+      </c>
+      <c r="N4" s="19">
+        <f>+[2]Model!$AF$30</f>
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="23">
+        <f>+($G$4/$H$4)/S4</f>
+        <v>17.026272726826235</v>
+      </c>
+      <c r="P4" s="24">
+        <f>+($G$4/$H$4)/T4</f>
+        <v>14.645179621110156</v>
+      </c>
+      <c r="Q4" s="24">
+        <f>+($G$4/$H$4)/U4</f>
+        <v>12.490319735060142</v>
+      </c>
+      <c r="R4" s="25">
+        <f>+($G$4/$H$4)/V4</f>
+        <v>10.772106224349255</v>
+      </c>
+      <c r="S4" s="29">
+        <f>+[2]Model!U25</f>
+        <v>5.5675771651937485</v>
+      </c>
+      <c r="T4" s="30">
+        <f>+[2]Model!V25</f>
+        <v>6.4727841989453889</v>
+      </c>
+      <c r="U4" s="30">
+        <f>+[2]Model!W25</f>
+        <v>7.5894844369876644</v>
+      </c>
+      <c r="V4" s="31">
+        <f>+[2]Model!X25</f>
+        <v>8.800051286902848</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +2103,8 @@
         <v>121.12</v>
       </c>
       <c r="E5" s="3">
-        <v>1232000</v>
+        <f>+D5*[3]Main!$K$3</f>
+        <v>1233001.6000000001</v>
       </c>
       <c r="F5" s="3">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
@@ -1727,13 +2112,14 @@
       </c>
       <c r="G5" s="3">
         <f>+E5-F5</f>
-        <v>1213171</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>1214172.6000000001</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1755,11 +2141,12 @@
         <f>+E6-F6</f>
         <v>437522.94</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1769,9 +2156,9 @@
       <c r="D7" s="2">
         <v>391.4</v>
       </c>
-      <c r="E7" s="3" cm="1">
-        <f t="array" ref="E7">3762000/HKD</f>
-        <v>479247.87892685161</v>
+      <c r="E7" s="3">
+        <f>+D7*[5]Main!$L$3*1000/HKD</f>
+        <v>475575.58154347877</v>
       </c>
       <c r="F7" s="3">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
@@ -1779,13 +2166,14 @@
       </c>
       <c r="G7" s="3">
         <f>+E7-F7</f>
-        <v>382175.34204693109</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>378503.04466355825</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1796,21 +2184,23 @@
         <v>71.02</v>
       </c>
       <c r="E8" s="3">
-        <v>189493</v>
+        <f>+D8*[6]Main!$G$3</f>
+        <v>194736.84</v>
       </c>
       <c r="F8" s="3">
-        <f>[6]Main!$G$5-[6]Main!$G$6</f>
+        <f>+[6]Main!$G$5-[6]Main!$G$6</f>
         <v>-53957</v>
       </c>
       <c r="G8" s="3">
         <f>E8-F8</f>
-        <v>243450</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>248693.84</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1832,11 +2222,12 @@
         <f>+E9-F9</f>
         <v>190327.55129821959</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1852,17 +2243,18 @@
       </c>
       <c r="F10" s="3">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
-        <v>576</v>
+        <v>1173</v>
       </c>
       <c r="G10" s="3">
         <f>+E10-F10</f>
-        <v>185513.4</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <v>184916.4</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1873,22 +2265,23 @@
         <v>189</v>
       </c>
       <c r="E11" s="3">
-        <f>+D11*[15]Main!$M$3</f>
+        <f>+D11*[9]Main!$M$3</f>
         <v>188055</v>
       </c>
       <c r="F11" s="3">
-        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
+        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>7842</v>
       </c>
       <c r="G11" s="3">
-        <f>E11-F11</f>
+        <f t="shared" ref="G11:G16" si="0">E11-F11</f>
         <v>180213</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1899,22 +2292,23 @@
         <v>99.86</v>
       </c>
       <c r="E12" s="3">
-        <f>+D12*[14]Main!$L$3</f>
+        <f>+D12*[10]Main!$L$3</f>
         <v>117834.8</v>
       </c>
       <c r="F12" s="3">
-        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>870</v>
       </c>
       <c r="G12" s="3">
-        <f>E12-F12</f>
+        <f t="shared" si="0"/>
         <v>116964.8</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1925,22 +2319,23 @@
         <v>413.72</v>
       </c>
       <c r="E13" s="3">
-        <f>D13*[9]Main!$L$3</f>
+        <f>D13*[11]Main!$L$3</f>
         <v>118323.92000000001</v>
       </c>
       <c r="F13" s="3">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-2851</v>
       </c>
       <c r="G13" s="3">
-        <f>E13-F13</f>
+        <f t="shared" si="0"/>
         <v>121174.92000000001</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1951,41 +2346,74 @@
         <v>440</v>
       </c>
       <c r="E14" s="3">
-        <f>+D14*[13]Main!$L$3</f>
+        <f>+D14*[12]Main!$L$3</f>
         <v>88000</v>
       </c>
       <c r="F14" s="3">
-        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>3926</v>
       </c>
       <c r="G14" s="3">
-        <f>E14-F14</f>
+        <f t="shared" si="0"/>
         <v>84074</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="D15" s="2">
+        <v>39.74</v>
+      </c>
+      <c r="E15" s="3">
+        <f>+D15*[13]Main!$L$3*EUR</f>
+        <v>53089.738980000009</v>
+      </c>
+      <c r="F15" s="3">
+        <f>+([13]Main!$L$5-[13]Main!$L$6)*EUR</f>
+        <v>-490.25400000000008</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>53579.99298000001</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="2">
-        <v>391.47</v>
+        <v>36.71</v>
       </c>
       <c r="E16" s="3">
-        <v>55690</v>
+        <f>+D16*[14]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F16" s="3">
+        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -2170,7 +2598,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>154</v>
       </c>
@@ -2181,22 +2609,23 @@
         <v>9.35</v>
       </c>
       <c r="E33" s="3">
-        <f>D33*[10]Main!$L$3</f>
+        <f>D33*[15]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
       <c r="F33" s="3">
-        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>[15]Main!$L$5-[15]Main!$L$6</f>
         <v>2585</v>
       </c>
       <c r="G33" s="3">
         <f>E33-F33</f>
         <v>16451.599999999999</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2639,7 @@
         <v>19090</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
@@ -2224,7 +2653,7 @@
         <v>18840</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
@@ -2238,7 +2667,7 @@
         <v>18140</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
@@ -2252,7 +2681,7 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2263,22 +2692,23 @@
         <v>102.23</v>
       </c>
       <c r="E38" s="3">
-        <f>+D38*[11]Main!$K$3</f>
+        <f>+D38*[16]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
       <c r="F38" s="3">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
         <v>3155</v>
       </c>
       <c r="G38" s="3">
         <f>E38-F38</f>
         <v>16992.20788088</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
@@ -2292,7 +2722,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>195</v>
       </c>
@@ -2300,7 +2730,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2314,7 +2744,7 @@
         <v>16440</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
@@ -2322,7 +2752,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>199</v>
       </c>
@@ -2330,7 +2760,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
@@ -2344,7 +2774,7 @@
         <v>15250</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
@@ -2352,7 +2782,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>174</v>
       </c>
@@ -2360,7 +2790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>201</v>
       </c>
@@ -2368,7 +2798,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>207</v>
       </c>
@@ -2794,9 +3224,11 @@
     <hyperlink ref="B9" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
     <hyperlink ref="B33" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B14" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2874,11 +3306,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[12]Main!$K$3</f>
+        <f>+D6*[17]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
+        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">
@@ -3435,10 +3867,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3462,6 +3894,14 @@
         <v>6.74</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3469,62 +3909,91 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="7"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>147</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7411379-4EDC-4DA3-8C23-C2E092503045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BD4FC-2B7B-4F7A-AF0C-6CB2429D1EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8655" yWindow="0" windowWidth="20145" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,7 @@
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="EUR">FX!$C$4</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -764,6 +765,9 @@
   </si>
   <si>
     <t>S/O</t>
+  </si>
+  <si>
+    <t>Founded</t>
   </si>
 </sst>
 </file>
@@ -773,13 +777,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -926,93 +936,103 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,7 +1077,28 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="28">
+          <cell r="AH28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AH29">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AH30">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AH32">
+            <v>240.35788054423469</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1306,6 +1347,37 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>345.875</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>255226</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>83627</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1891,710 +1963,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:V78"/>
+  <dimension ref="B2:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="2"/>
-    <col min="5" max="5" width="10.28515625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="9.42578125" style="4" customWidth="1"/>
-    <col min="10" max="14" width="8.5703125" style="17"/>
-    <col min="15" max="15" width="8.5703125" style="20"/>
-    <col min="16" max="17" width="8.5703125" style="21"/>
-    <col min="18" max="18" width="8.5703125" style="22"/>
-    <col min="19" max="19" width="8.5703125" style="20"/>
-    <col min="20" max="21" width="8.5703125" style="21"/>
-    <col min="22" max="22" width="8.5703125" style="22"/>
-    <col min="23" max="16384" width="8.5703125" style="1"/>
+    <col min="1" max="1" width="1.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="26"/>
+    <col min="5" max="5" width="10.28515625" style="27" customWidth="1"/>
+    <col min="6" max="9" width="9.42578125" style="28" customWidth="1"/>
+    <col min="10" max="14" width="8.5703125" style="29"/>
+    <col min="15" max="15" width="8.5703125" style="30"/>
+    <col min="16" max="17" width="8.5703125" style="31"/>
+    <col min="18" max="18" width="8.5703125" style="32"/>
+    <col min="19" max="19" width="8.5703125" style="30"/>
+    <col min="20" max="21" width="8.5703125" style="31"/>
+    <col min="22" max="22" width="8.5703125" style="32"/>
+    <col min="23" max="16384" width="8.5703125" style="25"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="24">
         <v>2022</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="22">
         <v>2023</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="22">
         <v>2024</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="23">
         <v>2025</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="24">
         <v>2022</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="22">
         <v>2023</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="22">
         <v>2024</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="23">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="26">
         <v>252</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="27">
         <f>D3*[1]Main!$L$3</f>
         <v>1898568</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="27">
         <f>[1]Main!$L$5-[1]Main!$L$6</f>
         <v>61674</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="27">
         <f>+E3-F3</f>
         <v>1836894</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="27">
+        <f>+[1]Main!$L$3</f>
+        <v>7534</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J3" s="33">
+        <f>+[1]Model!$AH$32</f>
+        <v>240.35788054423469</v>
+      </c>
+      <c r="K3" s="34">
+        <f>J3/D3-1</f>
+        <v>-4.6198886729227451E-2</v>
+      </c>
+      <c r="L3" s="34">
+        <f>+[1]Model!$AH$29</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" s="34">
+        <f>+[1]Model!$AH$28</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="34">
+        <f>+[1]Model!$AH$30</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="26">
         <v>105.44</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="27">
         <f>D4*[2]Main!$L$3</f>
         <v>1395920.16</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="27">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
         <v>140928</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="27">
         <f>+E4-F4</f>
         <v>1254992.1599999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="27">
         <f>[2]Main!$L$3</f>
         <v>13239</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="33">
         <f>+[2]Model!$AF$32</f>
         <v>179.60004861383993</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="34">
         <f>J4/D4-1</f>
         <v>0.70333885255917994</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="34">
         <f>+[2]Model!$AF$29</f>
         <v>0.08</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="34">
         <f>+[2]Model!$AF$28</f>
         <v>-0.01</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="34">
         <f>+[2]Model!$AF$30</f>
         <v>0.01</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="35">
         <f>+($G$4/$H$4)/S4</f>
         <v>17.026272726826235</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="36">
         <f>+($G$4/$H$4)/T4</f>
         <v>14.645179621110156</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="36">
         <f>+($G$4/$H$4)/U4</f>
         <v>12.490319735060142</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="37">
         <f>+($G$4/$H$4)/V4</f>
         <v>10.772106224349255</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="38">
         <f>+[2]Model!U25</f>
         <v>5.5675771651937485</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="39">
         <f>+[2]Model!V25</f>
         <v>6.4727841989453889</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="39">
         <f>+[2]Model!W25</f>
         <v>7.5894844369876644</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="40">
         <f>+[2]Model!X25</f>
         <v>8.800051286902848</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="26">
         <v>121.12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="27">
         <f>+D5*[3]Main!$K$3</f>
         <v>1233001.6000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="27">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
         <v>18829</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="27">
         <f>+E5-F5</f>
         <v>1214172.6000000001</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="26">
         <v>175.57</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="27">
         <f>+D6*[4]Main!$M$3</f>
         <v>481412.94</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="27">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>43890</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="27">
         <f>+E6-F6</f>
         <v>437522.94</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="26">
         <v>391.4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="27">
         <f>+D7*[5]Main!$L$3*1000/HKD</f>
         <v>475575.58154347877</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="27">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
         <v>97072.536879920503</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="27">
         <f>+E7-F7</f>
         <v>378503.04466355825</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="26">
         <v>71.02</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="27">
         <f>+D8*[6]Main!$G$3</f>
         <v>194736.84</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="27">
         <f>+[6]Main!$G$5-[6]Main!$G$6</f>
         <v>-53957</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="27">
         <f>E8-F8</f>
         <v>248693.84</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="26">
         <v>115.9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="27">
         <f>D9*[7]Main!$L$3</f>
         <v>310046.98749999999</v>
       </c>
-      <c r="F9" s="3" cm="1">
+      <c r="F9" s="27" cm="1">
         <f t="array" ref="F9">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
         <v>119719.43620178041</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="27">
         <f>+E9-F9</f>
         <v>190327.55129821959</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="26">
         <v>393.84</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="27">
         <f>+D10*[8]Main!$N$3</f>
         <v>186089.4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="27">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>1173</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="27">
         <f>+E10-F10</f>
         <v>184916.4</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="26">
         <v>189</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="27">
         <f>+D11*[9]Main!$M$3</f>
         <v>188055</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="27">
         <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>7842</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11:G16" si="0">E11-F11</f>
+      <c r="G11" s="27">
+        <f t="shared" ref="G11:G17" si="0">E11-F11</f>
         <v>180213</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="26">
         <v>99.86</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="27">
         <f>+D12*[10]Main!$L$3</f>
         <v>117834.8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="27">
         <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>870</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>116964.8</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="26">
         <v>413.72</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="27">
         <f>D13*[11]Main!$L$3</f>
         <v>118323.92000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="27">
         <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-2851</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>121174.92000000001</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="26">
         <v>440</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="27">
         <f>+D14*[12]Main!$L$3</f>
         <v>88000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="27">
         <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>3926</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>84074</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="27"/>
+      <c r="I14" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="26">
         <v>39.74</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="27">
         <f>+D15*[13]Main!$L$3*EUR</f>
         <v>53089.738980000009</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="27">
         <f>+([13]Main!$L$5-[13]Main!$L$6)*EUR</f>
         <v>-490.25400000000008</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>53579.99298000001</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="26">
         <v>36.71</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="27">
         <f>+D16*[14]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="27">
         <f>+[14]Main!$M$5-[14]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="26">
         <v>152.88</v>
       </c>
-      <c r="E17" s="3">
-        <v>52828</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="E17" s="27">
+        <f>+D17*[18]Main!$L$3</f>
+        <v>52877.369999999995</v>
+      </c>
+      <c r="F17" s="27">
+        <f>([18]Main!$L$5-[18]Main!$L$6)/RMB</f>
+        <v>25459.792284866468</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>27417.577715133528</v>
+      </c>
+      <c r="H17" s="27">
+        <f>+[18]Main!$L$3</f>
+        <v>345.875</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="26">
         <v>200.8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="27">
         <v>52670</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="26">
         <v>135.57</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="27">
         <v>45920</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="26">
         <v>203.73</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="27">
         <v>45530</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="26">
         <v>159.93</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="27">
         <v>44900</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="26">
         <v>160.03</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="27">
         <v>40648</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="26">
         <v>107.93</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="27">
         <v>34000</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="27">
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="26">
         <v>54.71</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="27">
         <v>28410</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="27">
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="26">
         <v>236.61</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="27">
         <v>23190</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="27">
         <v>22000</v>
       </c>
     </row>
@@ -2602,82 +2719,82 @@
       <c r="B33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="26">
         <v>9.35</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="27">
         <f>D33*[15]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="27">
         <f>[15]Main!$L$5-[15]Main!$L$6</f>
         <v>2585</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="27">
         <f>E33-F33</f>
         <v>16451.599999999999</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="27"/>
+      <c r="I33" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="26">
         <v>312</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="27">
         <v>19090</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="26">
         <v>90.1</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="27">
         <v>18840</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="26">
         <v>360.34</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="27">
         <v>18140</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="26">
         <v>43.75</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="27">
         <v>17180</v>
       </c>
     </row>
@@ -2685,526 +2802,526 @@
       <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="26">
         <v>102.23</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="27">
         <f>+D38*[16]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="27">
         <f>+[16]Main!$K$5-[16]Main!$K$6</f>
         <v>3155</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="27">
         <f>E38-F38</f>
         <v>16992.20788088</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="27"/>
+      <c r="I38" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="26">
         <v>40.44</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="27">
         <v>16810</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="26">
         <v>63.5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="27">
         <v>16440</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="25" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="26">
         <v>363.45</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="27">
         <v>15250</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="25" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="25" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="26">
         <v>135.02000000000001</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="27">
         <v>14050</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="26">
         <v>206.61</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="27">
         <v>13880</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="26">
         <v>115.52</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="27">
         <v>13640</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="26">
         <v>206.68</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="27">
         <v>12990</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="26">
         <v>43.77</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="27">
         <v>12660</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="26">
         <v>98.74</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="27">
         <v>12490</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="26">
         <v>40.369999999999997</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="27">
         <v>11000</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="26">
         <v>408.48</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="27">
         <v>10570</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="26">
         <v>80.52</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="27">
         <v>10310</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="26">
         <v>35.200000000000003</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="27">
         <v>10210</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="26">
         <v>8.17</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="27">
         <v>9320</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="26">
         <v>14.73</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="27">
         <v>9140</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="26">
         <v>56.9</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="27">
         <v>9000</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="26">
         <v>203.42</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="27">
         <v>8580</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="26">
         <v>126.81</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="27">
         <v>8200</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="26">
         <v>50.35</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="27">
         <v>8150</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="27">
         <v>8000</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="26">
         <v>88.7</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="27">
         <v>7910</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="26">
         <v>78.3</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="27">
         <v>7580</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="26">
         <v>50.36</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="27">
         <v>7140</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="26">
         <v>80.58</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="27">
         <v>6930</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="26">
         <v>32.869999999999997</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="27">
         <v>6880</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="26">
         <v>17.63</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="27">
         <v>6480</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="26">
         <v>54.6</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="27">
         <v>6370</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="26">
         <v>62.59</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="27">
         <v>6350</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="26">
         <v>62.71</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="27">
         <v>3603</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="26">
         <v>21.19</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="27">
         <v>2965</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="26">
         <v>26.99</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="27">
         <v>1400</v>
       </c>
     </row>
@@ -3226,9 +3343,10 @@
     <hyperlink ref="B14" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
     <hyperlink ref="B15" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
     <hyperlink ref="B16" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -3870,7 +3988,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BD4FC-2B7B-4F7A-AF0C-6CB2429D1EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EEC292-61FD-4037-8646-899CC13A2EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="0" windowWidth="20145" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="1995" windowWidth="17760" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="EUR">FX!$C$4</definedName>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="233">
   <si>
     <t>Name</t>
   </si>
@@ -768,6 +770,18 @@
   </si>
   <si>
     <t>Founded</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>COUR</t>
+  </si>
+  <si>
+    <t>Upwork</t>
+  </si>
+  <si>
+    <t>UPWK</t>
   </si>
 </sst>
 </file>
@@ -777,13 +791,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -936,102 +962,112 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1238,18 +1274,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1260</v>
+          <cell r="L3">
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>7246.6900000000005</v>
+          <cell r="L5">
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>911.54899999999998</v>
+          <cell r="L6">
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
@@ -1264,23 +1300,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>2036</v>
+          <cell r="M3">
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>2585</v>
+          <cell r="M5">
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1300,18 +1336,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -1326,23 +1362,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="L3">
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="L5">
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1362,22 +1398,53 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="K3">
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="K5">
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="K6">
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>588.52099999999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3132.9639999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>988.03399999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1449,6 +1516,37 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>314.36099999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>5027.4579999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1474,7 +1572,28 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="43">
+          <cell r="BG43">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="BG44">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="BG45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="BG47">
+            <v>250.54466524504451</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1963,13 +2082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:W78"/>
+  <dimension ref="B2:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2212,9 +2331,44 @@
         <f>+E5-F5</f>
         <v>1214172.6000000001</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="27">
+        <f>+[3]Main!$K$3</f>
+        <v>10180</v>
+      </c>
       <c r="I5" s="28" t="s">
         <v>14</v>
+      </c>
+      <c r="J5" s="33">
+        <f>+[3]Model!$BG$47</f>
+        <v>250.54466524504451</v>
+      </c>
+      <c r="K5" s="34">
+        <f>J5/D5-1</f>
+        <v>1.068565598126193</v>
+      </c>
+      <c r="L5" s="44">
+        <f>+[3]Model!$BG$43</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5" s="34">
+        <f>+[3]Model!$BG$45</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="34">
+        <f>+[3]Model!$BG$44</f>
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="30">
+        <v>40.72</v>
+      </c>
+      <c r="T5" s="31">
+        <v>93.22</v>
+      </c>
+      <c r="U5" s="31">
+        <v>126.02</v>
+      </c>
+      <c r="V5" s="32">
+        <v>165.36</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
@@ -2239,9 +2393,15 @@
         <f>+E6-F6</f>
         <v>437522.94</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="27">
+        <f>+[4]Main!$M$3</f>
+        <v>2742</v>
+      </c>
       <c r="I6" s="28" t="s">
         <v>14</v>
+      </c>
+      <c r="W6" s="25">
+        <v>2004</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
@@ -2371,7 +2531,7 @@
         <v>7842</v>
       </c>
       <c r="G11" s="27">
-        <f t="shared" ref="G11:G17" si="0">E11-F11</f>
+        <f t="shared" ref="G11:G19" si="0">E11-F11</f>
         <v>180213</v>
       </c>
       <c r="H11" s="27"/>
@@ -2489,90 +2649,122 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="26">
+        <v>200.8</v>
+      </c>
+      <c r="E16" s="27">
+        <f>+D16*[14]Main!$L$3</f>
+        <v>50947.578400000006</v>
+      </c>
+      <c r="F16" s="27">
+        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
+        <v>432.39900000000011</v>
+      </c>
+      <c r="G16" s="27">
+        <f>E16-F16</f>
+        <v>50515.179400000008</v>
+      </c>
+      <c r="H16" s="27">
+        <f>+[14]Main!$L$3</f>
+        <v>253.72300000000001</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D17" s="26">
         <v>36.71</v>
       </c>
-      <c r="E16" s="27">
-        <f>+D16*[14]Main!$M$3</f>
+      <c r="E17" s="27">
+        <f>+D17*[15]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F16" s="27">
-        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
+      <c r="F17" s="27">
+        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26">
+        <v>135.57</v>
+      </c>
+      <c r="E18" s="27">
+        <f>+D18*[20]Main!$M$3</f>
+        <v>42617.920769999997</v>
+      </c>
+      <c r="F18" s="27">
+        <f>+[20]Main!$M$5-[20]Main!$M$6</f>
+        <v>5027.4579999999996</v>
+      </c>
+      <c r="G18" s="27">
+        <f>E18-F18</f>
+        <v>37590.462769999998</v>
+      </c>
+      <c r="H18" s="27">
+        <f>+[20]Main!$M$3</f>
+        <v>314.36099999999999</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D19" s="26">
         <v>152.88</v>
       </c>
-      <c r="E17" s="27">
-        <f>+D17*[18]Main!$L$3</f>
+      <c r="E19" s="27">
+        <f>+D19*[16]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F17" s="27">
-        <f>([18]Main!$L$5-[18]Main!$L$6)/RMB</f>
+      <c r="F19" s="27">
+        <f>([16]Main!$L$5-[16]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G19" s="27">
         <f t="shared" si="0"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H17" s="27">
-        <f>+[18]Main!$L$3</f>
+      <c r="H19" s="27">
+        <f>+[16]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="25">
+      <c r="W19" s="25">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="26">
-        <v>200.8</v>
-      </c>
-      <c r="E18" s="27">
-        <v>52670</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="26">
-        <v>135.57</v>
-      </c>
-      <c r="E19" s="27">
-        <v>45920</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
@@ -2726,11 +2918,11 @@
         <v>9.35</v>
       </c>
       <c r="E33" s="27">
-        <f>D33*[15]Main!$L$3</f>
+        <f>D33*[17]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
       <c r="F33" s="27">
-        <f>[15]Main!$L$5-[15]Main!$L$6</f>
+        <f>[17]Main!$L$5-[17]Main!$L$6</f>
         <v>2585</v>
       </c>
       <c r="G33" s="27">
@@ -2809,11 +3001,11 @@
         <v>102.23</v>
       </c>
       <c r="E38" s="27">
-        <f>+D38*[16]Main!$K$3</f>
+        <f>+D38*[18]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
       <c r="F38" s="27">
-        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
+        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
         <v>3155</v>
       </c>
       <c r="G38" s="27">
@@ -3323,6 +3515,22 @@
       </c>
       <c r="E78" s="27">
         <v>1400</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3342,11 +3550,13 @@
     <hyperlink ref="B33" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B14" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
     <hyperlink ref="B15" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B16" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -3424,11 +3634,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[17]Main!$K$3</f>
+        <f>+D6*[19]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EEC292-61FD-4037-8646-899CC13A2EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A44197-0D3A-451B-AC19-1DAE732D027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="1995" windowWidth="17760" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="2610" windowWidth="17760" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -959,12 +959,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1070,6 +1079,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1336,18 +1351,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1362,23 +1377,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2036</v>
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2585</v>
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -1393,23 +1408,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1430,17 +1445,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>588.52099999999996</v>
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>3132.9639999999999</v>
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>988.03399999999999</v>
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
@@ -1526,22 +1541,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>314.36099999999999</v>
+          <cell r="K3">
+            <v>588.52099999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5027.4579999999996</v>
+          <cell r="K5">
+            <v>3132.9639999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="K6">
+            <v>988.03399999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1558,7 +1573,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10180</v>
+            <v>10175</v>
           </cell>
         </row>
         <row r="5">
@@ -1573,6 +1588,20 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="34">
+          <cell r="AV34">
+            <v>1.6784287420147448</v>
+          </cell>
+          <cell r="AW34">
+            <v>4.897703299754288</v>
+          </cell>
+          <cell r="AX34">
+            <v>5.2938371314459518</v>
+          </cell>
+          <cell r="AY34">
+            <v>7.2024349209232001</v>
+          </cell>
+        </row>
         <row r="43">
           <cell r="BG43">
             <v>7.0000000000000007E-2</v>
@@ -1590,7 +1619,7 @@
         </row>
         <row r="47">
           <cell r="BG47">
-            <v>250.54466524504451</v>
+            <v>233.19800990540423</v>
           </cell>
         </row>
       </sheetData>
@@ -2082,13 +2111,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:W80"/>
+  <dimension ref="B2:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2110,348 +2139,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="K2" s="34">
+        <f>AVERAGE(K4:K6)</f>
+        <v>0.5274956037173274</v>
+      </c>
+      <c r="O2" s="35">
+        <f>AVERAGE(O4:O6)</f>
+        <v>44.043236940192998</v>
+      </c>
+      <c r="P2" s="46">
+        <f t="shared" ref="P2:R2" si="0">AVERAGE(P4:P6)</f>
+        <v>19.498652418866573</v>
+      </c>
+      <c r="Q2" s="46">
+        <f t="shared" si="0"/>
+        <v>17.510096913006091</v>
+      </c>
+      <c r="R2" s="36">
+        <f t="shared" si="0"/>
+        <v>13.665856077349924</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O3" s="24">
         <v>2022</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P3" s="45">
         <v>2023</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q3" s="45">
         <v>2024</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R3" s="23">
         <v>2025</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S3" s="24">
         <v>2022</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T3" s="22">
         <v>2023</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U3" s="22">
         <v>2024</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V3" s="23">
         <v>2025</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W3" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D4" s="26">
         <v>252</v>
       </c>
-      <c r="E3" s="27">
-        <f>D3*[1]Main!$L$3</f>
+      <c r="E4" s="27">
+        <f>D4*[1]Main!$L$3</f>
         <v>1898568</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F4" s="27">
         <f>[1]Main!$L$5-[1]Main!$L$6</f>
         <v>61674</v>
       </c>
-      <c r="G3" s="27">
-        <f>+E3-F3</f>
+      <c r="G4" s="27">
+        <f>+E4-F4</f>
         <v>1836894</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H4" s="27">
         <f>+[1]Main!$L$3</f>
         <v>7534</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J4" s="33">
         <f>+[1]Model!$AH$32</f>
         <v>240.35788054423469</v>
       </c>
-      <c r="K3" s="34">
-        <f>J3/D3-1</f>
+      <c r="K4" s="34">
+        <f>J4/D4-1</f>
         <v>-4.6198886729227451E-2</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L4" s="34">
         <f>+[1]Model!$AH$29</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M4" s="34">
         <f>+[1]Model!$AH$28</f>
         <v>0</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N4" s="34">
         <f>+[1]Model!$AH$30</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D5" s="26">
         <v>105.44</v>
       </c>
-      <c r="E4" s="27">
-        <f>D4*[2]Main!$L$3</f>
+      <c r="E5" s="27">
+        <f>D5*[2]Main!$L$3</f>
         <v>1395920.16</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F5" s="27">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
         <v>140928</v>
       </c>
-      <c r="G4" s="27">
-        <f>+E4-F4</f>
+      <c r="G5" s="27">
+        <f>+E5-F5</f>
         <v>1254992.1599999999</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H5" s="27">
         <f>[2]Main!$L$3</f>
         <v>13239</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I5" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J5" s="33">
         <f>+[2]Model!$AF$32</f>
         <v>179.60004861383993</v>
       </c>
-      <c r="K4" s="34">
-        <f>J4/D4-1</f>
+      <c r="K5" s="34">
+        <f>J5/D5-1</f>
         <v>0.70333885255917994</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L5" s="34">
         <f>+[2]Model!$AF$29</f>
         <v>0.08</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M5" s="34">
         <f>+[2]Model!$AF$28</f>
         <v>-0.01</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N5" s="34">
         <f>+[2]Model!$AF$30</f>
         <v>0.01</v>
       </c>
-      <c r="O4" s="35">
-        <f>+($G$4/$H$4)/S4</f>
+      <c r="O5" s="35">
+        <f>+($G5/$H5)/S5</f>
         <v>17.026272726826235</v>
       </c>
-      <c r="P4" s="36">
-        <f>+($G$4/$H$4)/T4</f>
+      <c r="P5" s="36">
+        <f>+($G5/$H5)/T5</f>
         <v>14.645179621110156</v>
       </c>
-      <c r="Q4" s="36">
-        <f>+($G$4/$H$4)/U4</f>
+      <c r="Q5" s="36">
+        <f>+($G5/$H5)/U5</f>
         <v>12.490319735060142</v>
       </c>
-      <c r="R4" s="37">
-        <f>+($G$4/$H$4)/V4</f>
+      <c r="R5" s="37">
+        <f>+($G5/$H5)/V5</f>
         <v>10.772106224349255</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S5" s="38">
         <f>+[2]Model!U25</f>
         <v>5.5675771651937485</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T5" s="39">
         <f>+[2]Model!V25</f>
         <v>6.4727841989453889</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U5" s="39">
         <f>+[2]Model!W25</f>
         <v>7.5894844369876644</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V5" s="40">
         <f>+[2]Model!X25</f>
         <v>8.800051286902848</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D6" s="26">
         <v>121.12</v>
       </c>
-      <c r="E5" s="27">
-        <f>+D5*[3]Main!$K$3</f>
-        <v>1233001.6000000001</v>
-      </c>
-      <c r="F5" s="27">
+      <c r="E6" s="27">
+        <f>+D6*[3]Main!$K$3</f>
+        <v>1232396</v>
+      </c>
+      <c r="F6" s="27">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
         <v>18829</v>
       </c>
-      <c r="G5" s="27">
-        <f>+E5-F5</f>
-        <v>1214172.6000000001</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="G6" s="27">
+        <f>+E6-F6</f>
+        <v>1213567</v>
+      </c>
+      <c r="H6" s="27">
         <f>+[3]Main!$K$3</f>
-        <v>10180</v>
-      </c>
-      <c r="I5" s="28" t="s">
+        <v>10175</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J6" s="33">
         <f>+[3]Model!$BG$47</f>
-        <v>250.54466524504451</v>
-      </c>
-      <c r="K5" s="34">
-        <f>J5/D5-1</f>
-        <v>1.068565598126193</v>
-      </c>
-      <c r="L5" s="44">
+        <v>233.19800990540423</v>
+      </c>
+      <c r="K6" s="34">
+        <f>J6/D6-1</f>
+        <v>0.92534684532202971</v>
+      </c>
+      <c r="L6" s="44">
         <f>+[3]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M6" s="34">
         <f>+[3]Model!$BG$45</f>
         <v>0</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N6" s="34">
         <f>+[3]Model!$BG$44</f>
         <v>0.01</v>
       </c>
-      <c r="S5" s="30">
-        <v>40.72</v>
-      </c>
-      <c r="T5" s="31">
-        <v>93.22</v>
-      </c>
-      <c r="U5" s="31">
-        <v>126.02</v>
-      </c>
-      <c r="V5" s="32">
-        <v>165.36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="O6" s="35">
+        <f t="shared" ref="O6:R6" si="1">+($G6/$H6)/S6</f>
+        <v>71.06020115355976</v>
+      </c>
+      <c r="P6" s="36">
+        <f t="shared" si="1"/>
+        <v>24.352125216622991</v>
+      </c>
+      <c r="Q6" s="36">
+        <f t="shared" si="1"/>
+        <v>22.529874090952042</v>
+      </c>
+      <c r="R6" s="37">
+        <f t="shared" si="1"/>
+        <v>16.559605930350592</v>
+      </c>
+      <c r="S6" s="38">
+        <f>+[3]Model!$AV$34</f>
+        <v>1.6784287420147448</v>
+      </c>
+      <c r="T6" s="39">
+        <f>+[3]Model!$AW$34</f>
+        <v>4.897703299754288</v>
+      </c>
+      <c r="U6" s="39">
+        <f>+[3]Model!$AX$34</f>
+        <v>5.2938371314459518</v>
+      </c>
+      <c r="V6" s="40">
+        <f>+[3]Model!$AY$34</f>
+        <v>7.2024349209232001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D7" s="26">
         <v>175.57</v>
       </c>
-      <c r="E6" s="27">
-        <f>+D6*[4]Main!$M$3</f>
+      <c r="E7" s="27">
+        <f>+D7*[4]Main!$M$3</f>
         <v>481412.94</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F7" s="27">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>43890</v>
       </c>
-      <c r="G6" s="27">
-        <f>+E6-F6</f>
+      <c r="G7" s="27">
+        <f>+E7-F7</f>
         <v>437522.94</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H7" s="27">
         <f>+[4]Main!$M$3</f>
         <v>2742</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W7" s="25">
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D8" s="26">
         <v>391.4</v>
       </c>
-      <c r="E7" s="27">
-        <f>+D7*[5]Main!$L$3*1000/HKD</f>
+      <c r="E8" s="27">
+        <f>+D8*[5]Main!$L$3*1000/HKD</f>
         <v>475575.58154347877</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F8" s="27">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
         <v>97072.536879920503</v>
       </c>
-      <c r="G7" s="27">
-        <f>+E7-F7</f>
+      <c r="G8" s="27">
+        <f>+E8-F8</f>
         <v>378503.04466355825</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="26">
-        <v>71.02</v>
-      </c>
-      <c r="E8" s="27">
-        <f>+D8*[6]Main!$G$3</f>
-        <v>194736.84</v>
-      </c>
-      <c r="F8" s="27">
-        <f>+[6]Main!$G$5-[6]Main!$G$6</f>
-        <v>-53957</v>
-      </c>
-      <c r="G8" s="27">
-        <f>E8-F8</f>
-        <v>248693.84</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="28" t="s">
@@ -2460,25 +2504,25 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="26">
-        <v>115.9</v>
+        <v>71.02</v>
       </c>
       <c r="E9" s="27">
-        <f>D9*[7]Main!$L$3</f>
-        <v>310046.98749999999</v>
-      </c>
-      <c r="F9" s="27" cm="1">
-        <f t="array" ref="F9">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
-        <v>119719.43620178041</v>
+        <f>+D9*[6]Main!$G$3</f>
+        <v>194736.84</v>
+      </c>
+      <c r="F9" s="27">
+        <f>+[6]Main!$G$5-[6]Main!$G$6</f>
+        <v>-53957</v>
       </c>
       <c r="G9" s="27">
-        <f>+E9-F9</f>
-        <v>190327.55129821959</v>
+        <f>E9-F9</f>
+        <v>248693.84</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="28" t="s">
@@ -2487,79 +2531,79 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="26">
+        <v>115.9</v>
+      </c>
+      <c r="E10" s="27">
+        <f>D10*[7]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F10" s="27" cm="1">
+        <f t="array" ref="F10">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G10" s="27">
+        <f>+E10-F10</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D11" s="26">
         <v>393.84</v>
       </c>
-      <c r="E10" s="27">
-        <f>+D10*[8]Main!$N$3</f>
+      <c r="E11" s="27">
+        <f>+D11*[8]Main!$N$3</f>
         <v>186089.4</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F11" s="27">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>1173</v>
       </c>
-      <c r="G10" s="27">
-        <f>+E10-F10</f>
+      <c r="G11" s="27">
+        <f>+E11-F11</f>
         <v>184916.4</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D12" s="26">
         <v>189</v>
       </c>
-      <c r="E11" s="27">
-        <f>+D11*[9]Main!$M$3</f>
+      <c r="E12" s="27">
+        <f>+D12*[9]Main!$M$3</f>
         <v>188055</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F12" s="27">
         <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>7842</v>
       </c>
-      <c r="G11" s="27">
-        <f t="shared" ref="G11:G19" si="0">E11-F11</f>
+      <c r="G12" s="27">
+        <f t="shared" ref="G12:G20" si="2">E12-F12</f>
         <v>180213</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="26">
-        <v>99.86</v>
-      </c>
-      <c r="E12" s="27">
-        <f>+D12*[10]Main!$L$3</f>
-        <v>117834.8</v>
-      </c>
-      <c r="F12" s="27">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
-        <v>870</v>
-      </c>
-      <c r="G12" s="27">
-        <f t="shared" si="0"/>
-        <v>116964.8</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="28" t="s">
@@ -2568,25 +2612,25 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="26">
-        <v>413.72</v>
+        <v>99.86</v>
       </c>
       <c r="E13" s="27">
-        <f>D13*[11]Main!$L$3</f>
-        <v>118323.92000000001</v>
+        <f>+D13*[10]Main!$L$3</f>
+        <v>117834.8</v>
       </c>
       <c r="F13" s="27">
-        <f>[11]Main!$L$5-[11]Main!$L$6</f>
-        <v>-2851</v>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>870</v>
       </c>
       <c r="G13" s="27">
-        <f t="shared" si="0"/>
-        <v>121174.92000000001</v>
+        <f t="shared" si="2"/>
+        <v>116964.8</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="28" t="s">
@@ -2595,25 +2639,25 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="26">
-        <v>440</v>
+        <v>413.72</v>
       </c>
       <c r="E14" s="27">
-        <f>+D14*[12]Main!$L$3</f>
-        <v>88000</v>
+        <f>D14*[11]Main!$L$3</f>
+        <v>118323.92000000001</v>
       </c>
       <c r="F14" s="27">
-        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
-        <v>3926</v>
+        <f>[11]Main!$L$5-[11]Main!$L$6</f>
+        <v>-2851</v>
       </c>
       <c r="G14" s="27">
-        <f t="shared" si="0"/>
-        <v>84074</v>
+        <f t="shared" si="2"/>
+        <v>121174.92000000001</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28" t="s">
@@ -2622,938 +2666,965 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26">
+        <v>440</v>
+      </c>
+      <c r="E15" s="27">
+        <f>+D15*[12]Main!$L$3</f>
+        <v>88000</v>
+      </c>
+      <c r="F15" s="27">
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
+        <v>3926</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="2"/>
+        <v>84074</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C16" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D16" s="26">
         <v>39.74</v>
       </c>
-      <c r="E15" s="27">
-        <f>+D15*[13]Main!$L$3*EUR</f>
+      <c r="E16" s="27">
+        <f>+D16*[13]Main!$L$3*EUR</f>
         <v>53089.738980000009</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F16" s="27">
         <f>+([13]Main!$L$5-[13]Main!$L$6)*EUR</f>
         <v>-490.25400000000008</v>
       </c>
-      <c r="G15" s="27">
-        <f t="shared" si="0"/>
+      <c r="G16" s="27">
+        <f t="shared" si="2"/>
         <v>53579.99298000001</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D17" s="26">
         <v>200.8</v>
       </c>
-      <c r="E16" s="27">
-        <f>+D16*[14]Main!$L$3</f>
+      <c r="E17" s="27">
+        <f>+D17*[14]Main!$L$3</f>
         <v>50947.578400000006</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F17" s="27">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>432.39900000000011</v>
       </c>
-      <c r="G16" s="27">
-        <f>E16-F16</f>
+      <c r="G17" s="27">
+        <f>E17-F17</f>
         <v>50515.179400000008</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H17" s="27">
         <f>+[14]Main!$L$3</f>
         <v>253.72300000000001</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I17" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="26">
         <v>36.71</v>
       </c>
-      <c r="E17" s="27">
-        <f>+D17*[15]Main!$M$3</f>
+      <c r="E18" s="27">
+        <f>+D18*[15]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F18" s="27">
         <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" si="0"/>
+      <c r="G18" s="27">
+        <f t="shared" si="2"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="26">
-        <v>135.57</v>
-      </c>
-      <c r="E18" s="27">
-        <f>+D18*[20]Main!$M$3</f>
-        <v>42617.920769999997</v>
-      </c>
-      <c r="F18" s="27">
-        <f>+[20]Main!$M$5-[20]Main!$M$6</f>
-        <v>5027.4579999999996</v>
-      </c>
-      <c r="G18" s="27">
-        <f>E18-F18</f>
-        <v>37590.462769999998</v>
-      </c>
-      <c r="H18" s="27">
-        <f>+[20]Main!$M$3</f>
-        <v>314.36099999999999</v>
-      </c>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="26">
+        <v>135.57</v>
+      </c>
+      <c r="E19" s="27">
+        <f>+D19*[16]Main!$M$3</f>
+        <v>42617.920769999997</v>
+      </c>
+      <c r="F19" s="27">
+        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
+        <v>5027.4579999999996</v>
+      </c>
+      <c r="G19" s="27">
+        <f>E19-F19</f>
+        <v>37590.462769999998</v>
+      </c>
+      <c r="H19" s="27">
+        <f>+[16]Main!$M$3</f>
+        <v>314.36099999999999</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D20" s="26">
         <v>152.88</v>
       </c>
-      <c r="E19" s="27">
-        <f>+D19*[16]Main!$L$3</f>
+      <c r="E20" s="27">
+        <f>+D20*[17]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F19" s="27">
-        <f>([16]Main!$L$5-[16]Main!$L$6)/RMB</f>
+      <c r="F20" s="27">
+        <f>([17]Main!$L$5-[17]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G19" s="27">
-        <f t="shared" si="0"/>
+      <c r="G20" s="27">
+        <f t="shared" si="2"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H19" s="27">
-        <f>+[16]Main!$L$3</f>
+      <c r="H20" s="27">
+        <f>+[17]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W19" s="25">
+      <c r="W20" s="25">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="26">
-        <v>203.73</v>
-      </c>
-      <c r="E20" s="27">
-        <v>45530</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="26">
-        <v>159.93</v>
+        <v>203.73</v>
       </c>
       <c r="E21" s="27">
-        <v>44900</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>194</v>
+        <v>49</v>
+      </c>
+      <c r="D22" s="26">
+        <v>159.93</v>
+      </c>
+      <c r="E22" s="27">
+        <v>44900</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="26">
-        <v>160.03</v>
-      </c>
-      <c r="E23" s="27">
-        <v>40648</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="26">
+        <v>160.03</v>
+      </c>
+      <c r="E24" s="27">
+        <v>40648</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="25" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="26">
-        <v>107.93</v>
-      </c>
-      <c r="E27" s="27">
-        <v>34000</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="26">
+        <v>107.93</v>
       </c>
       <c r="E28" s="27">
-        <v>30000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="26">
-        <v>54.71</v>
+        <v>55</v>
       </c>
       <c r="E29" s="27">
-        <v>28410</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="26">
+        <v>54.71</v>
       </c>
       <c r="E30" s="27">
-        <v>27000</v>
+        <v>28410</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="26">
-        <v>236.61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="27">
-        <v>23190</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="26">
+        <v>236.61</v>
+      </c>
+      <c r="E32" s="27">
+        <v>23190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E33" s="27">
         <v>22000</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D34" s="26">
         <v>9.35</v>
       </c>
-      <c r="E33" s="27">
-        <f>D33*[17]Main!$L$3</f>
+      <c r="E34" s="27">
+        <f>D34*[18]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
-      <c r="F33" s="27">
-        <f>[17]Main!$L$5-[17]Main!$L$6</f>
+      <c r="F34" s="27">
+        <f>[18]Main!$L$5-[18]Main!$L$6</f>
         <v>2585</v>
       </c>
-      <c r="G33" s="27">
-        <f>E33-F33</f>
+      <c r="G34" s="27">
+        <f>E34-F34</f>
         <v>16451.599999999999</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28" t="s">
+      <c r="H34" s="27"/>
+      <c r="I34" s="28" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="26">
-        <v>312</v>
-      </c>
-      <c r="E34" s="27">
-        <v>19090</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="26">
-        <v>90.1</v>
+        <v>312</v>
       </c>
       <c r="E35" s="27">
-        <v>18840</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="26">
-        <v>360.34</v>
+        <v>90.1</v>
       </c>
       <c r="E36" s="27">
-        <v>18140</v>
+        <v>18840</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="26">
+        <v>360.34</v>
+      </c>
+      <c r="E37" s="27">
+        <v>18140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C38" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D38" s="26">
         <v>43.75</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E38" s="27">
         <v>17180</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D39" s="26">
         <v>102.23</v>
       </c>
-      <c r="E38" s="27">
-        <f>+D38*[18]Main!$K$3</f>
+      <c r="E39" s="27">
+        <f>+D39*[19]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
-      <c r="F38" s="27">
-        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
+      <c r="F39" s="27">
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>3155</v>
       </c>
-      <c r="G38" s="27">
-        <f>E38-F38</f>
+      <c r="G39" s="27">
+        <f>E39-F39</f>
         <v>16992.20788088</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28" t="s">
+      <c r="H39" s="27"/>
+      <c r="I39" s="28" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="26">
-        <v>40.44</v>
-      </c>
-      <c r="E39" s="27">
-        <v>16810</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>196</v>
+        <v>80</v>
+      </c>
+      <c r="D40" s="26">
+        <v>40.44</v>
+      </c>
+      <c r="E40" s="27">
+        <v>16810</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="25" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="26">
-        <v>63.5</v>
-      </c>
-      <c r="E41" s="27">
-        <v>16440</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="25" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>198</v>
+        <v>84</v>
+      </c>
+      <c r="D42" s="26">
+        <v>63.5</v>
+      </c>
+      <c r="E42" s="27">
+        <v>16440</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="25" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="26">
-        <v>363.45</v>
-      </c>
-      <c r="E44" s="27">
-        <v>15250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>188</v>
+        <v>86</v>
+      </c>
+      <c r="D45" s="26">
+        <v>363.45</v>
+      </c>
+      <c r="E45" s="27">
+        <v>15250</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="25" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="25" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="26">
-        <v>135.02000000000001</v>
-      </c>
-      <c r="E50" s="27">
-        <v>14050</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D51" s="26">
-        <v>206.61</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E51" s="27">
-        <v>13880</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="26">
-        <v>115.52</v>
+        <v>206.61</v>
       </c>
       <c r="E52" s="27">
-        <v>13640</v>
+        <v>13880</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="26">
-        <v>206.68</v>
+        <v>115.52</v>
       </c>
       <c r="E53" s="27">
-        <v>12990</v>
+        <v>13640</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54" s="26">
-        <v>43.77</v>
+        <v>206.68</v>
       </c>
       <c r="E54" s="27">
-        <v>12660</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D55" s="26">
-        <v>98.74</v>
+        <v>43.77</v>
       </c>
       <c r="E55" s="27">
-        <v>12490</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" s="26">
-        <v>40.369999999999997</v>
+        <v>98.74</v>
       </c>
       <c r="E56" s="27">
-        <v>11000</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="26">
-        <v>408.48</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E57" s="27">
-        <v>10570</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D58" s="26">
-        <v>80.52</v>
+        <v>408.48</v>
       </c>
       <c r="E58" s="27">
-        <v>10310</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D59" s="26">
-        <v>35.200000000000003</v>
+        <v>80.52</v>
       </c>
       <c r="E59" s="27">
-        <v>10210</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="26">
+        <v>35.200000000000003</v>
       </c>
       <c r="E60" s="27">
-        <v>10000</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="26">
-        <v>8.17</v>
+        <v>112</v>
       </c>
       <c r="E61" s="27">
-        <v>9320</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" s="26">
-        <v>14.73</v>
+        <v>8.17</v>
       </c>
       <c r="E62" s="27">
-        <v>9140</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D63" s="26">
-        <v>56.9</v>
+        <v>14.73</v>
       </c>
       <c r="E63" s="27">
-        <v>9000</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D64" s="26">
-        <v>203.42</v>
+        <v>56.9</v>
       </c>
       <c r="E64" s="27">
-        <v>8580</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="26">
-        <v>126.81</v>
+        <v>203.42</v>
       </c>
       <c r="E65" s="27">
-        <v>8200</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D66" s="26">
-        <v>50.35</v>
+        <v>126.81</v>
       </c>
       <c r="E66" s="27">
-        <v>8150</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="26">
+        <v>50.35</v>
       </c>
       <c r="E67" s="27">
-        <v>8000</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="26">
-        <v>88.7</v>
+        <v>126</v>
       </c>
       <c r="E68" s="27">
-        <v>7910</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="26">
-        <v>78.3</v>
+        <v>88.7</v>
       </c>
       <c r="E69" s="27">
-        <v>7580</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D70" s="26">
-        <v>50.36</v>
+        <v>78.3</v>
       </c>
       <c r="E70" s="27">
-        <v>7140</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" s="26">
-        <v>80.58</v>
+        <v>50.36</v>
       </c>
       <c r="E71" s="27">
-        <v>6930</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D72" s="26">
-        <v>32.869999999999997</v>
+        <v>80.58</v>
       </c>
       <c r="E72" s="27">
-        <v>6880</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D73" s="26">
-        <v>17.63</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E73" s="27">
-        <v>6480</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D74" s="26">
-        <v>54.6</v>
+        <v>17.63</v>
       </c>
       <c r="E74" s="27">
-        <v>6370</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D75" s="26">
-        <v>62.59</v>
+        <v>54.6</v>
       </c>
       <c r="E75" s="27">
-        <v>6350</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="26">
-        <v>62.71</v>
+        <v>62.59</v>
       </c>
       <c r="E76" s="27">
-        <v>3603</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D77" s="26">
-        <v>21.19</v>
+        <v>62.71</v>
       </c>
       <c r="E77" s="27">
-        <v>2965</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="26">
+        <v>21.19</v>
+      </c>
+      <c r="E78" s="27">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C79" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D79" s="26">
         <v>26.99</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E79" s="27">
         <v>1400</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C81" s="42" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
-    <hyperlink ref="B4" r:id="rId8" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
-    <hyperlink ref="B5" r:id="rId9" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B9" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-    <hyperlink ref="B33" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B16" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B18" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B39" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
+    <hyperlink ref="B34" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
@@ -3634,11 +3705,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[19]Main!$K$3</f>
+        <f>+D6*[20]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A44197-0D3A-451B-AC19-1DAE732D027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28948F39-8188-433A-8B7C-7DCC13A9E162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="2610" windowWidth="17760" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="2610" windowWidth="17475" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2117,7 +2117,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28948F39-8188-433A-8B7C-7DCC13A9E162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EEC0FC-4E18-4B2C-BFEC-A5293B399338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="2610" windowWidth="17475" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13485" yWindow="1035" windowWidth="15315" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="EUR">FX!$C$4</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -782,6 +783,12 @@
   </si>
   <si>
     <t>UPWK</t>
+  </si>
+  <si>
+    <t>Hexagon</t>
+  </si>
+  <si>
+    <t>HEXA.B SS</t>
   </si>
 </sst>
 </file>
@@ -791,13 +798,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -971,120 +984,124 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1557,6 +1574,37 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>217.27220500000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>1624</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>2629</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2111,13 +2159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:W81"/>
+  <dimension ref="B2:W82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2602,7 +2650,7 @@
         <v>7842</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" ref="G12:G20" si="2">E12-F12</f>
+        <f t="shared" ref="G12:G21" si="2">E12-F12</f>
         <v>180213</v>
       </c>
       <c r="H12" s="27"/>
@@ -2750,106 +2798,125 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="26">
+        <v>203.73</v>
+      </c>
+      <c r="E18" s="27">
+        <f>+D18*H18</f>
+        <v>44264.86632465</v>
+      </c>
+      <c r="F18" s="27">
+        <f>+[21]Main!$L$5-[21]Main!$L$6</f>
+        <v>-1005</v>
+      </c>
+      <c r="G18" s="27">
+        <f>E18-F18</f>
+        <v>45269.86632465</v>
+      </c>
+      <c r="H18" s="27">
+        <f>+[21]Main!$L$3</f>
+        <v>217.27220500000001</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="25">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D19" s="26">
         <v>36.71</v>
       </c>
-      <c r="E18" s="27">
-        <f>+D18*[15]Main!$M$3</f>
+      <c r="E19" s="27">
+        <f>+D19*[15]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F19" s="27">
         <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G19" s="27">
         <f t="shared" si="2"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D20" s="26">
         <v>135.57</v>
       </c>
-      <c r="E19" s="27">
-        <f>+D19*[16]Main!$M$3</f>
+      <c r="E20" s="27">
+        <f>+D20*[16]Main!$M$3</f>
         <v>42617.920769999997</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F20" s="27">
         <f>+[16]Main!$M$5-[16]Main!$M$6</f>
         <v>5027.4579999999996</v>
       </c>
-      <c r="G19" s="27">
-        <f>E19-F19</f>
+      <c r="G20" s="27">
+        <f>E20-F20</f>
         <v>37590.462769999998</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H20" s="27">
         <f>+[16]Main!$M$3</f>
         <v>314.36099999999999</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I20" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D21" s="26">
         <v>152.88</v>
       </c>
-      <c r="E20" s="27">
-        <f>+D20*[17]Main!$L$3</f>
+      <c r="E21" s="27">
+        <f>+D21*[17]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F21" s="27">
         <f>([17]Main!$L$5-[17]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G21" s="27">
         <f t="shared" si="2"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H21" s="27">
         <f>+[17]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W20" s="25">
+      <c r="W21" s="25">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="26">
-        <v>203.73</v>
-      </c>
-      <c r="E21" s="27">
-        <v>45530</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
@@ -3111,496 +3178,504 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="26">
-        <v>63.5</v>
-      </c>
-      <c r="E42" s="27">
-        <v>16440</v>
+      <c r="B42" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>198</v>
+        <v>84</v>
+      </c>
+      <c r="D43" s="26">
+        <v>63.5</v>
+      </c>
+      <c r="E43" s="27">
+        <v>16440</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="25" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="26">
-        <v>363.45</v>
-      </c>
-      <c r="E45" s="27">
-        <v>15250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>188</v>
+        <v>86</v>
+      </c>
+      <c r="D46" s="26">
+        <v>363.45</v>
+      </c>
+      <c r="E46" s="27">
+        <v>15250</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="25" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="25" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="26">
-        <v>135.02000000000001</v>
-      </c>
-      <c r="E51" s="27">
-        <v>14050</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D52" s="26">
-        <v>206.61</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E52" s="27">
-        <v>13880</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="26">
-        <v>115.52</v>
+        <v>206.61</v>
       </c>
       <c r="E53" s="27">
-        <v>13640</v>
+        <v>13880</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="26">
-        <v>206.68</v>
+        <v>115.52</v>
       </c>
       <c r="E54" s="27">
-        <v>12990</v>
+        <v>13640</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D55" s="26">
-        <v>43.77</v>
+        <v>206.68</v>
       </c>
       <c r="E55" s="27">
-        <v>12660</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D56" s="26">
-        <v>98.74</v>
+        <v>43.77</v>
       </c>
       <c r="E56" s="27">
-        <v>12490</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D57" s="26">
-        <v>40.369999999999997</v>
+        <v>98.74</v>
       </c>
       <c r="E57" s="27">
-        <v>11000</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="26">
-        <v>408.48</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E58" s="27">
-        <v>10570</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D59" s="26">
-        <v>80.52</v>
+        <v>408.48</v>
       </c>
       <c r="E59" s="27">
-        <v>10310</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D60" s="26">
-        <v>35.200000000000003</v>
+        <v>80.52</v>
       </c>
       <c r="E60" s="27">
-        <v>10210</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="26">
+        <v>35.200000000000003</v>
       </c>
       <c r="E61" s="27">
-        <v>10000</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="26">
-        <v>8.17</v>
+        <v>112</v>
       </c>
       <c r="E62" s="27">
-        <v>9320</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" s="26">
-        <v>14.73</v>
+        <v>8.17</v>
       </c>
       <c r="E63" s="27">
-        <v>9140</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D64" s="26">
-        <v>56.9</v>
+        <v>14.73</v>
       </c>
       <c r="E64" s="27">
-        <v>9000</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D65" s="26">
-        <v>203.42</v>
+        <v>56.9</v>
       </c>
       <c r="E65" s="27">
-        <v>8580</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D66" s="26">
-        <v>126.81</v>
+        <v>203.42</v>
       </c>
       <c r="E66" s="27">
-        <v>8200</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D67" s="26">
-        <v>50.35</v>
+        <v>126.81</v>
       </c>
       <c r="E67" s="27">
-        <v>8150</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="26">
+        <v>50.35</v>
       </c>
       <c r="E68" s="27">
-        <v>8000</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" s="26">
-        <v>88.7</v>
+        <v>126</v>
       </c>
       <c r="E69" s="27">
-        <v>7910</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="26">
-        <v>78.3</v>
+        <v>88.7</v>
       </c>
       <c r="E70" s="27">
-        <v>7580</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" s="26">
-        <v>50.36</v>
+        <v>78.3</v>
       </c>
       <c r="E71" s="27">
-        <v>7140</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" s="26">
-        <v>80.58</v>
+        <v>50.36</v>
       </c>
       <c r="E72" s="27">
-        <v>6930</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="26">
-        <v>32.869999999999997</v>
+        <v>80.58</v>
       </c>
       <c r="E73" s="27">
-        <v>6880</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D74" s="26">
-        <v>17.63</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E74" s="27">
-        <v>6480</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D75" s="26">
-        <v>54.6</v>
+        <v>17.63</v>
       </c>
       <c r="E75" s="27">
-        <v>6370</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="26">
-        <v>62.59</v>
+        <v>54.6</v>
       </c>
       <c r="E76" s="27">
-        <v>6350</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77" s="26">
-        <v>62.71</v>
+        <v>62.59</v>
       </c>
       <c r="E77" s="27">
-        <v>3603</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D78" s="26">
-        <v>21.19</v>
+        <v>62.71</v>
       </c>
       <c r="E78" s="27">
-        <v>2965</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="26">
+        <v>21.19</v>
+      </c>
+      <c r="E79" s="27">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C80" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D80" s="26">
         <v>26.99</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E80" s="27">
         <v>1400</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C82" s="42" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3621,13 +3696,14 @@
     <hyperlink ref="B34" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
     <hyperlink ref="B17" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B18" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EEC0FC-4E18-4B2C-BFEC-A5293B399338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D358C95-7152-4726-B0CF-63DB34F60313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="1035" windowWidth="15315" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="1050" windowWidth="17355" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="EUR">FX!$C$4</definedName>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
   <si>
     <t>Name</t>
   </si>
@@ -789,6 +790,9 @@
   </si>
   <si>
     <t>HEXA.B SS</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -798,13 +802,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -984,124 +994,127 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1337,18 +1350,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1260</v>
+          <cell r="L3">
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>7246.6900000000005</v>
+          <cell r="L5">
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>911.54899999999998</v>
+          <cell r="L6">
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -1369,17 +1382,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>314.36099999999999</v>
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>5027.4579999999996</v>
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>0</v>
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1399,18 +1412,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1425,23 +1438,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2036</v>
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2585</v>
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -1456,23 +1469,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1559,17 +1572,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>588.52099999999996</v>
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>3132.9639999999999</v>
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>988.03399999999999</v>
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
@@ -1589,22 +1602,51 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>217.27220500000001</v>
+          <cell r="K3">
+            <v>588.52099999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1624</v>
+          <cell r="K5">
+            <v>3132.9639999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>2629</v>
+          <cell r="K6">
+            <v>988.03399999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>277.33600000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>1088.94</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>347.58800000000002</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2165,7 +2207,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2692,7 @@
         <v>7842</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" ref="G12:G21" si="2">E12-F12</f>
+        <f t="shared" ref="G12:G22" si="2">E12-F12</f>
         <v>180213</v>
       </c>
       <c r="H12" s="27"/>
@@ -2768,169 +2810,185 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="26">
+        <v>186</v>
+      </c>
+      <c r="E17" s="27">
+        <f>+D17*H17</f>
+        <v>51584.495999999999</v>
+      </c>
+      <c r="F17" s="27">
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <v>741.35200000000009</v>
+      </c>
+      <c r="G17" s="27">
+        <f>E17-F17</f>
+        <v>50843.144</v>
+      </c>
+      <c r="H17" s="27">
+        <f>+[22]Main!$K$3</f>
+        <v>277.33600000000001</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="26">
         <v>200.8</v>
       </c>
-      <c r="E17" s="27">
-        <f>+D17*[14]Main!$L$3</f>
+      <c r="E18" s="27">
+        <f>+D18*[14]Main!$L$3</f>
         <v>50947.578400000006</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F18" s="27">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>432.39900000000011</v>
       </c>
-      <c r="G17" s="27">
-        <f>E17-F17</f>
+      <c r="G18" s="27">
+        <f>E18-F18</f>
         <v>50515.179400000008</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H18" s="27">
         <f>+[14]Main!$L$3</f>
         <v>253.72300000000001</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I18" s="41" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="26">
-        <v>203.73</v>
-      </c>
-      <c r="E18" s="27">
-        <f>+D18*H18</f>
-        <v>44264.86632465</v>
-      </c>
-      <c r="F18" s="27">
-        <f>+[21]Main!$L$5-[21]Main!$L$6</f>
-        <v>-1005</v>
-      </c>
-      <c r="G18" s="27">
-        <f>E18-F18</f>
-        <v>45269.86632465</v>
-      </c>
-      <c r="H18" s="27">
-        <f>+[21]Main!$L$3</f>
-        <v>217.27220500000001</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="W18" s="25">
-        <v>1982</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="26">
+        <v>203.73</v>
+      </c>
+      <c r="E19" s="27">
+        <f>+D19*H19</f>
+        <v>44264.86632465</v>
+      </c>
+      <c r="F19" s="27">
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <v>-1005</v>
+      </c>
+      <c r="G19" s="27">
+        <f>E19-F19</f>
+        <v>45269.86632465</v>
+      </c>
+      <c r="H19" s="27">
+        <f>+[15]Main!$L$3</f>
+        <v>217.27220500000001</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="25">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D20" s="26">
         <v>36.71</v>
       </c>
-      <c r="E19" s="27">
-        <f>+D19*[15]Main!$M$3</f>
+      <c r="E20" s="27">
+        <f>+D20*[16]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F19" s="27">
-        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
+      <c r="F20" s="27">
+        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G20" s="27">
         <f t="shared" si="2"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="26">
-        <v>135.57</v>
-      </c>
-      <c r="E20" s="27">
-        <f>+D20*[16]Main!$M$3</f>
-        <v>42617.920769999997</v>
-      </c>
-      <c r="F20" s="27">
-        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
-        <v>5027.4579999999996</v>
-      </c>
-      <c r="G20" s="27">
-        <f>E20-F20</f>
-        <v>37590.462769999998</v>
-      </c>
-      <c r="H20" s="27">
-        <f>+[16]Main!$M$3</f>
-        <v>314.36099999999999</v>
-      </c>
-      <c r="I20" s="43" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="26">
+        <v>135.57</v>
+      </c>
+      <c r="E21" s="27">
+        <f>+D21*[17]Main!$M$3</f>
+        <v>42617.920769999997</v>
+      </c>
+      <c r="F21" s="27">
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
+        <v>5027.4579999999996</v>
+      </c>
+      <c r="G21" s="27">
+        <f>E21-F21</f>
+        <v>37590.462769999998</v>
+      </c>
+      <c r="H21" s="27">
+        <f>+[17]Main!$M$3</f>
+        <v>314.36099999999999</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D22" s="26">
         <v>152.88</v>
       </c>
-      <c r="E21" s="27">
-        <f>+D21*[17]Main!$L$3</f>
+      <c r="E22" s="27">
+        <f>+D22*[18]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F21" s="27">
-        <f>([17]Main!$L$5-[17]Main!$L$6)/RMB</f>
+      <c r="F22" s="27">
+        <f>([18]Main!$L$5-[18]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G22" s="27">
         <f t="shared" si="2"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H21" s="27">
-        <f>+[17]Main!$L$3</f>
+      <c r="H22" s="27">
+        <f>+[18]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W21" s="25">
+      <c r="W22" s="25">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="26">
-        <v>159.93</v>
-      </c>
-      <c r="E22" s="27">
-        <v>44900</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
@@ -3056,11 +3114,11 @@
         <v>9.35</v>
       </c>
       <c r="E34" s="27">
-        <f>D34*[18]Main!$L$3</f>
+        <f>D34*[19]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
       <c r="F34" s="27">
-        <f>[18]Main!$L$5-[18]Main!$L$6</f>
+        <f>[19]Main!$L$5-[19]Main!$L$6</f>
         <v>2585</v>
       </c>
       <c r="G34" s="27">
@@ -3139,11 +3197,11 @@
         <v>102.23</v>
       </c>
       <c r="E39" s="27">
-        <f>+D39*[19]Main!$K$3</f>
+        <f>+D39*[20]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
       <c r="F39" s="27">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>3155</v>
       </c>
       <c r="G39" s="27">
@@ -3696,14 +3754,15 @@
     <hyperlink ref="B34" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B17" r:id="rId21" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -3781,11 +3840,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[20]Main!$K$3</f>
+        <f>+D6*[21]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
+        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D358C95-7152-4726-B0CF-63DB34F60313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72AC787-84F8-456C-976F-64FDAE374AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="1050" windowWidth="17355" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="630" windowWidth="19260" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="EUR">FX!$C$4</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="239">
   <si>
     <t>Name</t>
   </si>
@@ -793,6 +794,15 @@
   </si>
   <si>
     <t>Q421</t>
+  </si>
+  <si>
+    <t>Schrodinger</t>
+  </si>
+  <si>
+    <t>SDGR</t>
+  </si>
+  <si>
+    <t>Last</t>
   </si>
 </sst>
 </file>
@@ -802,13 +812,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -994,124 +1016,137 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1314,27 +1349,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>253.72300000000001</v>
+          <cell r="K3">
+            <v>277.33600000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1431.7740000000001</v>
+          <cell r="K5">
+            <v>1088.94</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>999.375</v>
+          <cell r="K6">
+            <v>347.58800000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1351,17 +1384,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>217.27220500000001</v>
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1624</v>
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>2629</v>
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
@@ -1381,18 +1414,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1260</v>
+          <cell r="L3">
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>7246.6900000000005</v>
+          <cell r="L5">
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>911.54899999999998</v>
+          <cell r="L6">
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -1413,17 +1446,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>314.36099999999999</v>
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>5027.4579999999996</v>
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>0</v>
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1443,18 +1476,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1469,23 +1502,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2036</v>
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2585</v>
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -1566,23 +1599,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1603,17 +1636,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>588.52099999999996</v>
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>3132.9639999999999</v>
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>988.03399999999999</v>
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
@@ -1628,25 +1661,58 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>277.33600000000001</v>
+            <v>588.52099999999996</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>1088.94</v>
+            <v>3132.9639999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>347.58800000000002</v>
+            <v>988.03399999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>152.970249</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>1720.521</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>23.774999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2201,13 +2267,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:W82"/>
+  <dimension ref="B2:X83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2217,40 +2283,40 @@
     <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="26"/>
     <col min="5" max="5" width="10.28515625" style="27" customWidth="1"/>
-    <col min="6" max="9" width="9.42578125" style="28" customWidth="1"/>
-    <col min="10" max="14" width="8.5703125" style="29"/>
-    <col min="15" max="15" width="8.5703125" style="30"/>
-    <col min="16" max="17" width="8.5703125" style="31"/>
-    <col min="18" max="18" width="8.5703125" style="32"/>
-    <col min="19" max="19" width="8.5703125" style="30"/>
-    <col min="20" max="21" width="8.5703125" style="31"/>
-    <col min="22" max="22" width="8.5703125" style="32"/>
-    <col min="23" max="16384" width="8.5703125" style="25"/>
+    <col min="6" max="10" width="9.42578125" style="28" customWidth="1"/>
+    <col min="11" max="15" width="8.5703125" style="29"/>
+    <col min="16" max="16" width="8.5703125" style="30"/>
+    <col min="17" max="18" width="8.5703125" style="31"/>
+    <col min="19" max="19" width="8.5703125" style="32"/>
+    <col min="20" max="20" width="8.5703125" style="30"/>
+    <col min="21" max="22" width="8.5703125" style="31"/>
+    <col min="23" max="23" width="8.5703125" style="32"/>
+    <col min="24" max="16384" width="8.5703125" style="25"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="K2" s="34">
-        <f>AVERAGE(K4:K6)</f>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="L2" s="34">
+        <f>AVERAGE(L4:L6)</f>
         <v>0.5274956037173274</v>
       </c>
-      <c r="O2" s="35">
-        <f>AVERAGE(O4:O6)</f>
+      <c r="P2" s="35">
+        <f>AVERAGE(P4:P6)</f>
         <v>44.043236940192998</v>
       </c>
-      <c r="P2" s="46">
-        <f t="shared" ref="P2:R2" si="0">AVERAGE(P4:P6)</f>
+      <c r="Q2" s="46">
+        <f t="shared" ref="Q2:S2" si="0">AVERAGE(Q4:Q6)</f>
         <v>19.498652418866573</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="R2" s="46">
         <f t="shared" si="0"/>
         <v>17.510096913006091</v>
       </c>
-      <c r="R2" s="36">
+      <c r="S2" s="36">
         <f t="shared" si="0"/>
         <v>13.665856077349924</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2275,50 +2341,53 @@
       <c r="I3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="O3" s="24">
+      <c r="P3" s="24">
         <v>2022</v>
       </c>
-      <c r="P3" s="45">
+      <c r="Q3" s="45">
         <v>2023</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="R3" s="45">
         <v>2024</v>
       </c>
-      <c r="R3" s="23">
+      <c r="S3" s="23">
         <v>2025</v>
       </c>
-      <c r="S3" s="24">
+      <c r="T3" s="24">
         <v>2022</v>
       </c>
-      <c r="T3" s="22">
+      <c r="U3" s="22">
         <v>2023</v>
       </c>
-      <c r="U3" s="22">
+      <c r="V3" s="22">
         <v>2024</v>
       </c>
-      <c r="V3" s="23">
+      <c r="W3" s="23">
         <v>2025</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2347,28 +2416,28 @@
       <c r="I4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="33">
+      <c r="K4" s="33">
         <f>+[1]Model!$AH$32</f>
         <v>240.35788054423469</v>
       </c>
-      <c r="K4" s="34">
-        <f>J4/D4-1</f>
+      <c r="L4" s="34">
+        <f>K4/D4-1</f>
         <v>-4.6198886729227451E-2</v>
       </c>
-      <c r="L4" s="34">
+      <c r="M4" s="34">
         <f>+[1]Model!$AH$29</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M4" s="34">
+      <c r="N4" s="34">
         <f>+[1]Model!$AH$28</f>
         <v>0</v>
       </c>
-      <c r="N4" s="34">
+      <c r="O4" s="34">
         <f>+[1]Model!$AH$30</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2397,60 +2466,60 @@
       <c r="I5" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J5" s="33">
+      <c r="K5" s="33">
         <f>+[2]Model!$AF$32</f>
         <v>179.60004861383993</v>
       </c>
-      <c r="K5" s="34">
-        <f>J5/D5-1</f>
+      <c r="L5" s="34">
+        <f>K5/D5-1</f>
         <v>0.70333885255917994</v>
       </c>
-      <c r="L5" s="34">
+      <c r="M5" s="34">
         <f>+[2]Model!$AF$29</f>
         <v>0.08</v>
       </c>
-      <c r="M5" s="34">
+      <c r="N5" s="34">
         <f>+[2]Model!$AF$28</f>
         <v>-0.01</v>
       </c>
-      <c r="N5" s="34">
+      <c r="O5" s="34">
         <f>+[2]Model!$AF$30</f>
         <v>0.01</v>
       </c>
-      <c r="O5" s="35">
-        <f>+($G5/$H5)/S5</f>
+      <c r="P5" s="35">
+        <f>+($G5/$H5)/T5</f>
         <v>17.026272726826235</v>
-      </c>
-      <c r="P5" s="36">
-        <f>+($G5/$H5)/T5</f>
-        <v>14.645179621110156</v>
       </c>
       <c r="Q5" s="36">
         <f>+($G5/$H5)/U5</f>
+        <v>14.645179621110156</v>
+      </c>
+      <c r="R5" s="36">
+        <f>+($G5/$H5)/V5</f>
         <v>12.490319735060142</v>
       </c>
-      <c r="R5" s="37">
-        <f>+($G5/$H5)/V5</f>
+      <c r="S5" s="37">
+        <f>+($G5/$H5)/W5</f>
         <v>10.772106224349255</v>
       </c>
-      <c r="S5" s="38">
+      <c r="T5" s="38">
         <f>+[2]Model!U25</f>
         <v>5.5675771651937485</v>
       </c>
-      <c r="T5" s="39">
+      <c r="U5" s="39">
         <f>+[2]Model!V25</f>
         <v>6.4727841989453889</v>
       </c>
-      <c r="U5" s="39">
+      <c r="V5" s="39">
         <f>+[2]Model!W25</f>
         <v>7.5894844369876644</v>
       </c>
-      <c r="V5" s="40">
+      <c r="W5" s="40">
         <f>+[2]Model!X25</f>
         <v>8.800051286902848</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2479,60 +2548,60 @@
       <c r="I6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="33">
+      <c r="K6" s="33">
         <f>+[3]Model!$BG$47</f>
         <v>233.19800990540423</v>
       </c>
-      <c r="K6" s="34">
-        <f>J6/D6-1</f>
+      <c r="L6" s="34">
+        <f>K6/D6-1</f>
         <v>0.92534684532202971</v>
       </c>
-      <c r="L6" s="44">
+      <c r="M6" s="44">
         <f>+[3]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M6" s="34">
+      <c r="N6" s="34">
         <f>+[3]Model!$BG$45</f>
         <v>0</v>
       </c>
-      <c r="N6" s="34">
+      <c r="O6" s="34">
         <f>+[3]Model!$BG$44</f>
         <v>0.01</v>
       </c>
-      <c r="O6" s="35">
-        <f t="shared" ref="O6:R6" si="1">+($G6/$H6)/S6</f>
+      <c r="P6" s="35">
+        <f t="shared" ref="P6:S6" si="1">+($G6/$H6)/T6</f>
         <v>71.06020115355976</v>
       </c>
-      <c r="P6" s="36">
+      <c r="Q6" s="36">
         <f t="shared" si="1"/>
         <v>24.352125216622991</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="R6" s="36">
         <f t="shared" si="1"/>
         <v>22.529874090952042</v>
       </c>
-      <c r="R6" s="37">
+      <c r="S6" s="37">
         <f t="shared" si="1"/>
         <v>16.559605930350592</v>
       </c>
-      <c r="S6" s="38">
+      <c r="T6" s="38">
         <f>+[3]Model!$AV$34</f>
         <v>1.6784287420147448</v>
       </c>
-      <c r="T6" s="39">
+      <c r="U6" s="39">
         <f>+[3]Model!$AW$34</f>
         <v>4.897703299754288</v>
       </c>
-      <c r="U6" s="39">
+      <c r="V6" s="39">
         <f>+[3]Model!$AX$34</f>
         <v>5.2938371314459518</v>
       </c>
-      <c r="V6" s="40">
+      <c r="W6" s="40">
         <f>+[3]Model!$AY$34</f>
         <v>7.2024349209232001</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2561,11 +2630,11 @@
       <c r="I7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="25">
+      <c r="X7" s="25">
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
@@ -2592,7 +2661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -2619,7 +2688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -2646,7 +2715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2673,7 +2742,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2692,7 +2761,7 @@
         <v>7842</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" ref="G12:G22" si="2">E12-F12</f>
+        <f t="shared" ref="G12:G23" si="2">E12-F12</f>
         <v>180213</v>
       </c>
       <c r="H12" s="27"/>
@@ -2700,7 +2769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2754,7 +2823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2781,225 +2850,254 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="26">
+        <v>375.71</v>
+      </c>
+      <c r="E16" s="27">
+        <f>+D16*H16</f>
+        <v>57472.452251789997</v>
+      </c>
+      <c r="F16" s="27">
+        <f>+[23]Main!$N$5-[23]Main!$N$6</f>
+        <v>1696.7459999999999</v>
+      </c>
+      <c r="G16" s="27">
+        <f>E16-F16</f>
+        <v>55775.706251789998</v>
+      </c>
+      <c r="H16" s="27">
+        <f>+[23]Main!$N$3</f>
+        <v>152.970249</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="53">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D17" s="26">
         <v>39.74</v>
       </c>
-      <c r="E16" s="27">
-        <f>+D16*[13]Main!$L$3*EUR</f>
+      <c r="E17" s="27">
+        <f>+D17*[13]Main!$L$3*EUR</f>
         <v>53089.738980000009</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F17" s="27">
         <f>+([13]Main!$L$5-[13]Main!$L$6)*EUR</f>
         <v>-490.25400000000008</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>53579.99298000001</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="26">
         <v>186</v>
       </c>
-      <c r="E17" s="27">
-        <f>+D17*H17</f>
+      <c r="E18" s="27">
+        <f>+D18*H18</f>
         <v>51584.495999999999</v>
       </c>
-      <c r="F17" s="27">
-        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+      <c r="F18" s="27">
+        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>741.35200000000009</v>
-      </c>
-      <c r="G17" s="27">
-        <f>E17-F17</f>
-        <v>50843.144</v>
-      </c>
-      <c r="H17" s="27">
-        <f>+[22]Main!$K$3</f>
-        <v>277.33600000000001</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="26">
-        <v>200.8</v>
-      </c>
-      <c r="E18" s="27">
-        <f>+D18*[14]Main!$L$3</f>
-        <v>50947.578400000006</v>
-      </c>
-      <c r="F18" s="27">
-        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>432.39900000000011</v>
       </c>
       <c r="G18" s="27">
         <f>E18-F18</f>
-        <v>50515.179400000008</v>
+        <v>50843.144</v>
       </c>
       <c r="H18" s="27">
-        <f>+[14]Main!$L$3</f>
-        <v>253.72300000000001</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+        <f>+[14]Main!$K$3</f>
+        <v>277.33600000000001</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" s="26">
-        <v>203.73</v>
+        <v>200.8</v>
       </c>
       <c r="E19" s="27">
-        <f>+D19*H19</f>
-        <v>44264.86632465</v>
+        <f>+D19*[15]Main!$L$3</f>
+        <v>50947.578400000006</v>
       </c>
       <c r="F19" s="27">
         <f>+[15]Main!$L$5-[15]Main!$L$6</f>
-        <v>-1005</v>
+        <v>432.39900000000011</v>
       </c>
       <c r="G19" s="27">
         <f>E19-F19</f>
-        <v>45269.86632465</v>
+        <v>50515.179400000008</v>
       </c>
       <c r="H19" s="27">
         <f>+[15]Main!$L$3</f>
+        <v>253.72300000000001</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="26">
+        <v>203.73</v>
+      </c>
+      <c r="E20" s="27">
+        <f>+D20*H20</f>
+        <v>44264.86632465</v>
+      </c>
+      <c r="F20" s="27">
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <v>-1005</v>
+      </c>
+      <c r="G20" s="27">
+        <f>E20-F20</f>
+        <v>45269.86632465</v>
+      </c>
+      <c r="H20" s="27">
+        <f>+[16]Main!$L$3</f>
         <v>217.27220500000001</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="W19" s="25">
+      <c r="J20" s="47"/>
+      <c r="X20" s="25">
         <v>1982</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D21" s="26">
         <v>36.71</v>
       </c>
-      <c r="E20" s="27">
-        <f>+D20*[16]Main!$M$3</f>
+      <c r="E21" s="27">
+        <f>+D21*[17]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F20" s="27">
-        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
+      <c r="F21" s="27">
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G21" s="27">
         <f t="shared" si="2"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D22" s="26">
         <v>135.57</v>
       </c>
-      <c r="E21" s="27">
-        <f>+D21*[17]Main!$M$3</f>
+      <c r="E22" s="27">
+        <f>+D22*[18]Main!$M$3</f>
         <v>42617.920769999997</v>
       </c>
-      <c r="F21" s="27">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
+      <c r="F22" s="27">
+        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
         <v>5027.4579999999996</v>
       </c>
-      <c r="G21" s="27">
-        <f>E21-F21</f>
+      <c r="G22" s="27">
+        <f>E22-F22</f>
         <v>37590.462769999998</v>
       </c>
-      <c r="H21" s="27">
-        <f>+[17]Main!$M$3</f>
+      <c r="H22" s="27">
+        <f>+[18]Main!$M$3</f>
         <v>314.36099999999999</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I22" s="43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D23" s="26">
         <v>152.88</v>
       </c>
-      <c r="E22" s="27">
-        <f>+D22*[18]Main!$L$3</f>
+      <c r="E23" s="27">
+        <f>+D23*[19]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F22" s="27">
-        <f>([18]Main!$L$5-[18]Main!$L$6)/RMB</f>
+      <c r="F23" s="27">
+        <f>([19]Main!$L$5-[19]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G23" s="27">
         <f t="shared" si="2"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H22" s="27">
-        <f>+[18]Main!$L$3</f>
+      <c r="H23" s="27">
+        <f>+[19]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="25">
+      <c r="X23" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
         <v>50</v>
       </c>
@@ -3013,7 +3111,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
         <v>191</v>
       </c>
@@ -3021,7 +3119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
         <v>184</v>
       </c>
@@ -3029,7 +3127,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="25" t="s">
         <v>186</v>
       </c>
@@ -3037,7 +3135,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="25" t="s">
         <v>52</v>
       </c>
@@ -3051,7 +3149,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
@@ -3059,7 +3157,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="25" t="s">
         <v>56</v>
       </c>
@@ -3073,7 +3171,7 @@
         <v>28410</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="25" t="s">
         <v>58</v>
       </c>
@@ -3081,7 +3179,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
         <v>62</v>
       </c>
@@ -3114,11 +3212,11 @@
         <v>9.35</v>
       </c>
       <c r="E34" s="27">
-        <f>D34*[19]Main!$L$3</f>
+        <f>D34*[20]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
       <c r="F34" s="27">
-        <f>[19]Main!$L$5-[19]Main!$L$6</f>
+        <f>[20]Main!$L$5-[20]Main!$L$6</f>
         <v>2585</v>
       </c>
       <c r="G34" s="27">
@@ -3197,11 +3295,11 @@
         <v>102.23</v>
       </c>
       <c r="E39" s="27">
-        <f>+D39*[20]Main!$K$3</f>
+        <f>+D39*[21]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
       <c r="F39" s="27">
-        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
+        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
         <v>3155</v>
       </c>
       <c r="G39" s="27">
@@ -3721,19 +3819,30 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="42" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="51">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C82" s="42" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="42" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C83" s="42" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3753,16 +3862,17 @@
     <hyperlink ref="B10" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
     <hyperlink ref="B34" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
-    <hyperlink ref="B17" r:id="rId21" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B18" r:id="rId21" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B16" r:id="rId22" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -3840,11 +3950,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[21]Main!$K$3</f>
+        <f>+D6*[22]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72AC787-84F8-456C-976F-64FDAE374AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181CDE1-64CA-4B93-BFC0-49BFEFCFAED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="630" windowWidth="19260" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18615" yWindow="3945" windowWidth="20535" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <definedName name="EUR">FX!$C$4</definedName>
     <definedName name="HKD">FX!$C$2</definedName>
     <definedName name="RMB">FX!$C$3</definedName>
+    <definedName name="SEK">FX!$C$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -803,6 +804,9 @@
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>USDSEK</t>
   </si>
 </sst>
 </file>
@@ -812,25 +816,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1016,33 +1008,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,6 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1323,18 +1314,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1322.7</v>
+          <cell r="N3">
+            <v>152.970249</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>3157</v>
+          <cell r="N5">
+            <v>1720.521</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>3642.4</v>
+          <cell r="N6">
+            <v>23.774999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1349,25 +1340,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.33600000000001</v>
+          <cell r="L3">
+            <v>1322.7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1088.94</v>
+          <cell r="L5">
+            <v>3157</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>347.58800000000002</v>
+          <cell r="L6">
+            <v>3642.4</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1378,27 +1371,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>253.72300000000001</v>
+          <cell r="K3">
+            <v>277.33600000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1431.7740000000001</v>
+          <cell r="K5">
+            <v>1088.94</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>999.375</v>
+          <cell r="K6">
+            <v>347.58800000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1415,17 +1406,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>217.27220500000001</v>
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1624</v>
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>2629</v>
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
@@ -1445,18 +1436,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1260</v>
+          <cell r="L3">
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>7246.6900000000005</v>
+          <cell r="L5">
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>911.54899999999998</v>
+          <cell r="L6">
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -1477,17 +1468,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>314.36099999999999</v>
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>5027.4579999999996</v>
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>0</v>
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1507,18 +1498,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1555,36 +1546,36 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="25">
-          <cell r="U25">
-            <v>5.5675771651937485</v>
-          </cell>
-          <cell r="V25">
+          <cell r="AB25">
+            <v>5.6169011322607476</v>
+          </cell>
+          <cell r="AC25">
             <v>6.4727841989453889</v>
           </cell>
-          <cell r="W25">
+          <cell r="AD25">
             <v>7.5894844369876644</v>
           </cell>
-          <cell r="X25">
+          <cell r="AE25">
             <v>8.800051286902848</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="AF28">
+          <cell r="AM28">
             <v>-0.01</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="AF29">
+          <cell r="AM29">
             <v>0.08</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AF30">
+          <cell r="AM30">
             <v>0.01</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="AF32">
+          <cell r="AM32">
             <v>179.60004861383993</v>
           </cell>
         </row>
@@ -1599,23 +1590,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2036</v>
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2585</v>
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -1661,23 +1652,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="L3">
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="L5">
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1697,22 +1688,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>152.970249</v>
+          <cell r="K3">
+            <v>588.52099999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>1720.521</v>
+          <cell r="K5">
+            <v>3132.9639999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>23.774999999999999</v>
+          <cell r="K6">
+            <v>988.03399999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2270,120 +2261,120 @@
   <dimension ref="B2:X83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="26"/>
-    <col min="5" max="5" width="10.28515625" style="27" customWidth="1"/>
-    <col min="6" max="10" width="9.42578125" style="28" customWidth="1"/>
-    <col min="11" max="15" width="8.5703125" style="29"/>
-    <col min="16" max="16" width="8.5703125" style="30"/>
-    <col min="17" max="18" width="8.5703125" style="31"/>
-    <col min="19" max="19" width="8.5703125" style="32"/>
-    <col min="20" max="20" width="8.5703125" style="30"/>
-    <col min="21" max="22" width="8.5703125" style="31"/>
-    <col min="23" max="23" width="8.5703125" style="32"/>
-    <col min="24" max="16384" width="8.5703125" style="25"/>
+    <col min="1" max="1" width="1.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="24"/>
+    <col min="5" max="5" width="10.28515625" style="25" customWidth="1"/>
+    <col min="6" max="10" width="9.42578125" style="26" customWidth="1"/>
+    <col min="11" max="15" width="8.5703125" style="27"/>
+    <col min="16" max="16" width="8.5703125" style="28"/>
+    <col min="17" max="18" width="8.5703125" style="29"/>
+    <col min="19" max="19" width="8.5703125" style="30"/>
+    <col min="20" max="20" width="8.5703125" style="28"/>
+    <col min="21" max="22" width="8.5703125" style="29"/>
+    <col min="23" max="23" width="8.5703125" style="30"/>
+    <col min="24" max="16384" width="8.5703125" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L2" s="34">
+      <c r="L2" s="32">
         <f>AVERAGE(L4:L6)</f>
         <v>0.5274956037173274</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="33">
         <f>AVERAGE(P4:P6)</f>
-        <v>44.043236940192998</v>
-      </c>
-      <c r="Q2" s="46">
+        <v>43.968480121844507</v>
+      </c>
+      <c r="Q2" s="44">
         <f t="shared" ref="Q2:S2" si="0">AVERAGE(Q4:Q6)</f>
         <v>19.498652418866573</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="44">
         <f t="shared" si="0"/>
         <v>17.510096913006091</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="34">
         <f t="shared" si="0"/>
         <v>13.665856077349924</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="22">
         <v>2022</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="43">
         <v>2023</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="43">
         <v>2024</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="21">
         <v>2025</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="22">
         <v>2022</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="20">
         <v>2023</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="20">
         <v>2024</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="21">
         <v>2025</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="23" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2391,48 +2382,48 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>252</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <f>D4*[1]Main!$L$3</f>
         <v>1898568</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <f>[1]Main!$L$5-[1]Main!$L$6</f>
         <v>61674</v>
       </c>
-      <c r="G4" s="27">
-        <f>+E4-F4</f>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:G11" si="1">+E4-F4</f>
         <v>1836894</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <f>+[1]Main!$L$3</f>
         <v>7534</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <f>+[1]Model!$AH$32</f>
         <v>240.35788054423469</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="32">
         <f>K4/D4-1</f>
         <v>-4.6198886729227451E-2</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="32">
         <f>+[1]Model!$AH$29</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="32">
         <f>+[1]Model!$AH$28</f>
         <v>0</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="32">
         <f>+[1]Model!$AH$30</f>
         <v>0.01</v>
       </c>
@@ -2441,81 +2432,84 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>105.44</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f>D5*[2]Main!$L$3</f>
         <v>1395920.16</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
         <v>140928</v>
       </c>
-      <c r="G5" s="27">
-        <f>+E5-F5</f>
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
         <v>1254992.1599999999</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <f>[2]Main!$L$3</f>
         <v>13239</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="33">
-        <f>+[2]Model!$AF$32</f>
+      <c r="J5" s="51">
+        <v>44789</v>
+      </c>
+      <c r="K5" s="31">
+        <f>+[2]Model!$AM$32</f>
         <v>179.60004861383993</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="32">
         <f>K5/D5-1</f>
         <v>0.70333885255917994</v>
       </c>
-      <c r="M5" s="34">
-        <f>+[2]Model!$AF$29</f>
+      <c r="M5" s="32">
+        <f>+[2]Model!$AM$29</f>
         <v>0.08</v>
       </c>
-      <c r="N5" s="34">
-        <f>+[2]Model!$AF$28</f>
+      <c r="N5" s="32">
+        <f>+[2]Model!$AM$28</f>
         <v>-0.01</v>
       </c>
-      <c r="O5" s="34">
-        <f>+[2]Model!$AF$30</f>
+      <c r="O5" s="32">
+        <f>+[2]Model!$AM$30</f>
         <v>0.01</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="33">
         <f>+($G5/$H5)/T5</f>
-        <v>17.026272726826235</v>
-      </c>
-      <c r="Q5" s="36">
+        <v>16.876759090129248</v>
+      </c>
+      <c r="Q5" s="34">
         <f>+($G5/$H5)/U5</f>
         <v>14.645179621110156</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="34">
         <f>+($G5/$H5)/V5</f>
         <v>12.490319735060142</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="35">
         <f>+($G5/$H5)/W5</f>
         <v>10.772106224349255</v>
       </c>
-      <c r="T5" s="38">
-        <f>+[2]Model!U25</f>
-        <v>5.5675771651937485</v>
-      </c>
-      <c r="U5" s="39">
-        <f>+[2]Model!V25</f>
+      <c r="T5" s="36">
+        <f>+[2]Model!AB25</f>
+        <v>5.6169011322607476</v>
+      </c>
+      <c r="U5" s="37">
+        <f>+[2]Model!AC25</f>
         <v>6.4727841989453889</v>
       </c>
-      <c r="V5" s="39">
-        <f>+[2]Model!W25</f>
+      <c r="V5" s="37">
+        <f>+[2]Model!AD25</f>
         <v>7.5894844369876644</v>
       </c>
-      <c r="W5" s="40">
-        <f>+[2]Model!X25</f>
+      <c r="W5" s="38">
+        <f>+[2]Model!AE25</f>
         <v>8.800051286902848</v>
       </c>
     </row>
@@ -2523,80 +2517,80 @@
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>121.12</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <f>+D6*[3]Main!$K$3</f>
         <v>1232396</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
         <v>18829</v>
       </c>
-      <c r="G6" s="27">
-        <f>+E6-F6</f>
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
         <v>1213567</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <f>+[3]Main!$K$3</f>
         <v>10175</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <f>+[3]Model!$BG$47</f>
         <v>233.19800990540423</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="32">
         <f>K6/D6-1</f>
         <v>0.92534684532202971</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="42">
         <f>+[3]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="32">
         <f>+[3]Model!$BG$45</f>
         <v>0</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="32">
         <f>+[3]Model!$BG$44</f>
         <v>0.01</v>
       </c>
-      <c r="P6" s="35">
-        <f t="shared" ref="P6:S6" si="1">+($G6/$H6)/T6</f>
+      <c r="P6" s="33">
+        <f t="shared" ref="P6:S6" si="2">+($G6/$H6)/T6</f>
         <v>71.06020115355976</v>
       </c>
-      <c r="Q6" s="36">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="34">
+        <f t="shared" si="2"/>
         <v>24.352125216622991</v>
       </c>
-      <c r="R6" s="36">
-        <f t="shared" si="1"/>
+      <c r="R6" s="34">
+        <f t="shared" si="2"/>
         <v>22.529874090952042</v>
       </c>
-      <c r="S6" s="37">
-        <f t="shared" si="1"/>
+      <c r="S6" s="35">
+        <f t="shared" si="2"/>
         <v>16.559605930350592</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="36">
         <f>+[3]Model!$AV$34</f>
         <v>1.6784287420147448</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="37">
         <f>+[3]Model!$AW$34</f>
         <v>4.897703299754288</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="37">
         <f>+[3]Model!$AX$34</f>
         <v>5.2938371314459518</v>
       </c>
-      <c r="W6" s="40">
+      <c r="W6" s="38">
         <f>+[3]Model!$AY$34</f>
         <v>7.2024349209232001</v>
       </c>
@@ -2605,32 +2599,32 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>175.57</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <f>+D7*[4]Main!$M$3</f>
         <v>481412.94</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>43890</v>
       </c>
-      <c r="G7" s="27">
-        <f>+E7-F7</f>
+      <c r="G7" s="25">
+        <f t="shared" si="1"/>
         <v>437522.94</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <f>+[4]Main!$M$3</f>
         <v>2742</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="23">
         <v>2004</v>
       </c>
     </row>
@@ -2638,26 +2632,26 @@
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>391.4</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <f>+D8*[5]Main!$L$3*1000/HKD</f>
         <v>475575.58154347877</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
         <v>97072.536879920503</v>
       </c>
-      <c r="G8" s="27">
-        <f>+E8-F8</f>
+      <c r="G8" s="25">
+        <f t="shared" si="1"/>
         <v>378503.04466355825</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2665,26 +2659,26 @@
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>71.02</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <f>+D9*[6]Main!$G$3</f>
         <v>194736.84</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="25">
         <f>+[6]Main!$G$5-[6]Main!$G$6</f>
         <v>-53957</v>
       </c>
-      <c r="G9" s="27">
-        <f>E9-F9</f>
+      <c r="G9" s="25">
+        <f t="shared" si="1"/>
         <v>248693.84</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2692,26 +2686,26 @@
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>115.9</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <f>D10*[7]Main!$L$3</f>
         <v>310046.98749999999</v>
       </c>
-      <c r="F10" s="27" cm="1">
+      <c r="F10" s="25" cm="1">
         <f t="array" ref="F10">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
         <v>119719.43620178041</v>
       </c>
-      <c r="G10" s="27">
-        <f>+E10-F10</f>
+      <c r="G10" s="25">
+        <f t="shared" si="1"/>
         <v>190327.55129821959</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2719,26 +2713,26 @@
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>393.84</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <f>+D11*[8]Main!$N$3</f>
         <v>186089.4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>1173</v>
       </c>
-      <c r="G11" s="27">
-        <f>+E11-F11</f>
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
         <v>184916.4</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2746,26 +2740,26 @@
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>189</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <f>+D12*[9]Main!$M$3</f>
         <v>188055</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="25">
         <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>7842</v>
       </c>
-      <c r="G12" s="27">
-        <f t="shared" ref="G12:G23" si="2">E12-F12</f>
+      <c r="G12" s="25">
+        <f t="shared" ref="G12:G23" si="3">E12-F12</f>
         <v>180213</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2773,26 +2767,26 @@
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>99.86</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <f>+D13*[10]Main!$L$3</f>
         <v>117834.8</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>870</v>
       </c>
-      <c r="G13" s="27">
-        <f t="shared" si="2"/>
+      <c r="G13" s="25">
+        <f t="shared" si="3"/>
         <v>116964.8</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="25"/>
+      <c r="I13" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2800,26 +2794,26 @@
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <v>413.72</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <f>D14*[11]Main!$L$3</f>
         <v>118323.92000000001</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-2851</v>
       </c>
-      <c r="G14" s="27">
-        <f t="shared" si="2"/>
+      <c r="G14" s="25">
+        <f t="shared" si="3"/>
         <v>121174.92000000001</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2827,26 +2821,26 @@
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>440</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <f>+D15*[12]Main!$L$3</f>
         <v>88000</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>3926</v>
       </c>
-      <c r="G15" s="27">
-        <f t="shared" si="2"/>
+      <c r="G15" s="25">
+        <f t="shared" si="3"/>
         <v>84074</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="s">
+      <c r="H15" s="25"/>
+      <c r="I15" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2854,32 +2848,32 @@
       <c r="B16" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>375.71</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <f>+D16*H16</f>
         <v>57472.452251789997</v>
       </c>
-      <c r="F16" s="27">
-        <f>+[23]Main!$N$5-[23]Main!$N$6</f>
+      <c r="F16" s="25">
+        <f>+[13]Main!$N$5-[13]Main!$N$6</f>
         <v>1696.7459999999999</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <f>E16-F16</f>
         <v>55775.706251789998</v>
       </c>
-      <c r="H16" s="27">
-        <f>+[23]Main!$N$3</f>
+      <c r="H16" s="25">
+        <f>+[13]Main!$N$3</f>
         <v>152.970249</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="51">
         <v>44783</v>
       </c>
     </row>
@@ -2887,26 +2881,26 @@
       <c r="B17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>39.74</v>
       </c>
-      <c r="E17" s="27">
-        <f>+D17*[13]Main!$L$3*EUR</f>
+      <c r="E17" s="25">
+        <f>+D17*[14]Main!$L$3*EUR</f>
         <v>53089.738980000009</v>
       </c>
-      <c r="F17" s="27">
-        <f>+([13]Main!$L$5-[13]Main!$L$6)*EUR</f>
+      <c r="F17" s="25">
+        <f>+([14]Main!$L$5-[14]Main!$L$6)*EUR</f>
         <v>-490.25400000000008</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" si="2"/>
+      <c r="G17" s="25">
+        <f t="shared" si="3"/>
         <v>53579.99298000001</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="26" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2914,95 +2908,95 @@
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>186</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <f>+D18*H18</f>
         <v>51584.495999999999</v>
       </c>
-      <c r="F18" s="27">
-        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
+      <c r="F18" s="25">
+        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
         <v>741.35200000000009</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <f>E18-F18</f>
         <v>50843.144</v>
       </c>
-      <c r="H18" s="27">
-        <f>+[14]Main!$K$3</f>
+      <c r="H18" s="25">
+        <f>+[15]Main!$K$3</f>
         <v>277.33600000000001</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>200.8</v>
       </c>
-      <c r="E19" s="27">
-        <f>+D19*[15]Main!$L$3</f>
+      <c r="E19" s="25">
+        <f>+D19*[16]Main!$L$3</f>
         <v>50947.578400000006</v>
       </c>
-      <c r="F19" s="27">
-        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+      <c r="F19" s="25">
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
         <v>432.39900000000011</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <f>E19-F19</f>
         <v>50515.179400000008</v>
       </c>
-      <c r="H19" s="27">
-        <f>+[15]Main!$L$3</f>
+      <c r="H19" s="25">
+        <f>+[16]Main!$L$3</f>
         <v>253.72300000000001</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>203.73</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <f>+D20*H20</f>
         <v>44264.86632465</v>
       </c>
-      <c r="F20" s="27">
-        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+      <c r="F20" s="25">
+        <f>+[17]Main!$L$5-[17]Main!$L$6</f>
         <v>-1005</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="25">
         <f>E20-F20</f>
         <v>45269.86632465</v>
       </c>
-      <c r="H20" s="27">
-        <f>+[16]Main!$L$3</f>
+      <c r="H20" s="25">
+        <f>+[17]Main!$L$3</f>
         <v>217.27220500000001</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="X20" s="25">
+      <c r="J20" s="45"/>
+      <c r="X20" s="23">
         <v>1982</v>
       </c>
     </row>
@@ -3010,26 +3004,26 @@
       <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>36.71</v>
       </c>
-      <c r="E21" s="27">
-        <f>+D21*[17]Main!$M$3</f>
+      <c r="E21" s="25">
+        <f>+D21*[18]Main!$M$3</f>
         <v>46254.6</v>
       </c>
-      <c r="F21" s="27">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
+      <c r="F21" s="25">
+        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
         <v>6335.1410000000005</v>
       </c>
-      <c r="G21" s="27">
-        <f t="shared" si="2"/>
+      <c r="G21" s="25">
+        <f t="shared" si="3"/>
         <v>39919.458999999995</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3037,818 +3031,906 @@
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <v>135.57</v>
       </c>
-      <c r="E22" s="27">
-        <f>+D22*[18]Main!$M$3</f>
+      <c r="E22" s="25">
+        <f>+D22*[19]Main!$M$3</f>
         <v>42617.920769999997</v>
       </c>
-      <c r="F22" s="27">
-        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
+      <c r="F22" s="25">
+        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
         <v>5027.4579999999996</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="25">
         <f>E22-F22</f>
         <v>37590.462769999998</v>
       </c>
-      <c r="H22" s="27">
-        <f>+[18]Main!$M$3</f>
+      <c r="H22" s="25">
+        <f>+[19]Main!$M$3</f>
         <v>314.36099999999999</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <v>152.88</v>
       </c>
-      <c r="E23" s="27">
-        <f>+D23*[19]Main!$L$3</f>
+      <c r="E23" s="25">
+        <f>+D23*[20]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F23" s="27">
-        <f>([19]Main!$L$5-[19]Main!$L$6)/RMB</f>
+      <c r="F23" s="25">
+        <f>([20]Main!$L$5-[20]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G23" s="27">
-        <f t="shared" si="2"/>
+      <c r="G23" s="25">
+        <f t="shared" si="3"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H23" s="27">
-        <f>+[19]Main!$L$3</f>
+      <c r="H23" s="25">
+        <f>+[20]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="X23" s="25">
+      <c r="X23" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="24">
+        <v>122.42</v>
+      </c>
+      <c r="E24" s="25">
+        <v>51730</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="24">
+        <v>2189.48</v>
+      </c>
+      <c r="E25" s="25">
+        <v>46398</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D26" s="24">
         <v>160.03</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E26" s="25">
         <v>40648</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="23" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>187</v>
+      <c r="D27" s="24">
+        <v>228.96</v>
+      </c>
+      <c r="E27" s="25">
+        <v>35450</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <v>107.93</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="25">
         <v>34000</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="24">
+        <v>113.23</v>
+      </c>
+      <c r="E29" s="25">
+        <v>33330</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E30" s="25">
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D31" s="24">
         <v>54.71</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E31" s="25">
         <v>28410</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E32" s="25">
         <v>27000</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="24">
+        <v>375.92</v>
+      </c>
+      <c r="E33" s="25">
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="24">
+        <v>181.71</v>
+      </c>
+      <c r="E34" s="25">
+        <v>25220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D35" s="24">
         <v>236.61</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E35" s="25">
         <v>23190</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E36" s="25">
         <v>22000</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="26">
-        <v>9.35</v>
-      </c>
-      <c r="E34" s="27">
-        <f>D34*[20]Main!$L$3</f>
-        <v>19036.599999999999</v>
-      </c>
-      <c r="F34" s="27">
-        <f>[20]Main!$L$5-[20]Main!$L$6</f>
-        <v>2585</v>
-      </c>
-      <c r="G34" s="27">
-        <f>E34-F34</f>
-        <v>16451.599999999999</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="26">
-        <v>312</v>
-      </c>
-      <c r="E35" s="27">
-        <v>19090</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="26">
-        <v>90.1</v>
-      </c>
-      <c r="E36" s="27">
-        <v>18840</v>
-      </c>
-    </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="26">
-        <v>360.34</v>
-      </c>
-      <c r="E37" s="27">
-        <v>18140</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="26">
-        <v>43.75</v>
-      </c>
-      <c r="E38" s="27">
-        <v>17180</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C37" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D37" s="24">
         <v>102.23</v>
       </c>
-      <c r="E39" s="27">
-        <f>+D39*[21]Main!$K$3</f>
+      <c r="E37" s="25">
+        <f>+D37*[21]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F37" s="25">
         <f>+[21]Main!$K$5-[21]Main!$K$6</f>
         <v>3155</v>
       </c>
-      <c r="G39" s="27">
-        <f>E39-F39</f>
+      <c r="G37" s="25">
+        <f>E37-F37</f>
         <v>16992.20788088</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28" t="s">
+      <c r="H37" s="25"/>
+      <c r="I37" s="26" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="24">
+        <v>9.35</v>
+      </c>
+      <c r="E38" s="25">
+        <f>D38*[22]Main!$L$3</f>
+        <v>19036.599999999999</v>
+      </c>
+      <c r="F38" s="25">
+        <f>[22]Main!$L$5-[22]Main!$L$6</f>
+        <v>2585</v>
+      </c>
+      <c r="G38" s="25">
+        <f>E38-F38</f>
+        <v>16451.599999999999</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="24">
+        <v>312</v>
+      </c>
+      <c r="E39" s="25">
+        <v>19090</v>
+      </c>
+    </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="24">
+        <v>90.1</v>
+      </c>
+      <c r="E40" s="25">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="24">
+        <v>360.34</v>
+      </c>
+      <c r="E41" s="25">
+        <v>18140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="24">
+        <v>43.75</v>
+      </c>
+      <c r="E42" s="25">
+        <v>17180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C43" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D43" s="24">
         <v>40.44</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E43" s="25">
         <v>16810</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="48" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="24">
+        <v>63.5</v>
+      </c>
+      <c r="E44" s="25">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="24">
+        <v>363.45</v>
+      </c>
+      <c r="E45" s="25">
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C46" s="46" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="26">
-        <v>63.5</v>
-      </c>
-      <c r="E43" s="27">
-        <v>16440</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="25" t="s">
+      <c r="D46" s="24">
+        <v>121.2</v>
+      </c>
+      <c r="E46" s="25" cm="1">
+        <f t="array" ref="E46">327904/SEK</f>
+        <v>31700.842058451039</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C47" s="23" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="26">
-        <v>363.45</v>
-      </c>
-      <c r="E46" s="27">
-        <v>15250</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>188</v>
+      <c r="D47" s="24">
+        <v>114.84</v>
+      </c>
+      <c r="E47" s="25">
+        <v>17930</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="23" t="s">
         <v>175</v>
       </c>
+      <c r="D48" s="24">
+        <v>44.5</v>
+      </c>
+      <c r="E48" s="25">
+        <v>34050</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="23" t="s">
         <v>202</v>
       </c>
+      <c r="D49" s="24">
+        <v>87.46</v>
+      </c>
+      <c r="E49" s="25">
+        <v>16020</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="23" t="s">
         <v>208</v>
       </c>
+      <c r="D50" s="24">
+        <v>97.08</v>
+      </c>
+      <c r="E50" s="25">
+        <v>15070</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>206</v>
       </c>
+      <c r="D51" s="24">
+        <v>107.11</v>
+      </c>
+      <c r="E51" s="25">
+        <v>16630</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="24">
         <v>135.02000000000001</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="25">
         <v>14050</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="24">
         <v>206.61</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="25">
         <v>13880</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="24">
         <v>115.52</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="25">
         <v>13640</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="24">
         <v>206.68</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="25">
         <v>12990</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="24">
         <v>43.77</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="25">
         <v>12660</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="24">
         <v>98.74</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="25">
         <v>12490</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="24">
         <v>40.369999999999997</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="25">
         <v>11000</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="24">
         <v>408.48</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="25">
         <v>10570</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="24">
         <v>80.52</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="25">
         <v>10310</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="24">
         <v>35.200000000000003</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="25">
         <v>10210</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="25">
         <v>10000</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="24">
         <v>8.17</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="25">
         <v>9320</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="24">
         <v>14.73</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="25">
         <v>9140</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="24">
         <v>56.9</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="25">
         <v>9000</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="24">
         <v>203.42</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="25">
         <v>8580</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="24">
         <v>126.81</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="25">
         <v>8200</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="24">
         <v>50.35</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="25">
         <v>8150</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="25">
         <v>8000</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="24">
         <v>88.7</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="25">
         <v>7910</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="24">
         <v>78.3</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="25">
         <v>7580</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="24">
         <v>50.36</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="25">
         <v>7140</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="24">
         <v>80.58</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="25">
         <v>6930</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="24">
         <v>32.869999999999997</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="25">
         <v>6880</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="24">
         <v>17.63</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E75" s="25">
         <v>6480</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="24">
         <v>54.6</v>
       </c>
-      <c r="E76" s="27">
+      <c r="E76" s="25">
         <v>6370</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="24">
         <v>62.59</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E77" s="25">
         <v>6350</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="24">
         <v>62.71</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="25">
         <v>3603</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="24">
         <v>21.19</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E79" s="25">
         <v>2965</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="24">
         <v>26.99</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E80" s="25">
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="50" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="49">
         <v>31.44</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="42" t="s">
+      <c r="E81" s="25">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="40" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="42" t="s">
+      <c r="D82" s="24">
+        <v>13.95</v>
+      </c>
+      <c r="E82" s="25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="40" t="s">
         <v>232</v>
+      </c>
+      <c r="D83" s="24">
+        <v>19.95</v>
+      </c>
+      <c r="E83" s="25">
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
     <hyperlink ref="B12" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
@@ -3860,7 +3942,7 @@
     <hyperlink ref="B8" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-    <hyperlink ref="B34" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B38" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
     <hyperlink ref="B21" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
@@ -3889,9 +3971,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3900,32 +3982,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3950,11 +4032,11 @@
         <v>27.7</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*[22]Main!$K$3</f>
+        <f>+D6*[23]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F6" s="3">
-        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G6" s="3">
@@ -3983,34 +4065,34 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4036,9 +4118,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4047,24 +4129,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4083,32 +4165,32 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4161,10 +4243,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4189,8 +4271,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4199,32 +4281,32 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4287,8 +4369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4297,16 +4379,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4336,18 +4418,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4392,18 +4474,18 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4430,51 +4512,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4496,10 +4578,10 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4511,43 +4593,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="5" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="53">
         <v>7.8498000000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="53">
         <v>6.74</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="53">
         <v>1.01</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="53">
+        <v>10.3437</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CA8672F6-BB57-4BF8-83E1-A8CF0133433F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4582,18 +4680,18 @@
       <c r="C2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>100000</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4604,7 +4702,7 @@
       <c r="C4" s="7">
         <v>15000</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4612,7 +4710,7 @@
       <c r="B5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4620,7 +4718,7 @@
       <c r="B6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4628,15 +4726,15 @@
       <c r="B7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>216</v>
       </c>
     </row>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181CDE1-64CA-4B93-BFC0-49BFEFCFAED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03AD14B-C498-4C8F-A524-F50213D73A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="3945" windowWidth="20535" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="3435" windowWidth="23775" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,17 @@
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <definedNames>
+    <definedName name="CAD">FX!$C$7</definedName>
     <definedName name="EUR">FX!$C$4</definedName>
     <definedName name="HKD">FX!$C$2</definedName>
+    <definedName name="JPY">FX!$C$6</definedName>
     <definedName name="RMB">FX!$C$3</definedName>
     <definedName name="SEK">FX!$C$5</definedName>
   </definedNames>
@@ -62,6 +69,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}</author>
+  </authors>
+  <commentList>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Series A with ARod, Thrive, Tiger, Marc Lore</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -590,9 +615,6 @@
     <t>ETSY</t>
   </si>
   <si>
-    <t>Square</t>
-  </si>
-  <si>
     <t>SQ</t>
   </si>
   <si>
@@ -605,12 +627,6 @@
     <t>Mastercard</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Tencent</t>
-  </si>
-  <si>
     <t>Twitter</t>
   </si>
   <si>
@@ -638,9 +654,6 @@
     <t>Nintendo</t>
   </si>
   <si>
-    <t>7794 JP</t>
-  </si>
-  <si>
     <t>Veeva</t>
   </si>
   <si>
@@ -807,6 +820,63 @@
   </si>
   <si>
     <t>USDSEK</t>
+  </si>
+  <si>
+    <t>Matterport</t>
+  </si>
+  <si>
+    <t>MTTR</t>
+  </si>
+  <si>
+    <t>EPS 22</t>
+  </si>
+  <si>
+    <t>EV/E 22</t>
+  </si>
+  <si>
+    <t>EV/E 23</t>
+  </si>
+  <si>
+    <t>EV/E 24</t>
+  </si>
+  <si>
+    <t>7974 JP</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>112m</t>
+  </si>
+  <si>
+    <t>Lysto</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Investors</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Mojo</t>
+  </si>
+  <si>
+    <t>Slate</t>
+  </si>
+  <si>
+    <t>Block</t>
   </si>
 </sst>
 </file>
@@ -816,13 +886,37 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -924,6 +1018,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1008,139 +1108,164 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1186,22 +1311,22 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="28">
-          <cell r="AH28">
+          <cell r="AJ28">
             <v>0</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="AH29">
+          <cell r="AJ29">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AH30">
+          <cell r="AJ30">
             <v>0.01</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="AH32">
+          <cell r="AJ32">
             <v>240.35788054423469</v>
           </cell>
         </row>
@@ -1216,23 +1341,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1180</v>
+            <v>286</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>18083</v>
+            <v>4002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>17213</v>
+            <v>6853</v>
           </cell>
         </row>
       </sheetData>
@@ -1247,23 +1372,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>286</v>
+            <v>1180</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>4002</v>
+            <v>18083</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>6853</v>
+            <v>17213</v>
           </cell>
         </row>
       </sheetData>
@@ -1314,18 +1439,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>152.970249</v>
+          <cell r="M3">
+            <v>421.445382</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>1720.521</v>
+          <cell r="M5">
+            <v>3719</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>23.774999999999999</v>
+          <cell r="M6">
+            <v>11926</v>
           </cell>
         </row>
       </sheetData>
@@ -1345,18 +1470,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1322.7</v>
+          <cell r="N3">
+            <v>152.970249</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>3157</v>
+          <cell r="N5">
+            <v>1720.521</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>3642.4</v>
+          <cell r="N6">
+            <v>23.774999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1371,25 +1496,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.33600000000001</v>
+          <cell r="L3">
+            <v>1322.7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1088.94</v>
+          <cell r="L5">
+            <v>3157</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>347.58800000000002</v>
+          <cell r="L6">
+            <v>3642.4</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1400,27 +1527,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>253.72300000000001</v>
+          <cell r="K3">
+            <v>277.33600000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1431.7740000000001</v>
+          <cell r="K5">
+            <v>1088.94</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>999.375</v>
+          <cell r="K6">
+            <v>347.58800000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1437,17 +1562,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>217.27220500000001</v>
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1624</v>
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>2629</v>
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
@@ -1467,18 +1592,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1260</v>
+          <cell r="L3">
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>7246.6900000000005</v>
+          <cell r="L5">
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>911.54899999999998</v>
+          <cell r="L6">
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -1498,18 +1623,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>314.36099999999999</v>
+          <cell r="P3">
+            <v>252</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5027.4579999999996</v>
+          <cell r="P5">
+            <v>6255</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="P6">
+            <v>4121</v>
           </cell>
         </row>
       </sheetData>
@@ -1595,18 +1720,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1626,18 +1751,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="M3">
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1652,23 +1777,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>2036</v>
+          <cell r="O3">
+            <v>21.19153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>2585</v>
+          <cell r="O5">
+            <v>676</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="O6">
+            <v>1882</v>
           </cell>
         </row>
       </sheetData>
@@ -1688,6 +1813,130 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="M3">
+            <v>154.847005</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>2838.5529999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>345.875</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>255226</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>83627</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>197.07725600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>4301</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1146</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2036</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>2585</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="K3">
             <v>588.52099999999996</v>
           </cell>
@@ -1704,6 +1953,37 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>87.068664999999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>517.63499999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>753.40200000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1720,17 +2000,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10175</v>
+            <v>10187.554818000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>66385</v>
+            <v>60710</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>47556</v>
+            <v>58053</v>
           </cell>
         </row>
       </sheetData>
@@ -1766,7 +2046,7 @@
         </row>
         <row r="47">
           <cell r="BG47">
-            <v>233.19800990540423</v>
+            <v>231.32319706625486</v>
           </cell>
         </row>
       </sheetData>
@@ -1959,6 +2239,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2256,175 +2540,186 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E13" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+    <text>Series A with ARod, Thrive, Tiger, Marc Lore</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:X83"/>
+  <dimension ref="B2:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="15" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="24"/>
-    <col min="5" max="5" width="10.28515625" style="25" customWidth="1"/>
-    <col min="6" max="10" width="9.42578125" style="26" customWidth="1"/>
-    <col min="11" max="15" width="8.5703125" style="27"/>
-    <col min="16" max="16" width="8.5703125" style="28"/>
-    <col min="17" max="18" width="8.5703125" style="29"/>
-    <col min="19" max="19" width="8.5703125" style="30"/>
-    <col min="20" max="20" width="8.5703125" style="28"/>
-    <col min="21" max="22" width="8.5703125" style="29"/>
-    <col min="23" max="23" width="8.5703125" style="30"/>
-    <col min="24" max="16384" width="8.5703125" style="23"/>
+    <col min="1" max="1" width="1.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="21"/>
+    <col min="5" max="5" width="10.28515625" style="22" customWidth="1"/>
+    <col min="6" max="10" width="9.42578125" style="23" customWidth="1"/>
+    <col min="11" max="15" width="8.5703125" style="24"/>
+    <col min="16" max="16" width="8.5703125" style="25"/>
+    <col min="17" max="18" width="8.5703125" style="26"/>
+    <col min="19" max="19" width="8.5703125" style="27"/>
+    <col min="20" max="20" width="8.5703125" style="25"/>
+    <col min="21" max="22" width="8.5703125" style="26"/>
+    <col min="23" max="23" width="8.5703125" style="27"/>
+    <col min="24" max="16384" width="8.5703125" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L2" s="32">
+      <c r="L2" s="29">
         <f>AVERAGE(L4:L6)</f>
-        <v>0.5274956037173274</v>
-      </c>
-      <c r="P2" s="33">
+        <v>0.52233594707061515</v>
+      </c>
+      <c r="P2" s="30">
         <f>AVERAGE(P4:P6)</f>
-        <v>43.968480121844507</v>
-      </c>
-      <c r="Q2" s="44">
-        <f t="shared" ref="Q2:S2" si="0">AVERAGE(Q4:Q6)</f>
-        <v>19.498652418866573</v>
-      </c>
-      <c r="R2" s="44">
-        <f t="shared" si="0"/>
-        <v>17.510096913006091</v>
-      </c>
-      <c r="S2" s="34">
-        <f t="shared" si="0"/>
-        <v>13.665856077349924</v>
+        <v>44.442050288440583</v>
+      </c>
+      <c r="Q2" s="40">
+        <f>AVERAGE(Q4:Q6)</f>
+        <v>19.660943543977282</v>
+      </c>
+      <c r="R2" s="40">
+        <f>AVERAGE(R4:R6)</f>
+        <v>17.660243915877423</v>
+      </c>
+      <c r="S2" s="31">
+        <f>AVERAGE(S4:S6)</f>
+        <v>13.776215113939967</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="S3" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T3" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="U3" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V3" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W3" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X3" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="P3" s="22">
-        <v>2022</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>2023</v>
-      </c>
-      <c r="R3" s="43">
-        <v>2024</v>
-      </c>
-      <c r="S3" s="21">
-        <v>2025</v>
-      </c>
-      <c r="T3" s="22">
-        <v>2022</v>
-      </c>
-      <c r="U3" s="20">
-        <v>2023</v>
-      </c>
-      <c r="V3" s="20">
-        <v>2024</v>
-      </c>
-      <c r="W3" s="21">
-        <v>2025</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>252</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <f>D4*[1]Main!$L$3</f>
         <v>1898568</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <f>[1]Main!$L$5-[1]Main!$L$6</f>
         <v>61674</v>
       </c>
-      <c r="G4" s="25">
-        <f t="shared" ref="G4:G11" si="1">+E4-F4</f>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G11" si="0">+E4-F4</f>
         <v>1836894</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <f>+[1]Main!$L$3</f>
         <v>7534</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="31">
-        <f>+[1]Model!$AH$32</f>
+      <c r="J4" s="47">
+        <v>44794</v>
+      </c>
+      <c r="K4" s="28">
+        <f>+[1]Model!$AJ$32</f>
         <v>240.35788054423469</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="29">
         <f>K4/D4-1</f>
         <v>-4.6198886729227451E-2</v>
       </c>
-      <c r="M4" s="32">
-        <f>+[1]Model!$AH$29</f>
+      <c r="M4" s="29">
+        <f>+[1]Model!$AJ$29</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N4" s="32">
-        <f>+[1]Model!$AH$28</f>
+      <c r="N4" s="29">
+        <f>+[1]Model!$AJ$28</f>
         <v>0</v>
       </c>
-      <c r="O4" s="32">
-        <f>+[1]Model!$AH$30</f>
+      <c r="O4" s="29">
+        <f>+[1]Model!$AJ$30</f>
         <v>0.01</v>
       </c>
     </row>
@@ -2432,83 +2727,83 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>105.44</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <f>D5*[2]Main!$L$3</f>
         <v>1395920.16</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
         <v>140928</v>
       </c>
-      <c r="G5" s="25">
-        <f t="shared" si="1"/>
+      <c r="G5" s="22">
+        <f t="shared" si="0"/>
         <v>1254992.1599999999</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <f>[2]Main!$L$3</f>
         <v>13239</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="J5" s="51">
+      <c r="I5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="47">
         <v>44789</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="28">
         <f>+[2]Model!$AM$32</f>
         <v>179.60004861383993</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="29">
         <f>K5/D5-1</f>
         <v>0.70333885255917994</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="29">
         <f>+[2]Model!$AM$29</f>
         <v>0.08</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="29">
         <f>+[2]Model!$AM$28</f>
         <v>-0.01</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="29">
         <f>+[2]Model!$AM$30</f>
         <v>0.01</v>
       </c>
-      <c r="P5" s="33">
-        <f>+($G5/$H5)/T5</f>
+      <c r="P5" s="30">
+        <f t="shared" ref="P5:S6" si="1">+($G5/$H5)/T5</f>
         <v>16.876759090129248</v>
       </c>
-      <c r="Q5" s="34">
-        <f>+($G5/$H5)/U5</f>
+      <c r="Q5" s="31">
+        <f t="shared" si="1"/>
         <v>14.645179621110156</v>
       </c>
-      <c r="R5" s="34">
-        <f>+($G5/$H5)/V5</f>
+      <c r="R5" s="31">
+        <f t="shared" si="1"/>
         <v>12.490319735060142</v>
       </c>
-      <c r="S5" s="35">
-        <f>+($G5/$H5)/W5</f>
+      <c r="S5" s="32">
+        <f t="shared" si="1"/>
         <v>10.772106224349255</v>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="33">
         <f>+[2]Model!AB25</f>
         <v>5.6169011322607476</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="34">
         <f>+[2]Model!AC25</f>
         <v>6.4727841989453889</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="34">
         <f>+[2]Model!AD25</f>
         <v>7.5894844369876644</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="35">
         <f>+[2]Model!AE25</f>
         <v>8.800051286902848</v>
       </c>
@@ -2517,80 +2812,83 @@
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>121.12</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <f>+D6*[3]Main!$K$3</f>
-        <v>1232396</v>
-      </c>
-      <c r="F6" s="25">
+        <v>1233916.6395561602</v>
+      </c>
+      <c r="F6" s="22">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
-        <v>18829</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="1"/>
-        <v>1213567</v>
-      </c>
-      <c r="H6" s="25">
+        <v>2657</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>1231259.6395561602</v>
+      </c>
+      <c r="H6" s="22">
         <f>+[3]Main!$K$3</f>
-        <v>10175</v>
-      </c>
-      <c r="I6" s="26" t="s">
+        <v>10187.554818000001</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="31">
+      <c r="J6" s="47">
+        <v>44796</v>
+      </c>
+      <c r="K6" s="28">
         <f>+[3]Model!$BG$47</f>
-        <v>233.19800990540423</v>
-      </c>
-      <c r="L6" s="32">
+        <v>231.32319706625486</v>
+      </c>
+      <c r="L6" s="29">
         <f>K6/D6-1</f>
-        <v>0.92534684532202971</v>
-      </c>
-      <c r="M6" s="42">
+        <v>0.90986787538189273</v>
+      </c>
+      <c r="M6" s="39">
         <f>+[3]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="29">
         <f>+[3]Model!$BG$45</f>
         <v>0</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="29">
         <f>+[3]Model!$BG$44</f>
         <v>0.01</v>
       </c>
-      <c r="P6" s="33">
-        <f t="shared" ref="P6:S6" si="2">+($G6/$H6)/T6</f>
-        <v>71.06020115355976</v>
-      </c>
-      <c r="Q6" s="34">
-        <f t="shared" si="2"/>
-        <v>24.352125216622991</v>
-      </c>
-      <c r="R6" s="34">
-        <f t="shared" si="2"/>
-        <v>22.529874090952042</v>
-      </c>
-      <c r="S6" s="35">
-        <f t="shared" si="2"/>
-        <v>16.559605930350592</v>
-      </c>
-      <c r="T6" s="36">
+      <c r="P6" s="30">
+        <f t="shared" si="1"/>
+        <v>72.007341486751912</v>
+      </c>
+      <c r="Q6" s="31">
+        <f t="shared" si="1"/>
+        <v>24.676707466844412</v>
+      </c>
+      <c r="R6" s="31">
+        <f t="shared" si="1"/>
+        <v>22.830168096694702</v>
+      </c>
+      <c r="S6" s="32">
+        <f t="shared" si="1"/>
+        <v>16.78032400353068</v>
+      </c>
+      <c r="T6" s="33">
         <f>+[3]Model!$AV$34</f>
         <v>1.6784287420147448</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="34">
         <f>+[3]Model!$AW$34</f>
         <v>4.897703299754288</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="34">
         <f>+[3]Model!$AX$34</f>
         <v>5.2938371314459518</v>
       </c>
-      <c r="W6" s="38">
+      <c r="W6" s="35">
         <f>+[3]Model!$AY$34</f>
         <v>7.2024349209232001</v>
       </c>
@@ -2599,32 +2897,32 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C7" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="21">
         <v>175.57</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <f>+D7*[4]Main!$M$3</f>
         <v>481412.94</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>43890</v>
       </c>
-      <c r="G7" s="25">
-        <f t="shared" si="1"/>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
         <v>437522.94</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f>+[4]Main!$M$3</f>
         <v>2742</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="20">
         <v>2004</v>
       </c>
     </row>
@@ -2632,26 +2930,26 @@
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>391.4</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f>+D8*[5]Main!$L$3*1000/HKD</f>
         <v>475575.58154347877</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
         <v>97072.536879920503</v>
       </c>
-      <c r="G8" s="25">
-        <f t="shared" si="1"/>
+      <c r="G8" s="22">
+        <f t="shared" si="0"/>
         <v>378503.04466355825</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2659,26 +2957,26 @@
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>71.02</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <f>+D9*[6]Main!$G$3</f>
         <v>194736.84</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <f>+[6]Main!$G$5-[6]Main!$G$6</f>
         <v>-53957</v>
       </c>
-      <c r="G9" s="25">
-        <f t="shared" si="1"/>
+      <c r="G9" s="22">
+        <f t="shared" si="0"/>
         <v>248693.84</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2686,26 +2984,26 @@
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>115.9</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <f>D10*[7]Main!$L$3</f>
         <v>310046.98749999999</v>
       </c>
-      <c r="F10" s="25" cm="1">
+      <c r="F10" s="22" cm="1">
         <f t="array" ref="F10">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
         <v>119719.43620178041</v>
       </c>
-      <c r="G10" s="25">
-        <f t="shared" si="1"/>
+      <c r="G10" s="22">
+        <f t="shared" si="0"/>
         <v>190327.55129821959</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2713,107 +3011,107 @@
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>393.84</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <f>+D11*[8]Main!$N$3</f>
         <v>186089.4</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>1173</v>
       </c>
-      <c r="G11" s="25">
-        <f t="shared" si="1"/>
+      <c r="G11" s="22">
+        <f t="shared" si="0"/>
         <v>184916.4</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="s">
-        <v>214</v>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>189</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <f>+D12*[9]Main!$M$3</f>
         <v>188055</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>7842</v>
       </c>
-      <c r="G12" s="25">
-        <f t="shared" ref="G12:G23" si="3">E12-F12</f>
+      <c r="G12" s="22">
+        <f t="shared" ref="G12:G27" si="2">E12-F12</f>
         <v>180213</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="24">
-        <v>99.86</v>
-      </c>
-      <c r="E13" s="25">
-        <f>+D13*[10]Main!$L$3</f>
-        <v>117834.8</v>
-      </c>
-      <c r="F13" s="25">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
-        <v>870</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="3"/>
-        <v>116964.8</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="21">
+        <v>413.72</v>
+      </c>
+      <c r="E13" s="22">
+        <f>D13*[10]Main!$L$3</f>
+        <v>118323.92000000001</v>
+      </c>
+      <c r="F13" s="22">
+        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>-2851</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="2"/>
+        <v>121174.92000000001</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="24">
-        <v>413.72</v>
-      </c>
-      <c r="E14" s="25">
-        <f>D14*[11]Main!$L$3</f>
-        <v>118323.92000000001</v>
-      </c>
-      <c r="F14" s="25">
-        <f>[11]Main!$L$5-[11]Main!$L$6</f>
-        <v>-2851</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="3"/>
-        <v>121174.92000000001</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="21">
+        <v>99.86</v>
+      </c>
+      <c r="E14" s="22">
+        <f>+D14*[11]Main!$L$3</f>
+        <v>117834.8</v>
+      </c>
+      <c r="F14" s="22">
+        <f>+[11]Main!$L$5-[11]Main!$L$6</f>
+        <v>870</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="2"/>
+        <v>116964.8</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2821,1306 +3119,1662 @@
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>440</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <f>+D15*[12]Main!$L$3</f>
         <v>88000</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>3926</v>
       </c>
-      <c r="G15" s="25">
-        <f t="shared" si="3"/>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
         <v>84074</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="24">
-        <v>375.71</v>
-      </c>
-      <c r="E16" s="25">
+        <v>187</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="21">
+        <v>122.42</v>
+      </c>
+      <c r="E16" s="22">
         <f>+D16*H16</f>
-        <v>57472.452251789997</v>
-      </c>
-      <c r="F16" s="25">
-        <f>+[13]Main!$N$5-[13]Main!$N$6</f>
-        <v>1696.7459999999999</v>
-      </c>
-      <c r="G16" s="25">
-        <f>E16-F16</f>
-        <v>55775.706251789998</v>
-      </c>
-      <c r="H16" s="25">
-        <f>+[13]Main!$N$3</f>
-        <v>152.970249</v>
-      </c>
-      <c r="I16" s="52" t="s">
+        <v>51593.343664439999</v>
+      </c>
+      <c r="F16" s="22">
+        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
+        <v>-8207</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="2"/>
+        <v>59800.343664439999</v>
+      </c>
+      <c r="H16" s="22">
+        <f>+[13]Main!$M$3</f>
+        <v>421.445382</v>
+      </c>
+      <c r="I16" s="51" t="s">
         <v>14</v>
-      </c>
-      <c r="J16" s="51">
-        <v>44783</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="24">
-        <v>39.74</v>
-      </c>
-      <c r="E17" s="25">
-        <f>+D17*[14]Main!$L$3*EUR</f>
-        <v>53089.738980000009</v>
-      </c>
-      <c r="F17" s="25">
-        <f>+([14]Main!$L$5-[14]Main!$L$6)*EUR</f>
-        <v>-490.25400000000008</v>
-      </c>
-      <c r="G17" s="25">
-        <f t="shared" si="3"/>
-        <v>53579.99298000001</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26" t="s">
-        <v>214</v>
+      <c r="D17" s="21">
+        <v>375.71</v>
+      </c>
+      <c r="E17" s="22">
+        <f>+D17*H17</f>
+        <v>57472.452251789997</v>
+      </c>
+      <c r="F17" s="22">
+        <f>+[14]Main!$N$5-[14]Main!$N$6</f>
+        <v>1696.7459999999999</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="2"/>
+        <v>55775.706251789998</v>
+      </c>
+      <c r="H17" s="22">
+        <f>+[14]Main!$N$3</f>
+        <v>152.970249</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="47">
+        <v>44783</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="24">
+        <v>185</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="25">
-        <f>+D18*H18</f>
-        <v>51584.495999999999</v>
-      </c>
-      <c r="F18" s="25">
-        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
-        <v>741.35200000000009</v>
-      </c>
-      <c r="G18" s="25">
-        <f>E18-F18</f>
-        <v>50843.144</v>
-      </c>
-      <c r="H18" s="25">
-        <f>+[15]Main!$K$3</f>
-        <v>277.33600000000001</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="J18" s="47"/>
+      <c r="D18" s="21">
+        <v>39.74</v>
+      </c>
+      <c r="E18" s="22">
+        <f>+D18*[15]Main!$L$3*EUR</f>
+        <v>53089.738980000009</v>
+      </c>
+      <c r="F18" s="22">
+        <f>+([15]Main!$L$5-[15]Main!$L$6)*EUR</f>
+        <v>-490.25400000000008</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="2"/>
+        <v>53579.99298000001</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="24">
-        <v>200.8</v>
-      </c>
-      <c r="E19" s="25">
-        <f>+D19*[16]Main!$L$3</f>
-        <v>50947.578400000006</v>
-      </c>
-      <c r="F19" s="25">
-        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
-        <v>432.39900000000011</v>
-      </c>
-      <c r="G19" s="25">
-        <f>E19-F19</f>
-        <v>50515.179400000008</v>
-      </c>
-      <c r="H19" s="25">
-        <f>+[16]Main!$L$3</f>
-        <v>253.72300000000001</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="21">
+        <v>186</v>
+      </c>
+      <c r="E19" s="22">
+        <f>+D19*H19</f>
+        <v>51584.495999999999</v>
+      </c>
+      <c r="F19" s="22">
+        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
+        <v>741.35200000000009</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="2"/>
+        <v>50843.144</v>
+      </c>
+      <c r="H19" s="22">
+        <f>+[16]Main!$K$3</f>
+        <v>277.33600000000001</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="24">
-        <v>203.73</v>
-      </c>
-      <c r="E20" s="25">
-        <f>+D20*H20</f>
-        <v>44264.86632465</v>
-      </c>
-      <c r="F20" s="25">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="21">
+        <v>200.8</v>
+      </c>
+      <c r="E20" s="22">
+        <f>+D20*[17]Main!$L$3</f>
+        <v>50947.578400000006</v>
+      </c>
+      <c r="F20" s="22">
         <f>+[17]Main!$L$5-[17]Main!$L$6</f>
-        <v>-1005</v>
-      </c>
-      <c r="G20" s="25">
-        <f>E20-F20</f>
-        <v>45269.86632465</v>
-      </c>
-      <c r="H20" s="25">
+        <v>432.39900000000011</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="2"/>
+        <v>50515.179400000008</v>
+      </c>
+      <c r="H20" s="22">
         <f>+[17]Main!$L$3</f>
-        <v>217.27220500000001</v>
-      </c>
-      <c r="I20" s="45" t="s">
+        <v>253.72300000000001</v>
+      </c>
+      <c r="I20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="X20" s="23">
-        <v>1982</v>
-      </c>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="24">
-        <v>36.71</v>
-      </c>
-      <c r="E21" s="25">
-        <f>+D21*[18]Main!$M$3</f>
-        <v>46254.6</v>
-      </c>
-      <c r="F21" s="25">
-        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
-        <v>6335.1410000000005</v>
-      </c>
-      <c r="G21" s="25">
-        <f t="shared" si="3"/>
-        <v>39919.458999999995</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="21">
+        <v>203.73</v>
+      </c>
+      <c r="E21" s="22">
+        <f>+D21*H21</f>
+        <v>44264.86632465</v>
+      </c>
+      <c r="F21" s="22">
+        <f>+[18]Main!$L$5-[18]Main!$L$6</f>
+        <v>-1005</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="2"/>
+        <v>45269.86632465</v>
+      </c>
+      <c r="H21" s="22">
+        <f>+[18]Main!$L$3</f>
+        <v>217.27220500000001</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>14</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="X21" s="20">
+        <v>1982</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="24">
-        <v>135.57</v>
-      </c>
-      <c r="E22" s="25">
-        <f>+D22*[19]Main!$M$3</f>
-        <v>42617.920769999997</v>
-      </c>
-      <c r="F22" s="25">
-        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
-        <v>5027.4579999999996</v>
-      </c>
-      <c r="G22" s="25">
-        <f>E22-F22</f>
-        <v>37590.462769999998</v>
-      </c>
-      <c r="H22" s="25">
-        <f>+[19]Main!$M$3</f>
-        <v>314.36099999999999</v>
-      </c>
-      <c r="I22" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="21">
+        <v>168</v>
+      </c>
+      <c r="E22" s="22">
+        <f>+D22*H22</f>
+        <v>42336</v>
+      </c>
+      <c r="F22" s="22">
+        <f>+[19]Main!$P$5-[19]Main!$P$6</f>
+        <v>2134</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="2"/>
+        <v>40202</v>
+      </c>
+      <c r="H22" s="23">
+        <f>+[19]Main!$P$3</f>
+        <v>252</v>
+      </c>
+      <c r="I22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="47">
+        <v>44793</v>
+      </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="21">
+        <v>36.71</v>
+      </c>
+      <c r="E23" s="22">
+        <f>+D23*[20]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F23" s="22">
+        <f>+[20]Main!$M$5-[20]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="2"/>
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="21">
+        <v>135.57</v>
+      </c>
+      <c r="E24" s="22">
+        <f>+D24*[21]Main!$M$3</f>
+        <v>42617.920769999997</v>
+      </c>
+      <c r="F24" s="22">
+        <f>+[21]Main!$M$5-[21]Main!$M$6</f>
+        <v>5027.4579999999996</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="2"/>
+        <v>37590.462769999998</v>
+      </c>
+      <c r="H24" s="22">
+        <f>+[21]Main!$M$3</f>
+        <v>314.36099999999999</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="21">
+        <v>2189.48</v>
+      </c>
+      <c r="E25" s="22">
+        <f>D25*H25/CAD</f>
+        <v>35713.078128386704</v>
+      </c>
+      <c r="F25" s="22">
+        <f>[22]Main!$O$5-[22]Main!$O$6</f>
+        <v>-1206</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="2"/>
+        <v>36919.078128386704</v>
+      </c>
+      <c r="H25" s="22">
+        <f>+[22]Main!$O$3</f>
+        <v>21.19153</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" s="47">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="21">
+        <v>228.96</v>
+      </c>
+      <c r="E26" s="22">
+        <f>+D26*H26</f>
+        <v>35453.770264799998</v>
+      </c>
+      <c r="F26" s="22">
+        <f>+[23]Main!$M$5-[23]Main!$M$6</f>
+        <v>2838.5529999999999</v>
+      </c>
+      <c r="G26" s="22">
+        <f>E26-F26</f>
+        <v>32615.217264799998</v>
+      </c>
+      <c r="H26" s="22">
+        <f>+[23]Main!$M$3</f>
+        <v>154.847005</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="47">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D27" s="21">
         <v>152.88</v>
       </c>
-      <c r="E23" s="25">
-        <f>+D23*[20]Main!$L$3</f>
+      <c r="E27" s="22">
+        <f>+D27*[24]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
-      <c r="F23" s="25">
-        <f>([20]Main!$L$5-[20]Main!$L$6)/RMB</f>
+      <c r="F27" s="22">
+        <f>([24]Main!$L$5-[24]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
-      <c r="G23" s="25">
-        <f t="shared" si="3"/>
+      <c r="G27" s="22">
+        <f t="shared" si="2"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H23" s="25">
-        <f>+[20]Main!$L$3</f>
+      <c r="H27" s="22">
+        <f>+[24]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X27" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="23" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21">
+        <v>107.93</v>
+      </c>
+      <c r="E28" s="22">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="21">
+        <v>113.23</v>
+      </c>
+      <c r="E29" s="22">
+        <v>33330</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="21">
+        <v>54.71</v>
+      </c>
+      <c r="E30" s="22">
+        <v>28410</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="21">
+        <v>375.92</v>
+      </c>
+      <c r="E31" s="22">
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="24">
-        <v>122.42</v>
-      </c>
-      <c r="E24" s="25">
-        <v>51730</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="24">
-        <v>2189.48</v>
-      </c>
-      <c r="E25" s="25">
-        <v>46398</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="24">
-        <v>160.03</v>
-      </c>
-      <c r="E26" s="25">
-        <v>40648</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="24">
-        <v>228.96</v>
-      </c>
-      <c r="E27" s="25">
-        <v>35450</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="24">
-        <v>107.93</v>
-      </c>
-      <c r="E28" s="25">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="D32" s="21">
+        <v>181.71</v>
+      </c>
+      <c r="E32" s="22">
+        <v>25220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="21">
+        <v>236.61</v>
+      </c>
+      <c r="E33" s="22">
+        <f>+D33*H33</f>
+        <v>20601.316825649999</v>
+      </c>
+      <c r="F33" s="22">
+        <f>+[28]Main!$M$5-[28]Main!$M$6</f>
+        <v>-235.76700000000005</v>
+      </c>
+      <c r="G33" s="22">
+        <f>E33-F33</f>
+        <v>20837.083825649999</v>
+      </c>
+      <c r="H33" s="22">
+        <f>+[28]Main!$M$3</f>
+        <v>87.068664999999996</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="47">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="21">
+        <v>102.23</v>
+      </c>
+      <c r="E34" s="22">
+        <f>+D34*[25]Main!$K$3</f>
+        <v>20147.20788088</v>
+      </c>
+      <c r="F34" s="22">
+        <f>+[25]Main!$K$5-[25]Main!$K$6</f>
+        <v>3155</v>
+      </c>
+      <c r="G34" s="22">
+        <f>E34-F34</f>
+        <v>16992.20788088</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="21">
+        <v>9.35</v>
+      </c>
+      <c r="E35" s="22">
+        <f>D35*[26]Main!$L$3</f>
+        <v>19036.599999999999</v>
+      </c>
+      <c r="F35" s="22">
+        <f>[26]Main!$L$5-[26]Main!$L$6</f>
+        <v>2585</v>
+      </c>
+      <c r="G35" s="22">
+        <f>E35-F35</f>
+        <v>16451.599999999999</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="21">
+        <v>312</v>
+      </c>
+      <c r="E36" s="22">
+        <v>19090</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="21">
+        <v>90.1</v>
+      </c>
+      <c r="E37" s="22">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="21">
+        <v>360.34</v>
+      </c>
+      <c r="E38" s="22">
+        <v>18140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="21">
+        <v>43.75</v>
+      </c>
+      <c r="E39" s="22">
+        <v>17180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="24">
-        <v>113.23</v>
-      </c>
-      <c r="E29" s="25">
-        <v>33330</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="25">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="24">
-        <v>54.71</v>
-      </c>
-      <c r="E31" s="25">
-        <v>28410</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="25">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="23" t="s">
+      <c r="C40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="21">
+        <v>40.44</v>
+      </c>
+      <c r="E40" s="22">
+        <v>16810</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="21">
+        <v>63.5</v>
+      </c>
+      <c r="E41" s="22">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="21">
+        <v>363.45</v>
+      </c>
+      <c r="E42" s="22">
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="21">
+        <v>121.2</v>
+      </c>
+      <c r="E43" s="22" cm="1">
+        <f t="array" ref="E43">327904/SEK</f>
+        <v>31700.842058451039</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="21">
+        <v>114.84</v>
+      </c>
+      <c r="E44" s="22">
+        <v>17930</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E45" s="22">
+        <v>34050</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="24">
-        <v>375.92</v>
-      </c>
-      <c r="E33" s="25">
-        <v>25610</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="24">
-        <v>181.71</v>
-      </c>
-      <c r="E34" s="25">
-        <v>25220</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="24">
-        <v>236.61</v>
-      </c>
-      <c r="E35" s="25">
-        <v>23190</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="25">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="24">
-        <v>102.23</v>
-      </c>
-      <c r="E37" s="25">
-        <f>+D37*[21]Main!$K$3</f>
-        <v>20147.20788088</v>
-      </c>
-      <c r="F37" s="25">
-        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
-        <v>3155</v>
-      </c>
-      <c r="G37" s="25">
-        <f>E37-F37</f>
-        <v>16992.20788088</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="24">
-        <v>9.35</v>
-      </c>
-      <c r="E38" s="25">
-        <f>D38*[22]Main!$L$3</f>
-        <v>19036.599999999999</v>
-      </c>
-      <c r="F38" s="25">
-        <f>[22]Main!$L$5-[22]Main!$L$6</f>
-        <v>2585</v>
-      </c>
-      <c r="G38" s="25">
-        <f>E38-F38</f>
-        <v>16451.599999999999</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="24">
-        <v>312</v>
-      </c>
-      <c r="E39" s="25">
-        <v>19090</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="24">
-        <v>90.1</v>
-      </c>
-      <c r="E40" s="25">
-        <v>18840</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="24">
-        <v>360.34</v>
-      </c>
-      <c r="E41" s="25">
-        <v>18140</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="24">
-        <v>43.75</v>
-      </c>
-      <c r="E42" s="25">
-        <v>17180</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="24">
-        <v>40.44</v>
-      </c>
-      <c r="E43" s="25">
-        <v>16810</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="24">
-        <v>63.5</v>
-      </c>
-      <c r="E44" s="25">
-        <v>16440</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="24">
-        <v>363.45</v>
-      </c>
-      <c r="E45" s="25">
-        <v>15250</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="46" t="s">
+      <c r="D46" s="21">
+        <v>87.46</v>
+      </c>
+      <c r="E46" s="22">
+        <v>16020</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="21">
+        <v>97.08</v>
+      </c>
+      <c r="E47" s="22">
+        <v>15070</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="21">
+        <v>107.11</v>
+      </c>
+      <c r="E48" s="22">
+        <v>16630</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="21">
+        <v>135.02000000000001</v>
+      </c>
+      <c r="E49" s="22">
+        <v>14050</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="21">
+        <v>206.61</v>
+      </c>
+      <c r="E50" s="22">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="21">
+        <v>115.52</v>
+      </c>
+      <c r="E51" s="22">
+        <v>13640</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="21">
+        <v>206.68</v>
+      </c>
+      <c r="E52" s="22">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="21">
+        <v>43.77</v>
+      </c>
+      <c r="E53" s="22">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="21">
+        <v>98.74</v>
+      </c>
+      <c r="E54" s="22">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="21">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="E55" s="22">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="21">
+        <v>408.48</v>
+      </c>
+      <c r="E56" s="22">
+        <v>10570</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="21">
+        <v>80.52</v>
+      </c>
+      <c r="E57" s="22">
+        <v>10310</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="21">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E58" s="22">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="21">
+        <v>8.17</v>
+      </c>
+      <c r="E59" s="22">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="21">
+        <v>14.73</v>
+      </c>
+      <c r="E60" s="22">
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="21">
+        <v>56.9</v>
+      </c>
+      <c r="E61" s="22">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="21">
+        <v>203.42</v>
+      </c>
+      <c r="E62" s="22">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="21">
+        <v>126.81</v>
+      </c>
+      <c r="E63" s="22">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="21">
+        <v>50.35</v>
+      </c>
+      <c r="E64" s="22">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="21">
+        <v>88.7</v>
+      </c>
+      <c r="E65" s="22">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="21">
+        <v>78.3</v>
+      </c>
+      <c r="E66" s="22">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="21">
+        <v>50.36</v>
+      </c>
+      <c r="E67" s="22">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="21">
+        <v>80.58</v>
+      </c>
+      <c r="E68" s="22">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="21">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="E69" s="22">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="21">
+        <v>17.63</v>
+      </c>
+      <c r="E70" s="22">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="21">
+        <v>54.6</v>
+      </c>
+      <c r="E71" s="22">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="21">
+        <v>62.59</v>
+      </c>
+      <c r="E72" s="22">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="21">
+        <v>62.71</v>
+      </c>
+      <c r="E73" s="22">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="21">
+        <v>21.19</v>
+      </c>
+      <c r="E74" s="22">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="21">
+        <v>26.99</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" s="24">
-        <v>121.2</v>
-      </c>
-      <c r="E46" s="25" cm="1">
-        <f t="array" ref="E46">327904/SEK</f>
-        <v>31700.842058451039</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="24">
-        <v>114.84</v>
-      </c>
-      <c r="E47" s="25">
-        <v>17930</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="24">
-        <v>44.5</v>
-      </c>
-      <c r="E48" s="25">
-        <v>34050</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="24">
-        <v>87.46</v>
-      </c>
-      <c r="E49" s="25">
-        <v>16020</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="24">
-        <v>97.08</v>
-      </c>
-      <c r="E50" s="25">
-        <v>15070</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="24">
-        <v>107.11</v>
-      </c>
-      <c r="E51" s="25">
-        <v>16630</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="24">
-        <v>135.02000000000001</v>
-      </c>
-      <c r="E52" s="25">
-        <v>14050</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="24">
-        <v>206.61</v>
-      </c>
-      <c r="E53" s="25">
-        <v>13880</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="24">
-        <v>115.52</v>
-      </c>
-      <c r="E54" s="25">
-        <v>13640</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="24">
-        <v>206.68</v>
-      </c>
-      <c r="E55" s="25">
-        <v>12990</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="24">
-        <v>43.77</v>
-      </c>
-      <c r="E56" s="25">
-        <v>12660</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="24">
-        <v>98.74</v>
-      </c>
-      <c r="E57" s="25">
-        <v>12490</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="24">
-        <v>40.369999999999997</v>
-      </c>
-      <c r="E58" s="25">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="24">
-        <v>408.48</v>
-      </c>
-      <c r="E59" s="25">
-        <v>10570</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="24">
-        <v>80.52</v>
-      </c>
-      <c r="E60" s="25">
-        <v>10310</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="24">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E61" s="25">
-        <v>10210</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="24">
-        <v>8.17</v>
-      </c>
-      <c r="E63" s="25">
-        <v>9320</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="24">
-        <v>14.73</v>
-      </c>
-      <c r="E64" s="25">
-        <v>9140</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="24">
-        <v>56.9</v>
-      </c>
-      <c r="E65" s="25">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="24">
-        <v>203.42</v>
-      </c>
-      <c r="E66" s="25">
-        <v>8580</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="24">
-        <v>126.81</v>
-      </c>
-      <c r="E67" s="25">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="24">
-        <v>50.35</v>
-      </c>
-      <c r="E68" s="25">
-        <v>8150</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="24">
-        <v>88.7</v>
-      </c>
-      <c r="E70" s="25">
-        <v>7910</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="24">
-        <v>78.3</v>
-      </c>
-      <c r="E71" s="25">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="24">
-        <v>50.36</v>
-      </c>
-      <c r="E72" s="25">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="24">
-        <v>80.58</v>
-      </c>
-      <c r="E73" s="25">
-        <v>6930</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="24">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="E74" s="25">
-        <v>6880</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="24">
-        <v>17.63</v>
-      </c>
-      <c r="E75" s="25">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="24">
-        <v>54.6</v>
-      </c>
-      <c r="E76" s="25">
-        <v>6370</v>
+      <c r="D76" s="45">
+        <v>31.44</v>
+      </c>
+      <c r="E76" s="22">
+        <v>2220</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="24">
-        <v>62.59</v>
-      </c>
-      <c r="E77" s="25">
-        <v>6350</v>
+      <c r="B77" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="21">
+        <v>13.95</v>
+      </c>
+      <c r="E77" s="22">
+        <v>2030</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="24">
-        <v>62.71</v>
-      </c>
-      <c r="E78" s="25">
-        <v>3603</v>
+      <c r="B78" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="21">
+        <v>19.95</v>
+      </c>
+      <c r="E78" s="22">
+        <v>2560</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="24">
-        <v>21.19</v>
-      </c>
-      <c r="E79" s="25">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="24">
-        <v>26.99</v>
-      </c>
-      <c r="E80" s="25">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="48" t="s">
+      <c r="B79" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C79" s="50" t="s">
         <v>237</v>
-      </c>
-      <c r="D81" s="49">
-        <v>31.44</v>
-      </c>
-      <c r="E81" s="25">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D82" s="24">
-        <v>13.95</v>
-      </c>
-      <c r="E82" s="25">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="24">
-        <v>19.95</v>
-      </c>
-      <c r="E83" s="25">
-        <v>2560</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
     <hyperlink ref="B12" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
     <hyperlink ref="B9" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
     <hyperlink ref="B5" r:id="rId8" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
     <hyperlink ref="B6" r:id="rId9" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-    <hyperlink ref="B38" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B35" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
-    <hyperlink ref="B18" r:id="rId21" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
-    <hyperlink ref="B16" r:id="rId22" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B27" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B19" r:id="rId21" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B17" r:id="rId22" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
+    <hyperlink ref="B16" r:id="rId23" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="D3" s="21">
+        <v>252</v>
+      </c>
+      <c r="E3" s="22">
+        <f>D3*[1]Main!$L$3</f>
+        <v>1898568</v>
+      </c>
+      <c r="F3" s="22">
+        <f>[1]Main!$L$5-[1]Main!$L$6</f>
+        <v>61674</v>
+      </c>
+      <c r="G3" s="22">
+        <f>+E3-F3</f>
+        <v>1836894</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[1]Main!$L$3</f>
+        <v>7534</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21">
+        <v>391.4</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[5]Main!$L$3*1000/HKD</f>
+        <v>475575.58154347877</v>
+      </c>
+      <c r="F4" s="22">
+        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
+        <v>97072.536879920503</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>378503.04466355825</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="10">
+        <v>80.27</v>
+      </c>
+      <c r="E5" s="56">
+        <v>62800</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="56">
+        <v>59910</v>
+      </c>
+      <c r="E6" s="56" cm="1">
+        <f t="array" ref="E6">6975000/JPY</f>
+        <v>50938.435697071494</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="10">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="E7" s="56">
+        <v>36280</v>
+      </c>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
         <v>31500</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+    </row>
+    <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22">
+        <v>27000</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="10">
+        <v>127.74</v>
+      </c>
+      <c r="E10" s="56">
+        <v>21290</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D11" s="2">
         <v>27.7</v>
       </c>
-      <c r="E6" s="3">
-        <f>+D6*[23]Main!$K$3</f>
+      <c r="E11" s="3">
+        <f>+D11*[27]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
-      <c r="F6" s="3">
-        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
+      <c r="F11" s="3">
+        <f>+[27]Main!$K$5-[27]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
-      <c r="G6" s="3">
-        <f>+E6-F6</f>
+      <c r="G11" s="3">
+        <f>+E11-F11</f>
         <v>14157.101699999997</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D12" s="2">
         <v>45.8</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E12" s="3">
         <v>14330</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>183</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,125 +4783,172 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="66">
+        <v>206.8</v>
+      </c>
+      <c r="E3" s="56">
+        <v>427830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="66">
+        <v>340.89</v>
+      </c>
+      <c r="E4" s="56">
+        <v>329430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="67">
+        <v>87.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="68">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
-        <v>87.2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="D7" s="66">
+        <v>70.94</v>
+      </c>
+      <c r="E7" s="56">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="68">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="67">
         <v>68.930000000000007</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>18053</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="68">
+        <v>0</v>
+      </c>
       <c r="E10" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="66">
+        <v>58.75</v>
+      </c>
+      <c r="E11" s="56">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="67">
         <v>184.44</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>84</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="68">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4255,6 +4956,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4271,8 +4973,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4281,32 +4983,32 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4358,41 +5060,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4407,33 +5109,33 @@
       </c>
       <c r="F3" s="3">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
-        <v>18829</v>
+        <v>2657</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>1213171</v>
+        <v>1229343</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -4447,7 +5149,7 @@
         <v>101795</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -4473,21 +5175,75 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>213</v>
-      </c>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22">
+        <v>22000</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="27"/>
+    </row>
+    <row r="11" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22">
+        <v>30000</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4512,51 +5268,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4578,11 +5334,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>204</v>
+      <c r="B7" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4593,14 +5349,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,35 +5365,51 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="49">
         <v>7.8498000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="49">
         <v>6.74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="53">
+      <c r="B4" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="49">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="53">
+      <c r="B5" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="49">
         <v>10.3437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="49">
+        <v>136.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1.2991999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4651,13 +5423,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4668,74 +5440,117 @@
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>100000</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="7">
         <v>15000</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="7">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03AD14B-C498-4C8F-A524-F50213D73A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF32138F-B006-4337-A2E6-CF372390098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3435" windowWidth="23775" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -873,10 +873,10 @@
     <t>Mojo</t>
   </si>
   <si>
-    <t>Slate</t>
-  </si>
-  <si>
     <t>Block</t>
+  </si>
+  <si>
+    <t>Stake</t>
   </si>
 </sst>
 </file>
@@ -893,6 +893,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1018,12 +1024,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1108,164 +1108,165 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1341,23 +1342,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>286</v>
+            <v>1180</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>4002</v>
+            <v>18083</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>6853</v>
+            <v>17213</v>
           </cell>
         </row>
       </sheetData>
@@ -1378,17 +1379,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1180</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>18083</v>
+            <v>5498</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>17213</v>
+            <v>1572</v>
           </cell>
         </row>
       </sheetData>
@@ -1408,18 +1409,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>200</v>
+          <cell r="M3">
+            <v>421.445382</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>5498</v>
+          <cell r="M5">
+            <v>3719</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>1572</v>
+          <cell r="M6">
+            <v>11926</v>
           </cell>
         </row>
       </sheetData>
@@ -1439,18 +1440,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>421.445382</v>
+          <cell r="N3">
+            <v>152.970249</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>3719</v>
+          <cell r="N5">
+            <v>1720.521</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>11926</v>
+          <cell r="N6">
+            <v>23.774999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1470,18 +1471,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>152.970249</v>
+          <cell r="L3">
+            <v>1322.7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>1720.521</v>
+          <cell r="L5">
+            <v>3157</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>23.774999999999999</v>
+          <cell r="L6">
+            <v>3642.4</v>
           </cell>
         </row>
       </sheetData>
@@ -1496,27 +1497,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1322.7</v>
+          <cell r="K3">
+            <v>277.33600000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>3157</v>
+          <cell r="K5">
+            <v>1088.94</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>3642.4</v>
+          <cell r="K6">
+            <v>347.58800000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1527,25 +1526,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.33600000000001</v>
+          <cell r="L3">
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1088.94</v>
+          <cell r="L5">
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>347.58800000000002</v>
+          <cell r="L6">
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1562,17 +1563,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>253.72300000000001</v>
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1431.7740000000001</v>
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>999.375</v>
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -1592,18 +1593,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>217.27220500000001</v>
+          <cell r="P3">
+            <v>252</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1624</v>
+          <cell r="P5">
+            <v>6255</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>2629</v>
+          <cell r="P6">
+            <v>4121</v>
           </cell>
         </row>
       </sheetData>
@@ -1623,18 +1624,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>252</v>
+          <cell r="M3">
+            <v>1260</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>6255</v>
+          <cell r="M5">
+            <v>7246.6900000000005</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>4121</v>
+          <cell r="M6">
+            <v>911.54899999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1721,17 +1722,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>1260</v>
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>7246.6900000000005</v>
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>911.54899999999998</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1751,18 +1752,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>314.36099999999999</v>
+          <cell r="O3">
+            <v>21.19153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5027.4579999999996</v>
+          <cell r="O5">
+            <v>676</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="O6">
+            <v>1882</v>
           </cell>
         </row>
       </sheetData>
@@ -1782,18 +1783,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>21.19153</v>
+          <cell r="M3">
+            <v>154.847005</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>676</v>
+          <cell r="M5">
+            <v>2838.5529999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>1882</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1813,18 +1814,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>154.847005</v>
+          <cell r="L3">
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>2838.5529999999999</v>
+          <cell r="L5">
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -1844,18 +1845,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>87.068664999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>517.63499999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>753.40200000000004</v>
           </cell>
         </row>
       </sheetData>
@@ -1968,22 +1969,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>87.068664999999996</v>
+          <cell r="L3">
+            <v>2675.125</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>517.63499999999999</v>
+          <cell r="L5">
+            <v>956062</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>753.40200000000004</v>
+          <cell r="L6">
+            <v>149153</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2080,7 +2081,28 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="47">
+          <cell r="AT47">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AT48">
+            <v>-0.05</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AT49">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AT50">
+            <v>260.93479765840237</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2158,18 +2180,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>2675.125</v>
+          <cell r="N3">
+            <v>472.5</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>956062</v>
+          <cell r="N5">
+            <v>5299</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>149153</v>
+          <cell r="N6">
+            <v>4126</v>
           </cell>
         </row>
       </sheetData>
@@ -2189,18 +2211,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>472.5</v>
+          <cell r="M3">
+            <v>995</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>5299</v>
+          <cell r="M5">
+            <v>18439</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>4126</v>
+          <cell r="M6">
+            <v>10597</v>
           </cell>
         </row>
       </sheetData>
@@ -2215,23 +2237,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>995</v>
+          <cell r="L3">
+            <v>286</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>18439</v>
+          <cell r="L5">
+            <v>4002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>10597</v>
+          <cell r="L6">
+            <v>6853</v>
           </cell>
         </row>
       </sheetData>
@@ -2239,10 +2261,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2550,13 +2568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:X79"/>
+  <dimension ref="B2:X78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2707,7 @@
         <v>61674</v>
       </c>
       <c r="G4" s="22">
-        <f t="shared" ref="G4:G11" si="0">+E4-F4</f>
+        <f t="shared" ref="G4:G10" si="0">+E4-F4</f>
         <v>1836894</v>
       </c>
       <c r="H4" s="22">
@@ -2901,11 +2919,11 @@
         <v>205</v>
       </c>
       <c r="D7" s="21">
-        <v>175.57</v>
+        <v>165</v>
       </c>
       <c r="E7" s="22">
         <f>+D7*[4]Main!$M$3</f>
-        <v>481412.94</v>
+        <v>452430</v>
       </c>
       <c r="F7" s="22">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
@@ -2913,7 +2931,7 @@
       </c>
       <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>437522.94</v>
+        <v>408540</v>
       </c>
       <c r="H7" s="22">
         <f>+[4]Main!$M$3</f>
@@ -2922,6 +2940,29 @@
       <c r="I7" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="J7" s="47">
+        <v>44798</v>
+      </c>
+      <c r="K7" s="28">
+        <f>+[4]Model!$AT$50</f>
+        <v>260.93479765840237</v>
+      </c>
+      <c r="L7" s="29">
+        <f>K7/D7-1</f>
+        <v>0.58142301611152947</v>
+      </c>
+      <c r="M7" s="29">
+        <f>+[4]Model!$AT$47</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N7" s="29">
+        <f>+[4]Model!$AT$48</f>
+        <v>-0.05</v>
+      </c>
+      <c r="O7" s="29">
+        <f>+[4]Model!$AT$49</f>
+        <v>0.01</v>
+      </c>
       <c r="X7" s="20">
         <v>2004</v>
       </c>
@@ -2982,79 +3023,79 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="21">
-        <v>115.9</v>
+        <v>393.84</v>
       </c>
       <c r="E10" s="22">
-        <f>D10*[7]Main!$L$3</f>
-        <v>310046.98749999999</v>
-      </c>
-      <c r="F10" s="22" cm="1">
-        <f t="array" ref="F10">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
-        <v>119719.43620178041</v>
+        <f>+D10*[7]Main!$N$3</f>
+        <v>186089.4</v>
+      </c>
+      <c r="F10" s="22">
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <v>1173</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="0"/>
-        <v>190327.55129821959</v>
+        <v>184916.4</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="21">
-        <v>393.84</v>
+        <v>189</v>
       </c>
       <c r="E11" s="22">
-        <f>+D11*[8]Main!$N$3</f>
-        <v>186089.4</v>
+        <f>+D11*[8]Main!$M$3</f>
+        <v>188055</v>
       </c>
       <c r="F11" s="22">
-        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
-        <v>1173</v>
+        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
+        <v>7842</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" si="0"/>
-        <v>184916.4</v>
+        <f t="shared" ref="G11:G26" si="2">E11-F11</f>
+        <v>180213</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" s="21">
-        <v>189</v>
+        <v>413.72</v>
       </c>
       <c r="E12" s="22">
-        <f>+D12*[9]Main!$M$3</f>
-        <v>188055</v>
+        <f>D12*[9]Main!$L$3</f>
+        <v>118323.92000000001</v>
       </c>
       <c r="F12" s="22">
-        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
-        <v>7842</v>
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>-2851</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" ref="G12:G27" si="2">E12-F12</f>
-        <v>180213</v>
+        <f t="shared" si="2"/>
+        <v>121174.92000000001</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23" t="s">
@@ -3063,25 +3104,25 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="21">
-        <v>413.72</v>
+        <v>99.86</v>
       </c>
       <c r="E13" s="22">
-        <f>D13*[10]Main!$L$3</f>
-        <v>118323.92000000001</v>
+        <f>+D13*[10]Main!$L$3</f>
+        <v>117834.8</v>
       </c>
       <c r="F13" s="22">
-        <f>[10]Main!$L$5-[10]Main!$L$6</f>
-        <v>-2851</v>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>870</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="2"/>
-        <v>121174.92000000001</v>
+        <v>116964.8</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23" t="s">
@@ -3090,25 +3131,25 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="21">
-        <v>99.86</v>
+        <v>440</v>
       </c>
       <c r="E14" s="22">
         <f>+D14*[11]Main!$L$3</f>
-        <v>117834.8</v>
+        <v>88000</v>
       </c>
       <c r="F14" s="22">
         <f>+[11]Main!$L$5-[11]Main!$L$6</f>
-        <v>870</v>
+        <v>3926</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="2"/>
-        <v>116964.8</v>
+        <v>84074</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23" t="s">
@@ -3117,405 +3158,392 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="D15" s="21">
-        <v>440</v>
+        <v>122.42</v>
       </c>
       <c r="E15" s="22">
-        <f>+D15*[12]Main!$L$3</f>
-        <v>88000</v>
+        <f>+D15*H15</f>
+        <v>51593.343664439999</v>
       </c>
       <c r="F15" s="22">
-        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
-        <v>3926</v>
+        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
+        <v>-8207</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="2"/>
-        <v>84074</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
+        <v>59800.343664439999</v>
+      </c>
+      <c r="H15" s="22">
+        <f>+[12]Main!$M$3</f>
+        <v>421.445382</v>
+      </c>
+      <c r="I15" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D16" s="21">
-        <v>122.42</v>
+        <v>375.71</v>
       </c>
       <c r="E16" s="22">
         <f>+D16*H16</f>
-        <v>51593.343664439999</v>
+        <v>57472.452251789997</v>
       </c>
       <c r="F16" s="22">
-        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
-        <v>-8207</v>
+        <f>+[13]Main!$N$5-[13]Main!$N$6</f>
+        <v>1696.7459999999999</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="2"/>
-        <v>59800.343664439999</v>
+        <v>55775.706251789998</v>
       </c>
       <c r="H16" s="22">
-        <f>+[13]Main!$M$3</f>
-        <v>421.445382</v>
-      </c>
-      <c r="I16" s="51" t="s">
+        <f>+[13]Main!$N$3</f>
+        <v>152.970249</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>14</v>
+      </c>
+      <c r="J16" s="47">
+        <v>44783</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D17" s="21">
-        <v>375.71</v>
+        <v>39.74</v>
       </c>
       <c r="E17" s="22">
-        <f>+D17*H17</f>
-        <v>57472.452251789997</v>
+        <f>+D17*[14]Main!$L$3*EUR</f>
+        <v>53089.738980000009</v>
       </c>
       <c r="F17" s="22">
-        <f>+[14]Main!$N$5-[14]Main!$N$6</f>
-        <v>1696.7459999999999</v>
+        <f>+([14]Main!$L$5-[14]Main!$L$6)*EUR</f>
+        <v>-490.25400000000008</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="2"/>
-        <v>55775.706251789998</v>
-      </c>
-      <c r="H17" s="22">
-        <f>+[14]Main!$N$3</f>
-        <v>152.970249</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="47">
-        <v>44783</v>
+        <v>53579.99298000001</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="21">
         <v>186</v>
       </c>
-      <c r="D18" s="21">
-        <v>39.74</v>
-      </c>
       <c r="E18" s="22">
-        <f>+D18*[15]Main!$L$3*EUR</f>
-        <v>53089.738980000009</v>
+        <f>+D18*H18</f>
+        <v>51584.495999999999</v>
       </c>
       <c r="F18" s="22">
-        <f>+([15]Main!$L$5-[15]Main!$L$6)*EUR</f>
-        <v>-490.25400000000008</v>
+        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
+        <v>741.35200000000009</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="2"/>
-        <v>53579.99298000001</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
-        <v>210</v>
-      </c>
+        <v>50843.144</v>
+      </c>
+      <c r="H18" s="22">
+        <f>+[15]Main!$K$3</f>
+        <v>277.33600000000001</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" s="21">
-        <v>186</v>
+        <v>200.8</v>
       </c>
       <c r="E19" s="22">
-        <f>+D19*H19</f>
-        <v>51584.495999999999</v>
+        <f>+D19*[16]Main!$L$3</f>
+        <v>50947.578400000006</v>
       </c>
       <c r="F19" s="22">
-        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
-        <v>741.35200000000009</v>
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <v>432.39900000000011</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" si="2"/>
-        <v>50843.144</v>
+        <v>50515.179400000008</v>
       </c>
       <c r="H19" s="22">
-        <f>+[16]Main!$K$3</f>
-        <v>277.33600000000001</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="J19" s="43"/>
+        <f>+[16]Main!$L$3</f>
+        <v>253.72300000000001</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" s="21">
-        <v>200.8</v>
+        <v>203.73</v>
       </c>
       <c r="E20" s="22">
-        <f>+D20*[17]Main!$L$3</f>
-        <v>50947.578400000006</v>
+        <f>+D20*H20</f>
+        <v>44264.86632465</v>
       </c>
       <c r="F20" s="22">
         <f>+[17]Main!$L$5-[17]Main!$L$6</f>
-        <v>432.39900000000011</v>
+        <v>-1005</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="2"/>
-        <v>50515.179400000008</v>
+        <v>45269.86632465</v>
       </c>
       <c r="H20" s="22">
         <f>+[17]Main!$L$3</f>
-        <v>253.72300000000001</v>
-      </c>
-      <c r="I20" s="36" t="s">
+        <v>217.27220500000001</v>
+      </c>
+      <c r="I20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="X20" s="20">
+        <v>1982</v>
+      </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21" s="21">
-        <v>203.73</v>
+        <v>168</v>
       </c>
       <c r="E21" s="22">
         <f>+D21*H21</f>
-        <v>44264.86632465</v>
+        <v>42336</v>
       </c>
       <c r="F21" s="22">
-        <f>+[18]Main!$L$5-[18]Main!$L$6</f>
-        <v>-1005</v>
+        <f>+[18]Main!$P$5-[18]Main!$P$6</f>
+        <v>2134</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="2"/>
-        <v>45269.86632465</v>
-      </c>
-      <c r="H21" s="22">
-        <f>+[18]Main!$L$3</f>
-        <v>217.27220500000001</v>
-      </c>
-      <c r="I21" s="41" t="s">
+        <v>40202</v>
+      </c>
+      <c r="H21" s="23">
+        <f>+[18]Main!$P$3</f>
+        <v>252</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="X21" s="20">
-        <v>1982</v>
+      <c r="J21" s="47">
+        <v>44793</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D22" s="21">
-        <v>168</v>
+        <v>36.71</v>
       </c>
       <c r="E22" s="22">
-        <f>+D22*H22</f>
-        <v>42336</v>
+        <f>+D22*[19]Main!$M$3</f>
+        <v>46254.6</v>
       </c>
       <c r="F22" s="22">
-        <f>+[19]Main!$P$5-[19]Main!$P$6</f>
-        <v>2134</v>
+        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
+        <v>6335.1410000000005</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="2"/>
-        <v>40202</v>
-      </c>
-      <c r="H22" s="23">
-        <f>+[19]Main!$P$3</f>
-        <v>252</v>
-      </c>
-      <c r="I22" s="51" t="s">
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="J22" s="47">
-        <v>44793</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D23" s="21">
-        <v>36.71</v>
+        <v>135.57</v>
       </c>
       <c r="E23" s="22">
         <f>+D23*[20]Main!$M$3</f>
-        <v>46254.6</v>
+        <v>42617.920769999997</v>
       </c>
       <c r="F23" s="22">
         <f>+[20]Main!$M$5-[20]Main!$M$6</f>
-        <v>6335.1410000000005</v>
+        <v>5027.4579999999996</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="2"/>
-        <v>39919.458999999995</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23" t="s">
+        <v>37590.462769999998</v>
+      </c>
+      <c r="H23" s="22">
+        <f>+[20]Main!$M$3</f>
+        <v>314.36099999999999</v>
+      </c>
+      <c r="I23" s="38" t="s">
         <v>14</v>
       </c>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="D24" s="21">
-        <v>135.57</v>
+        <v>2189.48</v>
       </c>
       <c r="E24" s="22">
-        <f>+D24*[21]Main!$M$3</f>
-        <v>42617.920769999997</v>
+        <f>D24*H24/CAD</f>
+        <v>35713.078128386704</v>
       </c>
       <c r="F24" s="22">
-        <f>+[21]Main!$M$5-[21]Main!$M$6</f>
-        <v>5027.4579999999996</v>
+        <f>[21]Main!$O$5-[21]Main!$O$6</f>
+        <v>-1206</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="2"/>
-        <v>37590.462769999998</v>
+        <v>36919.078128386704</v>
       </c>
       <c r="H24" s="22">
-        <f>+[21]Main!$M$3</f>
-        <v>314.36099999999999</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="38"/>
+        <f>+[21]Main!$O$3</f>
+        <v>21.19153</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" s="47">
+        <v>44792</v>
+      </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D25" s="21">
-        <v>2189.48</v>
+        <v>228.96</v>
       </c>
       <c r="E25" s="22">
-        <f>D25*H25/CAD</f>
-        <v>35713.078128386704</v>
+        <f>+D25*H25</f>
+        <v>35453.770264799998</v>
       </c>
       <c r="F25" s="22">
-        <f>[22]Main!$O$5-[22]Main!$O$6</f>
-        <v>-1206</v>
+        <f>+[22]Main!$M$5-[22]Main!$M$6</f>
+        <v>2838.5529999999999</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="2"/>
-        <v>36919.078128386704</v>
+        <f>E25-F25</f>
+        <v>32615.217264799998</v>
       </c>
       <c r="H25" s="22">
-        <f>+[22]Main!$O$3</f>
-        <v>21.19153</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>210</v>
+        <f>+[22]Main!$M$3</f>
+        <v>154.847005</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>14</v>
       </c>
       <c r="J25" s="47">
-        <v>44792</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="D26" s="21">
-        <v>228.96</v>
+        <v>152.88</v>
       </c>
       <c r="E26" s="22">
-        <f>+D26*H26</f>
-        <v>35453.770264799998</v>
+        <f>+D26*[23]Main!$L$3</f>
+        <v>52877.369999999995</v>
       </c>
       <c r="F26" s="22">
-        <f>+[23]Main!$M$5-[23]Main!$M$6</f>
-        <v>2838.5529999999999</v>
+        <f>([23]Main!$L$5-[23]Main!$L$6)/RMB</f>
+        <v>25459.792284866468</v>
       </c>
       <c r="G26" s="22">
-        <f>E26-F26</f>
-        <v>32615.217264799998</v>
-      </c>
-      <c r="H26" s="22">
-        <f>+[23]Main!$M$3</f>
-        <v>154.847005</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="47">
-        <v>44794</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="21">
-        <v>152.88</v>
-      </c>
-      <c r="E27" s="22">
-        <f>+D27*[24]Main!$L$3</f>
-        <v>52877.369999999995</v>
-      </c>
-      <c r="F27" s="22">
-        <f>([24]Main!$L$5-[24]Main!$L$6)/RMB</f>
-        <v>25459.792284866468</v>
-      </c>
-      <c r="G27" s="22">
         <f t="shared" si="2"/>
         <v>27417.577715133528</v>
       </c>
-      <c r="H27" s="22">
-        <f>+[24]Main!$L$3</f>
+      <c r="H26" s="22">
+        <f>+[23]Main!$L$3</f>
         <v>345.875</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X26" s="20">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E27" s="22">
+        <v>34050</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
@@ -3547,128 +3575,116 @@
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>57</v>
+      <c r="B30" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>230</v>
       </c>
       <c r="D30" s="21">
-        <v>54.71</v>
-      </c>
-      <c r="E30" s="22">
-        <v>28410</v>
+        <v>121.2</v>
+      </c>
+      <c r="E30" s="22" cm="1">
+        <f t="array" ref="E30">327904/SEK</f>
+        <v>31700.842058451039</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="D31" s="21">
-        <v>375.92</v>
+        <v>54.71</v>
       </c>
       <c r="E31" s="22">
-        <v>25610</v>
+        <v>28410</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="21">
+        <v>375.92</v>
+      </c>
+      <c r="E32" s="22">
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="21">
         <v>181.71</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>25220</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="21">
-        <v>236.61</v>
-      </c>
-      <c r="E33" s="22">
-        <f>+D33*H33</f>
-        <v>20601.316825649999</v>
-      </c>
-      <c r="F33" s="22">
-        <f>+[28]Main!$M$5-[28]Main!$M$6</f>
-        <v>-235.76700000000005</v>
-      </c>
-      <c r="G33" s="22">
-        <f>E33-F33</f>
-        <v>20837.083825649999</v>
-      </c>
-      <c r="H33" s="22">
-        <f>+[28]Main!$M$3</f>
-        <v>87.068664999999996</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="47">
-        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="21">
+        <v>236.61</v>
+      </c>
+      <c r="E34" s="22">
+        <f>+D34*H34</f>
+        <v>20601.316825649999</v>
+      </c>
+      <c r="F34" s="22">
+        <f>+[24]Main!$M$5-[24]Main!$M$6</f>
+        <v>-235.76700000000005</v>
+      </c>
+      <c r="G34" s="22">
+        <f>E34-F34</f>
+        <v>20837.083825649999</v>
+      </c>
+      <c r="H34" s="22">
+        <f>+[24]Main!$M$3</f>
+        <v>87.068664999999996</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="47">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <v>102.23</v>
       </c>
-      <c r="E34" s="22">
-        <f>+D34*[25]Main!$K$3</f>
+      <c r="E35" s="22">
+        <f>+D35*[25]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <f>+[25]Main!$K$5-[25]Main!$K$6</f>
         <v>3155</v>
       </c>
-      <c r="G34" s="22">
-        <f>E34-F34</f>
-        <v>16992.20788088</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="21">
-        <v>9.35</v>
-      </c>
-      <c r="E35" s="22">
-        <f>D35*[26]Main!$L$3</f>
-        <v>19036.599999999999</v>
-      </c>
-      <c r="F35" s="22">
-        <f>[26]Main!$L$5-[26]Main!$L$6</f>
-        <v>2585</v>
-      </c>
       <c r="G35" s="22">
         <f>E35-F35</f>
-        <v>16451.599999999999</v>
+        <v>16992.20788088</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23" t="s">
@@ -3676,648 +3692,645 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
-        <v>65</v>
+      <c r="B36" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="D36" s="21">
-        <v>312</v>
+        <v>9.35</v>
       </c>
       <c r="E36" s="22">
-        <v>19090</v>
+        <f>D36*[26]Main!$L$3</f>
+        <v>19036.599999999999</v>
+      </c>
+      <c r="F36" s="22">
+        <f>[26]Main!$L$5-[26]Main!$L$6</f>
+        <v>2585</v>
+      </c>
+      <c r="G36" s="22">
+        <f>E36-F36</f>
+        <v>16451.599999999999</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="21">
-        <v>90.1</v>
+        <v>312</v>
       </c>
       <c r="E37" s="22">
-        <v>18840</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" s="21">
-        <v>360.34</v>
+        <v>90.1</v>
       </c>
       <c r="E38" s="22">
-        <v>18140</v>
+        <v>18840</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D39" s="21">
-        <v>43.75</v>
+        <v>360.34</v>
       </c>
       <c r="E39" s="22">
-        <v>17180</v>
+        <v>18140</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="D40" s="21">
-        <v>40.44</v>
+        <v>114.84</v>
       </c>
       <c r="E40" s="22">
-        <v>16810</v>
+        <v>17930</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D41" s="21">
-        <v>63.5</v>
+        <v>43.75</v>
       </c>
       <c r="E41" s="22">
-        <v>16440</v>
+        <v>17180</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D42" s="21">
-        <v>363.45</v>
+        <v>40.44</v>
       </c>
       <c r="E42" s="22">
-        <v>15250</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>230</v>
+      <c r="B43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="D43" s="21">
-        <v>121.2</v>
-      </c>
-      <c r="E43" s="22" cm="1">
-        <f t="array" ref="E43">327904/SEK</f>
-        <v>31700.842058451039</v>
+        <v>63.5</v>
+      </c>
+      <c r="E43" s="22">
+        <v>16440</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D44" s="21">
-        <v>114.84</v>
+        <v>363.45</v>
       </c>
       <c r="E44" s="22">
-        <v>17930</v>
+        <v>15250</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="20" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D45" s="21">
-        <v>44.5</v>
+        <v>87.46</v>
       </c>
       <c r="E45" s="22">
-        <v>34050</v>
+        <v>16020</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D46" s="21">
-        <v>87.46</v>
+        <v>97.08</v>
       </c>
       <c r="E46" s="22">
-        <v>16020</v>
+        <v>15070</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D47" s="21">
-        <v>97.08</v>
+        <v>107.11</v>
       </c>
       <c r="E47" s="22">
-        <v>15070</v>
+        <v>16630</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="20" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D48" s="21">
-        <v>107.11</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E48" s="22">
-        <v>16630</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D49" s="21">
-        <v>135.02000000000001</v>
+        <v>206.61</v>
       </c>
       <c r="E49" s="22">
-        <v>14050</v>
+        <v>13880</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" s="21">
-        <v>206.61</v>
+        <v>115.52</v>
       </c>
       <c r="E50" s="22">
-        <v>13880</v>
+        <v>13640</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" s="21">
-        <v>115.52</v>
+        <v>206.68</v>
       </c>
       <c r="E51" s="22">
-        <v>13640</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" s="21">
-        <v>206.68</v>
+        <v>43.77</v>
       </c>
       <c r="E52" s="22">
-        <v>12990</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D53" s="21">
-        <v>43.77</v>
+        <v>98.74</v>
       </c>
       <c r="E53" s="22">
-        <v>12660</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D54" s="21">
-        <v>98.74</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E54" s="22">
-        <v>12490</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D55" s="21">
-        <v>40.369999999999997</v>
+        <v>408.48</v>
       </c>
       <c r="E55" s="22">
-        <v>11000</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D56" s="21">
-        <v>408.48</v>
+        <v>80.52</v>
       </c>
       <c r="E56" s="22">
-        <v>10570</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D57" s="21">
-        <v>80.52</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E57" s="22">
-        <v>10310</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D58" s="21">
-        <v>35.200000000000003</v>
+        <v>8.17</v>
       </c>
       <c r="E58" s="22">
-        <v>10210</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D59" s="21">
-        <v>8.17</v>
+        <v>14.73</v>
       </c>
       <c r="E59" s="22">
-        <v>9320</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D60" s="21">
-        <v>14.73</v>
+        <v>56.9</v>
       </c>
       <c r="E60" s="22">
-        <v>9140</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D61" s="21">
-        <v>56.9</v>
+        <v>203.42</v>
       </c>
       <c r="E61" s="22">
-        <v>9000</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D62" s="21">
-        <v>203.42</v>
+        <v>126.81</v>
       </c>
       <c r="E62" s="22">
-        <v>8580</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D63" s="21">
-        <v>126.81</v>
+        <v>50.35</v>
       </c>
       <c r="E63" s="22">
-        <v>8200</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D64" s="21">
-        <v>50.35</v>
+        <v>88.7</v>
       </c>
       <c r="E64" s="22">
-        <v>8150</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D65" s="21">
-        <v>88.7</v>
+        <v>78.3</v>
       </c>
       <c r="E65" s="22">
-        <v>7910</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D66" s="21">
-        <v>78.3</v>
+        <v>50.36</v>
       </c>
       <c r="E66" s="22">
-        <v>7580</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D67" s="21">
-        <v>50.36</v>
+        <v>80.58</v>
       </c>
       <c r="E67" s="22">
-        <v>7140</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D68" s="21">
-        <v>80.58</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E68" s="22">
-        <v>6930</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" s="21">
-        <v>32.869999999999997</v>
+        <v>17.63</v>
       </c>
       <c r="E69" s="22">
-        <v>6880</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D70" s="21">
-        <v>17.63</v>
+        <v>54.6</v>
       </c>
       <c r="E70" s="22">
-        <v>6480</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D71" s="21">
-        <v>54.6</v>
+        <v>62.59</v>
       </c>
       <c r="E71" s="22">
-        <v>6370</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D72" s="21">
-        <v>62.59</v>
+        <v>62.71</v>
       </c>
       <c r="E72" s="22">
-        <v>6350</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D73" s="21">
-        <v>62.71</v>
+        <v>21.19</v>
       </c>
       <c r="E73" s="22">
-        <v>3603</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D74" s="21">
-        <v>21.19</v>
+        <v>26.99</v>
       </c>
       <c r="E74" s="22">
-        <v>2965</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="21">
-        <v>26.99</v>
+      <c r="B75" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="45">
+        <v>31.44</v>
       </c>
       <c r="E75" s="22">
-        <v>1400</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" s="45">
-        <v>31.44</v>
+      <c r="B76" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="21">
+        <v>13.95</v>
       </c>
       <c r="E76" s="22">
-        <v>2220</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="21">
-        <v>13.95</v>
+        <v>19.95</v>
       </c>
       <c r="E77" s="22">
-        <v>2030</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="21">
-        <v>19.95</v>
-      </c>
-      <c r="E78" s="22">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="50" t="s">
+      <c r="B78" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C78" s="50" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
     <hyperlink ref="B9" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
     <hyperlink ref="B5" r:id="rId8" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
     <hyperlink ref="B6" r:id="rId9" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-    <hyperlink ref="B35" r:id="rId13" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B27" r:id="rId17" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
-    <hyperlink ref="B19" r:id="rId21" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
-    <hyperlink ref="B17" r:id="rId22" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
-    <hyperlink ref="B16" r:id="rId23" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
-    <hyperlink ref="B22" r:id="rId25" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
-    <hyperlink ref="B26" r:id="rId26" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
-    <hyperlink ref="B33" r:id="rId27" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B26" r:id="rId16" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B18" r:id="rId20" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B16" r:id="rId21" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
+    <hyperlink ref="B15" r:id="rId22" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
+    <hyperlink ref="B21" r:id="rId24" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -4763,11 +4776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4854,7 +4867,7 @@
     </row>
     <row r="7" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>167</v>
@@ -4944,8 +4957,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="62" t="s">
-        <v>253</v>
+      <c r="B14" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="D14" s="68">
         <v>0</v>
@@ -5060,13 +5073,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5093,6 +5106,12 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -5115,7 +5134,7 @@
         <f>+E3-F3</f>
         <v>1229343</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5149,82 +5168,96 @@
         <v>101795</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="21">
         <v>115.9</v>
       </c>
-      <c r="E7" s="3">
-        <f>D7*[7]Main!$L$3</f>
+      <c r="E7" s="22">
+        <f>D7*[28]Main!$L$3</f>
         <v>310046.98749999999</v>
       </c>
-      <c r="F7" s="3" cm="1">
-        <f t="array" ref="F7">([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
+      <c r="F7" s="22" cm="1">
+        <f t="array" ref="F7">([28]Main!$L$5-[28]Main!$L$6)/RMB</f>
         <v>119719.43620178041</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="22">
         <f>+E7-F7</f>
         <v>190327.55129821959</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="27"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>207</v>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>115.9</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8*[28]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F8" s="3" cm="1">
+        <f t="array" ref="F8">([28]Main!$L$5-[28]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G8" s="3">
+        <f>+E8-F8</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22">
-        <v>22000</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="27"/>
     </row>
     <row r="11" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -5245,11 +5278,81 @@
       <c r="V11" s="26"/>
       <c r="W11" s="27"/>
     </row>
+    <row r="12" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22">
+        <v>30000</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="27"/>
+    </row>
+    <row r="13" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="21">
+        <v>36.71</v>
+      </c>
+      <c r="E13" s="22">
+        <f>+D13*[19]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F13" s="22">
+        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="0">E13-F13</f>
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF32138F-B006-4337-A2E6-CF372390098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1670AF10-F4FF-4D69-8507-0784130D22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="3510" windowWidth="28455" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Media-Games-Design" sheetId="8" r:id="rId2"/>
-    <sheet name="Fintech" sheetId="7" r:id="rId3"/>
-    <sheet name="Gig" sheetId="6" r:id="rId4"/>
-    <sheet name="Ecommerce" sheetId="5" r:id="rId5"/>
-    <sheet name="Security" sheetId="4" r:id="rId6"/>
-    <sheet name="FX" sheetId="3" r:id="rId7"/>
-    <sheet name="Private" sheetId="2" r:id="rId8"/>
+    <sheet name="Social" sheetId="9" r:id="rId2"/>
+    <sheet name="Media-Games-Design" sheetId="8" r:id="rId3"/>
+    <sheet name="Fintech" sheetId="7" r:id="rId4"/>
+    <sheet name="Gig" sheetId="6" r:id="rId5"/>
+    <sheet name="Ecommerce" sheetId="5" r:id="rId6"/>
+    <sheet name="Security" sheetId="4" r:id="rId7"/>
+    <sheet name="FX" sheetId="3" r:id="rId8"/>
+    <sheet name="Private" sheetId="2" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -46,6 +46,7 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="260">
   <si>
     <t>Name</t>
   </si>
@@ -877,6 +878,21 @@
   </si>
   <si>
     <t>Stake</t>
+  </si>
+  <si>
+    <t>peach.cool</t>
+  </si>
+  <si>
+    <t>BeReal</t>
+  </si>
+  <si>
+    <t>Onlyfans</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Games24x7</t>
   </si>
 </sst>
 </file>
@@ -886,13 +902,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1024,6 +1046,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1108,165 +1137,167 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2570,11 +2601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
   <dimension ref="B2:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3485,7 +3516,7 @@
         <v>2838.5529999999999</v>
       </c>
       <c r="G25" s="22">
-        <f>E25-F25</f>
+        <f t="shared" si="2"/>
         <v>32615.217264799998</v>
       </c>
       <c r="H25" s="22">
@@ -4308,33 +4339,240 @@
     <hyperlink ref="B11" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
     <hyperlink ref="B9" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
     <hyperlink ref="B13" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{44B0624D-C533-4289-A102-E1BCAF398274}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B36" r:id="rId12" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B26" r:id="rId16" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
-    <hyperlink ref="B16" r:id="rId21" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
-    <hyperlink ref="B15" r:id="rId22" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
-    <hyperlink ref="B21" r:id="rId24" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
-    <hyperlink ref="B25" r:id="rId25" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
-    <hyperlink ref="B34" r:id="rId26" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B36" r:id="rId11" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B26" r:id="rId15" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B16" r:id="rId20" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
+    <hyperlink ref="B15" r:id="rId21" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
+    <hyperlink ref="B21" r:id="rId23" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
+    <hyperlink ref="B34" r:id="rId25" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
+  <dimension ref="A1:X9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="21">
+        <v>165</v>
+      </c>
+      <c r="E2" s="22">
+        <f>+D2*[4]Main!$M$3</f>
+        <v>452430</v>
+      </c>
+      <c r="F2" s="22">
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
+        <v>43890</v>
+      </c>
+      <c r="G2" s="22">
+        <f t="shared" ref="G2:G3" si="0">+E2-F2</f>
+        <v>408540</v>
+      </c>
+      <c r="H2" s="22">
+        <f>+[4]Main!$M$3</f>
+        <v>2742</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="47">
+        <v>44798</v>
+      </c>
+      <c r="K2" s="28">
+        <f>+[4]Model!$AT$50</f>
+        <v>260.93479765840237</v>
+      </c>
+      <c r="L2" s="29">
+        <f>K2/D2-1</f>
+        <v>0.58142301611152947</v>
+      </c>
+      <c r="M2" s="29">
+        <f>+[4]Model!$AT$47</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N2" s="29">
+        <f>+[4]Model!$AT$48</f>
+        <v>-0.05</v>
+      </c>
+      <c r="O2" s="29">
+        <f>+[4]Model!$AT$49</f>
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="20">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21">
+        <v>391.4</v>
+      </c>
+      <c r="E3" s="22">
+        <f>+D3*[5]Main!$L$3*1000/HKD</f>
+        <v>475575.58154347877</v>
+      </c>
+      <c r="F3" s="22">
+        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
+        <v>97072.536879920503</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" si="0"/>
+        <v>378503.04466355825</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E4" s="22">
+        <v>34050</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{06D5809E-72A9-41D7-974F-FA58D1ED15C4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{29919CCF-0924-4FDD-BCCD-7B5AA19C4B1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
   <dimension ref="A1:X15"/>
   <sheetViews>
@@ -4342,7 +4580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4734,6 +4972,9 @@
       <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="70" t="s">
+        <v>259</v>
+      </c>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -4772,7 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -4973,7 +5214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40294899-E1C4-403E-8D7D-CC58F434A3F6}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -5071,7 +5312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
   <dimension ref="A1:W13"/>
   <sheetViews>
@@ -5358,7 +5599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -5450,7 +5691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5524,7 +5765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
   <dimension ref="A1:G10"/>
   <sheetViews>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1670AF10-F4FF-4D69-8507-0784130D22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9ED4E1-6276-46A4-879F-16A5E8813C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="3510" windowWidth="28455" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Social" sheetId="9" r:id="rId2"/>
-    <sheet name="Media-Games-Design" sheetId="8" r:id="rId3"/>
-    <sheet name="Fintech" sheetId="7" r:id="rId4"/>
-    <sheet name="Gig" sheetId="6" r:id="rId5"/>
-    <sheet name="Ecommerce" sheetId="5" r:id="rId6"/>
-    <sheet name="Security" sheetId="4" r:id="rId7"/>
-    <sheet name="FX" sheetId="3" r:id="rId8"/>
-    <sheet name="Private" sheetId="2" r:id="rId9"/>
+    <sheet name="Enterprise-Cloud" sheetId="10" r:id="rId2"/>
+    <sheet name="Social" sheetId="9" r:id="rId3"/>
+    <sheet name="Media-Games-Design" sheetId="8" r:id="rId4"/>
+    <sheet name="Fintech" sheetId="7" r:id="rId5"/>
+    <sheet name="Gig" sheetId="6" r:id="rId6"/>
+    <sheet name="Ecommerce" sheetId="5" r:id="rId7"/>
+    <sheet name="Security" sheetId="4" r:id="rId8"/>
+    <sheet name="FX" sheetId="3" r:id="rId9"/>
+    <sheet name="Private" sheetId="2" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -47,6 +47,8 @@
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -78,7 +80,7 @@
     <author>tc={9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}</author>
   </authors>
   <commentList>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="285">
   <si>
     <t>Name</t>
   </si>
@@ -893,6 +895,81 @@
   </si>
   <si>
     <t>Games24x7</t>
+  </si>
+  <si>
+    <t>CD Projekt</t>
+  </si>
+  <si>
+    <t>Ubisoft</t>
+  </si>
+  <si>
+    <t>UBI FP</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Meituan</t>
+  </si>
+  <si>
+    <t>3690 HK</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>S&amp;P Global</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>6758 JP</t>
+  </si>
+  <si>
+    <t>Automatic Data Processing</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>Fiserv</t>
+  </si>
+  <si>
+    <t>FISV</t>
+  </si>
+  <si>
+    <t>Netease</t>
+  </si>
+  <si>
+    <t>NTES</t>
+  </si>
+  <si>
+    <t>Intercontinental</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>Paychex</t>
+  </si>
+  <si>
+    <t>PAYX</t>
+  </si>
+  <si>
+    <t>Adyen</t>
+  </si>
+  <si>
+    <t>ADYEN NA</t>
   </si>
 </sst>
 </file>
@@ -902,13 +979,85 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1137,167 +1286,217 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1969,18 +2168,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="N3">
+            <v>281</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="N5">
+            <v>2416</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="N6">
+            <v>1878</v>
           </cell>
         </row>
       </sheetData>
@@ -1991,6 +2190,37 @@
 </file>
 
 <file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>588.52099999999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3132.9639999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>988.03399999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2591,7 +2821,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E13" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+  <threadedComment ref="E24" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
     <text>Series A with ARod, Thrive, Tiger, Marc Lore</text>
   </threadedComment>
 </ThreadedComments>
@@ -2599,13 +2829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="B2:X78"/>
+  <dimension ref="A2:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2626,7 +2856,7 @@
     <col min="24" max="16384" width="8.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L2" s="29">
         <f>AVERAGE(L4:L6)</f>
         <v>0.52233594707061515</v>
@@ -2648,7 +2878,7 @@
         <v>13.776215113939967</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2949,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>263</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2772,7 +3005,10 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
+        <v>263</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +3093,10 @@
         <v>8.800051286902848</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
+        <v>263</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2942,7 +3181,10 @@
         <v>7.2024349209232001</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
+        <v>263</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3240,10 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="78" t="s">
+        <v>263</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3270,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
+        <v>263</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3052,7 +3300,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
+        <v>263</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -3079,7 +3330,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="88" t="s">
+        <v>263</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -3106,7 +3360,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="88" t="s">
+        <v>263</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
@@ -3133,7 +3390,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="88" t="s">
+        <v>263</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -3160,7 +3420,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="88" t="s">
+        <v>263</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
@@ -3187,7 +3450,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>187</v>
       </c>
@@ -3217,7 +3483,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>189</v>
       </c>
@@ -3250,7 +3519,10 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>185</v>
       </c>
@@ -3277,7 +3549,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
@@ -3308,7 +3583,10 @@
       </c>
       <c r="J18" s="43"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
@@ -3339,7 +3617,10 @@
       </c>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="98" t="s">
+        <v>263</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -3373,7 +3654,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
@@ -3406,7 +3687,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
@@ -3433,7 +3714,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3464,7 +3748,7 @@
       </c>
       <c r="J23" s="38"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>182</v>
       </c>
@@ -3497,7 +3781,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>180</v>
       </c>
@@ -3530,7 +3814,10 @@
         <v>44794</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="96" t="s">
+        <v>263</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
@@ -3563,7 +3850,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>171</v>
       </c>
@@ -3577,7 +3864,7 @@
         <v>34050</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>52</v>
       </c>
@@ -3591,7 +3878,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>79</v>
       </c>
@@ -3605,7 +3892,7 @@
         <v>33330</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B30" s="42" t="s">
         <v>229</v>
       </c>
@@ -3620,7 +3907,7 @@
         <v>31700.842058451039</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>56</v>
       </c>
@@ -3634,7 +3921,7 @@
         <v>28410</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>193</v>
       </c>
@@ -4337,1435 +4624,34 @@
     <hyperlink ref="B10" r:id="rId2" xr:uid="{28EBE119-EF9F-470C-849F-27EA6116229F}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{56FB4D51-12B3-48A8-96E9-6D3FB77E2D06}"/>
     <hyperlink ref="B11" r:id="rId4" xr:uid="{2F922258-68B1-42ED-ABCA-72C5091FFD3C}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B36" r:id="rId11" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
-    <hyperlink ref="B26" r:id="rId15" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
-    <hyperlink ref="B18" r:id="rId19" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
-    <hyperlink ref="B16" r:id="rId20" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
-    <hyperlink ref="B15" r:id="rId21" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
-    <hyperlink ref="B21" r:id="rId23" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
-    <hyperlink ref="B34" r:id="rId25" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{F9C613E1-1B52-417A-BBCE-88AAEB91F9C1}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{8967E115-2924-419A-9BD1-6441F95A80FF}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B22" r:id="rId13" xr:uid="{CB288269-AD44-4B2E-90F5-6FB8081BF962}"/>
+    <hyperlink ref="B26" r:id="rId14" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{2AE55E96-1BEF-428E-AB42-3AD9978D13D8}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{DC9040DF-9172-464B-9C24-1B175E7FEE7E}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B16" r:id="rId19" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
+    <hyperlink ref="B15" r:id="rId20" xr:uid="{93329B43-C086-451A-8C5D-926BC03B37E3}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
+    <hyperlink ref="B21" r:id="rId22" xr:uid="{6A9A0D99-E31D-4912-BA28-CE74F64477AA}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{E41196C7-8286-472A-BD67-D77EFA7CA515}"/>
+    <hyperlink ref="B34" r:id="rId24" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{9B454B94-4A58-4134-8CD8-78C1657B3ED6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
-  <dimension ref="A1:X9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="70"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="21">
-        <v>165</v>
-      </c>
-      <c r="E2" s="22">
-        <f>+D2*[4]Main!$M$3</f>
-        <v>452430</v>
-      </c>
-      <c r="F2" s="22">
-        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
-        <v>43890</v>
-      </c>
-      <c r="G2" s="22">
-        <f t="shared" ref="G2:G3" si="0">+E2-F2</f>
-        <v>408540</v>
-      </c>
-      <c r="H2" s="22">
-        <f>+[4]Main!$M$3</f>
-        <v>2742</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="47">
-        <v>44798</v>
-      </c>
-      <c r="K2" s="28">
-        <f>+[4]Model!$AT$50</f>
-        <v>260.93479765840237</v>
-      </c>
-      <c r="L2" s="29">
-        <f>K2/D2-1</f>
-        <v>0.58142301611152947</v>
-      </c>
-      <c r="M2" s="29">
-        <f>+[4]Model!$AT$47</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N2" s="29">
-        <f>+[4]Model!$AT$48</f>
-        <v>-0.05</v>
-      </c>
-      <c r="O2" s="29">
-        <f>+[4]Model!$AT$49</f>
-        <v>0.01</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="20">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="21">
-        <v>391.4</v>
-      </c>
-      <c r="E3" s="22">
-        <f>+D3*[5]Main!$L$3*1000/HKD</f>
-        <v>475575.58154347877</v>
-      </c>
-      <c r="F3" s="22">
-        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
-        <v>97072.536879920503</v>
-      </c>
-      <c r="G3" s="22">
-        <f t="shared" si="0"/>
-        <v>378503.04466355825</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="21">
-        <v>44.5</v>
-      </c>
-      <c r="E4" s="22">
-        <v>34050</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
-    </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{06D5809E-72A9-41D7-974F-FA58D1ED15C4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{29919CCF-0924-4FDD-BCCD-7B5AA19C4B1D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
-  <dimension ref="A1:X15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="S2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="T2" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" s="18">
-        <v>2023</v>
-      </c>
-      <c r="V2" s="18">
-        <v>2024</v>
-      </c>
-      <c r="W2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="X2" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21">
-        <v>252</v>
-      </c>
-      <c r="E3" s="22">
-        <f>D3*[1]Main!$L$3</f>
-        <v>1898568</v>
-      </c>
-      <c r="F3" s="22">
-        <f>[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>61674</v>
-      </c>
-      <c r="G3" s="22">
-        <f>+E3-F3</f>
-        <v>1836894</v>
-      </c>
-      <c r="H3" s="22">
-        <f>+[1]Main!$L$3</f>
-        <v>7534</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="21">
-        <v>391.4</v>
-      </c>
-      <c r="E4" s="22">
-        <f>+D4*[5]Main!$L$3*1000/HKD</f>
-        <v>475575.58154347877</v>
-      </c>
-      <c r="F4" s="22">
-        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
-        <v>97072.536879920503</v>
-      </c>
-      <c r="G4" s="22">
-        <f>+E4-F4</f>
-        <v>378503.04466355825</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="10">
-        <v>80.27</v>
-      </c>
-      <c r="E5" s="56">
-        <v>62800</v>
-      </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="56">
-        <v>59910</v>
-      </c>
-      <c r="E6" s="56" cm="1">
-        <f t="array" ref="E6">6975000/JPY</f>
-        <v>50938.435697071494</v>
-      </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="10">
-        <v>130.47999999999999</v>
-      </c>
-      <c r="E7" s="56">
-        <v>36280</v>
-      </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3">
-        <v>31500</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-    </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22">
-        <v>27000</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="10">
-        <v>127.74</v>
-      </c>
-      <c r="E10" s="56">
-        <v>21290</v>
-      </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="E11" s="3">
-        <f>+D11*[27]Main!$K$3</f>
-        <v>16302.031699999998</v>
-      </c>
-      <c r="F11" s="3">
-        <f>+[27]Main!$K$5-[27]Main!$K$6</f>
-        <v>2144.9299999999998</v>
-      </c>
-      <c r="G11" s="3">
-        <f>+E11-F11</f>
-        <v>14157.101699999997</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45.8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>14330</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-    </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22">
-        <v>10000</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="66">
-        <v>206.8</v>
-      </c>
-      <c r="E3" s="56">
-        <v>427830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="66">
-        <v>340.89</v>
-      </c>
-      <c r="E4" s="56">
-        <v>329430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="67">
-        <v>87.2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="68">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="66">
-        <v>70.94</v>
-      </c>
-      <c r="E7" s="56">
-        <v>41870</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="68">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="67">
-        <v>68.930000000000007</v>
-      </c>
-      <c r="E9" s="3">
-        <v>18053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="68">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="66">
-        <v>58.75</v>
-      </c>
-      <c r="E11" s="56">
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="67">
-        <v>184.44</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="68">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="68">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40294899-E1C4-403E-8D7D-CC58F434A3F6}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E5" s="3">
-        <v>12580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2">
-        <v>71.66</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3">
-        <v>8333</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D9BC8D23-E3B6-418F-A0C0-7DB8B8F77238}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
-  <dimension ref="A1:W13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>121.12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1232000</v>
-      </c>
-      <c r="F3" s="3">
-        <f>[3]Main!$K$5-[3]Main!$K$6</f>
-        <v>2657</v>
-      </c>
-      <c r="G3" s="3">
-        <f>+E3-F3</f>
-        <v>1229343</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2">
-        <v>65.180000000000007</v>
-      </c>
-      <c r="E6" s="3">
-        <v>101795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21">
-        <v>115.9</v>
-      </c>
-      <c r="E7" s="22">
-        <f>D7*[28]Main!$L$3</f>
-        <v>310046.98749999999</v>
-      </c>
-      <c r="F7" s="22" cm="1">
-        <f t="array" ref="F7">([28]Main!$L$5-[28]Main!$L$6)/RMB</f>
-        <v>119719.43620178041</v>
-      </c>
-      <c r="G7" s="22">
-        <f>+E7-F7</f>
-        <v>190327.55129821959</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>115.9</v>
-      </c>
-      <c r="E8" s="3">
-        <f>D8*[28]Main!$L$3</f>
-        <v>310046.98749999999</v>
-      </c>
-      <c r="F8" s="3" cm="1">
-        <f t="array" ref="F8">([28]Main!$L$5-[28]Main!$L$6)/RMB</f>
-        <v>119719.43620178041</v>
-      </c>
-      <c r="G8" s="3">
-        <f>+E8-F8</f>
-        <v>190327.55129821959</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22">
-        <v>22000</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
-    </row>
-    <row r="12" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22">
-        <v>30000</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="27"/>
-    </row>
-    <row r="13" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="21">
-        <v>36.71</v>
-      </c>
-      <c r="E13" s="22">
-        <f>+D13*[19]Main!$M$3</f>
-        <v>46254.6</v>
-      </c>
-      <c r="F13" s="22">
-        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
-        <v>6335.1410000000005</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" ref="G13" si="0">E13-F13</f>
-        <v>39919.458999999995</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2">
-        <v>128.05000000000001</v>
-      </c>
-      <c r="E6" s="3">
-        <v>16470</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="49">
-        <v>7.8498000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="49">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="49">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="49">
-        <v>10.3437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="49">
-        <v>136.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="49">
-        <v>1.2991999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CA8672F6-BB57-4BF8-83E1-A8CF0133433F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -5904,4 +4790,2474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
+  <dimension ref="A1:X9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="85">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="84">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="84">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="85">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21">
+        <v>121.12</v>
+      </c>
+      <c r="E3" s="22">
+        <f>+D3*[3]Main!$K$3</f>
+        <v>1233916.6395561602</v>
+      </c>
+      <c r="F3" s="22">
+        <f>[3]Main!$K$5-[3]Main!$K$6</f>
+        <v>2657</v>
+      </c>
+      <c r="G3" s="22">
+        <f>+E3-F3</f>
+        <v>1231259.6395561602</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[3]Main!$K$3</f>
+        <v>10187.554818000001</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="47">
+        <v>44796</v>
+      </c>
+      <c r="K3" s="28">
+        <f>+[3]Model!$BG$47</f>
+        <v>231.32319706625486</v>
+      </c>
+      <c r="L3" s="29">
+        <f>K3/D3-1</f>
+        <v>0.90986787538189273</v>
+      </c>
+      <c r="M3" s="39">
+        <f>+[3]Model!$BG$43</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N3" s="29">
+        <f>+[3]Model!$BG$45</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="29">
+        <f>+[3]Model!$BG$44</f>
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="30">
+        <f>+($G3/$H3)/T3</f>
+        <v>72.007341486751912</v>
+      </c>
+      <c r="Q3" s="31">
+        <f>+($G3/$H3)/U3</f>
+        <v>24.676707466844412</v>
+      </c>
+      <c r="R3" s="31">
+        <f>+($G3/$H3)/V3</f>
+        <v>22.830168096694702</v>
+      </c>
+      <c r="S3" s="32">
+        <f>+($G3/$H3)/W3</f>
+        <v>16.78032400353068</v>
+      </c>
+      <c r="T3" s="33">
+        <f>+[3]Model!$AV$34</f>
+        <v>1.6784287420147448</v>
+      </c>
+      <c r="U3" s="34">
+        <f>+[3]Model!$AW$34</f>
+        <v>4.897703299754288</v>
+      </c>
+      <c r="V3" s="34">
+        <f>+[3]Model!$AX$34</f>
+        <v>5.2938371314459518</v>
+      </c>
+      <c r="W3" s="35">
+        <f>+[3]Model!$AY$34</f>
+        <v>7.2024349209232001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="21">
+        <v>71.02</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[6]Main!$G$3</f>
+        <v>194736.84</v>
+      </c>
+      <c r="F4" s="22">
+        <f>+[6]Main!$G$5-[6]Main!$G$6</f>
+        <v>-53957</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>248693.84</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="21">
+        <v>189</v>
+      </c>
+      <c r="E5" s="22">
+        <f>+D5*[8]Main!$M$3</f>
+        <v>188055</v>
+      </c>
+      <c r="F5" s="22">
+        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
+        <v>7842</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G8" si="0">E5-F5</f>
+        <v>180213</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21">
+        <v>99.86</v>
+      </c>
+      <c r="E6" s="22">
+        <f>+D6*[10]Main!$L$3</f>
+        <v>117834.8</v>
+      </c>
+      <c r="F6" s="22">
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>870</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>116964.8</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27"/>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="21">
+        <v>440</v>
+      </c>
+      <c r="E7" s="22">
+        <f>+D7*[11]Main!$L$3</f>
+        <v>88000</v>
+      </c>
+      <c r="F7" s="22">
+        <f>+[11]Main!$L$5-[11]Main!$L$6</f>
+        <v>3926</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>84074</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="21">
+        <v>122.42</v>
+      </c>
+      <c r="E8" s="22">
+        <f>+D8*H8</f>
+        <v>51593.343664439999</v>
+      </c>
+      <c r="F8" s="22">
+        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
+        <v>-8207</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="0"/>
+        <v>59800.343664439999</v>
+      </c>
+      <c r="H8" s="22">
+        <f>+[12]Main!$M$3</f>
+        <v>421.445382</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="27"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0503292A-659C-4A72-B97D-834713EC5785}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6A6F9818-4597-440E-87A2-061AA6A0D1AA}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{82160796-EF8E-4F69-8090-C97619BD3BC8}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{2964D309-6110-46D1-A6FF-CEF55CE8C8F6}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{BEBE7C2C-69F7-4F68-A1A3-433A555515CF}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{79E0FB94-7B29-4FC8-9D4A-2DAAB02B450C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
+  <dimension ref="A1:X10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="69"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="21">
+        <v>165</v>
+      </c>
+      <c r="E3" s="22">
+        <f>+D3*[4]Main!$M$3</f>
+        <v>452430</v>
+      </c>
+      <c r="F3" s="22">
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
+        <v>43890</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G4" si="0">+E3-F3</f>
+        <v>408540</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[4]Main!$M$3</f>
+        <v>2742</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="47">
+        <v>44798</v>
+      </c>
+      <c r="K3" s="28">
+        <f>+[4]Model!$AT$50</f>
+        <v>260.93479765840237</v>
+      </c>
+      <c r="L3" s="29">
+        <f>K3/D3-1</f>
+        <v>0.58142301611152947</v>
+      </c>
+      <c r="M3" s="29">
+        <f>+[4]Model!$AT$47</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N3" s="29">
+        <f>+[4]Model!$AT$48</f>
+        <v>-0.05</v>
+      </c>
+      <c r="O3" s="29">
+        <f>+[4]Model!$AT$49</f>
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="20">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21">
+        <v>391.4</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[5]Main!$L$3*1000/HKD</f>
+        <v>475575.58154347877</v>
+      </c>
+      <c r="F4" s="22">
+        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
+        <v>97072.536879920503</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>378503.04466355825</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E5" s="22">
+        <v>34050</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{06D5809E-72A9-41D7-974F-FA58D1ED15C4}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{29919CCF-0924-4FDD-BCCD-7B5AA19C4B1D}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{62A13976-8B3C-42C8-B6D0-AD7B6C4E3241}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21">
+        <v>252</v>
+      </c>
+      <c r="E3" s="22">
+        <f>D3*[1]Main!$L$3</f>
+        <v>1898568</v>
+      </c>
+      <c r="F3" s="22">
+        <f>[1]Main!$L$5-[1]Main!$L$6</f>
+        <v>61674</v>
+      </c>
+      <c r="G3" s="22">
+        <f>+E3-F3</f>
+        <v>1836894</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[1]Main!$L$3</f>
+        <v>7534</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21">
+        <v>391.4</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[5]Main!$L$3*1000/HKD</f>
+        <v>475575.58154347877</v>
+      </c>
+      <c r="F4" s="22">
+        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
+        <v>97072.536879920503</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>378503.04466355825</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>393.84</v>
+      </c>
+      <c r="E5" s="22">
+        <f>+D5*[7]Main!$N$3</f>
+        <v>186089.4</v>
+      </c>
+      <c r="F5" s="22">
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <v>1173</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5" si="0">+E5-F5</f>
+        <v>184916.4</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="10">
+        <v>80.27</v>
+      </c>
+      <c r="E8" s="56">
+        <v>62800</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="56">
+        <v>59910</v>
+      </c>
+      <c r="E9" s="56" cm="1">
+        <f t="array" ref="E9">6975000/JPY</f>
+        <v>50938.435697071494</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="10">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="E11" s="56">
+        <f>+D11*H11</f>
+        <v>36664.879999999997</v>
+      </c>
+      <c r="F11" s="56">
+        <f>+[27]Main!$N$5-[27]Main!$N$6</f>
+        <v>538</v>
+      </c>
+      <c r="G11" s="56">
+        <f>+E11-F11</f>
+        <v>36126.879999999997</v>
+      </c>
+      <c r="H11" s="10">
+        <f>+[27]Main!$N$3</f>
+        <v>281</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="73">
+        <v>44799</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="10">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="10">
+        <v>127.74</v>
+      </c>
+      <c r="E12" s="56">
+        <v>21290</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="E13" s="3">
+        <f>+D13*[28]Main!$K$3</f>
+        <v>16302.031699999998</v>
+      </c>
+      <c r="F13" s="3">
+        <f>+[28]Main!$K$5-[28]Main!$K$6</f>
+        <v>2144.9299999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <f>+E13-F13</f>
+        <v>14157.101699999997</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14330</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+    </row>
+    <row r="16" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+    </row>
+    <row r="17" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+    </row>
+    <row r="18" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+    </row>
+    <row r="19" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3">
+        <v>31500</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+    </row>
+    <row r="21" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22">
+        <v>27000</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+    </row>
+    <row r="22" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D15C9016-D909-4B61-8E61-89DF546A9452}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
+  <dimension ref="A1:X25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="9" width="9.140625" style="74"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="75">
+        <v>206.8</v>
+      </c>
+      <c r="E3" s="76">
+        <v>427830</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+    </row>
+    <row r="4" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="75">
+        <v>340.89</v>
+      </c>
+      <c r="E4" s="76">
+        <v>329430</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+    </row>
+    <row r="6" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="66">
+        <v>87.2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100981</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="75">
+        <v>70.94</v>
+      </c>
+      <c r="E10" s="76">
+        <v>41870</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+    </row>
+    <row r="13" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="66">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18053</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="75">
+        <v>58.75</v>
+      </c>
+      <c r="E14" s="76">
+        <v>14980</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="66">
+        <v>184.44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="21" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="67">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="67">
+        <v>0</v>
+      </c>
+      <c r="E24" s="74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="67">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40294899-E1C4-403E-8D7D-CC58F434A3F6}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>71.66</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
+        <v>8333</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D9BC8D23-E3B6-418F-A0C0-7DB8B8F77238}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="85">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="84">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="84">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="85">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>121.12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>[3]Main!$K$5-[3]Main!$K$6</f>
+        <v>2657</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+E3-F3</f>
+        <v>1229343</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="21">
+        <v>115.9</v>
+      </c>
+      <c r="E4" s="22">
+        <f>D4*[29]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F4" s="22" cm="1">
+        <f t="array" ref="F4">([29]Main!$L$5-[29]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>115.9</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5*[29]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F5" s="3" cm="1">
+        <f t="array" ref="F5">([29]Main!$L$5-[29]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+E5-F5</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="E6" s="3">
+        <v>101795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22">
+        <v>22000</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="27"/>
+    </row>
+    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22">
+        <v>30000</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="27"/>
+    </row>
+    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="21">
+        <v>36.71</v>
+      </c>
+      <c r="E13" s="22">
+        <f>+D13*[19]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F13" s="22">
+        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="0">E13-F13</f>
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16470</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="49">
+        <v>7.8498000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="49">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="49">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10.3437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="49">
+        <v>136.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1.2991999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CA8672F6-BB57-4BF8-83E1-A8CF0133433F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9ED4E1-6276-46A4-879F-16A5E8813C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09306407-41E2-4EBB-B561-7A3040EEDB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="1665" windowWidth="20310" windowHeight="17790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="288">
   <si>
     <t>Name</t>
   </si>
@@ -970,6 +970,15 @@
   </si>
   <si>
     <t>ADYEN NA</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>Magic Eden</t>
   </si>
 </sst>
 </file>
@@ -979,13 +988,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1202,6 +1217,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1286,217 +1309,222 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2380,21 +2408,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>9.5380000000000003</v>
+            <v>9.6720000000000006</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1086</v>
+            <v>989</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>324</v>
+            <v>346</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2835,7 +2863,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3254,20 +3282,26 @@
         <v>391.4</v>
       </c>
       <c r="E8" s="22">
-        <f>+D8*[5]Main!$L$3*1000/HKD</f>
-        <v>475575.58154347877</v>
+        <f>+D8*H8/HKD</f>
+        <v>482256.97469999234</v>
       </c>
       <c r="F8" s="22">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
-        <v>97072.536879920503</v>
+        <v>81912.914978725574</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" si="0"/>
-        <v>378503.04466355825</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23" t="s">
-        <v>14</v>
+        <v>400344.05972126673</v>
+      </c>
+      <c r="H8" s="22">
+        <f>+[5]Main!$L$3*1000</f>
+        <v>9672</v>
+      </c>
+      <c r="I8" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="47">
+        <v>44802</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -4794,9 +4828,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5146,6 +5182,9 @@
       <c r="W7" s="27"/>
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
+        <v>263</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>187</v>
       </c>
@@ -5200,6 +5239,167 @@
         <v>266</v>
       </c>
     </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21">
+        <v>200.8</v>
+      </c>
+      <c r="E10" s="22">
+        <f>+D10*[16]Main!$L$3</f>
+        <v>50947.578400000006</v>
+      </c>
+      <c r="F10" s="22">
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <v>432.39900000000011</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" ref="G10:G13" si="1">E10-F10</f>
+        <v>50515.179400000008</v>
+      </c>
+      <c r="H10" s="22">
+        <f>+[16]Main!$L$3</f>
+        <v>253.72300000000001</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="21">
+        <v>168</v>
+      </c>
+      <c r="E11" s="22">
+        <f>+D11*H11</f>
+        <v>42336</v>
+      </c>
+      <c r="F11" s="22">
+        <f>+[18]Main!$P$5-[18]Main!$P$6</f>
+        <v>2134</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>40202</v>
+      </c>
+      <c r="H11" s="23">
+        <f>+[18]Main!$P$3</f>
+        <v>252</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="47">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="21">
+        <v>135.57</v>
+      </c>
+      <c r="E12" s="22">
+        <f>+D12*[20]Main!$M$3</f>
+        <v>42617.920769999997</v>
+      </c>
+      <c r="F12" s="22">
+        <f>+[20]Main!$M$5-[20]Main!$M$6</f>
+        <v>5027.4579999999996</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>37590.462769999998</v>
+      </c>
+      <c r="H12" s="22">
+        <f>+[20]Main!$M$3</f>
+        <v>314.36099999999999</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="21">
+        <v>228.96</v>
+      </c>
+      <c r="E13" s="22">
+        <f>+D13*H13</f>
+        <v>35453.770264799998</v>
+      </c>
+      <c r="F13" s="22">
+        <f>+[22]Main!$M$5-[22]Main!$M$6</f>
+        <v>2838.5529999999999</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>32615.217264799998</v>
+      </c>
+      <c r="H13" s="22">
+        <f>+[22]Main!$M$3</f>
+        <v>154.847005</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="47">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="21">
+        <v>107.93</v>
+      </c>
+      <c r="E14" s="22">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="78">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0503292A-659C-4A72-B97D-834713EC5785}"/>
@@ -5209,6 +5409,10 @@
     <hyperlink ref="B6" r:id="rId4" xr:uid="{2964D309-6110-46D1-A6FF-CEF55CE8C8F6}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{BEBE7C2C-69F7-4F68-A1A3-433A555515CF}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{79E0FB94-7B29-4FC8-9D4A-2DAAB02B450C}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{1647F4E6-0995-4C11-AEA1-85BE3B2789D3}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{11F6BC32-0B71-4C3C-92D4-6F1D15C6FCA5}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{BF5095B8-6956-4116-AD45-B06C94DC5EDF}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{6424F2CF-2B61-4808-95C3-62B06E9F6361}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5384,15 +5588,15 @@
       </c>
       <c r="E4" s="22">
         <f>+D4*[5]Main!$L$3*1000/HKD</f>
-        <v>475575.58154347877</v>
+        <v>482256.9746999924</v>
       </c>
       <c r="F4" s="22">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
-        <v>97072.536879920503</v>
+        <v>81912.914978725574</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" si="0"/>
-        <v>378503.04466355825</v>
+        <v>400344.05972126685</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="23" t="s">
@@ -5507,7 +5711,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5641,15 +5845,15 @@
       </c>
       <c r="E4" s="22">
         <f>+D4*[5]Main!$L$3*1000/HKD</f>
-        <v>475575.58154347877</v>
+        <v>482256.9746999924</v>
       </c>
       <c r="F4" s="22">
         <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
-        <v>97072.536879920503</v>
+        <v>81912.914978725574</v>
       </c>
       <c r="G4" s="22">
         <f>+E4-F4</f>
-        <v>378503.04466355825</v>
+        <v>400344.05972126685</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="23" t="s">
@@ -6226,13 +6430,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6607,6 +6811,22 @@
       </c>
       <c r="D25" s="67">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="74">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="74">
+        <v>159.5</v>
       </c>
     </row>
   </sheetData>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09306407-41E2-4EBB-B561-7A3040EEDB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CC427-2C41-4127-AC3C-B4079EEFD857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="1665" windowWidth="20310" windowHeight="17790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63300" yWindow="300" windowWidth="22155" windowHeight="13350" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <author>tc={9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}</author>
   </authors>
   <commentList>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -979,6 +979,48 @@
   </si>
   <si>
     <t>Magic Eden</t>
+  </si>
+  <si>
+    <t>ByteDance</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>PINS</t>
+  </si>
+  <si>
+    <t>Kuaishou</t>
+  </si>
+  <si>
+    <t>1024 HK</t>
+  </si>
+  <si>
+    <t>Weibo</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Mercadolibre</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>MSCI</t>
+  </si>
+  <si>
+    <t>Global Payments</t>
+  </si>
+  <si>
+    <t>GPN</t>
   </si>
 </sst>
 </file>
@@ -988,13 +1030,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1225,6 +1279,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1309,222 +1368,226 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2422,7 +2485,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2849,7 +2912,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E24" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+  <threadedComment ref="E26" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
     <text>Series A with ARod, Thrive, Tiger, Marc Lore</text>
   </threadedComment>
 </ThreadedComments>
@@ -4831,7 +4894,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5273,7 +5336,9 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="105" t="s">
+        <v>263</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
@@ -5420,7 +5485,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5618,21 +5683,20 @@
       <c r="W4" s="27"/>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="21">
-        <v>44.5</v>
-      </c>
-      <c r="E5" s="22">
-        <v>34050</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="A5" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
@@ -5650,7 +5714,363 @@
       <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
+      <c r="B6" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E6" s="22">
+        <v>34050</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27"/>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+    </row>
+    <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+    </row>
+    <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{06D5809E-72A9-41D7-974F-FA58D1ED15C4}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{29919CCF-0924-4FDD-BCCD-7B5AA19C4B1D}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{62A13976-8B3C-42C8-B6D0-AD7B6C4E3241}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
+  <dimension ref="A1:X25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21">
+        <v>252</v>
+      </c>
+      <c r="E3" s="22">
+        <f>D3*[1]Main!$L$3</f>
+        <v>1898568</v>
+      </c>
+      <c r="F3" s="22">
+        <f>[1]Main!$L$5-[1]Main!$L$6</f>
+        <v>61674</v>
+      </c>
+      <c r="G3" s="22">
+        <f>+E3-F3</f>
+        <v>1836894</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[1]Main!$L$3</f>
+        <v>7534</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21">
+        <v>391.4</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[5]Main!$L$3*1000/HKD</f>
+        <v>482256.9746999924</v>
+      </c>
+      <c r="F4" s="22">
+        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
+        <v>81912.914978725574</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>400344.05972126685</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>393.84</v>
+      </c>
+      <c r="E5" s="22">
+        <f>+D5*[7]Main!$N$3</f>
+        <v>186089.4</v>
+      </c>
+      <c r="F5" s="22">
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <v>1173</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5" si="0">+E5-F5</f>
+        <v>184916.4</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>270</v>
+      </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -5672,269 +6092,6 @@
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="69" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="69" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{06D5809E-72A9-41D7-974F-FA58D1ED15C4}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{29919CCF-0924-4FDD-BCCD-7B5AA19C4B1D}"/>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{62A13976-8B3C-42C8-B6D0-AD7B6C4E3241}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
-  <dimension ref="A1:X24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="S2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="T2" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" s="18">
-        <v>2023</v>
-      </c>
-      <c r="V2" s="18">
-        <v>2024</v>
-      </c>
-      <c r="W2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="X2" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21">
-        <v>252</v>
-      </c>
-      <c r="E3" s="22">
-        <f>D3*[1]Main!$L$3</f>
-        <v>1898568</v>
-      </c>
-      <c r="F3" s="22">
-        <f>[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>61674</v>
-      </c>
-      <c r="G3" s="22">
-        <f>+E3-F3</f>
-        <v>1836894</v>
-      </c>
-      <c r="H3" s="22">
-        <f>+[1]Main!$L$3</f>
-        <v>7534</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="21">
-        <v>391.4</v>
-      </c>
-      <c r="E4" s="22">
-        <f>+D4*[5]Main!$L$3*1000/HKD</f>
-        <v>482256.9746999924</v>
-      </c>
-      <c r="F4" s="22">
-        <f>([5]Main!$L$5-[5]Main!$L$6)/HKD*1000</f>
-        <v>81912.914978725574</v>
-      </c>
-      <c r="G4" s="22">
-        <f>+E4-F4</f>
-        <v>400344.05972126685</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21">
-        <v>393.84</v>
-      </c>
-      <c r="E5" s="22">
-        <f>+D5*[7]Main!$N$3</f>
-        <v>186089.4</v>
-      </c>
-      <c r="F5" s="22">
-        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
-        <v>1173</v>
-      </c>
-      <c r="G5" s="22">
-        <f t="shared" ref="G5" si="0">+E5-F5</f>
-        <v>184916.4</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-    </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
         <v>263</v>
@@ -6051,37 +6208,17 @@
       <c r="W10" s="57"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="10">
-        <v>130.47999999999999</v>
-      </c>
-      <c r="E11" s="56">
-        <f>+D11*H11</f>
-        <v>36664.879999999997</v>
-      </c>
-      <c r="F11" s="56">
-        <f>+[27]Main!$N$5-[27]Main!$N$6</f>
-        <v>538</v>
-      </c>
-      <c r="G11" s="56">
-        <f>+E11-F11</f>
-        <v>36126.879999999997</v>
-      </c>
-      <c r="H11" s="10">
-        <f>+[27]Main!$N$3</f>
-        <v>281</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="J11" s="73">
-        <v>44799</v>
-      </c>
+      <c r="A11" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -6094,22 +6231,41 @@
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
       <c r="W11" s="57"/>
-      <c r="X11" s="10">
-        <v>1982</v>
-      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
-        <v>175</v>
+      <c r="A12" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="10">
-        <v>127.74</v>
+        <v>130.47999999999999</v>
       </c>
       <c r="E12" s="56">
-        <v>21290</v>
+        <f>+D12*H12</f>
+        <v>36664.879999999997</v>
+      </c>
+      <c r="F12" s="56">
+        <f>+[27]Main!$N$5-[27]Main!$N$6</f>
+        <v>538</v>
+      </c>
+      <c r="G12" s="56">
+        <f>+E12-F12</f>
+        <v>36126.879999999997</v>
+      </c>
+      <c r="H12" s="10">
+        <f>+[27]Main!$N$3</f>
+        <v>281</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="73">
+        <v>44799</v>
       </c>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
@@ -6123,62 +6279,62 @@
       <c r="U12" s="57"/>
       <c r="V12" s="57"/>
       <c r="W12" s="57"/>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="X12" s="10">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="10">
+        <v>127.74</v>
+      </c>
+      <c r="E13" s="56">
+        <v>21290</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>27.7</v>
       </c>
-      <c r="E13" s="3">
-        <f>+D13*[28]Main!$K$3</f>
+      <c r="E14" s="3">
+        <f>+D14*[28]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <f>+[28]Main!$K$5-[28]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
-      <c r="G13" s="3">
-        <f>+E13-F13</f>
+      <c r="G14" s="3">
+        <f>+E14-F14</f>
         <v>14157.101699999997</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45.8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>14330</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
@@ -6194,13 +6350,17 @@
     </row>
     <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14330</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -6217,32 +6377,35 @@
       <c r="V15" s="58"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="71" t="s">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+    </row>
+    <row r="17" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-    </row>
-    <row r="17" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
@@ -6308,62 +6471,57 @@
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3">
         <v>31500</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-    </row>
-    <row r="21" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22">
-        <v>27000</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="22">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -6384,24 +6542,37 @@
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="69" t="s">
+    <row r="23" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L24" s="57"/>
       <c r="M24" s="57"/>
       <c r="N24" s="57"/>
@@ -6415,13 +6586,27 @@
       <c r="V24" s="57"/>
       <c r="W24" s="57"/>
     </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{D15C9016-D909-4B61-8E61-89DF546A9452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6430,13 +6615,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6699,36 +6884,34 @@
       <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="66">
-        <v>68.930000000000007</v>
-      </c>
-      <c r="E13" s="3">
-        <v>18053</v>
-      </c>
+      <c r="A13" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="76"/>
       <c r="G13" s="76"/>
       <c r="H13" s="76"/>
       <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="75">
-        <v>58.75</v>
-      </c>
-      <c r="E14" s="76">
-        <v>14980</v>
-      </c>
+      <c r="A14" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="76"/>
       <c r="G14" s="76"/>
       <c r="H14" s="76"/>
@@ -6736,96 +6919,132 @@
     </row>
     <row r="15" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D15" s="66">
-        <v>184.44</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="E15" s="3">
-        <v>10400</v>
+        <v>18053</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="21" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="64" t="s">
+    <row r="16" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="75">
+        <v>58.75</v>
+      </c>
+      <c r="E16" s="76">
+        <v>14980</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="66">
+        <v>184.44</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="23" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C23" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="67">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>100000</v>
-      </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="67">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="63"/>
       <c r="D23" s="67">
         <v>0</v>
       </c>
-      <c r="E23" s="3">
-        <v>15000</v>
-      </c>
+      <c r="E23" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="62" t="s">
-        <v>252</v>
-      </c>
+      <c r="B24" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="63"/>
       <c r="D24" s="67">
         <v>0</v>
       </c>
-      <c r="E24" s="74">
-        <v>75</v>
+      <c r="E24" s="3">
+        <v>26000</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="68" t="s">
-        <v>254</v>
-      </c>
+      <c r="B25" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="63"/>
       <c r="D25" s="67">
         <v>0</v>
       </c>
+      <c r="E25" s="3">
+        <v>15000</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="67">
+        <v>0</v>
+      </c>
+      <c r="E26" s="74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E28" s="74">
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="101" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E29" s="74">
         <v>159.5</v>
       </c>
     </row>
@@ -6846,7 +7065,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6897,6 +7116,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="103" t="s">
+        <v>263</v>
+      </c>
       <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
@@ -6952,19 +7174,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -7185,32 +7407,75 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>166</v>
-      </c>
+      <c r="A9" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="21">
+        <v>36.71</v>
+      </c>
+      <c r="E10" s="22">
+        <f>+D10*[19]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F10" s="22">
+        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" ref="G10" si="0">E10-F10</f>
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="27"/>
     </row>
     <row r="11" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
-        <v>64</v>
+      <c r="A11" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>298</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="22">
-        <v>22000</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
@@ -7218,89 +7483,91 @@
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
-    </row>
-    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22">
+        <v>22000</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22">
         <v>30000</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="21">
-        <v>36.71</v>
-      </c>
-      <c r="E13" s="22">
-        <f>+D13*[19]Main!$M$3</f>
-        <v>46254.6</v>
-      </c>
-      <c r="F13" s="22">
-        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
-        <v>6335.1410000000005</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" ref="G13" si="0">E13-F13</f>
-        <v>39919.458999999995</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CC427-2C41-4127-AC3C-B4079EEFD857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594B2ED6-AAD3-42CE-9ED2-BF5107EFCE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63300" yWindow="300" windowWidth="22155" windowHeight="13350" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55995" yWindow="2190" windowWidth="25395" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -1030,13 +1031,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1368,226 +1375,229 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2403,6 +2413,37 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="P3">
+            <v>157</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="P5">
+            <v>2477</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6">
+            <v>2195</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2926,7 +2967,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3062,7 +3103,7 @@
         <v>61674</v>
       </c>
       <c r="G4" s="22">
-        <f t="shared" ref="G4:G10" si="0">+E4-F4</f>
+        <f>+E4-F4</f>
         <v>1836894</v>
       </c>
       <c r="H4" s="22">
@@ -3118,7 +3159,7 @@
         <v>140928</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" si="0"/>
+        <f>+E5-F5</f>
         <v>1254992.1599999999</v>
       </c>
       <c r="H5" s="22">
@@ -3152,19 +3193,19 @@
         <v>0.01</v>
       </c>
       <c r="P5" s="30">
-        <f t="shared" ref="P5:S6" si="1">+($G5/$H5)/T5</f>
+        <f>+($G5/$H5)/T5</f>
         <v>16.876759090129248</v>
       </c>
       <c r="Q5" s="31">
-        <f t="shared" si="1"/>
+        <f>+($G5/$H5)/U5</f>
         <v>14.645179621110156</v>
       </c>
       <c r="R5" s="31">
-        <f t="shared" si="1"/>
+        <f>+($G5/$H5)/V5</f>
         <v>12.490319735060142</v>
       </c>
       <c r="S5" s="32">
-        <f t="shared" si="1"/>
+        <f>+($G5/$H5)/W5</f>
         <v>10.772106224349255</v>
       </c>
       <c r="T5" s="33">
@@ -3206,7 +3247,7 @@
         <v>2657</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="0"/>
+        <f>+E6-F6</f>
         <v>1231259.6395561602</v>
       </c>
       <c r="H6" s="22">
@@ -3240,19 +3281,19 @@
         <v>0.01</v>
       </c>
       <c r="P6" s="30">
-        <f t="shared" si="1"/>
+        <f>+($G6/$H6)/T6</f>
         <v>72.007341486751912</v>
       </c>
       <c r="Q6" s="31">
-        <f t="shared" si="1"/>
+        <f>+($G6/$H6)/U6</f>
         <v>24.676707466844412</v>
       </c>
       <c r="R6" s="31">
-        <f t="shared" si="1"/>
+        <f>+($G6/$H6)/V6</f>
         <v>22.830168096694702</v>
       </c>
       <c r="S6" s="32">
-        <f t="shared" si="1"/>
+        <f>+($G6/$H6)/W6</f>
         <v>16.78032400353068</v>
       </c>
       <c r="T6" s="33">
@@ -3294,7 +3335,7 @@
         <v>43890</v>
       </c>
       <c r="G7" s="22">
-        <f t="shared" si="0"/>
+        <f>+E7-F7</f>
         <v>408540</v>
       </c>
       <c r="H7" s="22">
@@ -3353,7 +3394,7 @@
         <v>81912.914978725574</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" si="0"/>
+        <f>+E8-F8</f>
         <v>400344.05972126673</v>
       </c>
       <c r="H8" s="22">
@@ -3389,7 +3430,7 @@
         <v>-53957</v>
       </c>
       <c r="G9" s="22">
-        <f t="shared" si="0"/>
+        <f>+E9-F9</f>
         <v>248693.84</v>
       </c>
       <c r="H9" s="22"/>
@@ -3419,7 +3460,7 @@
         <v>1173</v>
       </c>
       <c r="G10" s="22">
-        <f t="shared" si="0"/>
+        <f>+E10-F10</f>
         <v>184916.4</v>
       </c>
       <c r="H10" s="22"/>
@@ -3449,7 +3490,7 @@
         <v>7842</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" ref="G11:G26" si="2">E11-F11</f>
+        <f>E11-F11</f>
         <v>180213</v>
       </c>
       <c r="H11" s="22"/>
@@ -3479,7 +3520,7 @@
         <v>-2851</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="2"/>
+        <f>E12-F12</f>
         <v>121174.92000000001</v>
       </c>
       <c r="H12" s="22"/>
@@ -3509,7 +3550,7 @@
         <v>870</v>
       </c>
       <c r="G13" s="22">
-        <f t="shared" si="2"/>
+        <f>E13-F13</f>
         <v>116964.8</v>
       </c>
       <c r="H13" s="22"/>
@@ -3539,7 +3580,7 @@
         <v>3926</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" si="2"/>
+        <f>E14-F14</f>
         <v>84074</v>
       </c>
       <c r="H14" s="22"/>
@@ -3569,7 +3610,7 @@
         <v>-8207</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" si="2"/>
+        <f>E15-F15</f>
         <v>59800.343664439999</v>
       </c>
       <c r="H15" s="22">
@@ -3602,7 +3643,7 @@
         <v>1696.7459999999999</v>
       </c>
       <c r="G16" s="22">
-        <f t="shared" si="2"/>
+        <f>E16-F16</f>
         <v>55775.706251789998</v>
       </c>
       <c r="H16" s="22">
@@ -3638,7 +3679,7 @@
         <v>-490.25400000000008</v>
       </c>
       <c r="G17" s="22">
-        <f t="shared" si="2"/>
+        <f>E17-F17</f>
         <v>53579.99298000001</v>
       </c>
       <c r="H17" s="22"/>
@@ -3668,7 +3709,7 @@
         <v>741.35200000000009</v>
       </c>
       <c r="G18" s="22">
-        <f t="shared" si="2"/>
+        <f>E18-F18</f>
         <v>50843.144</v>
       </c>
       <c r="H18" s="22">
@@ -3702,7 +3743,7 @@
         <v>432.39900000000011</v>
       </c>
       <c r="G19" s="22">
-        <f t="shared" si="2"/>
+        <f>E19-F19</f>
         <v>50515.179400000008</v>
       </c>
       <c r="H19" s="22">
@@ -3736,7 +3777,7 @@
         <v>-1005</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" si="2"/>
+        <f>E20-F20</f>
         <v>45269.86632465</v>
       </c>
       <c r="H20" s="22">
@@ -3770,7 +3811,7 @@
         <v>2134</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="2"/>
+        <f>E21-F21</f>
         <v>40202</v>
       </c>
       <c r="H21" s="23">
@@ -3803,7 +3844,7 @@
         <v>6335.1410000000005</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="2"/>
+        <f>E22-F22</f>
         <v>39919.458999999995</v>
       </c>
       <c r="H22" s="22"/>
@@ -3833,7 +3874,7 @@
         <v>5027.4579999999996</v>
       </c>
       <c r="G23" s="22">
-        <f t="shared" si="2"/>
+        <f>E23-F23</f>
         <v>37590.462769999998</v>
       </c>
       <c r="H23" s="22">
@@ -3864,7 +3905,7 @@
         <v>-1206</v>
       </c>
       <c r="G24" s="22">
-        <f t="shared" si="2"/>
+        <f>E24-F24</f>
         <v>36919.078128386704</v>
       </c>
       <c r="H24" s="22">
@@ -3897,7 +3938,7 @@
         <v>2838.5529999999999</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="2"/>
+        <f>E25-F25</f>
         <v>32615.217264799998</v>
       </c>
       <c r="H25" s="22">
@@ -3933,7 +3974,7 @@
         <v>25459.792284866468</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="2"/>
+        <f>E26-F26</f>
         <v>27417.577715133528</v>
       </c>
       <c r="H26" s="22">
@@ -4271,20 +4312,6 @@
       </c>
       <c r="E46" s="22">
         <v>15070</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="21">
-        <v>107.11</v>
-      </c>
-      <c r="E47" s="22">
-        <v>16630</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
@@ -4893,15 +4920,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="78"/>
+    <col min="2" max="2" width="11" style="78" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="78"/>
+    <col min="5" max="5" width="10" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="78"/>
+    <col min="7" max="7" width="10.140625" style="78" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="78"/>
+    <col min="10" max="10" width="10" style="78" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -5452,6 +5485,52 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="15" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="21">
+        <v>59.49</v>
+      </c>
+      <c r="E15" s="22">
+        <f>+D15*H15</f>
+        <v>9339.93</v>
+      </c>
+      <c r="F15" s="22">
+        <f>+[30]Main!$P$5-[30]Main!$P$6</f>
+        <v>282</v>
+      </c>
+      <c r="G15" s="22">
+        <f>+E15-F15</f>
+        <v>9057.93</v>
+      </c>
+      <c r="H15" s="22">
+        <f>+[30]Main!$P$3</f>
+        <v>157</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="47">
+        <v>44805</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="27"/>
+    </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="102" t="s">
         <v>258</v>
@@ -5478,8 +5557,10 @@
     <hyperlink ref="B11" r:id="rId8" xr:uid="{11F6BC32-0B71-4C3C-92D4-6F1D15C6FCA5}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{BF5095B8-6956-4116-AD45-B06C94DC5EDF}"/>
     <hyperlink ref="B13" r:id="rId10" xr:uid="{6424F2CF-2B61-4808-95C3-62B06E9F6361}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{1147CFA9-6647-443A-9626-FE00F78AE9FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -5868,7 +5949,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6617,7 +6698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD105E-EAEA-483E-849A-EE7F3D9266D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784CB355-0F40-474F-A84F-39E28E0EC3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52245" yWindow="180" windowWidth="24495" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="78045" yWindow="1050" windowWidth="25035" windowHeight="19590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>AMS SM</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
 </sst>
 </file>
@@ -1100,13 +1103,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1492,234 +1501,235 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3116,11 +3126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
   <dimension ref="A2:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5610,18 +5620,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="9" width="9.140625" style="10"/>
+    <col min="10" max="10" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -5774,11 +5786,11 @@
         <v>20</v>
       </c>
       <c r="D5" s="21">
-        <v>393.84</v>
+        <v>309.18</v>
       </c>
       <c r="E5" s="22">
         <f>+D5*[27]Main!$N$3</f>
-        <v>186089.4</v>
+        <v>146087.55000000002</v>
       </c>
       <c r="F5" s="22">
         <f>+[27]Main!$N$5-[27]Main!$N$6</f>
@@ -5786,13 +5798,18 @@
       </c>
       <c r="G5" s="22">
         <f t="shared" ref="G5" si="0">+E5-F5</f>
-        <v>184916.4</v>
-      </c>
-      <c r="H5" s="22"/>
+        <v>144914.55000000002</v>
+      </c>
+      <c r="H5" s="22">
+        <f>+[27]Main!$N$3</f>
+        <v>472.5</v>
+      </c>
       <c r="I5" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="45">
+        <v>44819</v>
+      </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
@@ -6221,7 +6238,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6337,8 +6354,8 @@
       <c r="B4" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>3</v>
+      <c r="C4" s="115" t="s">
+        <v>325</v>
       </c>
       <c r="D4" s="71">
         <v>340.89</v>
@@ -6716,7 +6733,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7202,7 +7219,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784CB355-0F40-474F-A84F-39E28E0EC3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EB047-D9B7-4133-8805-0474058ADD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78045" yWindow="1050" windowWidth="25035" windowHeight="19590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13575" yWindow="1095" windowWidth="21705" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Enterprise-Cloud" sheetId="10" r:id="rId2"/>
     <sheet name="Social" sheetId="9" r:id="rId3"/>
-    <sheet name="Media-Games-Design" sheetId="8" r:id="rId4"/>
-    <sheet name="Fintech" sheetId="7" r:id="rId5"/>
-    <sheet name="Ecommerce" sheetId="5" r:id="rId6"/>
-    <sheet name="Security" sheetId="4" r:id="rId7"/>
-    <sheet name="FX" sheetId="3" r:id="rId8"/>
-    <sheet name="Private" sheetId="2" r:id="rId9"/>
+    <sheet name="Simulation-Technical Design" sheetId="11" r:id="rId4"/>
+    <sheet name="Media-Games-Design" sheetId="8" r:id="rId5"/>
+    <sheet name="Fintech" sheetId="7" r:id="rId6"/>
+    <sheet name="Ecommerce" sheetId="5" r:id="rId7"/>
+    <sheet name="Security" sheetId="4" r:id="rId8"/>
+    <sheet name="FX" sheetId="3" r:id="rId9"/>
+    <sheet name="Private" sheetId="2" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -50,6 +50,7 @@
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -60,6 +61,7 @@
     <definedName name="SEK">FX!$C$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="328">
   <si>
     <t>Name</t>
   </si>
@@ -1094,6 +1096,12 @@
   </si>
   <si>
     <t>MA</t>
+  </si>
+  <si>
+    <t>Simulations Plus</t>
+  </si>
+  <si>
+    <t>Certera</t>
   </si>
 </sst>
 </file>
@@ -1103,13 +1111,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1426,7 +1440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1498,238 +1512,293 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1810,18 +1879,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>21.19153</v>
+          <cell r="G3">
+            <v>2742</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>676</v>
+          <cell r="G5">
+            <v>21902</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>1882</v>
+          <cell r="G6">
+            <v>75859</v>
           </cell>
         </row>
       </sheetData>
@@ -1841,18 +1910,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="M3">
+            <v>995</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="M5">
+            <v>18439</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="M6">
+            <v>10597</v>
           </cell>
         </row>
       </sheetData>
@@ -1872,18 +1941,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>87.068664999999996</v>
+          <cell r="L3">
+            <v>1180</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>517.63499999999999</v>
+          <cell r="L5">
+            <v>18083</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>753.40200000000004</v>
+          <cell r="L6">
+            <v>17213</v>
           </cell>
         </row>
       </sheetData>
@@ -1903,18 +1972,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>200</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>5498</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>1572</v>
           </cell>
         </row>
       </sheetData>
@@ -1929,23 +1998,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>2036</v>
+          <cell r="M3">
+            <v>421.445382</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>2585</v>
+          <cell r="M5">
+            <v>3719</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>11926</v>
           </cell>
         </row>
       </sheetData>
@@ -1965,18 +2034,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="G3">
-            <v>2742</v>
+          <cell r="L3">
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>21902</v>
+          <cell r="L5">
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="G6">
-            <v>75859</v>
+          <cell r="L6">
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
@@ -1996,18 +2065,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>995</v>
+          <cell r="P3">
+            <v>252</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>18439</v>
+          <cell r="P5">
+            <v>6255</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>10597</v>
+          <cell r="P6">
+            <v>4121</v>
           </cell>
         </row>
       </sheetData>
@@ -2027,18 +2096,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1180</v>
+          <cell r="M3">
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18083</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>17213</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2058,18 +2127,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>200</v>
+          <cell r="M3">
+            <v>154.847005</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>5498</v>
+          <cell r="M5">
+            <v>2838.5529999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>1572</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2089,18 +2158,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>421.445382</v>
+          <cell r="O3">
+            <v>315</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>3719</v>
+          <cell r="O5">
+            <v>1707</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>11926</v>
+          <cell r="O6">
+            <v>737</v>
           </cell>
         </row>
       </sheetData>
@@ -2186,18 +2255,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>253.72300000000001</v>
+          <cell r="P3">
+            <v>157</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1431.7740000000001</v>
+          <cell r="P5">
+            <v>2477</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>999.375</v>
+          <cell r="P6">
+            <v>2195</v>
           </cell>
         </row>
       </sheetData>
@@ -2217,22 +2286,43 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>252</v>
+          <cell r="M3">
+            <v>2742</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>6255</v>
+          <cell r="M5">
+            <v>43890</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>4121</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="47">
+          <cell r="AT47">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AT48">
+            <v>-0.05</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AT49">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AT50">
+            <v>260.93479765840237</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2248,18 +2338,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>314.36099999999999</v>
+          <cell r="N3">
+            <v>152.970249</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5027.4579999999996</v>
+          <cell r="N5">
+            <v>1720.521</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>23.774999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2279,18 +2369,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>154.847005</v>
+          <cell r="L3">
+            <v>1322.7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>2838.5529999999999</v>
+          <cell r="L5">
+            <v>3157</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>3642.4</v>
           </cell>
         </row>
       </sheetData>
@@ -2305,27 +2395,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>315</v>
+          <cell r="K3">
+            <v>277.33600000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1707</v>
+          <cell r="K5">
+            <v>1088.94</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>737</v>
+          <cell r="K6">
+            <v>347.58800000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2341,18 +2429,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>157</v>
+          <cell r="L3">
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>2477</v>
+          <cell r="L5">
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>2195</v>
+          <cell r="L6">
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -2373,42 +2461,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>2742</v>
+            <v>87.068664999999996</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>43890</v>
+            <v>517.63499999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>0</v>
+            <v>753.40200000000004</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="47">
-          <cell r="AT47">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="AT48">
-            <v>-0.05</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AT49">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AT50">
-            <v>260.93479765840237</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2677,7 +2744,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>286</v>
+            <v>281.86987900000003</v>
           </cell>
         </row>
         <row r="5">
@@ -2691,7 +2758,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2707,18 +2774,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>152.970249</v>
+          <cell r="O3">
+            <v>21.19153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>1720.521</v>
+          <cell r="O5">
+            <v>676</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>23.774999999999999</v>
+          <cell r="O6">
+            <v>1882</v>
           </cell>
         </row>
       </sheetData>
@@ -2739,17 +2806,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1322.7</v>
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>3157</v>
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>3642.4</v>
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -2764,25 +2831,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>277.33600000000001</v>
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>1088.94</v>
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>347.58800000000002</v>
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2793,23 +2862,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>217.27220500000001</v>
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1624</v>
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>2629</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3124,13 +3193,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="A2:X66"/>
+  <dimension ref="A2:X68"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3160,11 +3229,11 @@
         <f>AVERAGE(P4:P6)</f>
         <v>44.442050288440583</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="37">
         <f>AVERAGE(Q4:Q6)</f>
         <v>19.660943543977282</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="37">
         <f>AVERAGE(R4:R6)</f>
         <v>17.660243915877423</v>
       </c>
@@ -3198,7 +3267,7 @@
       <c r="I3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="42" t="s">
         <v>234</v>
       </c>
       <c r="K3" s="18" t="s">
@@ -3216,19 +3285,19 @@
       <c r="O3" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="49" t="s">
         <v>241</v>
       </c>
       <c r="S3" s="19">
         <v>2025</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="48" t="s">
         <v>238</v>
       </c>
       <c r="U3" s="18">
@@ -3245,10 +3314,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="115" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -3266,7 +3335,7 @@
         <v>61674</v>
       </c>
       <c r="G4" s="22">
-        <f t="shared" ref="G4:G7" si="0">+E4-F4</f>
+        <f>+E4-F4</f>
         <v>1836894</v>
       </c>
       <c r="H4" s="22">
@@ -3276,7 +3345,7 @@
       <c r="I4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="43">
         <v>44794</v>
       </c>
       <c r="K4" s="27">
@@ -3295,16 +3364,16 @@
         <f>+[1]Model!$AJ$28</f>
         <v>0</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="116">
         <f>+[1]Model!$AJ$30</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="115" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -3322,7 +3391,7 @@
         <v>140928</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" si="0"/>
+        <f>+E5-F5</f>
         <v>1254992.1599999999</v>
       </c>
       <c r="H5" s="22">
@@ -3332,7 +3401,7 @@
       <c r="I5" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="43">
         <v>44789</v>
       </c>
       <c r="K5" s="27">
@@ -3351,24 +3420,24 @@
         <f>+[2]Model!$AM$28</f>
         <v>-0.01</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="116">
         <f>+[2]Model!$AM$30</f>
         <v>0.01</v>
       </c>
       <c r="P5" s="29">
-        <f t="shared" ref="P5:S6" si="1">+($G5/$H5)/T5</f>
+        <f t="shared" ref="P5:S6" si="0">+($G5/$H5)/T5</f>
         <v>16.876759090129248</v>
       </c>
       <c r="Q5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.645179621110156</v>
       </c>
       <c r="R5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.490319735060142</v>
       </c>
       <c r="S5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.772106224349255</v>
       </c>
       <c r="T5" s="32">
@@ -3389,10 +3458,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="115" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -3410,7 +3479,7 @@
         <v>2657</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="0"/>
+        <f>+E6-F6</f>
         <v>1231259.6395561602</v>
       </c>
       <c r="H6" s="22">
@@ -3420,7 +3489,7 @@
       <c r="I6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="43">
         <v>44796</v>
       </c>
       <c r="K6" s="27">
@@ -3431,7 +3500,7 @@
         <f>K6/D6-1</f>
         <v>0.90986787538189273</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <f>+[3]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3439,24 +3508,24 @@
         <f>+[3]Model!$BG$45</f>
         <v>0</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="116">
         <f>+[3]Model!$BG$44</f>
         <v>0.01</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>72.007341486751912</v>
       </c>
       <c r="Q6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.676707466844412</v>
       </c>
       <c r="R6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.830168096694702</v>
       </c>
       <c r="S6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.78032400353068</v>
       </c>
       <c r="T6" s="32">
@@ -3477,10 +3546,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -3498,25 +3567,26 @@
         <v>81912.914978725574</v>
       </c>
       <c r="G7" s="22">
-        <f t="shared" si="0"/>
+        <f>+E7-F7</f>
         <v>400344.05972126673</v>
       </c>
       <c r="H7" s="22">
         <f>+[4]Main!$L$3*1000</f>
         <v>9672</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="43">
         <v>44802</v>
       </c>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="115" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -3526,240 +3596,191 @@
         <v>413.72</v>
       </c>
       <c r="E8" s="22">
-        <f>D8*[5]Main!$L$3</f>
-        <v>118323.92000000001</v>
+        <f>+D8*H8</f>
+        <v>116615.20633988002</v>
       </c>
       <c r="F8" s="22">
         <f>[5]Main!$L$5-[5]Main!$L$6</f>
         <v>-2851</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" ref="G8:G14" si="2">E8-F8</f>
-        <v>121174.92000000001</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23" t="s">
+        <f>E8-F8</f>
+        <v>119466.20633988002</v>
+      </c>
+      <c r="H8" s="22">
+        <f>+[5]Main!$L$3</f>
+        <v>281.86987900000003</v>
+      </c>
+      <c r="I8" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="43">
+        <v>44830</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="X8" s="20">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2189.48</v>
+      </c>
+      <c r="E9" s="22">
+        <f>D9*H9/CAD</f>
+        <v>35713.078128386704</v>
+      </c>
+      <c r="F9" s="22">
+        <f>[6]Main!$O$5-[6]Main!$O$6</f>
+        <v>-1206</v>
+      </c>
+      <c r="G9" s="22">
+        <f>E9-F9</f>
+        <v>36919.078128386704</v>
+      </c>
+      <c r="H9" s="22">
+        <f>+[6]Main!$O$3</f>
+        <v>21.19153</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="43">
+        <v>44792</v>
+      </c>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="21">
+        <v>152.88</v>
+      </c>
+      <c r="E10" s="22">
+        <f>+D10*[7]Main!$L$3</f>
+        <v>52877.369999999995</v>
+      </c>
+      <c r="F10" s="22">
+        <f>([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
+        <v>25459.792284866468</v>
+      </c>
+      <c r="G10" s="22">
+        <f>E10-F10</f>
+        <v>27417.577715133528</v>
+      </c>
+      <c r="H10" s="22">
+        <f>+[7]Main!$L$3</f>
+        <v>345.875</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="O10" s="26"/>
+      <c r="X10" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="21">
-        <v>375.71</v>
-      </c>
-      <c r="E9" s="22">
-        <f>+D9*H9</f>
-        <v>57472.452251789997</v>
-      </c>
-      <c r="F9" s="22">
-        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
-        <v>1696.7459999999999</v>
-      </c>
-      <c r="G9" s="22">
-        <f t="shared" si="2"/>
-        <v>55775.706251789998</v>
-      </c>
-      <c r="H9" s="22">
-        <f>+[6]Main!$N$3</f>
-        <v>152.970249</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="45">
-        <v>44783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+      <c r="B11" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="21">
+        <v>113.23</v>
+      </c>
+      <c r="E11" s="22">
+        <v>33330</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="21">
-        <v>39.74</v>
-      </c>
-      <c r="E10" s="22">
-        <f>+D10*[7]Main!$L$3*EUR</f>
-        <v>53089.738980000009</v>
-      </c>
-      <c r="F10" s="22">
-        <f>+([7]Main!$L$5-[7]Main!$L$6)*EUR</f>
-        <v>-490.25400000000008</v>
-      </c>
-      <c r="G10" s="22">
-        <f t="shared" si="2"/>
-        <v>53579.99298000001</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="B12" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="21">
+        <v>175.2</v>
+      </c>
+      <c r="E12" s="22">
+        <v>27500</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="21">
-        <v>186</v>
-      </c>
-      <c r="E11" s="22">
-        <f>+D11*H11</f>
-        <v>51584.495999999999</v>
-      </c>
-      <c r="F11" s="22">
-        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
-        <v>741.35200000000009</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" si="2"/>
-        <v>50843.144</v>
-      </c>
-      <c r="H11" s="22">
-        <f>+[8]Main!$K$3</f>
-        <v>277.33600000000001</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
+      <c r="B13" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="21">
+        <v>121.2</v>
+      </c>
+      <c r="E13" s="22" cm="1">
+        <f t="array" ref="E13">327904/SEK</f>
+        <v>31700.842058451039</v>
+      </c>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="21">
-        <v>203.73</v>
-      </c>
-      <c r="E12" s="22">
-        <f>+D12*H12</f>
-        <v>44264.86632465</v>
-      </c>
-      <c r="F12" s="22">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>-1005</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" si="2"/>
-        <v>45269.86632465</v>
-      </c>
-      <c r="H12" s="22">
-        <f>+[9]Main!$L$3</f>
-        <v>217.27220500000001</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="X12" s="20">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="110" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="21">
-        <v>2189.48</v>
-      </c>
-      <c r="E13" s="22">
-        <f>D13*H13/CAD</f>
-        <v>35713.078128386704</v>
-      </c>
-      <c r="F13" s="22">
-        <f>[10]Main!$O$5-[10]Main!$O$6</f>
-        <v>-1206</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" si="2"/>
-        <v>36919.078128386704</v>
-      </c>
-      <c r="H13" s="22">
-        <f>+[10]Main!$O$3</f>
-        <v>21.19153</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J13" s="45">
-        <v>44792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>39</v>
+      <c r="B14" s="122" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>324</v>
       </c>
       <c r="D14" s="21">
-        <v>152.88</v>
+        <v>46.37</v>
       </c>
       <c r="E14" s="22">
-        <f>+D14*[11]Main!$L$3</f>
-        <v>52877.369999999995</v>
-      </c>
-      <c r="F14" s="22">
-        <f>([11]Main!$L$5-[11]Main!$L$6)/RMB</f>
-        <v>25459.792284866468</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" si="2"/>
-        <v>27417.577715133528</v>
-      </c>
-      <c r="H14" s="22">
-        <f>+[11]Main!$L$3</f>
-        <v>345.875</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="20">
-        <v>2000</v>
-      </c>
+        <v>20860</v>
+      </c>
+      <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>310</v>
+      <c r="B15" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="D15" s="21">
         <v>113.23</v>
@@ -3767,782 +3788,890 @@
       <c r="E15" s="22">
         <v>33330</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="111" t="s">
+      <c r="B16" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="21">
+        <v>54.71</v>
+      </c>
+      <c r="E16" s="22">
+        <v>28410</v>
+      </c>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="21">
+        <v>375.92</v>
+      </c>
+      <c r="E17" s="22">
+        <v>25610</v>
+      </c>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="21">
+        <v>181.71</v>
+      </c>
+      <c r="E18" s="22">
+        <v>25220</v>
+      </c>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="21">
+        <v>102.23</v>
+      </c>
+      <c r="E19" s="22">
+        <f>+D19*[8]Main!$K$3</f>
+        <v>20147.20788088</v>
+      </c>
+      <c r="F19" s="22">
+        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+        <v>3155</v>
+      </c>
+      <c r="G19" s="22">
+        <f>E19-F19</f>
+        <v>16992.20788088</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="21">
+        <v>9.35</v>
+      </c>
+      <c r="E20" s="22">
+        <f>D20*[9]Main!$L$3</f>
+        <v>19036.599999999999</v>
+      </c>
+      <c r="F20" s="22">
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>2585</v>
+      </c>
+      <c r="G20" s="22">
+        <f>E20-F20</f>
+        <v>16451.599999999999</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="21">
         <v>312</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="21">
-        <v>121.2</v>
-      </c>
-      <c r="E17" s="22" cm="1">
-        <f t="array" ref="E17">327904/SEK</f>
-        <v>31700.842058451039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="20" t="s">
+      <c r="E21" s="22">
+        <v>19090</v>
+      </c>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="21">
+        <v>90.1</v>
+      </c>
+      <c r="E22" s="22">
+        <v>18840</v>
+      </c>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="21">
+        <v>360.34</v>
+      </c>
+      <c r="E23" s="22">
+        <v>18140</v>
+      </c>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="21">
+        <v>114.84</v>
+      </c>
+      <c r="E24" s="22">
+        <v>17930</v>
+      </c>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="21">
+        <v>43.75</v>
+      </c>
+      <c r="E25" s="22">
+        <v>17180</v>
+      </c>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="21">
-        <v>113.23</v>
-      </c>
-      <c r="E19" s="22">
-        <v>33330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="21">
-        <v>54.71</v>
-      </c>
-      <c r="E20" s="22">
-        <v>28410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="21">
-        <v>375.92</v>
-      </c>
-      <c r="E21" s="22">
-        <v>25610</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="21">
-        <v>181.71</v>
-      </c>
-      <c r="E22" s="22">
-        <v>25220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="21">
-        <v>236.61</v>
-      </c>
-      <c r="E23" s="22">
-        <f>+D23*H23</f>
-        <v>20601.316825649999</v>
-      </c>
-      <c r="F23" s="22">
-        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
-        <v>-235.76700000000005</v>
-      </c>
-      <c r="G23" s="22">
-        <f>E23-F23</f>
-        <v>20837.083825649999</v>
-      </c>
-      <c r="H23" s="22">
-        <f>+[12]Main!$M$3</f>
-        <v>87.068664999999996</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23" s="45">
-        <v>44795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="21">
-        <v>102.23</v>
-      </c>
-      <c r="E24" s="22">
-        <f>+D24*[13]Main!$K$3</f>
-        <v>20147.20788088</v>
-      </c>
-      <c r="F24" s="22">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
-        <v>3155</v>
-      </c>
-      <c r="G24" s="22">
-        <f>E24-F24</f>
-        <v>16992.20788088</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="21">
-        <v>9.35</v>
-      </c>
-      <c r="E25" s="22">
-        <f>D25*[14]Main!$L$3</f>
-        <v>19036.599999999999</v>
-      </c>
-      <c r="F25" s="22">
-        <f>[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>2585</v>
-      </c>
-      <c r="G25" s="22">
-        <f>E25-F25</f>
-        <v>16451.599999999999</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="C26" s="20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D26" s="21">
-        <v>312</v>
+        <v>40.44</v>
       </c>
       <c r="E26" s="22">
-        <v>19090</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
-        <v>67</v>
+        <v>16810</v>
+      </c>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="123" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D27" s="21">
-        <v>90.1</v>
+        <v>63.5</v>
       </c>
       <c r="E27" s="22">
-        <v>18840</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
-        <v>69</v>
+        <v>16440</v>
+      </c>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="123" t="s">
+        <v>85</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D28" s="21">
-        <v>360.34</v>
+        <v>363.45</v>
       </c>
       <c r="E28" s="22">
-        <v>18140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
-        <v>195</v>
+        <v>15250</v>
+      </c>
+      <c r="O28" s="26"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="123" t="s">
+        <v>197</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D29" s="21">
-        <v>114.84</v>
+        <v>87.46</v>
       </c>
       <c r="E29" s="22">
-        <v>17930</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>73</v>
+        <v>16020</v>
+      </c>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="123" t="s">
+        <v>203</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="D30" s="21">
-        <v>43.75</v>
+        <v>97.08</v>
       </c>
       <c r="E30" s="22">
-        <v>17180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
-        <v>79</v>
+        <v>15070</v>
+      </c>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="123" t="s">
+        <v>90</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D31" s="21">
-        <v>40.44</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E31" s="22">
-        <v>16810</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="s">
-        <v>83</v>
+        <v>14050</v>
+      </c>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="123" t="s">
+        <v>92</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D32" s="21">
-        <v>63.5</v>
+        <v>206.61</v>
       </c>
       <c r="E32" s="22">
-        <v>16440</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
-        <v>85</v>
+        <v>13880</v>
+      </c>
+      <c r="O32" s="26"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="123" t="s">
+        <v>94</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D33" s="21">
-        <v>363.45</v>
+        <v>115.52</v>
       </c>
       <c r="E33" s="22">
-        <v>15250</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="20" t="s">
-        <v>197</v>
+        <v>13640</v>
+      </c>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="123" t="s">
+        <v>95</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="D34" s="21">
-        <v>87.46</v>
+        <v>206.68</v>
       </c>
       <c r="E34" s="22">
-        <v>16020</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
-        <v>203</v>
+        <v>12990</v>
+      </c>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="123" t="s">
+        <v>96</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D35" s="21">
-        <v>97.08</v>
+        <v>43.77</v>
       </c>
       <c r="E35" s="22">
-        <v>15070</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
-        <v>90</v>
+        <v>12660</v>
+      </c>
+      <c r="O35" s="26"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="123" t="s">
+        <v>100</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D36" s="21">
-        <v>135.02000000000001</v>
+        <v>98.74</v>
       </c>
       <c r="E36" s="22">
-        <v>14050</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
-        <v>92</v>
+        <v>12490</v>
+      </c>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="123" t="s">
+        <v>102</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D37" s="21">
-        <v>206.61</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E37" s="22">
-        <v>13880</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
-        <v>94</v>
+        <v>11000</v>
+      </c>
+      <c r="O37" s="26"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="123" t="s">
+        <v>104</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D38" s="21">
-        <v>115.52</v>
+        <v>408.48</v>
       </c>
       <c r="E38" s="22">
-        <v>13640</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="s">
-        <v>95</v>
+        <v>10570</v>
+      </c>
+      <c r="O38" s="26"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="123" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D39" s="21">
-        <v>206.68</v>
+        <v>80.52</v>
       </c>
       <c r="E39" s="22">
-        <v>12990</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="20" t="s">
-        <v>96</v>
+        <v>10310</v>
+      </c>
+      <c r="O39" s="26"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="123" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D40" s="21">
-        <v>43.77</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E40" s="22">
-        <v>12660</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="20" t="s">
-        <v>100</v>
+        <v>10210</v>
+      </c>
+      <c r="O40" s="26"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="123" t="s">
+        <v>113</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D41" s="21">
-        <v>98.74</v>
+        <v>8.17</v>
       </c>
       <c r="E41" s="22">
-        <v>12490</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="s">
-        <v>102</v>
+        <v>9320</v>
+      </c>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="123" t="s">
+        <v>115</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D42" s="21">
-        <v>40.369999999999997</v>
+        <v>14.73</v>
       </c>
       <c r="E42" s="22">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="20" t="s">
-        <v>104</v>
+        <v>9140</v>
+      </c>
+      <c r="O42" s="26"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="123" t="s">
+        <v>117</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D43" s="21">
-        <v>408.48</v>
+        <v>56.9</v>
       </c>
       <c r="E43" s="22">
-        <v>10570</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="20" t="s">
-        <v>108</v>
+        <v>9000</v>
+      </c>
+      <c r="O43" s="26"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="123" t="s">
+        <v>119</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D44" s="21">
-        <v>80.52</v>
+        <v>203.42</v>
       </c>
       <c r="E44" s="22">
-        <v>10310</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
-        <v>110</v>
+        <v>8580</v>
+      </c>
+      <c r="O44" s="26"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="123" t="s">
+        <v>122</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D45" s="21">
-        <v>35.200000000000003</v>
+        <v>126.81</v>
       </c>
       <c r="E45" s="22">
-        <v>10210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="20" t="s">
-        <v>113</v>
+        <v>8200</v>
+      </c>
+      <c r="O45" s="26"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="123" t="s">
+        <v>124</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D46" s="21">
-        <v>8.17</v>
+        <v>50.35</v>
       </c>
       <c r="E46" s="22">
-        <v>9320</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="20" t="s">
-        <v>115</v>
+        <v>8150</v>
+      </c>
+      <c r="O46" s="26"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="123" t="s">
+        <v>127</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D47" s="21">
-        <v>14.73</v>
+        <v>88.7</v>
       </c>
       <c r="E47" s="22">
-        <v>9140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="20" t="s">
-        <v>117</v>
+        <v>7910</v>
+      </c>
+      <c r="O47" s="26"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="123" t="s">
+        <v>129</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D48" s="21">
-        <v>56.9</v>
+        <v>78.3</v>
       </c>
       <c r="E48" s="22">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="20" t="s">
-        <v>119</v>
+        <v>7580</v>
+      </c>
+      <c r="O48" s="26"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="123" t="s">
+        <v>131</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D49" s="21">
-        <v>203.42</v>
+        <v>50.36</v>
       </c>
       <c r="E49" s="22">
-        <v>8580</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
-        <v>122</v>
+        <v>7140</v>
+      </c>
+      <c r="O49" s="26"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="123" t="s">
+        <v>133</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D50" s="21">
-        <v>126.81</v>
+        <v>80.58</v>
       </c>
       <c r="E50" s="22">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="20" t="s">
-        <v>124</v>
+        <v>6930</v>
+      </c>
+      <c r="O50" s="26"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="123" t="s">
+        <v>135</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D51" s="21">
-        <v>50.35</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E51" s="22">
-        <v>8150</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
-        <v>127</v>
+        <v>6880</v>
+      </c>
+      <c r="O51" s="26"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="123" t="s">
+        <v>139</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D52" s="21">
-        <v>88.7</v>
+        <v>54.6</v>
       </c>
       <c r="E52" s="22">
-        <v>7910</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
-        <v>129</v>
+        <v>6370</v>
+      </c>
+      <c r="O52" s="26"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="123" t="s">
+        <v>141</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D53" s="21">
-        <v>78.3</v>
+        <v>62.59</v>
       </c>
       <c r="E53" s="22">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
-        <v>131</v>
+        <v>6350</v>
+      </c>
+      <c r="O53" s="26"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="123" t="s">
+        <v>143</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D54" s="21">
-        <v>50.36</v>
+        <v>62.71</v>
       </c>
       <c r="E54" s="22">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
-        <v>133</v>
+        <v>3603</v>
+      </c>
+      <c r="O54" s="26"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="123" t="s">
+        <v>144</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D55" s="21">
-        <v>80.58</v>
+        <v>21.19</v>
       </c>
       <c r="E55" s="22">
-        <v>6930</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
-        <v>135</v>
+        <v>2965</v>
+      </c>
+      <c r="O55" s="26"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="123" t="s">
+        <v>149</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D56" s="21">
-        <v>32.869999999999997</v>
+        <v>26.99</v>
       </c>
       <c r="E56" s="22">
-        <v>6880</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>138</v>
+        <v>1400</v>
+      </c>
+      <c r="O56" s="26"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="125" t="s">
+        <v>226</v>
       </c>
       <c r="D57" s="21">
-        <v>17.63</v>
+        <v>13.95</v>
       </c>
       <c r="E57" s="22">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>140</v>
+        <v>2030</v>
+      </c>
+      <c r="O57" s="26"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="125" t="s">
+        <v>228</v>
       </c>
       <c r="D58" s="21">
-        <v>54.6</v>
+        <v>19.95</v>
       </c>
       <c r="E58" s="22">
-        <v>6370</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="21">
-        <v>62.59</v>
-      </c>
-      <c r="E59" s="22">
-        <v>6350</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="21">
-        <v>62.71</v>
-      </c>
-      <c r="E60" s="22">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="21">
-        <v>21.19</v>
-      </c>
-      <c r="E61" s="22">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="21">
-        <v>26.99</v>
-      </c>
-      <c r="E62" s="22">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" s="43">
-        <v>31.44</v>
-      </c>
-      <c r="E63" s="22">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" s="21">
-        <v>13.95</v>
-      </c>
-      <c r="E64" s="22">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="21">
-        <v>19.95</v>
-      </c>
-      <c r="E65" s="22">
         <v>2560</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="48" t="s">
+      <c r="O58" s="26"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C59" s="46" t="s">
         <v>237</v>
       </c>
+      <c r="O59" s="26"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="123"/>
+      <c r="O60" s="26"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="123"/>
+      <c r="O61" s="26"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="123"/>
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63" s="123"/>
+      <c r="O63" s="26"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="123"/>
+      <c r="O64" s="26"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="123"/>
+      <c r="O65" s="26"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="123"/>
+      <c r="O66" s="26"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" s="123"/>
+      <c r="O67" s="26"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="127"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="133"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B25" r:id="rId6" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F0FD3AE8-EA92-47CC-9713-F9163090CCA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4554,15 +4683,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="74" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="74"/>
-    <col min="5" max="5" width="10" style="74" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="74"/>
-    <col min="7" max="7" width="10.140625" style="74" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="74"/>
-    <col min="10" max="10" width="10" style="74" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="5" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="72" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="72"/>
+    <col min="5" max="5" width="10" style="72" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="72"/>
+    <col min="7" max="7" width="10.140625" style="72" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="72"/>
+    <col min="10" max="10" width="10" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -4571,78 +4700,78 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="S2" s="81">
+      <c r="S2" s="79">
         <v>2025</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="80">
+      <c r="U2" s="78">
         <v>2023</v>
       </c>
-      <c r="V2" s="80">
+      <c r="V2" s="78">
         <v>2024</v>
       </c>
-      <c r="W2" s="81">
+      <c r="W2" s="79">
         <v>2025</v>
       </c>
-      <c r="X2" s="74" t="s">
+      <c r="X2" s="72" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4673,7 +4802,7 @@
       <c r="I3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="43">
         <v>44796</v>
       </c>
       <c r="K3" s="27">
@@ -4684,7 +4813,7 @@
         <f>K3/D3-1</f>
         <v>0.90986787538189273</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="36">
         <f>+[3]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4730,7 +4859,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4743,11 +4872,11 @@
         <v>71.02</v>
       </c>
       <c r="E4" s="22">
-        <f>+D4*[15]Main!$G$3</f>
+        <f>+D4*[10]Main!$G$3</f>
         <v>194736.84</v>
       </c>
       <c r="F4" s="22">
-        <f>+[15]Main!$G$5-[15]Main!$G$6</f>
+        <f>+[10]Main!$G$5-[10]Main!$G$6</f>
         <v>-53957</v>
       </c>
       <c r="G4" s="22">
@@ -4774,7 +4903,7 @@
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="82" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4787,11 +4916,11 @@
         <v>189</v>
       </c>
       <c r="E5" s="22">
-        <f>+D5*[16]Main!$M$3</f>
+        <f>+D5*[11]Main!$M$3</f>
         <v>188055</v>
       </c>
       <c r="F5" s="22">
-        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
+        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
         <v>7842</v>
       </c>
       <c r="G5" s="22">
@@ -4818,7 +4947,7 @@
       <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4831,11 +4960,11 @@
         <v>99.86</v>
       </c>
       <c r="E6" s="22">
-        <f>+D6*[17]Main!$L$3</f>
+        <f>+D6*[12]Main!$L$3</f>
         <v>117834.8</v>
       </c>
       <c r="F6" s="22">
-        <f>+[17]Main!$L$5-[17]Main!$L$6</f>
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>870</v>
       </c>
       <c r="G6" s="22">
@@ -4862,7 +4991,7 @@
       <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="82" t="s">
         <v>263</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4875,11 +5004,11 @@
         <v>440</v>
       </c>
       <c r="E7" s="22">
-        <f>+D7*[18]Main!$L$3</f>
+        <f>+D7*[13]Main!$L$3</f>
         <v>88000</v>
       </c>
       <c r="F7" s="22">
-        <f>+[18]Main!$L$5-[18]Main!$L$6</f>
+        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
         <v>3926</v>
       </c>
       <c r="G7" s="22">
@@ -4906,7 +5035,7 @@
       <c r="W7" s="26"/>
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="94" t="s">
         <v>263</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4923,7 +5052,7 @@
         <v>51593.343664439999</v>
       </c>
       <c r="F8" s="22">
-        <f>+[19]Main!$M$5-[19]Main!$M$6</f>
+        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
         <v>-8207</v>
       </c>
       <c r="G8" s="22">
@@ -4931,10 +5060,10 @@
         <v>59800.343664439999</v>
       </c>
       <c r="H8" s="22">
-        <f>+[19]Main!$M$3</f>
+        <f>+[14]Main!$M$3</f>
         <v>421.445382</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="47" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="23"/>
@@ -4953,18 +5082,18 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="89" t="s">
         <v>263</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4977,11 +5106,11 @@
         <v>200.8</v>
       </c>
       <c r="E10" s="22">
-        <f>+D10*[20]Main!$L$3</f>
+        <f>+D10*[15]Main!$L$3</f>
         <v>50947.578400000006</v>
       </c>
       <c r="F10" s="22">
-        <f>+[20]Main!$L$5-[20]Main!$L$6</f>
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
         <v>432.39900000000011</v>
       </c>
       <c r="G10" s="22">
@@ -4989,7 +5118,7 @@
         <v>50515.179400000008</v>
       </c>
       <c r="H10" s="22">
-        <f>+[20]Main!$L$3</f>
+        <f>+[15]Main!$L$3</f>
         <v>253.72300000000001</v>
       </c>
       <c r="I10" s="34" t="s">
@@ -4997,7 +5126,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="98" t="s">
         <v>263</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5014,7 +5143,7 @@
         <v>42336</v>
       </c>
       <c r="F11" s="22">
-        <f>+[21]Main!$P$5-[21]Main!$P$6</f>
+        <f>+[16]Main!$P$5-[16]Main!$P$6</f>
         <v>2134</v>
       </c>
       <c r="G11" s="22">
@@ -5022,18 +5151,18 @@
         <v>40202</v>
       </c>
       <c r="H11" s="23">
-        <f>+[21]Main!$P$3</f>
+        <f>+[16]Main!$P$3</f>
         <v>252</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="43">
         <v>44793</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="89" t="s">
         <v>263</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5046,11 +5175,11 @@
         <v>135.57</v>
       </c>
       <c r="E12" s="22">
-        <f>+D12*[22]Main!$M$3</f>
+        <f>+D12*[17]Main!$M$3</f>
         <v>42617.920769999997</v>
       </c>
       <c r="F12" s="22">
-        <f>+[22]Main!$M$5-[22]Main!$M$6</f>
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>5027.4579999999996</v>
       </c>
       <c r="G12" s="22">
@@ -5058,15 +5187,15 @@
         <v>37590.462769999998</v>
       </c>
       <c r="H12" s="22">
-        <f>+[22]Main!$M$3</f>
+        <f>+[17]Main!$M$3</f>
         <v>314.36099999999999</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="101" t="s">
         <v>263</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5083,7 +5212,7 @@
         <v>35453.770264799998</v>
       </c>
       <c r="F13" s="22">
-        <f>+[23]Main!$M$5-[23]Main!$M$6</f>
+        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
         <v>2838.5529999999999</v>
       </c>
       <c r="G13" s="22">
@@ -5091,24 +5220,24 @@
         <v>32615.217264799998</v>
       </c>
       <c r="H13" s="22">
-        <f>+[23]Main!$M$3</f>
+        <f>+[18]Main!$M$3</f>
         <v>154.847005</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="43">
         <v>44794</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="105" t="s">
         <v>184</v>
       </c>
       <c r="D14" s="21"/>
@@ -5116,11 +5245,11 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="45"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="105" t="s">
         <v>263</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5136,22 +5265,22 @@
         <f>+D15*H15</f>
         <v>30555</v>
       </c>
-      <c r="F15" s="73">
-        <f>+[24]Main!$O$5-[24]Main!$O$6</f>
+      <c r="F15" s="71">
+        <f>+[19]Main!$O$5-[19]Main!$O$6</f>
         <v>970</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>29585</v>
       </c>
-      <c r="H15" s="73">
-        <f>+[24]Main!$O$3</f>
+      <c r="H15" s="71">
+        <f>+[19]Main!$O$3</f>
         <v>315</v>
       </c>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="J15" s="106">
+      <c r="J15" s="103">
         <v>44805</v>
       </c>
     </row>
@@ -5170,7 +5299,7 @@
         <v>9339.93</v>
       </c>
       <c r="F16" s="22">
-        <f>+[25]Main!$P$5-[25]Main!$P$6</f>
+        <f>+[20]Main!$P$5-[20]Main!$P$6</f>
         <v>282</v>
       </c>
       <c r="G16" s="22">
@@ -5178,13 +5307,13 @@
         <v>9057.93</v>
       </c>
       <c r="H16" s="22">
-        <f>+[25]Main!$P$3</f>
+        <f>+[20]Main!$P$3</f>
         <v>157</v>
       </c>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="43">
         <v>44805</v>
       </c>
       <c r="K16" s="24"/>
@@ -5202,15 +5331,15 @@
       <c r="W16" s="26"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="95" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="72">
         <v>107</v>
       </c>
     </row>
@@ -5243,9 +5372,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="65" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="63" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -5278,7 +5407,7 @@
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="42" t="s">
         <v>234</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -5296,19 +5425,19 @@
       <c r="O2" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="49" t="s">
         <v>241</v>
       </c>
       <c r="S2" s="19">
         <v>2025</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="48" t="s">
         <v>238</v>
       </c>
       <c r="U2" s="18">
@@ -5325,7 +5454,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -5338,11 +5467,11 @@
         <v>165</v>
       </c>
       <c r="E3" s="22">
-        <f>+D3*[26]Main!$M$3</f>
+        <f>+D3*[21]Main!$M$3</f>
         <v>452430</v>
       </c>
       <c r="F3" s="22">
-        <f>+[26]Main!$M$5-[26]Main!$M$6</f>
+        <f>+[21]Main!$M$5-[21]Main!$M$6</f>
         <v>43890</v>
       </c>
       <c r="G3" s="22">
@@ -5350,17 +5479,17 @@
         <v>408540</v>
       </c>
       <c r="H3" s="22">
-        <f>+[26]Main!$M$3</f>
+        <f>+[21]Main!$M$3</f>
         <v>2742</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="43">
         <v>44798</v>
       </c>
       <c r="K3" s="27">
-        <f>+[26]Model!$AT$50</f>
+        <f>+[21]Model!$AT$50</f>
         <v>260.93479765840237</v>
       </c>
       <c r="L3" s="28">
@@ -5368,15 +5497,15 @@
         <v>0.58142301611152947</v>
       </c>
       <c r="M3" s="28">
-        <f>+[26]Model!$AT$47</f>
+        <f>+[21]Model!$AT$47</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N3" s="28">
-        <f>+[26]Model!$AT$48</f>
+        <f>+[21]Model!$AT$48</f>
         <v>-0.05</v>
       </c>
       <c r="O3" s="28">
-        <f>+[26]Model!$AT$49</f>
+        <f>+[21]Model!$AT$49</f>
         <v>0.01</v>
       </c>
       <c r="P3" s="25"/>
@@ -5392,7 +5521,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -5436,13 +5565,13 @@
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="96" t="s">
         <v>292</v>
       </c>
       <c r="D5" s="21"/>
@@ -5467,7 +5596,7 @@
       <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="107" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5502,10 +5631,10 @@
       <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="96" t="s">
         <v>290</v>
       </c>
       <c r="D7" s="21"/>
@@ -5530,10 +5659,10 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="96" t="s">
         <v>294</v>
       </c>
       <c r="D8" s="21"/>
@@ -5581,27 +5710,27 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="64" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="96" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="63" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5617,14 +5746,333 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F12437-B4E9-44AF-8552-EF0FF979C92B}">
+  <dimension ref="A1:X10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="113" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="113" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="E2" s="114">
+        <f>SUM(E3:E48)</f>
+        <v>229232.87038208998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="21">
+        <v>375.71</v>
+      </c>
+      <c r="E3" s="22">
+        <f>+D3*H3</f>
+        <v>57472.452251789997</v>
+      </c>
+      <c r="F3" s="22">
+        <f>+[22]Main!$N$5-[22]Main!$N$6</f>
+        <v>1696.7459999999999</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3-F3</f>
+        <v>55775.706251789998</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[22]Main!$N$3</f>
+        <v>152.970249</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="43">
+        <v>44783</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="21">
+        <v>39.74</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[23]Main!$L$3*EUR</f>
+        <v>53089.738980000009</v>
+      </c>
+      <c r="F4" s="22">
+        <f>+([23]Main!$L$5-[23]Main!$L$6)*EUR</f>
+        <v>-490.25400000000008</v>
+      </c>
+      <c r="G4" s="22">
+        <f>E4-F4</f>
+        <v>53579.99298000001</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="26"/>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="21">
+        <v>186</v>
+      </c>
+      <c r="E5" s="22">
+        <f>+D5*H5</f>
+        <v>51584.495999999999</v>
+      </c>
+      <c r="F5" s="22">
+        <f>+[24]Main!$K$5-[24]Main!$K$6</f>
+        <v>741.35200000000009</v>
+      </c>
+      <c r="G5" s="22">
+        <f>E5-F5</f>
+        <v>50843.144</v>
+      </c>
+      <c r="H5" s="22">
+        <f>+[24]Main!$K$3</f>
+        <v>277.33600000000001</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="21">
+        <v>203.73</v>
+      </c>
+      <c r="E6" s="22">
+        <f>+D6*H6</f>
+        <v>44264.86632465</v>
+      </c>
+      <c r="F6" s="22">
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <v>-1005</v>
+      </c>
+      <c r="G6" s="22">
+        <f>E6-F6</f>
+        <v>45269.86632465</v>
+      </c>
+      <c r="H6" s="22">
+        <f>+[25]Main!$L$3</f>
+        <v>217.27220500000001</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="20">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="21">
+        <v>236.61</v>
+      </c>
+      <c r="E7" s="22">
+        <f>+D7*H7</f>
+        <v>20601.316825649999</v>
+      </c>
+      <c r="F7" s="22">
+        <f>+[26]Main!$M$5-[26]Main!$M$6</f>
+        <v>-235.76700000000005</v>
+      </c>
+      <c r="G7" s="22">
+        <f>E7-F7</f>
+        <v>20837.083825649999</v>
+      </c>
+      <c r="H7" s="22">
+        <f>+[26]Main!$M$3</f>
+        <v>87.068664999999996</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="43">
+        <v>44795</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="26"/>
+    </row>
+    <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="41">
+        <v>31.44</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2220</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="26"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="113" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A7E983F7-BC7A-4B3D-8444-6070EF708DDF}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{C691107C-F03A-4EB9-887D-F480D084DC80}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{C9E770CD-C0F9-437F-A1F8-A5EC0DD0B08B}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{8CA64543-CFB9-4EFA-93C4-C766402037C3}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{69B9600D-1FE1-4411-8DDE-BF8E78812291}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{3FA63595-4D83-4815-90B6-28C534796235}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5666,7 +6114,7 @@
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="42" t="s">
         <v>234</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -5684,19 +6132,19 @@
       <c r="O2" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="50" t="s">
         <v>241</v>
       </c>
       <c r="S2" s="19">
         <v>2025</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="48" t="s">
         <v>238</v>
       </c>
       <c r="U2" s="18">
@@ -5708,12 +6156,12 @@
       <c r="W2" s="19">
         <v>2025</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="51" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -5746,7 +6194,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -5776,7 +6224,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="82" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5807,8 +6255,8 @@
       <c r="I5" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="45">
-        <v>44819</v>
+      <c r="J5" s="43">
+        <v>44823</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -5823,15 +6271,18 @@
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
       <c r="W5" s="26"/>
+      <c r="X5" s="20">
+        <v>1982</v>
+      </c>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="82" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="21"/>
@@ -5856,13 +6307,13 @@
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="85" t="s">
         <v>274</v>
       </c>
       <c r="D7" s="21"/>
@@ -5887,7 +6338,7 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>263</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5899,56 +6350,56 @@
       <c r="D8" s="10">
         <v>80.27</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <v>62800</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>263</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>59910</v>
       </c>
-      <c r="E9" s="54" cm="1">
+      <c r="E9" s="52" cm="1">
         <f t="array" ref="E9">6975000/JPY</f>
         <v>50938.435697071494</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="98" t="s">
         <v>263</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5960,15 +6411,15 @@
       <c r="D12" s="10">
         <v>130.47999999999999</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="52">
         <f>+D12*H12</f>
         <v>36664.879999999997</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <f>+[28]Main!$N$5-[28]Main!$N$6</f>
         <v>538</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="52">
         <f>+E12-F12</f>
         <v>36126.879999999997</v>
       </c>
@@ -5976,10 +6427,10 @@
         <f>+[28]Main!$N$3</f>
         <v>281</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="67">
         <v>44799</v>
       </c>
       <c r="X12" s="10">
@@ -5996,7 +6447,7 @@
       <c r="D13" s="10">
         <v>127.74</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="52">
         <v>21290</v>
       </c>
     </row>
@@ -6058,7 +6509,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="65" t="s">
         <v>260</v>
       </c>
       <c r="D17" s="21"/>
@@ -6213,7 +6664,7 @@
       <c r="W23" s="24"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="63" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6230,7 +6681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
   <dimension ref="A1:X32"/>
   <sheetViews>
@@ -6246,7 +6697,7 @@
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="10" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="70"/>
+    <col min="4" max="9" width="9.140625" style="68"/>
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -6280,7 +6731,7 @@
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="42" t="s">
         <v>234</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -6298,19 +6749,19 @@
       <c r="O2" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="50" t="s">
         <v>241</v>
       </c>
       <c r="S2" s="19">
         <v>2025</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="48" t="s">
         <v>238</v>
       </c>
       <c r="U2" s="18">
@@ -6322,347 +6773,347 @@
       <c r="W2" s="19">
         <v>2025</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="51" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>206.8</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="70">
         <v>427830</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-    </row>
-    <row r="4" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="69">
         <v>340.89</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="70">
         <v>329430</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-    </row>
-    <row r="5" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-    </row>
-    <row r="6" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-    </row>
-    <row r="7" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="60">
         <v>87.2</v>
       </c>
       <c r="E7" s="3">
         <v>100981</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="87" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="88" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="69">
         <v>70.94</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="70">
         <v>41870</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-    </row>
-    <row r="11" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+    </row>
+    <row r="11" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+    </row>
+    <row r="12" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+    </row>
+    <row r="14" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-    </row>
-    <row r="15" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+    </row>
+    <row r="15" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="104" t="s">
         <v>304</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-    </row>
-    <row r="16" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="109" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-    </row>
-    <row r="17" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+    </row>
+    <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="109" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-    </row>
-    <row r="18" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="59" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+    </row>
+    <row r="18" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="60">
         <v>68.930000000000007</v>
       </c>
       <c r="E18" s="3">
         <v>18053</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-    </row>
-    <row r="19" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="54" t="s">
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="69">
         <v>58.75</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="70">
         <v>14980</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-    </row>
-    <row r="20" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="59" t="s">
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="60">
         <v>184.44</v>
       </c>
       <c r="E20" s="3">
         <v>10400</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-    </row>
-    <row r="26" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="60" t="s">
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="26" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="61">
         <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>100000</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="63">
+      <c r="C27" s="57"/>
+      <c r="D27" s="61">
         <v>0</v>
       </c>
       <c r="E27" s="3">
@@ -6670,11 +7121,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="63">
+      <c r="C28" s="57"/>
+      <c r="D28" s="61">
         <v>0</v>
       </c>
       <c r="E28" s="3">
@@ -6682,37 +7133,37 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="61">
         <v>0</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="68">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="68">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="68">
         <v>159.5</v>
       </c>
     </row>
@@ -6725,7 +7176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -6733,7 +7184,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6748,79 +7199,79 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="1:24" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="S2" s="81">
+      <c r="S2" s="79">
         <v>2025</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="80">
+      <c r="U2" s="78">
         <v>2023</v>
       </c>
-      <c r="V2" s="80">
+      <c r="V2" s="78">
         <v>2024</v>
       </c>
-      <c r="W2" s="81">
+      <c r="W2" s="79">
         <v>2025</v>
       </c>
-      <c r="X2" s="74" t="s">
+      <c r="X2" s="72" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6848,7 +7299,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -6892,7 +7343,7 @@
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -6921,7 +7372,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6938,18 +7389,18 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="86" t="s">
         <v>263</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -6960,7 +7411,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>263</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -6971,18 +7422,18 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="98" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="96" t="s">
         <v>263</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -6993,7 +7444,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="98" t="s">
         <v>263</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -7037,13 +7488,13 @@
       <c r="W12" s="26"/>
     </row>
     <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="98" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="98" t="s">
         <v>298</v>
       </c>
       <c r="D13" s="21"/>
@@ -7068,7 +7519,7 @@
       <c r="W13" s="24"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="87" t="s">
         <v>263</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -7079,7 +7530,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="108" t="s">
         <v>263</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7096,50 +7547,50 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="108" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="108" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="113" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="110" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="111" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
@@ -7153,7 +7604,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>163</v>
       </c>
@@ -7161,7 +7612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>165</v>
       </c>
@@ -7169,7 +7620,39 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="21">
+        <v>17.63</v>
+      </c>
+      <c r="E23" s="22">
+        <v>6480</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
@@ -7179,7 +7662,7 @@
         <v>8333</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>64</v>
       </c>
@@ -7189,7 +7672,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>55</v>
       </c>
@@ -7211,7 +7694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -7249,7 +7732,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -7260,7 +7743,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>263</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -7271,7 +7754,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="92" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -7282,13 +7765,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="101" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7323,7 +7806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7331,8 +7814,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="5" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -7341,50 +7824,50 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="45">
         <v>7.8498000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="45">
         <v>6.74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="45">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="45">
         <v>10.3437</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <v>136.93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="45">
         <v>1.2991999999999999</v>
       </c>
     </row>
@@ -7395,145 +7878,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8000</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F0FD3AE8-EA92-47CC-9713-F9163090CCA8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EB047-D9B7-4133-8805-0474058ADD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C2119C-56B0-4971-9898-BE6A10973E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="1095" windowWidth="21705" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56040" yWindow="645" windowWidth="22515" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Enterprise-Cloud" sheetId="10" r:id="rId2"/>
-    <sheet name="Social" sheetId="9" r:id="rId3"/>
+    <sheet name="Social-Dating" sheetId="9" r:id="rId3"/>
     <sheet name="Simulation-Technical Design" sheetId="11" r:id="rId4"/>
     <sheet name="Media-Games-Design" sheetId="8" r:id="rId5"/>
     <sheet name="Fintech" sheetId="7" r:id="rId6"/>
@@ -61,7 +61,6 @@
     <definedName name="SEK">FX!$C$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -83,7 +82,7 @@
     <author>tc={9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}</author>
   </authors>
   <commentList>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -1102,6 +1101,39 @@
   </si>
   <si>
     <t>Certera</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>MTCH</t>
+  </si>
+  <si>
+    <t>Hinge</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Truth Social</t>
+  </si>
+  <si>
+    <t>DWAC</t>
+  </si>
+  <si>
+    <t>Quora</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>SecondLife</t>
   </si>
 </sst>
 </file>
@@ -1111,13 +1143,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1537,268 +1575,271 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2282,17 +2323,18 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>2742</v>
+            <v>2713</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>43890</v>
+            <v>47025</v>
           </cell>
         </row>
         <row r="6">
@@ -2303,26 +2345,27 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="47">
-          <cell r="AT47">
-            <v>7.0000000000000007E-2</v>
+          <cell r="AX47">
+            <v>0.08</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="AT48">
+          <cell r="AX48">
             <v>-0.05</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="AT49">
+          <cell r="AX49">
             <v>0.01</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="AT50">
-            <v>260.93479765840237</v>
+          <cell r="AX50">
+            <v>211.03311392601657</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2758,7 +2801,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3185,7 +3228,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E29" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
+  <threadedComment ref="E30" dT="2022-08-24T01:15:21.27" personId="{00000000-0000-0000-0000-000000000000}" id="{9A7BDD87-4728-4B2C-A2F9-F452DF1FAEF5}">
     <text>Series A with ARod, Thrive, Tiger, Marc Lore</text>
   </threadedComment>
 </ThreadedComments>
@@ -3193,13 +3236,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="A2:X68"/>
+  <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3250,7 @@
     <col min="1" max="1" width="1.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="21"/>
+    <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="22" customWidth="1"/>
     <col min="6" max="10" width="9.42578125" style="23" customWidth="1"/>
     <col min="11" max="15" width="8.5703125" style="24"/>
@@ -3222,24 +3265,24 @@
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L2" s="28">
-        <f>AVERAGE(L4:L6)</f>
-        <v>0.52233594707061515</v>
+        <f>AVERAGE(L4:L5)</f>
+        <v>0.32856998291497624</v>
       </c>
       <c r="P2" s="29">
-        <f>AVERAGE(P4:P6)</f>
-        <v>44.442050288440583</v>
+        <f>AVERAGE(P4:P5)</f>
+        <v>16.876759090129248</v>
       </c>
       <c r="Q2" s="37">
-        <f>AVERAGE(Q4:Q6)</f>
-        <v>19.660943543977282</v>
+        <f>AVERAGE(Q4:Q5)</f>
+        <v>14.645179621110156</v>
       </c>
       <c r="R2" s="37">
-        <f>AVERAGE(R4:R6)</f>
-        <v>17.660243915877423</v>
+        <f>AVERAGE(R4:R5)</f>
+        <v>12.490319735060142</v>
       </c>
       <c r="S2" s="30">
-        <f>AVERAGE(S4:S6)</f>
-        <v>13.776215113939967</v>
+        <f>AVERAGE(S4:S5)</f>
+        <v>10.772106224349255</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -3425,19 +3468,19 @@
         <v>0.01</v>
       </c>
       <c r="P5" s="29">
-        <f t="shared" ref="P5:S6" si="0">+($G5/$H5)/T5</f>
+        <f>+($G5/$H5)/T5</f>
         <v>16.876759090129248</v>
       </c>
       <c r="Q5" s="30">
-        <f t="shared" si="0"/>
+        <f>+($G5/$H5)/U5</f>
         <v>14.645179621110156</v>
       </c>
       <c r="R5" s="30">
-        <f t="shared" si="0"/>
+        <f>+($G5/$H5)/V5</f>
         <v>12.490319735060142</v>
       </c>
       <c r="S5" s="31">
-        <f t="shared" si="0"/>
+        <f>+($G5/$H5)/W5</f>
         <v>10.772106224349255</v>
       </c>
       <c r="T5" s="32">
@@ -3458,253 +3501,146 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="107" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="115" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="D6" s="21">
-        <v>121.12</v>
+        <v>2189.48</v>
       </c>
       <c r="E6" s="22">
-        <f>+D6*[3]Main!$K$3</f>
-        <v>1233916.6395561602</v>
+        <f>D6*H6/CAD</f>
+        <v>35713.078128386704</v>
       </c>
       <c r="F6" s="22">
-        <f>[3]Main!$K$5-[3]Main!$K$6</f>
-        <v>2657</v>
+        <f>[6]Main!$O$5-[6]Main!$O$6</f>
+        <v>-1206</v>
       </c>
       <c r="G6" s="22">
-        <f>+E6-F6</f>
-        <v>1231259.6395561602</v>
+        <f>E6-F6</f>
+        <v>36919.078128386704</v>
       </c>
       <c r="H6" s="22">
-        <f>+[3]Main!$K$3</f>
-        <v>10187.554818000001</v>
-      </c>
-      <c r="I6" s="23" t="s">
+        <f>+[6]Main!$O$3</f>
+        <v>21.19153</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="43">
+        <v>44792</v>
+      </c>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21">
+        <v>152.88</v>
+      </c>
+      <c r="E7" s="22">
+        <f>+D7*[7]Main!$L$3</f>
+        <v>52877.369999999995</v>
+      </c>
+      <c r="F7" s="22">
+        <f>([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
+        <v>25459.792284866468</v>
+      </c>
+      <c r="G7" s="22">
+        <f>E7-F7</f>
+        <v>27417.577715133528</v>
+      </c>
+      <c r="H7" s="22">
+        <f>+[7]Main!$L$3</f>
+        <v>345.875</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="43">
-        <v>44796</v>
-      </c>
-      <c r="K6" s="27">
-        <f>+[3]Model!$BG$47</f>
-        <v>231.32319706625486</v>
-      </c>
-      <c r="L6" s="28">
-        <f>K6/D6-1</f>
-        <v>0.90986787538189273</v>
-      </c>
-      <c r="M6" s="36">
-        <f>+[3]Model!$BG$43</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N6" s="28">
-        <f>+[3]Model!$BG$45</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="116">
-        <f>+[3]Model!$BG$44</f>
-        <v>0.01</v>
-      </c>
-      <c r="P6" s="29">
-        <f t="shared" si="0"/>
-        <v>72.007341486751912</v>
-      </c>
-      <c r="Q6" s="30">
-        <f t="shared" si="0"/>
-        <v>24.676707466844412</v>
-      </c>
-      <c r="R6" s="30">
-        <f t="shared" si="0"/>
-        <v>22.830168096694702</v>
-      </c>
-      <c r="S6" s="31">
-        <f t="shared" si="0"/>
-        <v>16.78032400353068</v>
-      </c>
-      <c r="T6" s="32">
-        <f>+[3]Model!$AV$34</f>
-        <v>1.6784287420147448</v>
-      </c>
-      <c r="U6" s="27">
-        <f>+[3]Model!$AW$34</f>
-        <v>4.897703299754288</v>
-      </c>
-      <c r="V6" s="27">
-        <f>+[3]Model!$AX$34</f>
-        <v>5.2938371314459518</v>
-      </c>
-      <c r="W6" s="33">
-        <f>+[3]Model!$AY$34</f>
-        <v>7.2024349209232001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="O7" s="26"/>
+      <c r="X7" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="21">
-        <v>391.4</v>
-      </c>
-      <c r="E7" s="22">
-        <f>+D7*H7/HKD</f>
-        <v>482256.97469999234</v>
-      </c>
-      <c r="F7" s="22">
-        <f>([4]Main!$L$5-[4]Main!$L$6)/HKD*1000</f>
-        <v>81912.914978725574</v>
-      </c>
-      <c r="G7" s="22">
-        <f>+E7-F7</f>
-        <v>400344.05972126673</v>
-      </c>
-      <c r="H7" s="22">
-        <f>+[4]Main!$L$3*1000</f>
-        <v>9672</v>
-      </c>
-      <c r="I7" s="117" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="43">
-        <v>44802</v>
-      </c>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="82" t="s">
-        <v>263</v>
-      </c>
       <c r="B8" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="21">
-        <v>413.72</v>
+        <v>309</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="22">
+        <v>193500</v>
       </c>
       <c r="E8" s="22">
-        <f>+D8*H8</f>
-        <v>116615.20633988002</v>
-      </c>
-      <c r="F8" s="22">
-        <f>[5]Main!$L$5-[5]Main!$L$6</f>
-        <v>-2851</v>
-      </c>
+        <v>33330</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="22">
         <f>E8-F8</f>
-        <v>119466.20633988002</v>
-      </c>
-      <c r="H8" s="22">
-        <f>+[5]Main!$L$3</f>
-        <v>281.86987900000003</v>
-      </c>
-      <c r="I8" s="134" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="43">
-        <v>44830</v>
-      </c>
+        <v>33330</v>
+      </c>
+      <c r="H8" s="22"/>
       <c r="O8" s="26"/>
-      <c r="X8" s="20">
-        <v>1984</v>
-      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>183</v>
+      <c r="B9" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>230</v>
       </c>
       <c r="D9" s="21">
-        <v>2189.48</v>
-      </c>
-      <c r="E9" s="22">
-        <f>D9*H9/CAD</f>
-        <v>35713.078128386704</v>
-      </c>
-      <c r="F9" s="22">
-        <f>[6]Main!$O$5-[6]Main!$O$6</f>
-        <v>-1206</v>
-      </c>
-      <c r="G9" s="22">
-        <f>E9-F9</f>
-        <v>36919.078128386704</v>
-      </c>
-      <c r="H9" s="22">
-        <f>+[6]Main!$O$3</f>
-        <v>21.19153</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="43">
-        <v>44792</v>
+        <v>121.2</v>
+      </c>
+      <c r="E9" s="22" cm="1">
+        <f t="array" ref="E9">327904/SEK</f>
+        <v>31700.842058451039</v>
       </c>
       <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>39</v>
+      <c r="B10" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>324</v>
       </c>
       <c r="D10" s="21">
-        <v>152.88</v>
+        <v>46.37</v>
       </c>
       <c r="E10" s="22">
-        <f>+D10*[7]Main!$L$3</f>
-        <v>52877.369999999995</v>
-      </c>
-      <c r="F10" s="22">
-        <f>([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
-        <v>25459.792284866468</v>
-      </c>
-      <c r="G10" s="22">
-        <f>E10-F10</f>
-        <v>27417.577715133528</v>
-      </c>
-      <c r="H10" s="22">
-        <f>+[7]Main!$L$3</f>
-        <v>345.875</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>14</v>
+        <v>20860</v>
       </c>
       <c r="O10" s="26"/>
-      <c r="X10" s="20">
-        <v>2000</v>
-      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>310</v>
+      <c r="B11" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="D11" s="21">
         <v>113.23</v>
@@ -3712,825 +3648,718 @@
       <c r="E11" s="22">
         <v>33330</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="119" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="108" t="s">
-        <v>312</v>
+      <c r="B12" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D12" s="21">
-        <v>175.2</v>
+        <v>54.71</v>
       </c>
       <c r="E12" s="22">
-        <v>27500</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+        <v>28410</v>
+      </c>
       <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>230</v>
+      <c r="B13" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="D13" s="21">
-        <v>121.2</v>
-      </c>
-      <c r="E13" s="22" cm="1">
-        <f t="array" ref="E13">327904/SEK</f>
-        <v>31700.842058451039</v>
+        <v>375.92</v>
+      </c>
+      <c r="E13" s="22">
+        <v>25610</v>
       </c>
       <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="s">
-        <v>263</v>
-      </c>
       <c r="B14" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>324</v>
+        <v>191</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="D14" s="21">
-        <v>46.37</v>
+        <v>181.71</v>
       </c>
       <c r="E14" s="22">
-        <v>20860</v>
+        <v>25220</v>
       </c>
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="123" t="s">
-        <v>79</v>
+      <c r="B15" s="115" t="s">
+        <v>154</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D15" s="21">
-        <v>113.23</v>
+        <v>9.35</v>
       </c>
       <c r="E15" s="22">
-        <v>33330</v>
-      </c>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="21">
-        <v>54.71</v>
-      </c>
-      <c r="E16" s="22">
-        <v>28410</v>
-      </c>
-      <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="123" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="21">
-        <v>375.92</v>
-      </c>
-      <c r="E17" s="22">
-        <v>25610</v>
-      </c>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="123" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="21">
-        <v>181.71</v>
-      </c>
-      <c r="E18" s="22">
-        <v>25220</v>
-      </c>
-      <c r="O18" s="26"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="21">
-        <v>102.23</v>
-      </c>
-      <c r="E19" s="22">
-        <f>+D19*[8]Main!$K$3</f>
-        <v>20147.20788088</v>
-      </c>
-      <c r="F19" s="22">
-        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
-        <v>3155</v>
-      </c>
-      <c r="G19" s="22">
-        <f>E19-F19</f>
-        <v>16992.20788088</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="26"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="115" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="21">
-        <v>9.35</v>
-      </c>
-      <c r="E20" s="22">
-        <f>D20*[9]Main!$L$3</f>
+        <f>D15*[9]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F15" s="22">
         <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>2585</v>
       </c>
-      <c r="G20" s="22">
-        <f>E20-F20</f>
+      <c r="G15" s="22">
+        <f>E15-F15</f>
         <v>16451.599999999999</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="21">
+        <v>312</v>
+      </c>
+      <c r="E16" s="22">
+        <v>19090</v>
+      </c>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="21">
+        <v>90.1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>18840</v>
+      </c>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="21">
+        <v>360.34</v>
+      </c>
+      <c r="E18" s="22">
+        <v>18140</v>
+      </c>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="122" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="21">
+        <v>114.84</v>
+      </c>
+      <c r="E19" s="22">
+        <v>17930</v>
+      </c>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="21">
+        <v>43.75</v>
+      </c>
+      <c r="E20" s="22">
+        <v>17180</v>
+      </c>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="123" t="s">
-        <v>65</v>
+      <c r="B21" s="122" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D21" s="21">
-        <v>312</v>
+        <v>40.44</v>
       </c>
       <c r="E21" s="22">
-        <v>19090</v>
+        <v>16810</v>
       </c>
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="123" t="s">
-        <v>67</v>
+      <c r="B22" s="122" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D22" s="21">
-        <v>90.1</v>
+        <v>63.5</v>
       </c>
       <c r="E22" s="22">
-        <v>18840</v>
+        <v>16440</v>
       </c>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="123" t="s">
-        <v>69</v>
+      <c r="B23" s="122" t="s">
+        <v>85</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D23" s="21">
-        <v>360.34</v>
+        <v>363.45</v>
       </c>
       <c r="E23" s="22">
-        <v>18140</v>
+        <v>15250</v>
       </c>
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="123" t="s">
-        <v>195</v>
+      <c r="B24" s="122" t="s">
+        <v>197</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D24" s="21">
-        <v>114.84</v>
+        <v>87.46</v>
       </c>
       <c r="E24" s="22">
-        <v>17930</v>
+        <v>16020</v>
       </c>
       <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="123" t="s">
-        <v>73</v>
+      <c r="B25" s="122" t="s">
+        <v>203</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="D25" s="21">
-        <v>43.75</v>
+        <v>97.08</v>
       </c>
       <c r="E25" s="22">
-        <v>17180</v>
+        <v>15070</v>
       </c>
       <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="123" t="s">
-        <v>79</v>
+      <c r="B26" s="122" t="s">
+        <v>90</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D26" s="21">
-        <v>40.44</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E26" s="22">
-        <v>16810</v>
+        <v>14050</v>
       </c>
       <c r="O26" s="26"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="123" t="s">
-        <v>83</v>
+      <c r="B27" s="122" t="s">
+        <v>92</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D27" s="21">
-        <v>63.5</v>
+        <v>206.61</v>
       </c>
       <c r="E27" s="22">
-        <v>16440</v>
+        <v>13880</v>
       </c>
       <c r="O27" s="26"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="123" t="s">
-        <v>85</v>
+      <c r="B28" s="122" t="s">
+        <v>94</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D28" s="21">
-        <v>363.45</v>
+        <v>115.52</v>
       </c>
       <c r="E28" s="22">
-        <v>15250</v>
+        <v>13640</v>
       </c>
       <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="123" t="s">
-        <v>197</v>
+      <c r="B29" s="122" t="s">
+        <v>95</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="D29" s="21">
-        <v>87.46</v>
+        <v>206.68</v>
       </c>
       <c r="E29" s="22">
-        <v>16020</v>
+        <v>12990</v>
       </c>
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="123" t="s">
-        <v>203</v>
+      <c r="B30" s="122" t="s">
+        <v>96</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D30" s="21">
-        <v>97.08</v>
+        <v>43.77</v>
       </c>
       <c r="E30" s="22">
-        <v>15070</v>
+        <v>12660</v>
       </c>
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="123" t="s">
-        <v>90</v>
+      <c r="B31" s="122" t="s">
+        <v>100</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D31" s="21">
-        <v>135.02000000000001</v>
+        <v>98.74</v>
       </c>
       <c r="E31" s="22">
-        <v>14050</v>
+        <v>12490</v>
       </c>
       <c r="O31" s="26"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="123" t="s">
-        <v>92</v>
+      <c r="B32" s="122" t="s">
+        <v>102</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D32" s="21">
-        <v>206.61</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E32" s="22">
-        <v>13880</v>
+        <v>11000</v>
       </c>
       <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="123" t="s">
-        <v>94</v>
+      <c r="B33" s="122" t="s">
+        <v>104</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D33" s="21">
-        <v>115.52</v>
+        <v>408.48</v>
       </c>
       <c r="E33" s="22">
-        <v>13640</v>
+        <v>10570</v>
       </c>
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="123" t="s">
-        <v>95</v>
+      <c r="B34" s="122" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D34" s="21">
-        <v>206.68</v>
+        <v>80.52</v>
       </c>
       <c r="E34" s="22">
-        <v>12990</v>
+        <v>10310</v>
       </c>
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="123" t="s">
-        <v>96</v>
+      <c r="B35" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D35" s="21">
-        <v>43.77</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E35" s="22">
-        <v>12660</v>
+        <v>10210</v>
       </c>
       <c r="O35" s="26"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="123" t="s">
-        <v>100</v>
+      <c r="B36" s="122" t="s">
+        <v>113</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D36" s="21">
-        <v>98.74</v>
+        <v>8.17</v>
       </c>
       <c r="E36" s="22">
-        <v>12490</v>
+        <v>9320</v>
       </c>
       <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="123" t="s">
-        <v>102</v>
+      <c r="B37" s="122" t="s">
+        <v>115</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D37" s="21">
-        <v>40.369999999999997</v>
+        <v>14.73</v>
       </c>
       <c r="E37" s="22">
-        <v>11000</v>
+        <v>9140</v>
       </c>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="123" t="s">
-        <v>104</v>
+      <c r="B38" s="122" t="s">
+        <v>117</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D38" s="21">
-        <v>408.48</v>
+        <v>56.9</v>
       </c>
       <c r="E38" s="22">
-        <v>10570</v>
+        <v>9000</v>
       </c>
       <c r="O38" s="26"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="123" t="s">
-        <v>108</v>
+      <c r="B39" s="122" t="s">
+        <v>119</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D39" s="21">
-        <v>80.52</v>
+        <v>203.42</v>
       </c>
       <c r="E39" s="22">
-        <v>10310</v>
+        <v>8580</v>
       </c>
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="123" t="s">
-        <v>110</v>
+      <c r="B40" s="122" t="s">
+        <v>122</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D40" s="21">
-        <v>35.200000000000003</v>
+        <v>126.81</v>
       </c>
       <c r="E40" s="22">
-        <v>10210</v>
+        <v>8200</v>
       </c>
       <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="123" t="s">
-        <v>113</v>
+      <c r="B41" s="122" t="s">
+        <v>124</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D41" s="21">
-        <v>8.17</v>
+        <v>50.35</v>
       </c>
       <c r="E41" s="22">
-        <v>9320</v>
+        <v>8150</v>
       </c>
       <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="123" t="s">
-        <v>115</v>
+      <c r="B42" s="122" t="s">
+        <v>127</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D42" s="21">
-        <v>14.73</v>
+        <v>88.7</v>
       </c>
       <c r="E42" s="22">
-        <v>9140</v>
+        <v>7910</v>
       </c>
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="123" t="s">
-        <v>117</v>
+      <c r="B43" s="122" t="s">
+        <v>129</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D43" s="21">
-        <v>56.9</v>
+        <v>78.3</v>
       </c>
       <c r="E43" s="22">
-        <v>9000</v>
+        <v>7580</v>
       </c>
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="123" t="s">
-        <v>119</v>
+      <c r="B44" s="122" t="s">
+        <v>131</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D44" s="21">
-        <v>203.42</v>
+        <v>50.36</v>
       </c>
       <c r="E44" s="22">
-        <v>8580</v>
+        <v>7140</v>
       </c>
       <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="123" t="s">
-        <v>122</v>
+      <c r="B45" s="122" t="s">
+        <v>133</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D45" s="21">
-        <v>126.81</v>
+        <v>80.58</v>
       </c>
       <c r="E45" s="22">
-        <v>8200</v>
+        <v>6930</v>
       </c>
       <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="123" t="s">
-        <v>124</v>
+      <c r="B46" s="122" t="s">
+        <v>135</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D46" s="21">
-        <v>50.35</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E46" s="22">
-        <v>8150</v>
+        <v>6880</v>
       </c>
       <c r="O46" s="26"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="123" t="s">
-        <v>127</v>
+      <c r="B47" s="122" t="s">
+        <v>139</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D47" s="21">
-        <v>88.7</v>
+        <v>54.6</v>
       </c>
       <c r="E47" s="22">
-        <v>7910</v>
+        <v>6370</v>
       </c>
       <c r="O47" s="26"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="123" t="s">
-        <v>129</v>
+      <c r="B48" s="122" t="s">
+        <v>141</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D48" s="21">
-        <v>78.3</v>
+        <v>62.59</v>
       </c>
       <c r="E48" s="22">
-        <v>7580</v>
+        <v>6350</v>
       </c>
       <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="123" t="s">
-        <v>131</v>
+      <c r="B49" s="122" t="s">
+        <v>143</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D49" s="21">
-        <v>50.36</v>
+        <v>62.71</v>
       </c>
       <c r="E49" s="22">
-        <v>7140</v>
+        <v>3603</v>
       </c>
       <c r="O49" s="26"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="123" t="s">
-        <v>133</v>
+      <c r="B50" s="122" t="s">
+        <v>144</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D50" s="21">
-        <v>80.58</v>
+        <v>21.19</v>
       </c>
       <c r="E50" s="22">
-        <v>6930</v>
+        <v>2965</v>
       </c>
       <c r="O50" s="26"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="123" t="s">
-        <v>135</v>
+      <c r="B51" s="122" t="s">
+        <v>149</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D51" s="21">
-        <v>32.869999999999997</v>
+        <v>26.99</v>
       </c>
       <c r="E51" s="22">
-        <v>6880</v>
+        <v>1400</v>
       </c>
       <c r="O51" s="26"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>140</v>
+        <v>225</v>
+      </c>
+      <c r="C52" s="124" t="s">
+        <v>226</v>
       </c>
       <c r="D52" s="21">
-        <v>54.6</v>
+        <v>13.95</v>
       </c>
       <c r="E52" s="22">
-        <v>6370</v>
+        <v>2030</v>
       </c>
       <c r="O52" s="26"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>142</v>
+        <v>227</v>
+      </c>
+      <c r="C53" s="124" t="s">
+        <v>228</v>
       </c>
       <c r="D53" s="21">
-        <v>62.59</v>
+        <v>19.95</v>
       </c>
       <c r="E53" s="22">
-        <v>6350</v>
+        <v>2560</v>
       </c>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="123" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="21">
-        <v>62.71</v>
-      </c>
-      <c r="E54" s="22">
-        <v>3603</v>
+      <c r="B54" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>237</v>
       </c>
       <c r="O54" s="26"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="21">
-        <v>21.19</v>
-      </c>
-      <c r="E55" s="22">
-        <v>2965</v>
-      </c>
+      <c r="B55" s="122"/>
       <c r="O55" s="26"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="123" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="21">
-        <v>26.99</v>
-      </c>
-      <c r="E56" s="22">
-        <v>1400</v>
-      </c>
+      <c r="B56" s="122"/>
       <c r="O56" s="26"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="124" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="21">
-        <v>13.95</v>
-      </c>
-      <c r="E57" s="22">
-        <v>2030</v>
-      </c>
+      <c r="B57" s="122"/>
       <c r="O57" s="26"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="124" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="125" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="21">
-        <v>19.95</v>
-      </c>
-      <c r="E58" s="22">
-        <v>2560</v>
-      </c>
+      <c r="B58" s="122"/>
       <c r="O58" s="26"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>237</v>
-      </c>
+      <c r="B59" s="122"/>
       <c r="O59" s="26"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="123"/>
+      <c r="B60" s="122"/>
       <c r="O60" s="26"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="123"/>
+      <c r="B61" s="122"/>
       <c r="O61" s="26"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="123"/>
+      <c r="B62" s="122"/>
       <c r="O62" s="26"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="123"/>
-      <c r="O63" s="26"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="123"/>
-      <c r="O64" s="26"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="123"/>
-      <c r="O65" s="26"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="123"/>
-      <c r="O66" s="26"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="123"/>
-      <c r="O67" s="26"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="127"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="133"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="131"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="132"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{AFA39CB9-3127-4BCA-A3CE-D903EA36E6C7}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
-    <hyperlink ref="B20" r:id="rId6" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{FD70E649-2E6A-4E67-ACA2-AB99C8053558}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4679,7 +4508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4774,7 +4605,7 @@
       <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="115" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -4821,7 +4652,7 @@
         <f>+[3]Model!$BG$45</f>
         <v>0</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="116">
         <f>+[3]Model!$BG$44</f>
         <v>0.01</v>
       </c>
@@ -5347,17 +5178,17 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0503292A-659C-4A72-B97D-834713EC5785}"/>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{8490DBEA-18EF-431F-AAE9-5080FB55647A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6A6F9818-4597-440E-87A2-061AA6A0D1AA}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{82160796-EF8E-4F69-8090-C97619BD3BC8}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{2964D309-6110-46D1-A6FF-CEF55CE8C8F6}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{BEBE7C2C-69F7-4F68-A1A3-433A555515CF}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{79E0FB94-7B29-4FC8-9D4A-2DAAB02B450C}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{1647F4E6-0995-4C11-AEA1-85BE3B2789D3}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{11F6BC32-0B71-4C3C-92D4-6F1D15C6FCA5}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{BF5095B8-6956-4116-AD45-B06C94DC5EDF}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{1147CFA9-6647-443A-9626-FE00F78AE9FF}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{EE794379-CBE0-4BE4-963F-4A3EB8F86626}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{6424F2CF-2B61-4808-95C3-62B06E9F6361}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{82160796-EF8E-4F69-8090-C97619BD3BC8}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{2964D309-6110-46D1-A6FF-CEF55CE8C8F6}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{BEBE7C2C-69F7-4F68-A1A3-433A555515CF}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{79E0FB94-7B29-4FC8-9D4A-2DAAB02B450C}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{1647F4E6-0995-4C11-AEA1-85BE3B2789D3}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{11F6BC32-0B71-4C3C-92D4-6F1D15C6FCA5}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{BF5095B8-6956-4116-AD45-B06C94DC5EDF}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{1147CFA9-6647-443A-9626-FE00F78AE9FF}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{EE794379-CBE0-4BE4-963F-4A3EB8F86626}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{6424F2CF-2B61-4808-95C3-62B06E9F6361}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
@@ -5366,15 +5197,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="63" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="63"/>
+    <col min="3" max="9" width="9.140625" style="63"/>
+    <col min="10" max="10" width="10" style="63" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -5464,48 +5299,48 @@
         <v>205</v>
       </c>
       <c r="D3" s="21">
-        <v>165</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="E3" s="22">
         <f>+D3*[21]Main!$M$3</f>
-        <v>452430</v>
+        <v>369510.6</v>
       </c>
       <c r="F3" s="22">
         <f>+[21]Main!$M$5-[21]Main!$M$6</f>
-        <v>43890</v>
+        <v>47025</v>
       </c>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G4" si="0">+E3-F3</f>
-        <v>408540</v>
+        <v>322485.59999999998</v>
       </c>
       <c r="H3" s="22">
         <f>+[21]Main!$M$3</f>
-        <v>2742</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>14</v>
+        <v>2713</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>210</v>
       </c>
       <c r="J3" s="43">
-        <v>44798</v>
+        <v>44834</v>
       </c>
       <c r="K3" s="27">
-        <f>+[21]Model!$AT$50</f>
-        <v>260.93479765840237</v>
+        <f>+[21]Model!$AX$50</f>
+        <v>211.03311392601657</v>
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>0.58142301611152947</v>
+        <v>0.5494354913804449</v>
       </c>
       <c r="M3" s="28">
-        <f>+[21]Model!$AT$47</f>
-        <v>7.0000000000000007E-2</v>
+        <f>+[21]Model!$AX$47</f>
+        <v>0.08</v>
       </c>
       <c r="N3" s="28">
-        <f>+[21]Model!$AT$48</f>
+        <f>+[21]Model!$AX$48</f>
         <v>-0.05</v>
       </c>
       <c r="O3" s="28">
-        <f>+[21]Model!$AT$49</f>
+        <f>+[21]Model!$AX$49</f>
         <v>0.01</v>
       </c>
       <c r="P3" s="25"/>
@@ -5545,11 +5380,16 @@
         <f t="shared" si="0"/>
         <v>400344.05972126685</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="23"/>
+      <c r="H4" s="22">
+        <f>+[4]Main!$L$3*1000</f>
+        <v>9672</v>
+      </c>
+      <c r="I4" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="43">
+        <v>44802</v>
+      </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -5687,12 +5527,17 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
+      <c r="B9" s="135" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="135" t="s">
+        <v>330</v>
+      </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
@@ -5709,29 +5554,123 @@
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="64" t="s">
+    <row r="10" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="135" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="64" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="96" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="96" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="63" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="63" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="63" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="135" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="63" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="63" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="135" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="135" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="135" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="135" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="135" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6066,13 +6005,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6509,31 +6448,50 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="B17" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="21">
+        <v>102.23</v>
+      </c>
+      <c r="E17" s="22">
+        <f>+D17*[8]Main!$K$3</f>
+        <v>20147.20788088</v>
+      </c>
+      <c r="F17" s="22">
+        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+        <v>3155</v>
+      </c>
+      <c r="G17" s="22">
+        <f>E17-F17</f>
+        <v>16992.20788088</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="25"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="65" t="s">
+        <v>260</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
@@ -6599,50 +6557,45 @@
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
         <v>31500</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22">
-        <v>27000</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
     </row>
     <row r="23" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="22">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -6663,8 +6616,35 @@
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="63" t="s">
+    <row r="24" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="63" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6676,6 +6656,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
     <hyperlink ref="B12" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{D15C9016-D909-4B61-8E61-89DF546A9452}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6683,13 +6664,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6853,96 +6834,131 @@
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
     </row>
-    <row r="7" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="21">
+        <v>413.72</v>
+      </c>
+      <c r="E7" s="22">
+        <f>+D7*H7</f>
+        <v>116615.20633988002</v>
+      </c>
+      <c r="F7" s="22">
+        <f>[5]Main!$L$5-[5]Main!$L$6</f>
+        <v>-2851</v>
+      </c>
+      <c r="G7" s="22">
+        <f>E7-F7</f>
+        <v>119466.20633988002</v>
+      </c>
+      <c r="H7" s="22">
+        <f>+[5]Main!$L$3</f>
+        <v>281.86987900000003</v>
+      </c>
+      <c r="I7" s="133" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="43">
+        <v>44830</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="20">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D8" s="60">
         <v>87.2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>100981</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B9" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C9" s="87" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="88" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B10" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C10" s="88" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="69">
-        <v>70.94</v>
-      </c>
-      <c r="E10" s="70">
-        <v>41870</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="B11" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="69">
+        <v>70.94</v>
+      </c>
+      <c r="E11" s="70">
+        <v>41870</v>
+      </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>284</v>
+      <c r="B12" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>282</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="70"/>
@@ -6952,14 +6968,14 @@
       <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>299</v>
+      <c r="B13" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>284</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="70"/>
@@ -6973,10 +6989,10 @@
         <v>263</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="70"/>
@@ -6986,14 +7002,14 @@
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>305</v>
+      <c r="B15" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>301</v>
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="70"/>
@@ -7003,14 +7019,14 @@
       <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="106" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>308</v>
+      <c r="B16" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>305</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -7019,15 +7035,15 @@
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
     </row>
-    <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+    <row r="17" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>318</v>
+      <c r="B17" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>308</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="70"/>
@@ -7036,143 +7052,196 @@
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
     </row>
-    <row r="18" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="60">
-        <v>68.930000000000007</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18053</v>
-      </c>
+    <row r="18" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
     </row>
-    <row r="19" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="69">
-        <v>58.75</v>
-      </c>
-      <c r="E19" s="70">
-        <v>14980</v>
+    <row r="19" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="60">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18053</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
     </row>
-    <row r="20" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="60">
-        <v>184.44</v>
-      </c>
-      <c r="E20" s="3">
-        <v>10400</v>
+    <row r="20" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="69">
+        <v>58.75</v>
+      </c>
+      <c r="E20" s="70">
+        <v>14980</v>
       </c>
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
     </row>
-    <row r="26" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="58" t="s">
+    <row r="21" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="60">
+        <v>184.44</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="21">
+        <v>175.2</v>
+      </c>
+      <c r="E22" s="22">
+        <v>27500</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="26"/>
+    </row>
+    <row r="27" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C27" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="61">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>100000</v>
-      </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="57"/>
       <c r="D27" s="61">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="57" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="61">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
-        <v>252</v>
-      </c>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="57"/>
       <c r="D29" s="61">
         <v>0</v>
       </c>
-      <c r="E29" s="68">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="62" t="s">
-        <v>254</v>
+      <c r="E29" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="56" t="s">
+        <v>252</v>
       </c>
       <c r="D30" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="94" t="s">
+      <c r="E30" s="68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E32" s="68">
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="94" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E33" s="68">
         <v>159.5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C2119C-56B0-4971-9898-BE6A10973E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD8E1D-A816-4A7E-9AB4-CE5DF67C1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56040" yWindow="645" windowWidth="22515" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74565" yWindow="2355" windowWidth="27720" windowHeight="16485" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1134,6 +1134,9 @@
   </si>
   <si>
     <t>SecondLife</t>
+  </si>
+  <si>
+    <t>Hashicorp</t>
   </si>
 </sst>
 </file>
@@ -1143,13 +1146,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1575,87 +1590,99 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1664,181 +1691,171 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1920,18 +1937,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="G3">
-            <v>2742</v>
+          <cell r="L3">
+            <v>200</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>21902</v>
+          <cell r="L5">
+            <v>5498</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="G6">
-            <v>75859</v>
+          <cell r="L6">
+            <v>1572</v>
           </cell>
         </row>
       </sheetData>
@@ -1952,17 +1969,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>995</v>
+            <v>421.445382</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>18439</v>
+            <v>3719</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>10597</v>
+            <v>11926</v>
           </cell>
         </row>
       </sheetData>
@@ -1983,17 +2000,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1180</v>
+            <v>253.72300000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>18083</v>
+            <v>1431.7740000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>17213</v>
+            <v>999.375</v>
           </cell>
         </row>
       </sheetData>
@@ -2013,18 +2030,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>200</v>
+          <cell r="P3">
+            <v>252</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>5498</v>
+          <cell r="P5">
+            <v>6255</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>1572</v>
+          <cell r="P6">
+            <v>4121</v>
           </cell>
         </row>
       </sheetData>
@@ -2045,17 +2062,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>421.445382</v>
+            <v>314.36099999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3719</v>
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>11926</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2075,18 +2092,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>253.72300000000001</v>
+          <cell r="M3">
+            <v>154.847005</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1431.7740000000001</v>
+          <cell r="M5">
+            <v>2838.5529999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>999.375</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2106,18 +2123,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>252</v>
+          <cell r="O3">
+            <v>315</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>6255</v>
+          <cell r="O5">
+            <v>1707</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>4121</v>
+          <cell r="O6">
+            <v>737</v>
           </cell>
         </row>
       </sheetData>
@@ -2137,18 +2154,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>314.36099999999999</v>
+          <cell r="P3">
+            <v>157</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5027.4579999999996</v>
+          <cell r="P5">
+            <v>2477</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="P6">
+            <v>2195</v>
           </cell>
         </row>
       </sheetData>
@@ -2164,17 +2181,18 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>154.847005</v>
+            <v>2713</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>2838.5529999999999</v>
+            <v>47025</v>
           </cell>
         </row>
         <row r="6">
@@ -2183,7 +2201,29 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="47">
+          <cell r="AX47">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AX48">
+            <v>-0.05</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AX49">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AX50">
+            <v>205.38135278325549</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2199,18 +2239,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>315</v>
+          <cell r="L3">
+            <v>9.6720000000000006</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1707</v>
+          <cell r="L5">
+            <v>989</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>737</v>
+          <cell r="L6">
+            <v>346</v>
           </cell>
         </row>
       </sheetData>
@@ -2296,18 +2336,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>157</v>
+          <cell r="N3">
+            <v>152.970249</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>2477</v>
+          <cell r="N5">
+            <v>1720.521</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>2195</v>
+          <cell r="N6">
+            <v>23.774999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2323,49 +2363,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>2713</v>
+          <cell r="L3">
+            <v>1322.7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>47025</v>
+          <cell r="L5">
+            <v>3157</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>3642.4</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="47">
-          <cell r="AX47">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="AX48">
-            <v>-0.05</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AX49">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AX50">
-            <v>211.03311392601657</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2376,27 +2393,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>152.970249</v>
+          <cell r="K3">
+            <v>277.33600000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>1720.521</v>
+          <cell r="K5">
+            <v>1088.94</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>23.774999999999999</v>
+          <cell r="K6">
+            <v>347.58800000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2413,17 +2428,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1322.7</v>
+            <v>217.27220500000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>3157</v>
+            <v>1624</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>3642.4</v>
+            <v>2629</v>
           </cell>
         </row>
       </sheetData>
@@ -2438,25 +2453,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.33600000000001</v>
+          <cell r="M3">
+            <v>87.068664999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1088.94</v>
+          <cell r="M5">
+            <v>517.63499999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>347.58800000000002</v>
+          <cell r="M6">
+            <v>753.40200000000004</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2472,18 +2489,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>217.27220500000001</v>
+          <cell r="N3">
+            <v>472.5</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>1624</v>
+          <cell r="N5">
+            <v>5299</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>2629</v>
+          <cell r="N6">
+            <v>4126</v>
           </cell>
         </row>
       </sheetData>
@@ -2503,18 +2520,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>87.068664999999996</v>
+          <cell r="N3">
+            <v>281</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>517.63499999999999</v>
+          <cell r="N5">
+            <v>2416</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>753.40200000000004</v>
+          <cell r="N6">
+            <v>1878</v>
           </cell>
         </row>
       </sheetData>
@@ -2534,18 +2551,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>472.5</v>
+          <cell r="K3">
+            <v>588.52099999999996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>5299</v>
+          <cell r="K5">
+            <v>3132.9639999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>4126</v>
+          <cell r="K6">
+            <v>988.03399999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2565,18 +2582,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>281</v>
+          <cell r="K3">
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>2416</v>
+          <cell r="K5">
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>1878</v>
+          <cell r="K6">
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
@@ -2591,23 +2608,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="L3">
+            <v>281.86987900000003</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="L5">
+            <v>4002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="L6">
+            <v>6853</v>
           </cell>
         </row>
       </sheetData>
@@ -2627,57 +2644,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>10187.554818000001</v>
+          <cell r="O3">
+            <v>21.19153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>60710</v>
+          <cell r="O5">
+            <v>676</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>58053</v>
+          <cell r="O6">
+            <v>1882</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="34">
-          <cell r="AV34">
-            <v>1.6784287420147448</v>
-          </cell>
-          <cell r="AW34">
-            <v>4.897703299754288</v>
-          </cell>
-          <cell r="AX34">
-            <v>5.2938371314459518</v>
-          </cell>
-          <cell r="AY34">
-            <v>7.2024349209232001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="BG43">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="BG44">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="BG45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="BG47">
-            <v>231.32319706625486</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2756,17 +2738,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>9.6720000000000006</v>
+            <v>345.875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>989</v>
+            <v>255226</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>346</v>
+            <v>83627</v>
           </cell>
         </row>
       </sheetData>
@@ -2787,17 +2769,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>281.86987900000003</v>
+            <v>2036</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>4002</v>
+            <v>2585</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>6853</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2817,22 +2799,57 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>21.19153</v>
+          <cell r="K3">
+            <v>10187.554818000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>676</v>
+          <cell r="K5">
+            <v>60710</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>1882</v>
+          <cell r="K6">
+            <v>58053</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="34">
+          <cell r="AV34">
+            <v>1.6784287420147448</v>
+          </cell>
+          <cell r="AW34">
+            <v>4.897703299754288</v>
+          </cell>
+          <cell r="AX34">
+            <v>5.2938371314459518</v>
+          </cell>
+          <cell r="AY34">
+            <v>7.2024349209232001</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="BG43">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="BG44">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="BG45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="BG47">
+            <v>231.32319706625486</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2848,18 +2865,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>345.875</v>
+          <cell r="G3">
+            <v>2742</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>255226</v>
+          <cell r="G5">
+            <v>21902</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>83627</v>
+          <cell r="G6">
+            <v>75859</v>
           </cell>
         </row>
       </sheetData>
@@ -2879,18 +2896,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="M3">
+            <v>995</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="M5">
+            <v>18439</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="M6">
+            <v>10597</v>
           </cell>
         </row>
       </sheetData>
@@ -2905,23 +2922,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2036</v>
+            <v>1180</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2585</v>
+            <v>18083</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>17213</v>
           </cell>
         </row>
       </sheetData>
@@ -3238,11 +3255,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
   <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3518,7 +3535,7 @@
         <v>35713.078128386704</v>
       </c>
       <c r="F6" s="22">
-        <f>[6]Main!$O$5-[6]Main!$O$6</f>
+        <f>[3]Main!$O$5-[3]Main!$O$6</f>
         <v>-1206</v>
       </c>
       <c r="G6" s="22">
@@ -3526,7 +3543,7 @@
         <v>36919.078128386704</v>
       </c>
       <c r="H6" s="22">
-        <f>+[6]Main!$O$3</f>
+        <f>+[3]Main!$O$3</f>
         <v>21.19153</v>
       </c>
       <c r="I6" s="47" t="s">
@@ -3551,11 +3568,11 @@
         <v>152.88</v>
       </c>
       <c r="E7" s="22">
-        <f>+D7*[7]Main!$L$3</f>
+        <f>+D7*[4]Main!$L$3</f>
         <v>52877.369999999995</v>
       </c>
       <c r="F7" s="22">
-        <f>([7]Main!$L$5-[7]Main!$L$6)/RMB</f>
+        <f>([4]Main!$L$5-[4]Main!$L$6)/RMB</f>
         <v>25459.792284866468</v>
       </c>
       <c r="G7" s="22">
@@ -3563,7 +3580,7 @@
         <v>27417.577715133528</v>
       </c>
       <c r="H7" s="22">
-        <f>+[7]Main!$L$3</f>
+        <f>+[4]Main!$L$3</f>
         <v>345.875</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -3706,11 +3723,11 @@
         <v>9.35</v>
       </c>
       <c r="E15" s="22">
-        <f>D15*[9]Main!$L$3</f>
+        <f>D15*[5]Main!$L$3</f>
         <v>19036.599999999999</v>
       </c>
       <c r="F15" s="22">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>[5]Main!$L$5-[5]Main!$L$6</f>
         <v>2585</v>
       </c>
       <c r="G15" s="22">
@@ -4509,7 +4526,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4615,11 +4632,11 @@
         <v>121.12</v>
       </c>
       <c r="E3" s="22">
-        <f>+D3*[3]Main!$K$3</f>
+        <f>+D3*[6]Main!$K$3</f>
         <v>1233916.6395561602</v>
       </c>
       <c r="F3" s="22">
-        <f>[3]Main!$K$5-[3]Main!$K$6</f>
+        <f>[6]Main!$K$5-[6]Main!$K$6</f>
         <v>2657</v>
       </c>
       <c r="G3" s="22">
@@ -4627,7 +4644,7 @@
         <v>1231259.6395561602</v>
       </c>
       <c r="H3" s="22">
-        <f>+[3]Main!$K$3</f>
+        <f>+[6]Main!$K$3</f>
         <v>10187.554818000001</v>
       </c>
       <c r="I3" s="23" t="s">
@@ -4637,7 +4654,7 @@
         <v>44796</v>
       </c>
       <c r="K3" s="27">
-        <f>+[3]Model!$BG$47</f>
+        <f>+[6]Model!$BG$47</f>
         <v>231.32319706625486</v>
       </c>
       <c r="L3" s="28">
@@ -4645,15 +4662,15 @@
         <v>0.90986787538189273</v>
       </c>
       <c r="M3" s="36">
-        <f>+[3]Model!$BG$43</f>
+        <f>+[6]Model!$BG$43</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N3" s="28">
-        <f>+[3]Model!$BG$45</f>
+        <f>+[6]Model!$BG$45</f>
         <v>0</v>
       </c>
       <c r="O3" s="116">
-        <f>+[3]Model!$BG$44</f>
+        <f>+[6]Model!$BG$44</f>
         <v>0.01</v>
       </c>
       <c r="P3" s="29">
@@ -4673,19 +4690,19 @@
         <v>16.78032400353068</v>
       </c>
       <c r="T3" s="32">
-        <f>+[3]Model!$AV$34</f>
+        <f>+[6]Model!$AV$34</f>
         <v>1.6784287420147448</v>
       </c>
       <c r="U3" s="27">
-        <f>+[3]Model!$AW$34</f>
+        <f>+[6]Model!$AW$34</f>
         <v>4.897703299754288</v>
       </c>
       <c r="V3" s="27">
-        <f>+[3]Model!$AX$34</f>
+        <f>+[6]Model!$AX$34</f>
         <v>5.2938371314459518</v>
       </c>
       <c r="W3" s="33">
-        <f>+[3]Model!$AY$34</f>
+        <f>+[6]Model!$AY$34</f>
         <v>7.2024349209232001</v>
       </c>
     </row>
@@ -4703,11 +4720,11 @@
         <v>71.02</v>
       </c>
       <c r="E4" s="22">
-        <f>+D4*[10]Main!$G$3</f>
+        <f>+D4*[7]Main!$G$3</f>
         <v>194736.84</v>
       </c>
       <c r="F4" s="22">
-        <f>+[10]Main!$G$5-[10]Main!$G$6</f>
+        <f>+[7]Main!$G$5-[7]Main!$G$6</f>
         <v>-53957</v>
       </c>
       <c r="G4" s="22">
@@ -4747,11 +4764,11 @@
         <v>189</v>
       </c>
       <c r="E5" s="22">
-        <f>+D5*[11]Main!$M$3</f>
+        <f>+D5*[8]Main!$M$3</f>
         <v>188055</v>
       </c>
       <c r="F5" s="22">
-        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
+        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
         <v>7842</v>
       </c>
       <c r="G5" s="22">
@@ -4791,11 +4808,11 @@
         <v>99.86</v>
       </c>
       <c r="E6" s="22">
-        <f>+D6*[12]Main!$L$3</f>
+        <f>+D6*[9]Main!$L$3</f>
         <v>117834.8</v>
       </c>
       <c r="F6" s="22">
-        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>870</v>
       </c>
       <c r="G6" s="22">
@@ -4835,11 +4852,11 @@
         <v>440</v>
       </c>
       <c r="E7" s="22">
-        <f>+D7*[13]Main!$L$3</f>
+        <f>+D7*[10]Main!$L$3</f>
         <v>88000</v>
       </c>
       <c r="F7" s="22">
-        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>3926</v>
       </c>
       <c r="G7" s="22">
@@ -4883,7 +4900,7 @@
         <v>51593.343664439999</v>
       </c>
       <c r="F8" s="22">
-        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
+        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
         <v>-8207</v>
       </c>
       <c r="G8" s="22">
@@ -4891,7 +4908,7 @@
         <v>59800.343664439999</v>
       </c>
       <c r="H8" s="22">
-        <f>+[14]Main!$M$3</f>
+        <f>+[11]Main!$M$3</f>
         <v>421.445382</v>
       </c>
       <c r="I8" s="47" t="s">
@@ -4937,11 +4954,11 @@
         <v>200.8</v>
       </c>
       <c r="E10" s="22">
-        <f>+D10*[15]Main!$L$3</f>
+        <f>+D10*[12]Main!$L$3</f>
         <v>50947.578400000006</v>
       </c>
       <c r="F10" s="22">
-        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>432.39900000000011</v>
       </c>
       <c r="G10" s="22">
@@ -4949,7 +4966,7 @@
         <v>50515.179400000008</v>
       </c>
       <c r="H10" s="22">
-        <f>+[15]Main!$L$3</f>
+        <f>+[12]Main!$L$3</f>
         <v>253.72300000000001</v>
       </c>
       <c r="I10" s="34" t="s">
@@ -4974,7 +4991,7 @@
         <v>42336</v>
       </c>
       <c r="F11" s="22">
-        <f>+[16]Main!$P$5-[16]Main!$P$6</f>
+        <f>+[13]Main!$P$5-[13]Main!$P$6</f>
         <v>2134</v>
       </c>
       <c r="G11" s="22">
@@ -4982,7 +4999,7 @@
         <v>40202</v>
       </c>
       <c r="H11" s="23">
-        <f>+[16]Main!$P$3</f>
+        <f>+[13]Main!$P$3</f>
         <v>252</v>
       </c>
       <c r="I11" s="47" t="s">
@@ -5006,11 +5023,11 @@
         <v>135.57</v>
       </c>
       <c r="E12" s="22">
-        <f>+D12*[17]Main!$M$3</f>
+        <f>+D12*[14]Main!$M$3</f>
         <v>42617.920769999997</v>
       </c>
       <c r="F12" s="22">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
+        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
         <v>5027.4579999999996</v>
       </c>
       <c r="G12" s="22">
@@ -5018,7 +5035,7 @@
         <v>37590.462769999998</v>
       </c>
       <c r="H12" s="22">
-        <f>+[17]Main!$M$3</f>
+        <f>+[14]Main!$M$3</f>
         <v>314.36099999999999</v>
       </c>
       <c r="I12" s="35" t="s">
@@ -5043,7 +5060,7 @@
         <v>35453.770264799998</v>
       </c>
       <c r="F13" s="22">
-        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
+        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>2838.5529999999999</v>
       </c>
       <c r="G13" s="22">
@@ -5051,7 +5068,7 @@
         <v>32615.217264799998</v>
       </c>
       <c r="H13" s="22">
-        <f>+[18]Main!$M$3</f>
+        <f>+[15]Main!$M$3</f>
         <v>154.847005</v>
       </c>
       <c r="I13" s="54" t="s">
@@ -5097,7 +5114,7 @@
         <v>30555</v>
       </c>
       <c r="F15" s="71">
-        <f>+[19]Main!$O$5-[19]Main!$O$6</f>
+        <f>+[16]Main!$O$5-[16]Main!$O$6</f>
         <v>970</v>
       </c>
       <c r="G15" s="22">
@@ -5105,7 +5122,7 @@
         <v>29585</v>
       </c>
       <c r="H15" s="71">
-        <f>+[19]Main!$O$3</f>
+        <f>+[16]Main!$O$3</f>
         <v>315</v>
       </c>
       <c r="I15" s="102" t="s">
@@ -5130,7 +5147,7 @@
         <v>9339.93</v>
       </c>
       <c r="F16" s="22">
-        <f>+[20]Main!$P$5-[20]Main!$P$6</f>
+        <f>+[17]Main!$P$5-[17]Main!$P$6</f>
         <v>282</v>
       </c>
       <c r="G16" s="22">
@@ -5138,7 +5155,7 @@
         <v>9057.93</v>
       </c>
       <c r="H16" s="22">
-        <f>+[20]Main!$P$3</f>
+        <f>+[17]Main!$P$3</f>
         <v>157</v>
       </c>
       <c r="I16" s="100" t="s">
@@ -5160,6 +5177,11 @@
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
       <c r="W16" s="26"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="136" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="95" t="s">
@@ -5200,7 +5222,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5299,22 +5321,22 @@
         <v>205</v>
       </c>
       <c r="D3" s="21">
-        <v>136.19999999999999</v>
+        <v>100</v>
       </c>
       <c r="E3" s="22">
-        <f>+D3*[21]Main!$M$3</f>
-        <v>369510.6</v>
+        <f>+D3*[18]Main!$M$3</f>
+        <v>271300</v>
       </c>
       <c r="F3" s="22">
-        <f>+[21]Main!$M$5-[21]Main!$M$6</f>
+        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
         <v>47025</v>
       </c>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G4" si="0">+E3-F3</f>
-        <v>322485.59999999998</v>
+        <v>224275</v>
       </c>
       <c r="H3" s="22">
-        <f>+[21]Main!$M$3</f>
+        <f>+[18]Main!$M$3</f>
         <v>2713</v>
       </c>
       <c r="I3" s="134" t="s">
@@ -5324,23 +5346,23 @@
         <v>44834</v>
       </c>
       <c r="K3" s="27">
-        <f>+[21]Model!$AX$50</f>
-        <v>211.03311392601657</v>
+        <f>+[18]Model!$AX$50</f>
+        <v>205.38135278325549</v>
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>0.5494354913804449</v>
+        <v>1.0538135278325549</v>
       </c>
       <c r="M3" s="28">
-        <f>+[21]Model!$AX$47</f>
+        <f>+[18]Model!$AX$47</f>
         <v>0.08</v>
       </c>
       <c r="N3" s="28">
-        <f>+[21]Model!$AX$48</f>
+        <f>+[18]Model!$AX$48</f>
         <v>-0.05</v>
       </c>
       <c r="O3" s="28">
-        <f>+[21]Model!$AX$49</f>
+        <f>+[18]Model!$AX$49</f>
         <v>0.01</v>
       </c>
       <c r="P3" s="25"/>
@@ -5369,11 +5391,11 @@
         <v>391.4</v>
       </c>
       <c r="E4" s="22">
-        <f>+D4*[4]Main!$L$3*1000/HKD</f>
+        <f>+D4*[19]Main!$L$3*1000/HKD</f>
         <v>482256.9746999924</v>
       </c>
       <c r="F4" s="22">
-        <f>([4]Main!$L$5-[4]Main!$L$6)/HKD*1000</f>
+        <f>([19]Main!$L$5-[19]Main!$L$6)/HKD*1000</f>
         <v>81912.914978725574</v>
       </c>
       <c r="G4" s="22">
@@ -5381,7 +5403,7 @@
         <v>400344.05972126685</v>
       </c>
       <c r="H4" s="22">
-        <f>+[4]Main!$L$3*1000</f>
+        <f>+[19]Main!$L$3*1000</f>
         <v>9672</v>
       </c>
       <c r="I4" s="117" t="s">
@@ -5729,7 +5751,7 @@
         <v>57472.452251789997</v>
       </c>
       <c r="F3" s="22">
-        <f>+[22]Main!$N$5-[22]Main!$N$6</f>
+        <f>+[20]Main!$N$5-[20]Main!$N$6</f>
         <v>1696.7459999999999</v>
       </c>
       <c r="G3" s="22">
@@ -5737,7 +5759,7 @@
         <v>55775.706251789998</v>
       </c>
       <c r="H3" s="22">
-        <f>+[22]Main!$N$3</f>
+        <f>+[20]Main!$N$3</f>
         <v>152.970249</v>
       </c>
       <c r="I3" s="44" t="s">
@@ -5774,11 +5796,11 @@
         <v>39.74</v>
       </c>
       <c r="E4" s="22">
-        <f>+D4*[23]Main!$L$3*EUR</f>
+        <f>+D4*[21]Main!$L$3*EUR</f>
         <v>53089.738980000009</v>
       </c>
       <c r="F4" s="22">
-        <f>+([23]Main!$L$5-[23]Main!$L$6)*EUR</f>
+        <f>+([21]Main!$L$5-[21]Main!$L$6)*EUR</f>
         <v>-490.25400000000008</v>
       </c>
       <c r="G4" s="22">
@@ -5822,7 +5844,7 @@
         <v>51584.495999999999</v>
       </c>
       <c r="F5" s="22">
-        <f>+[24]Main!$K$5-[24]Main!$K$6</f>
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
         <v>741.35200000000009</v>
       </c>
       <c r="G5" s="22">
@@ -5830,7 +5852,7 @@
         <v>50843.144</v>
       </c>
       <c r="H5" s="22">
-        <f>+[24]Main!$K$3</f>
+        <f>+[22]Main!$K$3</f>
         <v>277.33600000000001</v>
       </c>
       <c r="I5" s="39" t="s">
@@ -5869,7 +5891,7 @@
         <v>44264.86632465</v>
       </c>
       <c r="F6" s="22">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
         <v>-1005</v>
       </c>
       <c r="G6" s="22">
@@ -5877,7 +5899,7 @@
         <v>45269.86632465</v>
       </c>
       <c r="H6" s="22">
-        <f>+[25]Main!$L$3</f>
+        <f>+[23]Main!$L$3</f>
         <v>217.27220500000001</v>
       </c>
       <c r="I6" s="38" t="s">
@@ -5916,7 +5938,7 @@
         <v>20601.316825649999</v>
       </c>
       <c r="F7" s="22">
-        <f>+[26]Main!$M$5-[26]Main!$M$6</f>
+        <f>+[24]Main!$M$5-[24]Main!$M$6</f>
         <v>-235.76700000000005</v>
       </c>
       <c r="G7" s="22">
@@ -5924,7 +5946,7 @@
         <v>20837.083825649999</v>
       </c>
       <c r="H7" s="22">
-        <f>+[26]Main!$M$3</f>
+        <f>+[24]Main!$M$3</f>
         <v>87.068664999999996</v>
       </c>
       <c r="I7" s="55" t="s">
@@ -6146,11 +6168,11 @@
         <v>391.4</v>
       </c>
       <c r="E4" s="22">
-        <f>+D4*[4]Main!$L$3*1000/HKD</f>
+        <f>+D4*[19]Main!$L$3*1000/HKD</f>
         <v>482256.9746999924</v>
       </c>
       <c r="F4" s="22">
-        <f>([4]Main!$L$5-[4]Main!$L$6)/HKD*1000</f>
+        <f>([19]Main!$L$5-[19]Main!$L$6)/HKD*1000</f>
         <v>81912.914978725574</v>
       </c>
       <c r="G4" s="22">
@@ -6176,11 +6198,11 @@
         <v>309.18</v>
       </c>
       <c r="E5" s="22">
-        <f>+D5*[27]Main!$N$3</f>
+        <f>+D5*[25]Main!$N$3</f>
         <v>146087.55000000002</v>
       </c>
       <c r="F5" s="22">
-        <f>+[27]Main!$N$5-[27]Main!$N$6</f>
+        <f>+[25]Main!$N$5-[25]Main!$N$6</f>
         <v>1173</v>
       </c>
       <c r="G5" s="22">
@@ -6188,7 +6210,7 @@
         <v>144914.55000000002</v>
       </c>
       <c r="H5" s="22">
-        <f>+[27]Main!$N$3</f>
+        <f>+[25]Main!$N$3</f>
         <v>472.5</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -6355,7 +6377,7 @@
         <v>36664.879999999997</v>
       </c>
       <c r="F12" s="52">
-        <f>+[28]Main!$N$5-[28]Main!$N$6</f>
+        <f>+[26]Main!$N$5-[26]Main!$N$6</f>
         <v>538</v>
       </c>
       <c r="G12" s="52">
@@ -6363,7 +6385,7 @@
         <v>36126.879999999997</v>
       </c>
       <c r="H12" s="10">
-        <f>+[28]Main!$N$3</f>
+        <f>+[26]Main!$N$3</f>
         <v>281</v>
       </c>
       <c r="I12" s="66" t="s">
@@ -6401,11 +6423,11 @@
         <v>27.7</v>
       </c>
       <c r="E14" s="3">
-        <f>+D14*[29]Main!$K$3</f>
+        <f>+D14*[27]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
       <c r="F14" s="3">
-        <f>+[29]Main!$K$5-[29]Main!$K$6</f>
+        <f>+[27]Main!$K$5-[27]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
       <c r="G14" s="3">
@@ -6458,11 +6480,11 @@
         <v>102.23</v>
       </c>
       <c r="E17" s="22">
-        <f>+D17*[8]Main!$K$3</f>
+        <f>+D17*[28]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
       <c r="F17" s="22">
-        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+        <f>+[28]Main!$K$5-[28]Main!$K$6</f>
         <v>3155</v>
       </c>
       <c r="G17" s="22">
@@ -6852,7 +6874,7 @@
         <v>116615.20633988002</v>
       </c>
       <c r="F7" s="22">
-        <f>[5]Main!$L$5-[5]Main!$L$6</f>
+        <f>[29]Main!$L$5-[29]Main!$L$6</f>
         <v>-2851</v>
       </c>
       <c r="G7" s="22">
@@ -6860,7 +6882,7 @@
         <v>119466.20633988002</v>
       </c>
       <c r="H7" s="22">
-        <f>+[5]Main!$L$3</f>
+        <f>+[29]Main!$L$3</f>
         <v>281.86987900000003</v>
       </c>
       <c r="I7" s="133" t="s">
@@ -7249,11 +7271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7356,7 +7378,7 @@
         <v>1232000</v>
       </c>
       <c r="F3" s="3">
-        <f>[3]Main!$K$5-[3]Main!$K$6</f>
+        <f>[6]Main!$K$5-[6]Main!$K$6</f>
         <v>2657</v>
       </c>
       <c r="G3" s="3">
@@ -7660,25 +7682,28 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>12580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD8E1D-A816-4A7E-9AB4-CE5DF67C1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D886367-CA27-402E-8627-29519AC555E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74565" yWindow="2355" windowWidth="27720" windowHeight="16485" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51060" yWindow="1170" windowWidth="31185" windowHeight="18630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="345">
   <si>
     <t>Name</t>
   </si>
@@ -1137,6 +1137,21 @@
   </si>
   <si>
     <t>Hashicorp</t>
+  </si>
+  <si>
+    <t>Kakao</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>035720 KS</t>
+  </si>
+  <si>
+    <t>Z Holdings</t>
+  </si>
+  <si>
+    <t>4689 JP</t>
   </si>
 </sst>
 </file>
@@ -1146,13 +1161,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1590,87 +1617,99 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1679,181 +1718,171 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2287,37 +2316,26 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="25">
-          <cell r="AB25">
-            <v>5.6169011322607476</v>
-          </cell>
-          <cell r="AC25">
-            <v>6.4727841989453889</v>
-          </cell>
           <cell r="AD25">
-            <v>7.5894844369876644</v>
+            <v>58.613331625494155</v>
           </cell>
           <cell r="AE25">
-            <v>8.800051286902848</v>
+            <v>112.19701508394893</v>
           </cell>
         </row>
         <row r="28">
           <cell r="AM28">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AM29">
-            <v>0.08</v>
+            <v>0.11157127966737113</v>
           </cell>
         </row>
         <row r="30">
           <cell r="AM30">
-            <v>0.01</v>
+            <v>0.10000000000000009</v>
           </cell>
         </row>
         <row r="32">
           <cell r="AM32">
-            <v>179.60004861383993</v>
+            <v>8.2269013375310784E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3259,7 +3277,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3283,23 +3301,23 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L2" s="28">
         <f>AVERAGE(L4:L5)</f>
-        <v>0.32856998291497624</v>
-      </c>
-      <c r="P2" s="29">
+        <v>-0.52270932095672618</v>
+      </c>
+      <c r="P2" s="29" t="e">
         <f>AVERAGE(P4:P5)</f>
-        <v>16.876759090129248</v>
-      </c>
-      <c r="Q2" s="37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="37" t="e">
         <f>AVERAGE(Q4:Q5)</f>
-        <v>14.645179621110156</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R2" s="37">
         <f>AVERAGE(R4:R5)</f>
-        <v>12.490319735060142</v>
+        <v>1.6172956665887126</v>
       </c>
       <c r="S2" s="30">
         <f>AVERAGE(S4:S5)</f>
-        <v>10.772106224349255</v>
+        <v>0.84489847765834514</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -3466,55 +3484,55 @@
       </c>
       <c r="K5" s="27">
         <f>+[2]Model!$AM$32</f>
-        <v>179.60004861383993</v>
+        <v>8.2269013375310784E-2</v>
       </c>
       <c r="L5" s="28">
         <f>K5/D5-1</f>
-        <v>0.70333885255917994</v>
+        <v>-0.99921975518422501</v>
       </c>
       <c r="M5" s="28">
         <f>+[2]Model!$AM$29</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N5" s="28">
         <f>+[2]Model!$AM$28</f>
-        <v>-0.01</v>
+        <v>0.11157127966737113</v>
       </c>
       <c r="O5" s="116">
         <f>+[2]Model!$AM$30</f>
-        <v>0.01</v>
-      </c>
-      <c r="P5" s="29">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P5" s="29" t="e">
         <f>+($G5/$H5)/T5</f>
-        <v>16.876759090129248</v>
-      </c>
-      <c r="Q5" s="30">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="30" t="e">
         <f>+($G5/$H5)/U5</f>
-        <v>14.645179621110156</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R5" s="30">
         <f>+($G5/$H5)/V5</f>
-        <v>12.490319735060142</v>
+        <v>1.6172956665887126</v>
       </c>
       <c r="S5" s="31">
         <f>+($G5/$H5)/W5</f>
-        <v>10.772106224349255</v>
+        <v>0.84489847765834514</v>
       </c>
       <c r="T5" s="32">
         <f>+[2]Model!AB25</f>
-        <v>5.6169011322607476</v>
+        <v>0</v>
       </c>
       <c r="U5" s="27">
         <f>+[2]Model!AC25</f>
-        <v>6.4727841989453889</v>
+        <v>0</v>
       </c>
       <c r="V5" s="27">
         <f>+[2]Model!AD25</f>
-        <v>7.5894844369876644</v>
+        <v>58.613331625494155</v>
       </c>
       <c r="W5" s="33">
         <f>+[2]Model!AE25</f>
-        <v>8.800051286902848</v>
+        <v>112.19701508394893</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -5219,10 +5237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5458,21 +5476,17 @@
       <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="21">
-        <v>44.5</v>
-      </c>
-      <c r="E6" s="22">
-        <v>34050</v>
-      </c>
+      <c r="B6" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -5483,14 +5497,14 @@
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
-      <c r="W6" s="26"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="96" t="s">
@@ -5655,44 +5669,82 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18" s="63" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B19" s="135" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20" s="135" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B21" s="135" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" s="135" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23" s="135" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" s="135" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="107"/>
+      <c r="B25" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E25" s="22">
+        <v>34050</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="26"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="138" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5710,9 +5762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F12437-B4E9-44AF-8552-EF0FF979C92B}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6027,13 +6077,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6398,144 +6448,142 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="10">
-        <v>127.74</v>
-      </c>
-      <c r="E13" s="52">
-        <v>21290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D13" s="2">
         <v>27.7</v>
       </c>
-      <c r="E14" s="3">
-        <f>+D14*[27]Main!$K$3</f>
+      <c r="E13" s="3">
+        <f>+D13*[27]Main!$K$3</f>
         <v>16302.031699999998</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F13" s="3">
         <f>+[27]Main!$K$5-[27]Main!$K$6</f>
         <v>2144.9299999999998</v>
       </c>
-      <c r="G14" s="3">
-        <f>+E14-F14</f>
+      <c r="G13" s="3">
+        <f>+E13-F13</f>
         <v>14157.101699999997</v>
       </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45.8</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14330</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="10">
+        <v>127.74</v>
+      </c>
+      <c r="E15" s="52">
+        <v>21290</v>
+      </c>
     </row>
     <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14330</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="115" t="s">
+    <row r="17" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="21">
         <v>102.23</v>
       </c>
-      <c r="E17" s="22">
-        <f>+D17*[28]Main!$K$3</f>
+      <c r="E18" s="22">
+        <f>+D18*[28]Main!$K$3</f>
         <v>20147.20788088</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <f>+[28]Main!$K$5-[28]Main!$K$6</f>
         <v>3155</v>
       </c>
-      <c r="G17" s="22">
-        <f>E17-F17</f>
+      <c r="G18" s="22">
+        <f>E18-F18</f>
         <v>16992.20788088</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="26"/>
-    </row>
-    <row r="18" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="25"/>
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
+      <c r="W18" s="26"/>
     </row>
     <row r="19" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="65" t="s">
+        <v>260</v>
+      </c>
       <c r="D19" s="21"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
@@ -6601,50 +6649,45 @@
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3">
         <v>31500</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22">
-        <v>27000</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
     </row>
     <row r="24" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="22">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -6665,20 +6708,47 @@
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="63" t="s">
+    <row r="25" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="63" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
     <hyperlink ref="B12" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{D15C9016-D909-4B61-8E61-89DF546A9452}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B18" r:id="rId6" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6692,7 +6762,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7271,7 +7341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,26 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D886367-CA27-402E-8627-29519AC555E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2FA01-A710-4D98-B2C6-925DAD9DB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51060" yWindow="1170" windowWidth="31185" windowHeight="18630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49515" yWindow="0" windowWidth="14250" windowHeight="17595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Enterprise-Cloud" sheetId="10" r:id="rId2"/>
-    <sheet name="Social-Dating" sheetId="9" r:id="rId3"/>
-    <sheet name="Simulation-Technical Design" sheetId="11" r:id="rId4"/>
-    <sheet name="Media-Games-Design" sheetId="8" r:id="rId5"/>
-    <sheet name="Fintech" sheetId="7" r:id="rId6"/>
-    <sheet name="Ecommerce" sheetId="5" r:id="rId7"/>
-    <sheet name="Security" sheetId="4" r:id="rId8"/>
-    <sheet name="FX" sheetId="3" r:id="rId9"/>
-    <sheet name="Private" sheetId="2" r:id="rId10"/>
+    <sheet name="People" sheetId="14" r:id="rId1"/>
+    <sheet name="Glossary" sheetId="13" r:id="rId2"/>
+    <sheet name="Historical" sheetId="12" r:id="rId3"/>
+    <sheet name="Main" sheetId="1" r:id="rId4"/>
+    <sheet name="Enterprise-Cloud" sheetId="10" r:id="rId5"/>
+    <sheet name="Social-Dating" sheetId="9" r:id="rId6"/>
+    <sheet name="Simulation-Technical Design" sheetId="11" r:id="rId7"/>
+    <sheet name="Media-Games-Design" sheetId="8" r:id="rId8"/>
+    <sheet name="Fintech" sheetId="7" r:id="rId9"/>
+    <sheet name="Ecommerce" sheetId="5" r:id="rId10"/>
+    <sheet name="Security" sheetId="4" r:id="rId11"/>
+    <sheet name="FX" sheetId="3" r:id="rId12"/>
+    <sheet name="Private" sheetId="2" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
@@ -51,6 +51,9 @@
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -117,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="362">
   <si>
     <t>Name</t>
   </si>
@@ -1152,6 +1155,57 @@
   </si>
   <si>
     <t>4689 JP</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>WebGL</t>
+  </si>
+  <si>
+    <t>OpenGL</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>application programming interface</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>HTML object</t>
+  </si>
+  <si>
+    <t>DirectX</t>
+  </si>
+  <si>
+    <t>Three.js</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>File Allocation Table</t>
+  </si>
+  <si>
+    <t>MySpace</t>
+  </si>
+  <si>
+    <t>BASIC</t>
   </si>
 </sst>
 </file>
@@ -1161,13 +1215,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1617,270 +1677,271 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3270,6 +3331,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F2F021-B9D2-4E87-AC34-DE48FE1C4298}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
+  <dimension ref="A1:X31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="79">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="78">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="78">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="79">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>121.12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>[6]Main!$K$5-[6]Main!$K$6</f>
+        <v>2657</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+E3-F3</f>
+        <v>1229343</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="21">
+        <v>115.9</v>
+      </c>
+      <c r="E4" s="22">
+        <f>D4*[30]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F4" s="22" cm="1">
+        <f t="array" ref="F4">([30]Main!$L$5-[30]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="26"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>115.9</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5*[30]Main!$L$3</f>
+        <v>310046.98749999999</v>
+      </c>
+      <c r="F5" s="3" cm="1">
+        <f t="array" ref="F5">([30]Main!$L$5-[30]Main!$L$6)/RMB</f>
+        <v>119719.43620178041</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+E5-F5</f>
+        <v>190327.55129821959</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="E6" s="3">
+        <v>101795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21">
+        <v>36.71</v>
+      </c>
+      <c r="E12" s="22">
+        <f>+D12*[31]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F12" s="22">
+        <f>+[31]Main!$M$5-[31]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" ref="G12" si="0">E12-F12</f>
+        <v>39919.458999999995</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="26"/>
+    </row>
+    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2">
+        <v>71.66</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="21">
+        <v>17.63</v>
+      </c>
+      <c r="E23" s="22">
+        <v>6480</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>16470</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="45">
+        <v>7.8498000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="45">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="45">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="45">
+        <v>10.3437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="45">
+        <v>136.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1.2991999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CA8672F6-BB57-4BF8-83E1-A8CF0133433F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F0FD3AE8-EA92-47CC-9713-F9163090CCA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21A44C1-F876-4F6A-A905-60D0CF343544}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="140" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="140"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="140" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="140" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="140" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="140" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="140" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="140" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="140" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="140" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="140" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="140" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6883381D-CC78-420C-B33D-9D88ACC7CFD7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D91D0-A718-45C3-9EF2-C01D7940E5D3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="140" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="140"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="140" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="140" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="140" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="140" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{33E3E6A7-4E0D-4E42-A768-3040828B041B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
   <dimension ref="A2:X63"/>
   <sheetViews>
@@ -4398,148 +5460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8000</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F0FD3AE8-EA92-47CC-9713-F9163090CCA8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
   <dimension ref="A1:X24"/>
   <sheetViews>
@@ -5235,7 +6156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
   <dimension ref="A1:X26"/>
   <sheetViews>
@@ -5758,7 +6679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F12437-B4E9-44AF-8552-EF0FF979C92B}">
   <dimension ref="A1:X10"/>
   <sheetViews>
@@ -6075,15 +6996,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6754,7 +7675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
   <dimension ref="A1:X33"/>
   <sheetViews>
@@ -7335,711 +8256,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
-  <dimension ref="A1:X31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="R2" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="S2" s="79">
-        <v>2025</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" s="78">
-        <v>2023</v>
-      </c>
-      <c r="V2" s="78">
-        <v>2024</v>
-      </c>
-      <c r="W2" s="79">
-        <v>2025</v>
-      </c>
-      <c r="X2" s="72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>121.12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1232000</v>
-      </c>
-      <c r="F3" s="3">
-        <f>[6]Main!$K$5-[6]Main!$K$6</f>
-        <v>2657</v>
-      </c>
-      <c r="G3" s="3">
-        <f>+E3-F3</f>
-        <v>1229343</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="21">
-        <v>115.9</v>
-      </c>
-      <c r="E4" s="22">
-        <f>D4*[30]Main!$L$3</f>
-        <v>310046.98749999999</v>
-      </c>
-      <c r="F4" s="22" cm="1">
-        <f t="array" ref="F4">([30]Main!$L$5-[30]Main!$L$6)/RMB</f>
-        <v>119719.43620178041</v>
-      </c>
-      <c r="G4" s="22">
-        <f>+E4-F4</f>
-        <v>190327.55129821959</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="26"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>115.9</v>
-      </c>
-      <c r="E5" s="3">
-        <f>D5*[30]Main!$L$3</f>
-        <v>310046.98749999999</v>
-      </c>
-      <c r="F5" s="3" cm="1">
-        <f t="array" ref="F5">([30]Main!$L$5-[30]Main!$L$6)/RMB</f>
-        <v>119719.43620178041</v>
-      </c>
-      <c r="G5" s="3">
-        <f>+E5-F5</f>
-        <v>190327.55129821959</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2">
-        <v>65.180000000000007</v>
-      </c>
-      <c r="E6" s="3">
-        <v>101795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="21">
-        <v>36.71</v>
-      </c>
-      <c r="E12" s="22">
-        <f>+D12*[31]Main!$M$3</f>
-        <v>46254.6</v>
-      </c>
-      <c r="F12" s="22">
-        <f>+[31]Main!$M$5-[31]Main!$M$6</f>
-        <v>6335.1410000000005</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" ref="G12" si="0">E12-F12</f>
-        <v>39919.458999999995</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="26"/>
-    </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2">
-        <v>71.66</v>
-      </c>
-      <c r="E15" s="3">
-        <v>25171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="108" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="108" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="110" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>319</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="111" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="137" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E21" s="3">
-        <v>12580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="21">
-        <v>17.63</v>
-      </c>
-      <c r="E23" s="22">
-        <v>6480</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="26"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3">
-        <v>8333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22">
-        <v>30000</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2">
-        <v>128.05000000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>16470</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="45">
-        <v>7.8498000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="45">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="45">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="45">
-        <v>10.3437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="45">
-        <v>136.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="45">
-        <v>1.2991999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CA8672F6-BB57-4BF8-83E1-A8CF0133433F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2FA01-A710-4D98-B2C6-925DAD9DB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118C3EC-0961-452B-94AF-118595B3C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49515" yWindow="0" windowWidth="14250" windowHeight="17595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29610" yWindow="2115" windowWidth="24870" windowHeight="17595" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="14" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="385">
   <si>
     <t>Name</t>
   </si>
@@ -1206,6 +1206,75 @@
   </si>
   <si>
     <t>BASIC</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Hive Social</t>
+  </si>
+  <si>
+    <t>Wizz</t>
+  </si>
+  <si>
+    <t>Life360</t>
+  </si>
+  <si>
+    <t>Google Meet</t>
+  </si>
+  <si>
+    <t>Mastodon</t>
+  </si>
+  <si>
+    <t>Plenty of Fish</t>
+  </si>
+  <si>
+    <t>Tumblr?</t>
+  </si>
+  <si>
+    <t>Wink</t>
+  </si>
+  <si>
+    <t>Grindr</t>
+  </si>
+  <si>
+    <t>Hily</t>
+  </si>
+  <si>
+    <t>Kik</t>
+  </si>
+  <si>
+    <t>Yubo</t>
+  </si>
+  <si>
+    <t>Monkey Run</t>
+  </si>
+  <si>
+    <t>WooPlus</t>
+  </si>
+  <si>
+    <t>CougarD</t>
+  </si>
+  <si>
+    <t>Fizz</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>Ashley Madison</t>
+  </si>
+  <si>
+    <t>Stir</t>
+  </si>
+  <si>
+    <t>Zoosk</t>
+  </si>
+  <si>
+    <t>3Fun</t>
+  </si>
+  <si>
+    <t>Upward</t>
   </si>
 </sst>
 </file>
@@ -1215,13 +1284,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1677,275 +1752,276 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2277,43 +2353,43 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>2713</v>
+            <v>2651.5486740000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>47025</v>
+            <v>48304</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>0</v>
+            <v>9922</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="47">
-          <cell r="AX47">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="AX48">
-            <v>-0.05</v>
-          </cell>
-        </row>
         <row r="49">
           <cell r="AX49">
-            <v>0.01</v>
+            <v>0.08</v>
           </cell>
         </row>
         <row r="50">
           <cell r="AX50">
-            <v>205.38135278325549</v>
+            <v>-0.05</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AX51">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AX52">
+            <v>218.87765369651601</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3346,11 +3422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3757,7 +3833,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="136" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -4200,8 +4276,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="140" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="140"/>
+    <col min="1" max="1" width="5" style="139" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="139"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4211,63 +4287,63 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="139" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="139" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="139" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4284,14 +4360,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D91D0-A718-45C3-9EF2-C01D7940E5D3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="140" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="140"/>
+    <col min="1" max="1" width="5" style="139" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="139"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4301,25 +4377,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="139" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5464,9 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6118,7 +6192,7 @@
       <c r="W16" s="26"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="135" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6158,10 +6232,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6169,7 +6243,7 @@
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="63" customWidth="1"/>
     <col min="3" max="9" width="9.140625" style="63"/>
-    <col min="10" max="10" width="10" style="63" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="63" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
@@ -6260,49 +6334,49 @@
         <v>205</v>
       </c>
       <c r="D3" s="21">
-        <v>100</v>
+        <v>109.86</v>
       </c>
       <c r="E3" s="22">
         <f>+D3*[18]Main!$M$3</f>
-        <v>271300</v>
+        <v>291299.13732564001</v>
       </c>
       <c r="F3" s="22">
         <f>+[18]Main!$M$5-[18]Main!$M$6</f>
-        <v>47025</v>
+        <v>38382</v>
       </c>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G4" si="0">+E3-F3</f>
-        <v>224275</v>
+        <v>252917.13732564001</v>
       </c>
       <c r="H3" s="22">
         <f>+[18]Main!$M$3</f>
-        <v>2713</v>
-      </c>
-      <c r="I3" s="134" t="s">
-        <v>210</v>
+        <v>2651.5486740000001</v>
+      </c>
+      <c r="I3" s="140" t="s">
+        <v>362</v>
       </c>
       <c r="J3" s="43">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="K3" s="27">
-        <f>+[18]Model!$AX$50</f>
-        <v>205.38135278325549</v>
+        <f>+[18]Model!$AX$52</f>
+        <v>218.87765369651601</v>
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>1.0538135278325549</v>
+        <v>0.99233254775638091</v>
       </c>
       <c r="M3" s="28">
-        <f>+[18]Model!$AX$47</f>
+        <f>+[18]Model!$AX$49</f>
         <v>0.08</v>
       </c>
       <c r="N3" s="28">
-        <f>+[18]Model!$AX$48</f>
+        <f>+[18]Model!$AX$50</f>
         <v>-0.05</v>
       </c>
       <c r="O3" s="28">
-        <f>+[18]Model!$AX$49</f>
-        <v>0.01</v>
+        <f>+[18]Model!$AX$51</f>
+        <v>0.02</v>
       </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="24"/>
@@ -6327,11 +6401,11 @@
         <v>16</v>
       </c>
       <c r="D4" s="21">
-        <v>391.4</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="E4" s="22">
         <f>+D4*[19]Main!$L$3*1000/HKD</f>
-        <v>482256.9746999924</v>
+        <v>341793.77818543144</v>
       </c>
       <c r="F4" s="22">
         <f>([19]Main!$L$5-[19]Main!$L$6)/HKD*1000</f>
@@ -6339,7 +6413,7 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" si="0"/>
-        <v>400344.05972126685</v>
+        <v>259880.86320670586</v>
       </c>
       <c r="H4" s="22">
         <f>+[19]Main!$L$3*1000</f>
@@ -6397,13 +6471,13 @@
       <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="137" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="137" t="s">
         <v>342</v>
       </c>
       <c r="D6" s="21"/>
@@ -6484,12 +6558,10 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="135" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="135" t="s">
-        <v>330</v>
-      </c>
+      <c r="B9" s="141" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="96"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -6512,11 +6584,11 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="135" t="s">
-        <v>136</v>
+      <c r="B10" s="134" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>330</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
@@ -6539,21 +6611,44 @@
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="135" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="135" t="s">
-        <v>335</v>
-      </c>
+    <row r="11" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
     </row>
     <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
+      <c r="B12" s="141" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="134"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="24"/>
@@ -6571,101 +6666,245 @@
       <c r="W12" s="24"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="134" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="64" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="96" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="96" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="135" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="134" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="63" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="134" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="134" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="134" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="134" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E26" s="22">
+        <v>34050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="107"/>
+      <c r="B27" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="141" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="63" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="135" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="135" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="135" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="135" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="135" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="21">
-        <v>44.5</v>
-      </c>
-      <c r="E25" s="22">
-        <v>34050</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="26"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="138" t="s">
-        <v>341</v>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="141" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="141" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="141" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="141" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="141" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="141" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="141" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="141" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="141" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="141" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="141" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="141" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="141" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="141" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="141" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="141" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="141" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6683,7 +6922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F12437-B4E9-44AF-8552-EF0FF979C92B}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7403,7 +7642,7 @@
       <c r="A14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="138" t="s">
         <v>343</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -7679,7 +7918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7689,7 +7928,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="9.140625" style="68"/>
     <col min="10" max="16384" width="9.140625" style="10"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118C3EC-0961-452B-94AF-118595B3C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC3DBF-E30D-4F27-9B28-2EC96FE3F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29610" yWindow="2115" windowWidth="24870" windowHeight="17595" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45780" yWindow="1980" windowWidth="33000" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="14" r:id="rId1"/>
@@ -1284,13 +1284,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1752,277 +1758,280 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2389,7 +2398,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2955,53 +2964,53 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10187.554818000001</v>
+            <v>10331</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>60710</v>
+            <v>58662</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>58053</v>
+            <v>58919</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="34">
-          <cell r="AV34">
-            <v>1.6784287420147448</v>
-          </cell>
-          <cell r="AW34">
-            <v>4.897703299754288</v>
-          </cell>
-          <cell r="AX34">
-            <v>5.2938371314459518</v>
-          </cell>
-          <cell r="AY34">
-            <v>7.2024349209232001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="BG43">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="BG44">
+          <cell r="BA34">
+            <v>0.8664522481572412</v>
+          </cell>
+          <cell r="BB34">
+            <v>2.8201655669586763</v>
+          </cell>
+          <cell r="BC34">
+            <v>3.0208059552029423</v>
+          </cell>
+          <cell r="BD34">
+            <v>4.6483800945230627</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="BL45">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="BL46">
             <v>0.01</v>
           </cell>
         </row>
-        <row r="45">
-          <cell r="BG45">
+        <row r="47">
+          <cell r="BL47">
             <v>0</v>
           </cell>
         </row>
-        <row r="47">
-          <cell r="BG47">
-            <v>231.32319706625486</v>
+        <row r="49">
+          <cell r="BL49">
+            <v>151.34877977356186</v>
           </cell>
         </row>
       </sheetData>
@@ -3021,17 +3030,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="G3">
-            <v>2742</v>
+            <v>2746</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>21902</v>
+            <v>7350</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>75859</v>
+            <v>90919</v>
           </cell>
         </row>
       </sheetData>
@@ -3530,11 +3539,11 @@
       </c>
       <c r="F3" s="3">
         <f>[6]Main!$K$5-[6]Main!$K$6</f>
-        <v>2657</v>
+        <v>-257</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>1229343</v>
+        <v>1232257</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>14</v>
@@ -5540,7 +5549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5551,7 +5562,7 @@
     <col min="6" max="6" width="9.140625" style="72"/>
     <col min="7" max="7" width="10.140625" style="72" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="72"/>
-    <col min="10" max="10" width="10" style="72" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="72" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
@@ -5642,81 +5653,81 @@
         <v>12</v>
       </c>
       <c r="D3" s="21">
-        <v>121.12</v>
+        <v>88</v>
       </c>
       <c r="E3" s="22">
         <f>+D3*[6]Main!$K$3</f>
-        <v>1233916.6395561602</v>
+        <v>909128</v>
       </c>
       <c r="F3" s="22">
         <f>[6]Main!$K$5-[6]Main!$K$6</f>
-        <v>2657</v>
+        <v>-257</v>
       </c>
       <c r="G3" s="22">
         <f>+E3-F3</f>
-        <v>1231259.6395561602</v>
+        <v>909385</v>
       </c>
       <c r="H3" s="22">
         <f>+[6]Main!$K$3</f>
-        <v>10187.554818000001</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>14</v>
+        <v>10331</v>
+      </c>
+      <c r="I3" s="142" t="s">
+        <v>362</v>
       </c>
       <c r="J3" s="43">
-        <v>44796</v>
+        <v>44913</v>
       </c>
       <c r="K3" s="27">
-        <f>+[6]Model!$BG$47</f>
-        <v>231.32319706625486</v>
+        <f>+[6]Model!$BL$49</f>
+        <v>151.34877977356186</v>
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>0.90986787538189273</v>
+        <v>0.71987249742683934</v>
       </c>
       <c r="M3" s="36">
-        <f>+[6]Model!$BG$43</f>
-        <v>7.0000000000000007E-2</v>
+        <f>+[6]Model!$BL$45</f>
+        <v>0.08</v>
       </c>
       <c r="N3" s="28">
-        <f>+[6]Model!$BG$45</f>
+        <f>+[6]Model!$BL$47</f>
         <v>0</v>
       </c>
       <c r="O3" s="116">
-        <f>+[6]Model!$BG$44</f>
+        <f>+[6]Model!$BL$46</f>
         <v>0.01</v>
       </c>
       <c r="P3" s="29">
         <f>+($G3/$H3)/T3</f>
-        <v>72.007341486751912</v>
+        <v>101.59229983215513</v>
       </c>
       <c r="Q3" s="30">
         <f>+($G3/$H3)/U3</f>
-        <v>24.676707466844412</v>
+        <v>31.212662694822964</v>
       </c>
       <c r="R3" s="30">
         <f>+($G3/$H3)/V3</f>
-        <v>22.830168096694702</v>
+        <v>29.13953358487791</v>
       </c>
       <c r="S3" s="31">
         <f>+($G3/$H3)/W3</f>
-        <v>16.78032400353068</v>
+        <v>18.93667789532752</v>
       </c>
       <c r="T3" s="32">
-        <f>+[6]Model!$AV$34</f>
-        <v>1.6784287420147448</v>
+        <f>+[6]Model!$BA$34</f>
+        <v>0.8664522481572412</v>
       </c>
       <c r="U3" s="27">
-        <f>+[6]Model!$AW$34</f>
-        <v>4.897703299754288</v>
+        <f>+[6]Model!$BB$34</f>
+        <v>2.8201655669586763</v>
       </c>
       <c r="V3" s="27">
-        <f>+[6]Model!$AX$34</f>
-        <v>5.2938371314459518</v>
+        <f>+[6]Model!$BC$34</f>
+        <v>3.0208059552029423</v>
       </c>
       <c r="W3" s="33">
-        <f>+[6]Model!$AY$34</f>
-        <v>7.2024349209232001</v>
+        <f>+[6]Model!$BD$34</f>
+        <v>4.6483800945230627</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5730,25 +5741,30 @@
         <v>24</v>
       </c>
       <c r="D4" s="21">
-        <v>71.02</v>
+        <v>79.58</v>
       </c>
       <c r="E4" s="22">
         <f>+D4*[7]Main!$G$3</f>
-        <v>194736.84</v>
+        <v>218526.68</v>
       </c>
       <c r="F4" s="22">
         <f>+[7]Main!$G$5-[7]Main!$G$6</f>
-        <v>-53957</v>
+        <v>-83569</v>
       </c>
       <c r="G4" s="22">
         <f>+E4-F4</f>
-        <v>248693.84</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="23"/>
+        <v>302095.68</v>
+      </c>
+      <c r="H4" s="22">
+        <f>+[7]Main!$G$3</f>
+        <v>2746</v>
+      </c>
+      <c r="I4" s="142" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" s="43">
+        <v>44913</v>
+      </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -6234,7 +6250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC3DBF-E30D-4F27-9B28-2EC96FE3F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159ACA0E-6953-4345-92B5-6DEAE00A6A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45780" yWindow="1980" windowWidth="33000" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33885" yWindow="255" windowWidth="33330" windowHeight="20340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="14" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="390">
   <si>
     <t>Name</t>
   </si>
@@ -1275,6 +1275,21 @@
   </si>
   <si>
     <t>Upward</t>
+  </si>
+  <si>
+    <t>SLP</t>
+  </si>
+  <si>
+    <t>SideFX</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>SNAP</t>
   </si>
 </sst>
 </file>
@@ -1284,13 +1299,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1758,87 +1785,99 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1847,191 +1886,182 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2461,27 +2491,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="25">
-          <cell r="AD25">
-            <v>58.613331625494155</v>
-          </cell>
-          <cell r="AE25">
-            <v>112.19701508394893</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AM28">
-            <v>0.11157127966737113</v>
-          </cell>
-        </row>
         <row r="30">
           <cell r="AM30">
             <v>0.10000000000000009</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AM32">
-            <v>8.2269013375310784E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -4418,19 +4430,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
-  <dimension ref="A2:X63"/>
+  <dimension ref="A2:X59"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="20" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="22" customWidth="1"/>
@@ -4448,7 +4460,7 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L2" s="28">
         <f>AVERAGE(L4:L5)</f>
-        <v>-0.52270932095672618</v>
+        <v>-4.6198886729227451E-2</v>
       </c>
       <c r="P2" s="29" t="e">
         <f>AVERAGE(P4:P5)</f>
@@ -4458,13 +4470,13 @@
         <f>AVERAGE(Q4:Q5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="37" t="e">
         <f>AVERAGE(R4:R5)</f>
-        <v>1.6172956665887126</v>
-      </c>
-      <c r="S2" s="30">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S2" s="30" t="e">
         <f>AVERAGE(S4:S5)</f>
-        <v>0.84489847765834514</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -4593,6 +4605,9 @@
         <f>+[1]Model!$AJ$30</f>
         <v>0.01</v>
       </c>
+      <c r="X4" s="20">
+        <v>1975</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
@@ -4629,22 +4644,10 @@
       <c r="J5" s="43">
         <v>44789</v>
       </c>
-      <c r="K5" s="27">
-        <f>+[2]Model!$AM$32</f>
-        <v>8.2269013375310784E-2</v>
-      </c>
-      <c r="L5" s="28">
-        <f>K5/D5-1</f>
-        <v>-0.99921975518422501</v>
-      </c>
-      <c r="M5" s="28">
-        <f>+[2]Model!$AM$29</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="28">
-        <f>+[2]Model!$AM$28</f>
-        <v>0.11157127966737113</v>
-      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="O5" s="116">
         <f>+[2]Model!$AM$30</f>
         <v>0.10000000000000009</v>
@@ -4657,29 +4660,20 @@
         <f>+($G5/$H5)/U5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="30" t="e">
         <f>+($G5/$H5)/V5</f>
-        <v>1.6172956665887126</v>
-      </c>
-      <c r="S5" s="31">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="31" t="e">
         <f>+($G5/$H5)/W5</f>
-        <v>0.84489847765834514</v>
-      </c>
-      <c r="T5" s="32">
-        <f>+[2]Model!AB25</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="27">
-        <f>+[2]Model!AC25</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="27">
-        <f>+[2]Model!AD25</f>
-        <v>58.613331625494155</v>
-      </c>
-      <c r="W5" s="33">
-        <f>+[2]Model!AE25</f>
-        <v>112.19701508394893</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="32"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="20">
+        <v>1998</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -4718,6 +4712,9 @@
         <v>44792</v>
       </c>
       <c r="O6" s="26"/>
+      <c r="X6" s="20">
+        <v>1995</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="90" t="s">
@@ -4757,731 +4754,681 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="115" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="22">
-        <v>193500</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="B8" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="21">
+        <v>121.2</v>
+      </c>
+      <c r="E8" s="22" cm="1">
+        <f t="array" ref="E8">327904/SEK</f>
+        <v>31700.842058451039</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="X8" s="20">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="21">
+        <v>46.37</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20860</v>
+      </c>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="21">
+        <v>113.23</v>
+      </c>
+      <c r="E10" s="22">
         <v>33330</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
-        <f>E8-F8</f>
-        <v>33330</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="O8" s="26"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="21">
-        <v>121.2</v>
-      </c>
-      <c r="E9" s="22" cm="1">
-        <f t="array" ref="E9">327904/SEK</f>
-        <v>31700.842058451039</v>
-      </c>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="121" t="s">
-        <v>323</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" s="21">
-        <v>46.37</v>
-      </c>
-      <c r="E10" s="22">
-        <v>20860</v>
       </c>
       <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="D11" s="21">
-        <v>113.23</v>
+        <v>54.71</v>
       </c>
       <c r="E11" s="22">
-        <v>33330</v>
+        <v>28410</v>
       </c>
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="122" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="D12" s="21">
-        <v>54.71</v>
+        <v>181.71</v>
       </c>
       <c r="E12" s="22">
-        <v>28410</v>
+        <v>25220</v>
       </c>
       <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="122" t="s">
-        <v>193</v>
+      <c r="B13" s="115" t="s">
+        <v>154</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D13" s="21">
-        <v>375.92</v>
+        <v>9.35</v>
       </c>
       <c r="E13" s="22">
-        <v>25610</v>
+        <f>D13*[5]Main!$L$3</f>
+        <v>19036.599999999999</v>
+      </c>
+      <c r="F13" s="22">
+        <f>[5]Main!$L$5-[5]Main!$L$6</f>
+        <v>2585</v>
+      </c>
+      <c r="G13" s="22">
+        <f>E13-F13</f>
+        <v>16451.599999999999</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="D14" s="21">
-        <v>181.71</v>
+        <v>312</v>
       </c>
       <c r="E14" s="22">
-        <v>25220</v>
+        <v>19090</v>
       </c>
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="115" t="s">
-        <v>154</v>
+      <c r="B15" s="122" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="D15" s="21">
-        <v>9.35</v>
+        <v>360.34</v>
       </c>
       <c r="E15" s="22">
-        <f>D15*[5]Main!$L$3</f>
-        <v>19036.599999999999</v>
-      </c>
-      <c r="F15" s="22">
-        <f>[5]Main!$L$5-[5]Main!$L$6</f>
-        <v>2585</v>
-      </c>
-      <c r="G15" s="22">
-        <f>E15-F15</f>
-        <v>16451.599999999999</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
-        <v>14</v>
+        <v>18140</v>
       </c>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D16" s="21">
-        <v>312</v>
+        <v>114.84</v>
       </c>
       <c r="E16" s="22">
-        <v>19090</v>
+        <v>17930</v>
       </c>
       <c r="O16" s="26"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="122" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D17" s="21">
-        <v>90.1</v>
+        <v>43.75</v>
       </c>
       <c r="E17" s="22">
-        <v>18840</v>
+        <v>17180</v>
       </c>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="122" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D18" s="21">
-        <v>360.34</v>
+        <v>40.44</v>
       </c>
       <c r="E18" s="22">
-        <v>18140</v>
+        <v>16810</v>
       </c>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="122" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D19" s="21">
-        <v>114.84</v>
+        <v>363.45</v>
       </c>
       <c r="E19" s="22">
-        <v>17930</v>
+        <v>15250</v>
       </c>
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="122" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="D20" s="21">
-        <v>43.75</v>
+        <v>87.46</v>
       </c>
       <c r="E20" s="22">
-        <v>17180</v>
+        <v>16020</v>
       </c>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="122" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="D21" s="21">
-        <v>40.44</v>
+        <v>97.08</v>
       </c>
       <c r="E21" s="22">
-        <v>16810</v>
+        <v>15070</v>
       </c>
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="122" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D22" s="21">
-        <v>63.5</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="E22" s="22">
-        <v>16440</v>
+        <v>14050</v>
       </c>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="122" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D23" s="21">
-        <v>363.45</v>
+        <v>206.61</v>
       </c>
       <c r="E23" s="22">
-        <v>15250</v>
+        <v>13880</v>
       </c>
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="122" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D24" s="21">
-        <v>87.46</v>
+        <v>115.52</v>
       </c>
       <c r="E24" s="22">
-        <v>16020</v>
+        <v>13640</v>
       </c>
       <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="122" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="D25" s="21">
-        <v>97.08</v>
+        <v>206.68</v>
       </c>
       <c r="E25" s="22">
-        <v>15070</v>
+        <v>12990</v>
       </c>
       <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="122" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D26" s="21">
-        <v>135.02000000000001</v>
+        <v>43.77</v>
       </c>
       <c r="E26" s="22">
-        <v>14050</v>
+        <v>12660</v>
       </c>
       <c r="O26" s="26"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="122" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D27" s="21">
-        <v>206.61</v>
+        <v>98.74</v>
       </c>
       <c r="E27" s="22">
-        <v>13880</v>
+        <v>12490</v>
       </c>
       <c r="O27" s="26"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="122" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D28" s="21">
-        <v>115.52</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E28" s="22">
-        <v>13640</v>
+        <v>11000</v>
       </c>
       <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="122" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D29" s="21">
-        <v>206.68</v>
+        <v>408.48</v>
       </c>
       <c r="E29" s="22">
-        <v>12990</v>
+        <v>10570</v>
       </c>
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="122" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D30" s="21">
-        <v>43.77</v>
+        <v>80.52</v>
       </c>
       <c r="E30" s="22">
-        <v>12660</v>
+        <v>10310</v>
       </c>
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="122" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D31" s="21">
-        <v>98.74</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E31" s="22">
-        <v>12490</v>
+        <v>10210</v>
       </c>
       <c r="O31" s="26"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="122" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D32" s="21">
-        <v>40.369999999999997</v>
+        <v>8.17</v>
       </c>
       <c r="E32" s="22">
-        <v>11000</v>
+        <v>9320</v>
       </c>
       <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="122" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D33" s="21">
-        <v>408.48</v>
+        <v>14.73</v>
       </c>
       <c r="E33" s="22">
-        <v>10570</v>
+        <v>9140</v>
       </c>
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="122" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D34" s="21">
-        <v>80.52</v>
+        <v>56.9</v>
       </c>
       <c r="E34" s="22">
-        <v>10310</v>
+        <v>9000</v>
       </c>
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="122" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D35" s="21">
-        <v>35.200000000000003</v>
+        <v>203.42</v>
       </c>
       <c r="E35" s="22">
-        <v>10210</v>
+        <v>8580</v>
       </c>
       <c r="O35" s="26"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="122" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D36" s="21">
-        <v>8.17</v>
+        <v>126.81</v>
       </c>
       <c r="E36" s="22">
-        <v>9320</v>
+        <v>8200</v>
       </c>
       <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="122" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D37" s="21">
-        <v>14.73</v>
+        <v>50.35</v>
       </c>
       <c r="E37" s="22">
-        <v>9140</v>
+        <v>8150</v>
       </c>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="122" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D38" s="21">
-        <v>56.9</v>
+        <v>88.7</v>
       </c>
       <c r="E38" s="22">
-        <v>9000</v>
+        <v>7910</v>
       </c>
       <c r="O38" s="26"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="122" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D39" s="21">
-        <v>203.42</v>
+        <v>78.3</v>
       </c>
       <c r="E39" s="22">
-        <v>8580</v>
+        <v>7580</v>
       </c>
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="122" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D40" s="21">
-        <v>126.81</v>
+        <v>50.36</v>
       </c>
       <c r="E40" s="22">
-        <v>8200</v>
+        <v>7140</v>
       </c>
       <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="122" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D41" s="21">
-        <v>50.35</v>
+        <v>80.58</v>
       </c>
       <c r="E41" s="22">
-        <v>8150</v>
+        <v>6930</v>
       </c>
       <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="122" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D42" s="21">
-        <v>88.7</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E42" s="22">
-        <v>7910</v>
+        <v>6880</v>
       </c>
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="122" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D43" s="21">
-        <v>78.3</v>
+        <v>54.6</v>
       </c>
       <c r="E43" s="22">
-        <v>7580</v>
+        <v>6370</v>
       </c>
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="122" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D44" s="21">
-        <v>50.36</v>
+        <v>62.59</v>
       </c>
       <c r="E44" s="22">
-        <v>7140</v>
+        <v>6350</v>
       </c>
       <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="122" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D45" s="21">
-        <v>80.58</v>
+        <v>62.71</v>
       </c>
       <c r="E45" s="22">
-        <v>6930</v>
+        <v>3603</v>
       </c>
       <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="122" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D46" s="21">
-        <v>32.869999999999997</v>
+        <v>21.19</v>
       </c>
       <c r="E46" s="22">
-        <v>6880</v>
+        <v>2965</v>
       </c>
       <c r="O46" s="26"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="122" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D47" s="21">
-        <v>54.6</v>
+        <v>26.99</v>
       </c>
       <c r="E47" s="22">
-        <v>6370</v>
+        <v>1400</v>
       </c>
       <c r="O47" s="26"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>142</v>
+      <c r="B48" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>226</v>
       </c>
       <c r="D48" s="21">
-        <v>62.59</v>
+        <v>13.95</v>
       </c>
       <c r="E48" s="22">
-        <v>6350</v>
+        <v>2030</v>
       </c>
       <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>143</v>
+      <c r="B49" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="124" t="s">
+        <v>228</v>
       </c>
       <c r="D49" s="21">
-        <v>62.71</v>
+        <v>19.95</v>
       </c>
       <c r="E49" s="22">
-        <v>3603</v>
+        <v>2560</v>
       </c>
       <c r="O49" s="26"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="21">
-        <v>21.19</v>
-      </c>
-      <c r="E50" s="22">
-        <v>2965</v>
+      <c r="B50" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>237</v>
       </c>
       <c r="O50" s="26"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="122" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="21">
-        <v>26.99</v>
-      </c>
-      <c r="E51" s="22">
-        <v>1400</v>
-      </c>
+      <c r="B51" s="122"/>
       <c r="O51" s="26"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="21">
-        <v>13.95</v>
-      </c>
-      <c r="E52" s="22">
-        <v>2030</v>
-      </c>
+      <c r="B52" s="122"/>
       <c r="O52" s="26"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="C53" s="124" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="21">
-        <v>19.95</v>
-      </c>
-      <c r="E53" s="22">
-        <v>2560</v>
-      </c>
+      <c r="B53" s="122"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="125" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>237</v>
-      </c>
+      <c r="B54" s="122"/>
       <c r="O54" s="26"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -5501,56 +5448,42 @@
       <c r="O58" s="26"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="122"/>
-      <c r="O59" s="26"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="122"/>
-      <c r="O60" s="26"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="122"/>
-      <c r="O61" s="26"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="122"/>
-      <c r="O62" s="26"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="126"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="131"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="132"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="132"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{3019DEB6-D8CA-4815-8BF6-407E9419A3F9}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{5A1A0BF1-1F9D-453A-8615-32812BE41A68}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{831B52E7-EF7A-4831-8425-59EAD7D0F934}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{BF4E9546-147A-4F10-92B1-A91E9292F4F6}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{FD70E649-2E6A-4E67-ACA2-AB99C8053558}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5729,6 +5662,9 @@
         <f>+[6]Model!$BD$34</f>
         <v>4.6483800945230627</v>
       </c>
+      <c r="X3" s="20">
+        <v>1994</v>
+      </c>
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72" t="s">
@@ -5778,6 +5714,9 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
       <c r="W4" s="26"/>
+      <c r="X4" s="20">
+        <v>1977</v>
+      </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
@@ -5822,6 +5761,9 @@
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
       <c r="W5" s="26"/>
+      <c r="X5" s="20">
+        <v>1999</v>
+      </c>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82" t="s">
@@ -5866,6 +5808,9 @@
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="26"/>
+      <c r="X6" s="20">
+        <v>1972</v>
+      </c>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
@@ -5910,6 +5855,9 @@
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
       <c r="W7" s="26"/>
+      <c r="X7" s="20">
+        <v>2004</v>
+      </c>
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
@@ -5957,6 +5905,9 @@
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="26"/>
+      <c r="X8" s="20">
+        <v>1998</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
@@ -5968,6 +5919,9 @@
       <c r="C9" s="82" t="s">
         <v>266</v>
       </c>
+      <c r="X9" s="72">
+        <v>1911</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
@@ -6001,6 +5955,9 @@
       <c r="I10" s="34" t="s">
         <v>14</v>
       </c>
+      <c r="X10" s="72">
+        <v>2002</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="98" t="s">
@@ -6037,6 +5994,9 @@
       <c r="J11" s="43">
         <v>44793</v>
       </c>
+      <c r="X11" s="72">
+        <v>2005</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
@@ -6070,6 +6030,9 @@
       <c r="I12" s="35" t="s">
         <v>14</v>
       </c>
+      <c r="X12" s="72">
+        <v>2012</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
@@ -6105,6 +6068,9 @@
       </c>
       <c r="J13" s="43">
         <v>44794</v>
+      </c>
+      <c r="X13" s="72">
+        <v>2007</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -6124,6 +6090,9 @@
       <c r="H14" s="22"/>
       <c r="I14" s="54"/>
       <c r="J14" s="43"/>
+      <c r="X14" s="72">
+        <v>2011</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="105" t="s">
@@ -6160,44 +6129,33 @@
       <c r="J15" s="103">
         <v>44805</v>
       </c>
+      <c r="X15" s="72">
+        <v>2010</v>
+      </c>
     </row>
     <row r="16" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>201</v>
+      <c r="B16" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="D16" s="21">
-        <v>59.49</v>
+        <v>90.1</v>
       </c>
       <c r="E16" s="22">
-        <f>+D16*H16</f>
-        <v>9339.93</v>
-      </c>
-      <c r="F16" s="22">
-        <f>+[17]Main!$P$5-[17]Main!$P$6</f>
-        <v>282</v>
-      </c>
-      <c r="G16" s="22">
-        <f>+E16-F16</f>
-        <v>9057.93</v>
-      </c>
-      <c r="H16" s="22">
-        <f>+[17]Main!$P$3</f>
-        <v>157</v>
-      </c>
-      <c r="I16" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="J16" s="43">
-        <v>44805</v>
-      </c>
+        <v>18840</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -6206,22 +6164,153 @@
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
       <c r="W16" s="26"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="135" t="s">
+      <c r="X16" s="20">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="21">
+        <v>59.49</v>
+      </c>
+      <c r="E17" s="22">
+        <f>+D17*H17</f>
+        <v>9339.93</v>
+      </c>
+      <c r="F17" s="22">
+        <f>+[17]Main!$P$5-[17]Main!$P$6</f>
+        <v>282</v>
+      </c>
+      <c r="G17" s="22">
+        <f>+E17-F17</f>
+        <v>9057.93</v>
+      </c>
+      <c r="H17" s="22">
+        <f>+[17]Main!$P$3</f>
+        <v>157</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="43">
+        <v>44805</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="21">
+        <v>63.5</v>
+      </c>
+      <c r="E18" s="22">
+        <v>16440</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="26"/>
+    </row>
+    <row r="19" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="21">
+        <v>375.92</v>
+      </c>
+      <c r="E19" s="22">
+        <v>25610</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="135" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="95" t="s">
+      <c r="C20" s="143" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="72">
+        <v>25.54</v>
+      </c>
+      <c r="E20" s="71">
+        <v>4800</v>
+      </c>
+      <c r="X20" s="72">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="95" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="94" t="s">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E27" s="72">
         <v>107</v>
       </c>
     </row>
@@ -6236,7 +6325,7 @@
     <hyperlink ref="B10" r:id="rId6" xr:uid="{1647F4E6-0995-4C11-AEA1-85BE3B2789D3}"/>
     <hyperlink ref="B11" r:id="rId7" xr:uid="{11F6BC32-0B71-4C3C-92D4-6F1D15C6FCA5}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{BF5095B8-6956-4116-AD45-B06C94DC5EDF}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{1147CFA9-6647-443A-9626-FE00F78AE9FF}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{1147CFA9-6647-443A-9626-FE00F78AE9FF}"/>
     <hyperlink ref="B15" r:id="rId10" xr:uid="{EE794379-CBE0-4BE4-963F-4A3EB8F86626}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{6424F2CF-2B61-4808-95C3-62B06E9F6361}"/>
     <hyperlink ref="B3" r:id="rId12" xr:uid="{D0A6A308-9256-4523-8FDF-BCE2AFB11B6E}"/>
@@ -6248,17 +6337,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="63" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="63"/>
+    <col min="3" max="3" width="11.7109375" style="63" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="63"/>
     <col min="10" max="10" width="10.85546875" style="63" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="63"/>
   </cols>
@@ -6454,6 +6547,9 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
       <c r="W4" s="26"/>
+      <c r="X4" s="20">
+        <v>1998</v>
+      </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
@@ -6485,6 +6581,9 @@
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
       <c r="W5" s="26"/>
+      <c r="X5" s="20">
+        <v>2011</v>
+      </c>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
@@ -6516,41 +6615,60 @@
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
+      <c r="X6" s="20">
+        <v>2010</v>
+      </c>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="A7" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="22">
+        <v>193500</v>
+      </c>
+      <c r="E7" s="22">
+        <v>33330</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
+        <f>E7-F7</f>
+        <v>33330</v>
+      </c>
+      <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="20">
+        <v>1999</v>
+      </c>
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>294</v>
+      <c r="A8" s="145" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="145" t="s">
+        <v>389</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
@@ -6574,10 +6692,12 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="141" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="96"/>
+      <c r="B9" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>290</v>
+      </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -6598,13 +6718,16 @@
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
+      <c r="X9" s="20">
+        <v>2008</v>
+      </c>
     </row>
     <row r="10" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="134" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>330</v>
+      <c r="B10" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>294</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
@@ -6626,13 +6749,16 @@
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
+      <c r="X10" s="20">
+        <v>2009</v>
+      </c>
     </row>
     <row r="11" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="134" t="s">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
@@ -6656,10 +6782,12 @@
       <c r="W11" s="24"/>
     </row>
     <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="141" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="134"/>
+      <c r="B12" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
@@ -6681,245 +6809,271 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="134" t="s">
+    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="141" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="134" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C14" s="134" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="64" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="96" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="96" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="63" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="63" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="134" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="134" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="63" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="134" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="64" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="64" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="134" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23" s="134" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B25" s="134" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="134" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D27" s="21">
         <v>44.5</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E27" s="22">
         <v>34050</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="137" t="s">
+    <row r="28" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="107"/>
+      <c r="B28" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="26"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="141" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="141" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="63" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="63" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="141" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="141" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32" s="141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="141" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="141" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="141" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="141" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="141" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="141" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="141" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="141" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="141" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="141" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="141" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="141" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="141" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="141" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="141" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6928,17 +7082,20 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{06D5809E-72A9-41D7-974F-FA58D1ED15C4}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{29919CCF-0924-4FDD-BCCD-7B5AA19C4B1D}"/>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{62A13976-8B3C-42C8-B6D0-AD7B6C4E3241}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{FD70E649-2E6A-4E67-ACA2-AB99C8053558}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F12437-B4E9-44AF-8552-EF0FF979C92B}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7231,10 +7388,23 @@
       <c r="B9" s="113" t="s">
         <v>326</v>
       </c>
+      <c r="C9" s="143" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="113" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="143" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159ACA0E-6953-4345-92B5-6DEAE00A6A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D640D3BC-E2B9-439B-B2FF-D42DC513897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33885" yWindow="255" windowWidth="33330" windowHeight="20340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31125" yWindow="6240" windowWidth="24630" windowHeight="12885" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="14" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <externalReference r:id="rId42"/>
     <externalReference r:id="rId43"/>
     <externalReference r:id="rId44"/>
+    <externalReference r:id="rId45"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="390">
   <si>
     <t>Name</t>
   </si>
@@ -1295,17 +1296,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\x"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1785,290 +1804,301 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId=